--- a/DTP_deeplearning/_其他/zyh每日总结.xlsx
+++ b/DTP_deeplearning/_其他/zyh每日总结.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2789D76-A0D1-4167-B815-E990565DBF82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04C24AE-6E17-4E00-885E-25D3674BCF6C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="644" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="771">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3303,6 +3303,32 @@
   </si>
   <si>
     <t>校内托福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者荣耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体检</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听讲座
+整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听讲座
+讨论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3578,7 +3604,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3675,6 +3701,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3712,7 +3747,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -3919,82 +3954,121 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="9" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4006,47 +4080,11 @@
     <xf numFmtId="20" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="9" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -4060,6 +4098,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="20% - 着色 1" xfId="2" builtinId="30"/>
@@ -39628,8 +39674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q113" sqref="Q113"/>
     </sheetView>
   </sheetViews>
@@ -46627,9 +46673,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23060E10-F570-42D6-BBBF-C7B084849695}">
   <dimension ref="A1:DL158"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CH44" sqref="CH44"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CG22" sqref="CG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -46930,13 +46976,13 @@
       <c r="A2" s="10">
         <v>0.25</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="89" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="109" t="s">
         <v>66</v>
       </c>
       <c r="E2" s="51" t="s">
@@ -46951,7 +46997,7 @@
       <c r="H2" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="89" t="s">
         <v>157</v>
       </c>
       <c r="J2" s="57" t="s">
@@ -46960,31 +47006,31 @@
       <c r="K2" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="L2" s="85" t="s">
+      <c r="L2" s="89" t="s">
         <v>230</v>
       </c>
-      <c r="M2" s="85" t="s">
+      <c r="M2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="85" t="s">
+      <c r="N2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="85" t="s">
+      <c r="O2" s="89" t="s">
         <v>271</v>
       </c>
-      <c r="P2" s="100" t="s">
+      <c r="P2" s="109" t="s">
         <v>279</v>
       </c>
-      <c r="Q2" s="102" t="s">
+      <c r="Q2" s="119" t="s">
         <v>293</v>
       </c>
-      <c r="R2" s="100" t="s">
+      <c r="R2" s="109" t="s">
         <v>313</v>
       </c>
       <c r="S2" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="T2" s="85" t="s">
+      <c r="T2" s="89" t="s">
         <v>13</v>
       </c>
       <c r="U2" s="61" t="s">
@@ -46996,85 +47042,85 @@
       <c r="W2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="85" t="s">
+      <c r="X2" s="89" t="s">
         <v>13</v>
       </c>
       <c r="Y2" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="Z2" s="85" t="s">
+      <c r="Z2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="85" t="s">
+      <c r="AA2" s="89" t="s">
         <v>13</v>
       </c>
       <c r="AB2" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="AC2" s="85" t="s">
+      <c r="AC2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="100" t="s">
+      <c r="AD2" s="109" t="s">
         <v>279</v>
       </c>
       <c r="AE2" s="53" t="s">
         <v>506</v>
       </c>
-      <c r="AF2" s="85" t="s">
+      <c r="AF2" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="AG2" s="85" t="s">
+      <c r="AG2" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="AH2" s="85" t="s">
+      <c r="AH2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AI2" s="85" t="s">
+      <c r="AI2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="108" t="s">
+      <c r="AJ2" s="115" t="s">
         <v>279</v>
       </c>
-      <c r="AK2" s="85" t="s">
+      <c r="AK2" s="89" t="s">
         <v>13</v>
       </c>
       <c r="AL2" s="51" t="s">
         <v>573</v>
       </c>
-      <c r="AM2" s="100" t="s">
+      <c r="AM2" s="109" t="s">
         <v>177</v>
       </c>
-      <c r="AN2" s="100" t="s">
+      <c r="AN2" s="109" t="s">
         <v>177</v>
       </c>
-      <c r="AO2" s="87" t="s">
+      <c r="AO2" s="93" t="s">
         <v>608</v>
       </c>
       <c r="AP2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AQ2" s="100" t="s">
+      <c r="AQ2" s="109" t="s">
         <v>560</v>
       </c>
-      <c r="AR2" s="100" t="s">
+      <c r="AR2" s="109" t="s">
         <v>177</v>
       </c>
-      <c r="AS2" s="85" t="s">
+      <c r="AS2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AT2" s="85" t="s">
+      <c r="AT2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AU2" s="85" t="s">
+      <c r="AU2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" s="85" t="s">
+      <c r="AV2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AW2" s="85" t="s">
+      <c r="AW2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AX2" s="85" t="s">
+      <c r="AX2" s="89" t="s">
         <v>58</v>
       </c>
       <c r="AY2" s="53" t="s">
@@ -47083,70 +47129,72 @@
       <c r="AZ2" s="51" t="s">
         <v>663</v>
       </c>
-      <c r="BA2" s="85" t="s">
+      <c r="BA2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BB2" s="85" t="s">
+      <c r="BB2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BC2" s="85" t="s">
+      <c r="BC2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BD2" s="90" t="s">
+      <c r="BD2" s="94" t="s">
         <v>619</v>
       </c>
-      <c r="BE2" s="90" t="s">
+      <c r="BE2" s="94" t="s">
         <v>619</v>
       </c>
-      <c r="BF2" s="85" t="s">
+      <c r="BF2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BG2" s="85" t="s">
+      <c r="BG2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BH2" s="85" t="s">
+      <c r="BH2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BI2" s="85" t="s">
+      <c r="BI2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BJ2" s="85" t="s">
+      <c r="BJ2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BK2" s="85" t="s">
+      <c r="BK2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BL2" s="85" t="s">
+      <c r="BL2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BM2" s="85" t="s">
+      <c r="BM2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BN2" s="85" t="s">
+      <c r="BN2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BO2" s="85" t="s">
+      <c r="BO2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BP2" s="86" t="s">
+      <c r="BP2" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="BQ2" s="85" t="s">
+      <c r="BQ2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BR2" s="85" t="s">
+      <c r="BR2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BS2" s="85" t="s">
+      <c r="BS2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BT2" s="85" t="s">
+      <c r="BT2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BU2" s="90" t="s">
+      <c r="BU2" s="94" t="s">
         <v>619</v>
       </c>
-      <c r="BV2" s="2"/>
+      <c r="BV2" s="94" t="s">
+        <v>619</v>
+      </c>
       <c r="BW2" t="s">
         <v>704</v>
       </c>
@@ -47179,113 +47227,113 @@
       <c r="A3" s="10">
         <v>0.27083333333333331</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="100" t="s">
+      <c r="B3" s="89"/>
+      <c r="C3" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="85" t="s">
+      <c r="D3" s="109"/>
+      <c r="E3" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="89" t="s">
         <v>112</v>
       </c>
       <c r="H3" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="I3" s="85"/>
+      <c r="I3" s="89"/>
       <c r="J3" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="87" t="s">
+      <c r="K3" s="93" t="s">
         <v>211</v>
       </c>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="85" t="s">
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="89" t="s">
         <v>325</v>
       </c>
-      <c r="T3" s="85"/>
+      <c r="T3" s="89"/>
       <c r="U3" s="51" t="s">
         <v>371</v>
       </c>
       <c r="V3" s="51"/>
-      <c r="W3" s="85" t="s">
+      <c r="W3" s="89" t="s">
         <v>388</v>
       </c>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85" t="s">
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89" t="s">
         <v>429</v>
       </c>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85" t="s">
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89" t="s">
         <v>385</v>
       </c>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="100"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="109"/>
       <c r="AE3" s="52" t="s">
         <v>507</v>
       </c>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="108"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="86" t="s">
+      <c r="AF3" s="89"/>
+      <c r="AG3" s="89"/>
+      <c r="AH3" s="89"/>
+      <c r="AI3" s="89"/>
+      <c r="AJ3" s="115"/>
+      <c r="AK3" s="89"/>
+      <c r="AL3" s="90" t="s">
         <v>568</v>
       </c>
-      <c r="AM3" s="100"/>
-      <c r="AN3" s="100"/>
-      <c r="AO3" s="87"/>
+      <c r="AM3" s="109"/>
+      <c r="AN3" s="109"/>
+      <c r="AO3" s="93"/>
       <c r="AP3" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="AQ3" s="100"/>
-      <c r="AR3" s="100"/>
-      <c r="AS3" s="85"/>
-      <c r="AT3" s="85"/>
-      <c r="AU3" s="85"/>
-      <c r="AV3" s="85"/>
-      <c r="AW3" s="85"/>
-      <c r="AX3" s="85"/>
-      <c r="AY3" s="85" t="s">
+      <c r="AQ3" s="109"/>
+      <c r="AR3" s="109"/>
+      <c r="AS3" s="89"/>
+      <c r="AT3" s="89"/>
+      <c r="AU3" s="89"/>
+      <c r="AV3" s="89"/>
+      <c r="AW3" s="89"/>
+      <c r="AX3" s="89"/>
+      <c r="AY3" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="AZ3" s="85" t="s">
+      <c r="AZ3" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="BA3" s="85"/>
-      <c r="BB3" s="85"/>
-      <c r="BC3" s="85"/>
-      <c r="BD3" s="90"/>
-      <c r="BE3" s="90"/>
-      <c r="BF3" s="85"/>
-      <c r="BG3" s="85"/>
-      <c r="BH3" s="85"/>
-      <c r="BI3" s="85"/>
-      <c r="BJ3" s="85"/>
-      <c r="BK3" s="85"/>
-      <c r="BL3" s="85"/>
-      <c r="BM3" s="85"/>
-      <c r="BN3" s="85"/>
-      <c r="BO3" s="85"/>
-      <c r="BP3" s="86"/>
-      <c r="BQ3" s="85"/>
-      <c r="BR3" s="85"/>
-      <c r="BS3" s="85"/>
-      <c r="BT3" s="85"/>
-      <c r="BU3" s="90"/>
-      <c r="BV3" s="65"/>
+      <c r="BA3" s="89"/>
+      <c r="BB3" s="89"/>
+      <c r="BC3" s="89"/>
+      <c r="BD3" s="94"/>
+      <c r="BE3" s="94"/>
+      <c r="BF3" s="89"/>
+      <c r="BG3" s="89"/>
+      <c r="BH3" s="89"/>
+      <c r="BI3" s="89"/>
+      <c r="BJ3" s="89"/>
+      <c r="BK3" s="89"/>
+      <c r="BL3" s="89"/>
+      <c r="BM3" s="89"/>
+      <c r="BN3" s="89"/>
+      <c r="BO3" s="89"/>
+      <c r="BP3" s="90"/>
+      <c r="BQ3" s="89"/>
+      <c r="BR3" s="89"/>
+      <c r="BS3" s="89"/>
+      <c r="BT3" s="89"/>
+      <c r="BU3" s="94"/>
+      <c r="BV3" s="94"/>
       <c r="BW3" s="42"/>
       <c r="BX3" s="42"/>
       <c r="BY3" s="42"/>
@@ -47315,23 +47363,23 @@
       <c r="B4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="85" t="s">
+      <c r="C4" s="109"/>
+      <c r="D4" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="114" t="s">
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="127" t="s">
         <v>127</v>
       </c>
-      <c r="I4" s="85" t="s">
+      <c r="I4" s="89" t="s">
         <v>158</v>
       </c>
       <c r="J4" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="K4" s="87"/>
+      <c r="K4" s="93"/>
       <c r="L4" s="51" t="s">
         <v>233</v>
       </c>
@@ -47341,138 +47389,140 @@
       <c r="N4" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85" t="s">
+      <c r="O4" s="89"/>
+      <c r="P4" s="89" t="s">
         <v>280</v>
       </c>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="85"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="89"/>
       <c r="T4" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="U4" s="85" t="s">
+      <c r="U4" s="89" t="s">
         <v>372</v>
       </c>
-      <c r="V4" s="85" t="s">
+      <c r="V4" s="89" t="s">
         <v>385</v>
       </c>
-      <c r="W4" s="85"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85" t="s">
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89" t="s">
         <v>385</v>
       </c>
-      <c r="AB4" s="85"/>
+      <c r="AB4" s="89"/>
       <c r="AC4" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="85" t="s">
+      <c r="AD4" s="109"/>
+      <c r="AE4" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="AF4" s="86" t="s">
+      <c r="AF4" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AG4" s="105" t="s">
+      <c r="AG4" s="114" t="s">
         <v>537</v>
       </c>
-      <c r="AH4" s="86" t="s">
+      <c r="AH4" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AI4" s="108" t="s">
+      <c r="AI4" s="115" t="s">
         <v>279</v>
       </c>
-      <c r="AJ4" s="108"/>
-      <c r="AK4" s="85" t="s">
+      <c r="AJ4" s="115"/>
+      <c r="AK4" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="85" t="s">
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AN4" s="105" t="s">
+      <c r="AN4" s="114" t="s">
         <v>599</v>
       </c>
-      <c r="AO4" s="87"/>
+      <c r="AO4" s="93"/>
       <c r="AP4" s="54" t="s">
         <v>611</v>
       </c>
-      <c r="AQ4" s="100"/>
-      <c r="AR4" s="85" t="s">
+      <c r="AQ4" s="109"/>
+      <c r="AR4" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AS4" s="85" t="s">
+      <c r="AS4" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AT4" s="85" t="s">
+      <c r="AT4" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="AU4" s="85" t="s">
+      <c r="AU4" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="AV4" s="85"/>
-      <c r="AW4" s="86" t="s">
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AX4" s="86" t="s">
+      <c r="AX4" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AY4" s="85"/>
-      <c r="AZ4" s="85"/>
-      <c r="BA4" s="85"/>
-      <c r="BB4" s="85" t="s">
+      <c r="AY4" s="89"/>
+      <c r="AZ4" s="89"/>
+      <c r="BA4" s="89"/>
+      <c r="BB4" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="BC4" s="85"/>
-      <c r="BD4" s="85" t="s">
+      <c r="BC4" s="89"/>
+      <c r="BD4" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BE4" s="85" t="s">
+      <c r="BE4" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BF4" s="85" t="s">
+      <c r="BF4" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="BG4" s="85" t="s">
+      <c r="BG4" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="BH4" s="85" t="s">
+      <c r="BH4" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="BI4" s="86" t="s">
+      <c r="BI4" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="BJ4" s="85" t="s">
+      <c r="BJ4" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BK4" s="85"/>
-      <c r="BL4" s="85"/>
-      <c r="BM4" s="85"/>
-      <c r="BN4" s="85" t="s">
+      <c r="BK4" s="89"/>
+      <c r="BL4" s="89"/>
+      <c r="BM4" s="89"/>
+      <c r="BN4" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BO4" s="85" t="s">
+      <c r="BO4" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BP4" s="86"/>
-      <c r="BQ4" s="85" t="s">
+      <c r="BP4" s="90"/>
+      <c r="BQ4" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BR4" s="86" t="s">
+      <c r="BR4" s="90" t="s">
         <v>45</v>
       </c>
       <c r="BS4" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="BT4" s="128" t="s">
+      <c r="BT4" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="BU4" s="85" t="s">
+      <c r="BU4" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BV4" s="65"/>
+      <c r="BV4" s="89" t="s">
+        <v>13</v>
+      </c>
       <c r="BW4" s="42"/>
       <c r="BX4" s="42"/>
       <c r="BY4" s="42"/>
@@ -47502,8 +47552,8 @@
       <c r="B5" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="85"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="89"/>
       <c r="E5" s="57" t="s">
         <v>82</v>
       </c>
@@ -47513,12 +47563,12 @@
       <c r="G5" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="114"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85" t="s">
+      <c r="H5" s="127"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="K5" s="85" t="s">
+      <c r="K5" s="89" t="s">
         <v>210</v>
       </c>
       <c r="L5" s="61" t="s">
@@ -47527,97 +47577,97 @@
       <c r="M5" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="N5" s="101" t="s">
+      <c r="N5" s="95" t="s">
         <v>256</v>
       </c>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="85" t="s">
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="89" t="s">
         <v>314</v>
       </c>
-      <c r="S5" s="85"/>
-      <c r="T5" s="101" t="s">
+      <c r="S5" s="89"/>
+      <c r="T5" s="95" t="s">
         <v>335</v>
       </c>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85"/>
-      <c r="X5" s="85" t="s">
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
+      <c r="X5" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="Y5" s="101" t="s">
+      <c r="Y5" s="95" t="s">
         <v>45</v>
       </c>
       <c r="Z5" s="51" t="s">
         <v>435</v>
       </c>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="86" t="s">
+      <c r="AA5" s="89"/>
+      <c r="AB5" s="90" t="s">
         <v>471</v>
       </c>
-      <c r="AC5" s="86" t="s">
+      <c r="AC5" s="90" t="s">
         <v>45</v>
       </c>
       <c r="AD5" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="AE5" s="85"/>
-      <c r="AF5" s="86"/>
-      <c r="AG5" s="105"/>
-      <c r="AH5" s="86"/>
-      <c r="AI5" s="108"/>
-      <c r="AJ5" s="108"/>
-      <c r="AK5" s="85"/>
-      <c r="AL5" s="85" t="s">
+      <c r="AE5" s="89"/>
+      <c r="AF5" s="90"/>
+      <c r="AG5" s="114"/>
+      <c r="AH5" s="90"/>
+      <c r="AI5" s="115"/>
+      <c r="AJ5" s="115"/>
+      <c r="AK5" s="89"/>
+      <c r="AL5" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="AM5" s="85"/>
-      <c r="AN5" s="105"/>
-      <c r="AO5" s="87"/>
-      <c r="AP5" s="86" t="s">
+      <c r="AM5" s="89"/>
+      <c r="AN5" s="114"/>
+      <c r="AO5" s="93"/>
+      <c r="AP5" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AQ5" s="100"/>
-      <c r="AR5" s="85"/>
-      <c r="AS5" s="85"/>
-      <c r="AT5" s="85"/>
-      <c r="AU5" s="85"/>
-      <c r="AV5" s="85"/>
-      <c r="AW5" s="86"/>
-      <c r="AX5" s="86"/>
-      <c r="AY5" s="86" t="s">
+      <c r="AQ5" s="109"/>
+      <c r="AR5" s="89"/>
+      <c r="AS5" s="89"/>
+      <c r="AT5" s="89"/>
+      <c r="AU5" s="89"/>
+      <c r="AV5" s="89"/>
+      <c r="AW5" s="90"/>
+      <c r="AX5" s="90"/>
+      <c r="AY5" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AZ5" s="86" t="s">
+      <c r="AZ5" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="BA5" s="85"/>
-      <c r="BB5" s="85"/>
-      <c r="BC5" s="85"/>
-      <c r="BD5" s="85"/>
-      <c r="BE5" s="85"/>
-      <c r="BF5" s="85"/>
-      <c r="BG5" s="85"/>
-      <c r="BH5" s="85"/>
-      <c r="BI5" s="86"/>
-      <c r="BJ5" s="85"/>
-      <c r="BK5" s="85"/>
-      <c r="BL5" s="85"/>
-      <c r="BM5" s="85"/>
-      <c r="BN5" s="85"/>
-      <c r="BO5" s="85"/>
+      <c r="BA5" s="89"/>
+      <c r="BB5" s="89"/>
+      <c r="BC5" s="89"/>
+      <c r="BD5" s="89"/>
+      <c r="BE5" s="89"/>
+      <c r="BF5" s="89"/>
+      <c r="BG5" s="89"/>
+      <c r="BH5" s="89"/>
+      <c r="BI5" s="90"/>
+      <c r="BJ5" s="89"/>
+      <c r="BK5" s="89"/>
+      <c r="BL5" s="89"/>
+      <c r="BM5" s="89"/>
+      <c r="BN5" s="89"/>
+      <c r="BO5" s="89"/>
       <c r="BP5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="BQ5" s="85"/>
-      <c r="BR5" s="86"/>
-      <c r="BS5" s="86" t="s">
+      <c r="BQ5" s="89"/>
+      <c r="BR5" s="90"/>
+      <c r="BS5" s="90" t="s">
         <v>45</v>
       </c>
       <c r="BT5" s="92"/>
-      <c r="BU5" s="85"/>
-      <c r="BV5" s="2"/>
+      <c r="BU5" s="89"/>
+      <c r="BV5" s="89"/>
       <c r="CA5" s="2"/>
       <c r="CB5" s="2"/>
       <c r="CC5" s="2"/>
@@ -47633,58 +47683,58 @@
       <c r="B6" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="85"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="89"/>
       <c r="E6" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="90" t="s">
         <v>98</v>
       </c>
       <c r="G6" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="H6" s="114"/>
+      <c r="H6" s="127"/>
       <c r="I6" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="86" t="s">
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="M6" s="86" t="s">
+      <c r="M6" s="90" t="s">
         <v>246</v>
       </c>
-      <c r="N6" s="101"/>
-      <c r="O6" s="85"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="89"/>
       <c r="P6" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="Q6" s="102"/>
-      <c r="R6" s="85"/>
-      <c r="S6" s="85"/>
-      <c r="T6" s="101"/>
-      <c r="U6" s="86" t="s">
+      <c r="Q6" s="119"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="90" t="s">
         <v>373</v>
       </c>
       <c r="V6" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="W6" s="101" t="s">
+      <c r="W6" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="X6" s="85"/>
-      <c r="Y6" s="101"/>
-      <c r="Z6" s="101" t="s">
+      <c r="X6" s="89"/>
+      <c r="Y6" s="95"/>
+      <c r="Z6" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="AA6" s="86" t="s">
+      <c r="AA6" s="90" t="s">
         <v>354</v>
       </c>
-      <c r="AB6" s="86"/>
-      <c r="AC6" s="86"/>
-      <c r="AD6" s="90" t="s">
+      <c r="AB6" s="90"/>
+      <c r="AC6" s="90"/>
+      <c r="AD6" s="94" t="s">
         <v>493</v>
       </c>
       <c r="AE6" s="52" t="s">
@@ -47693,112 +47743,114 @@
       <c r="AF6" s="53" t="s">
         <v>506</v>
       </c>
-      <c r="AG6" s="86" t="s">
+      <c r="AG6" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AH6" s="85" t="s">
+      <c r="AH6" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="AI6" s="108"/>
-      <c r="AJ6" s="85" t="s">
+      <c r="AI6" s="115"/>
+      <c r="AJ6" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AK6" s="90" t="s">
+      <c r="AK6" s="94" t="s">
         <v>477</v>
       </c>
-      <c r="AL6" s="85"/>
-      <c r="AM6" s="85"/>
-      <c r="AN6" s="85" t="s">
+      <c r="AL6" s="89"/>
+      <c r="AM6" s="89"/>
+      <c r="AN6" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AO6" s="85" t="s">
+      <c r="AO6" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="AP6" s="86"/>
-      <c r="AQ6" s="85" t="s">
+      <c r="AP6" s="90"/>
+      <c r="AQ6" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AR6" s="86" t="s">
+      <c r="AR6" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AS6" s="86" t="s">
+      <c r="AS6" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AT6" s="86" t="s">
+      <c r="AT6" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AU6" s="86" t="s">
+      <c r="AU6" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AV6" s="85" t="s">
+      <c r="AV6" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="AW6" s="85" t="s">
+      <c r="AW6" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="AX6" s="110" t="s">
+      <c r="AX6" s="111" t="s">
         <v>651</v>
       </c>
-      <c r="AY6" s="86"/>
-      <c r="AZ6" s="86"/>
-      <c r="BA6" s="85" t="s">
+      <c r="AY6" s="90"/>
+      <c r="AZ6" s="90"/>
+      <c r="BA6" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="BB6" s="86" t="s">
+      <c r="BB6" s="90" t="s">
         <v>45</v>
       </c>
       <c r="BC6" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="BD6" s="85"/>
-      <c r="BE6" s="85" t="s">
+      <c r="BD6" s="89"/>
+      <c r="BE6" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="BF6" s="90" t="s">
+      <c r="BF6" s="94" t="s">
         <v>477</v>
       </c>
-      <c r="BG6" s="85" t="s">
+      <c r="BG6" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BH6" s="85" t="s">
+      <c r="BH6" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BI6" s="86"/>
-      <c r="BJ6" s="86" t="s">
+      <c r="BI6" s="90"/>
+      <c r="BJ6" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="BK6" s="85" t="s">
+      <c r="BK6" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BL6" s="85" t="s">
+      <c r="BL6" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BM6" s="85" t="s">
+      <c r="BM6" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BN6" s="124" t="s">
+      <c r="BN6" s="107" t="s">
         <v>399</v>
       </c>
-      <c r="BO6" s="87" t="s">
+      <c r="BO6" s="93" t="s">
         <v>697</v>
       </c>
-      <c r="BP6" s="87" t="s">
+      <c r="BP6" s="93" t="s">
         <v>698</v>
       </c>
-      <c r="BQ6" s="85" t="s">
+      <c r="BQ6" s="89" t="s">
         <v>58</v>
       </c>
       <c r="BR6" s="67" t="s">
         <v>713</v>
       </c>
-      <c r="BS6" s="86"/>
-      <c r="BT6" s="90" t="s">
+      <c r="BS6" s="90"/>
+      <c r="BT6" s="94" t="s">
         <v>477</v>
       </c>
-      <c r="BU6" s="86" t="s">
+      <c r="BU6" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="BV6" s="65"/>
+      <c r="BV6" s="90" t="s">
+        <v>726</v>
+      </c>
       <c r="BW6" s="42"/>
       <c r="BX6" s="42"/>
       <c r="BY6" s="42"/>
@@ -47825,135 +47877,135 @@
       <c r="A7" s="10">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="102" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86" t="s">
+      <c r="D7" s="89"/>
+      <c r="E7" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86" t="s">
+      <c r="F7" s="90"/>
+      <c r="G7" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="115" t="s">
+      <c r="H7" s="124" t="s">
         <v>130</v>
       </c>
       <c r="I7" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="J7" s="93" t="s">
+      <c r="J7" s="113" t="s">
         <v>189</v>
       </c>
-      <c r="K7" s="85"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
       <c r="N7" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="O7" s="110" t="s">
+      <c r="O7" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="P7" s="110" t="s">
+      <c r="P7" s="111" t="s">
         <v>282</v>
       </c>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="86" t="s">
+      <c r="Q7" s="119"/>
+      <c r="R7" s="90" t="s">
         <v>315</v>
       </c>
-      <c r="S7" s="99" t="s">
+      <c r="S7" s="104" t="s">
         <v>326</v>
       </c>
-      <c r="T7" s="86" t="s">
+      <c r="T7" s="90" t="s">
         <v>354</v>
       </c>
-      <c r="U7" s="86"/>
-      <c r="V7" s="99" t="s">
+      <c r="U7" s="90"/>
+      <c r="V7" s="104" t="s">
         <v>387</v>
       </c>
-      <c r="W7" s="101"/>
+      <c r="W7" s="95"/>
       <c r="X7" s="55" t="s">
         <v>409</v>
       </c>
-      <c r="Y7" s="85" t="s">
+      <c r="Y7" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="Z7" s="101"/>
-      <c r="AA7" s="86"/>
+      <c r="Z7" s="95"/>
+      <c r="AA7" s="90"/>
       <c r="AB7" s="62" t="s">
         <v>472</v>
       </c>
-      <c r="AC7" s="86" t="s">
+      <c r="AC7" s="90" t="s">
         <v>480</v>
       </c>
-      <c r="AD7" s="90"/>
-      <c r="AE7" s="101" t="s">
+      <c r="AD7" s="94"/>
+      <c r="AE7" s="95" t="s">
         <v>512</v>
       </c>
       <c r="AF7" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="AG7" s="86"/>
-      <c r="AH7" s="85"/>
-      <c r="AI7" s="108"/>
-      <c r="AJ7" s="85"/>
-      <c r="AK7" s="90"/>
-      <c r="AL7" s="86" t="s">
+      <c r="AG7" s="90"/>
+      <c r="AH7" s="89"/>
+      <c r="AI7" s="115"/>
+      <c r="AJ7" s="89"/>
+      <c r="AK7" s="94"/>
+      <c r="AL7" s="90" t="s">
         <v>569</v>
       </c>
-      <c r="AM7" s="85"/>
-      <c r="AN7" s="85"/>
-      <c r="AO7" s="85"/>
-      <c r="AP7" s="86" t="s">
+      <c r="AM7" s="89"/>
+      <c r="AN7" s="89"/>
+      <c r="AO7" s="89"/>
+      <c r="AP7" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="AQ7" s="85"/>
-      <c r="AR7" s="86"/>
-      <c r="AS7" s="86"/>
-      <c r="AT7" s="86"/>
-      <c r="AU7" s="86"/>
-      <c r="AV7" s="85"/>
-      <c r="AW7" s="85"/>
-      <c r="AX7" s="110"/>
+      <c r="AQ7" s="89"/>
+      <c r="AR7" s="90"/>
+      <c r="AS7" s="90"/>
+      <c r="AT7" s="90"/>
+      <c r="AU7" s="90"/>
+      <c r="AV7" s="89"/>
+      <c r="AW7" s="89"/>
+      <c r="AX7" s="111"/>
       <c r="AY7" s="62" t="s">
         <v>659</v>
       </c>
-      <c r="AZ7" s="99" t="s">
+      <c r="AZ7" s="104" t="s">
         <v>664</v>
       </c>
-      <c r="BA7" s="85"/>
-      <c r="BB7" s="86"/>
-      <c r="BC7" s="86" t="s">
+      <c r="BA7" s="89"/>
+      <c r="BB7" s="90"/>
+      <c r="BC7" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="BD7" s="85"/>
-      <c r="BE7" s="85"/>
-      <c r="BF7" s="90"/>
-      <c r="BG7" s="85"/>
-      <c r="BH7" s="85"/>
-      <c r="BI7" s="85" t="s">
+      <c r="BD7" s="89"/>
+      <c r="BE7" s="89"/>
+      <c r="BF7" s="94"/>
+      <c r="BG7" s="89"/>
+      <c r="BH7" s="89"/>
+      <c r="BI7" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BJ7" s="86"/>
-      <c r="BK7" s="85"/>
-      <c r="BL7" s="85"/>
-      <c r="BM7" s="85"/>
-      <c r="BN7" s="124"/>
-      <c r="BO7" s="87"/>
-      <c r="BP7" s="87"/>
-      <c r="BQ7" s="85"/>
+      <c r="BJ7" s="90"/>
+      <c r="BK7" s="89"/>
+      <c r="BL7" s="89"/>
+      <c r="BM7" s="89"/>
+      <c r="BN7" s="107"/>
+      <c r="BO7" s="93"/>
+      <c r="BP7" s="93"/>
+      <c r="BQ7" s="89"/>
       <c r="BR7" s="68" t="s">
         <v>714</v>
       </c>
       <c r="BS7" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="BT7" s="90"/>
-      <c r="BU7" s="86"/>
-      <c r="BV7" s="65"/>
+      <c r="BT7" s="94"/>
+      <c r="BU7" s="90"/>
+      <c r="BV7" s="90"/>
       <c r="BW7" s="42"/>
       <c r="BX7" s="42"/>
       <c r="BY7" s="42"/>
@@ -47980,58 +48032,58 @@
       <c r="A8" s="10">
         <v>0.375</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="100" t="s">
+      <c r="B8" s="102"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="108" t="s">
+      <c r="E8" s="90"/>
+      <c r="F8" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="86"/>
-      <c r="H8" s="115"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="124"/>
       <c r="I8" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="93"/>
-      <c r="K8" s="85"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="89"/>
       <c r="L8" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86" t="s">
+      <c r="M8" s="90"/>
+      <c r="N8" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="99"/>
-      <c r="T8" s="86"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="90"/>
       <c r="U8" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="V8" s="99"/>
-      <c r="W8" s="108" t="s">
+      <c r="V8" s="104"/>
+      <c r="W8" s="115" t="s">
         <v>396</v>
       </c>
-      <c r="X8" s="101" t="s">
+      <c r="X8" s="95" t="s">
         <v>410</v>
       </c>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="101"/>
-      <c r="AA8" s="86"/>
-      <c r="AB8" s="86" t="s">
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="95"/>
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="90" t="s">
         <v>474</v>
       </c>
-      <c r="AC8" s="86"/>
-      <c r="AD8" s="90"/>
-      <c r="AE8" s="101"/>
-      <c r="AF8" s="86" t="s">
+      <c r="AC8" s="90"/>
+      <c r="AD8" s="94"/>
+      <c r="AE8" s="95"/>
+      <c r="AF8" s="90" t="s">
         <v>524</v>
       </c>
-      <c r="AG8" s="101" t="s">
+      <c r="AG8" s="95" t="s">
         <v>538</v>
       </c>
       <c r="AH8" s="51" t="s">
@@ -48040,99 +48092,101 @@
       <c r="AI8" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="AJ8" s="85" t="s">
+      <c r="AJ8" s="89" t="s">
         <v>13</v>
       </c>
       <c r="AK8" s="59" t="s">
         <v>565</v>
       </c>
-      <c r="AL8" s="86"/>
-      <c r="AM8" s="85"/>
-      <c r="AN8" s="85"/>
+      <c r="AL8" s="90"/>
+      <c r="AM8" s="89"/>
+      <c r="AN8" s="89"/>
       <c r="AO8" s="54" t="s">
         <v>609</v>
       </c>
-      <c r="AP8" s="86"/>
-      <c r="AQ8" s="85"/>
-      <c r="AR8" s="85" t="s">
+      <c r="AP8" s="90"/>
+      <c r="AQ8" s="89"/>
+      <c r="AR8" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="AS8" s="90" t="s">
+      <c r="AS8" s="94" t="s">
         <v>619</v>
       </c>
-      <c r="AT8" s="86" t="s">
+      <c r="AT8" s="90" t="s">
         <v>623</v>
       </c>
-      <c r="AU8" s="86" t="s">
+      <c r="AU8" s="90" t="s">
         <v>261</v>
       </c>
-      <c r="AV8" s="86" t="s">
+      <c r="AV8" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AW8" s="89" t="s">
+      <c r="AW8" s="102" t="s">
         <v>644</v>
       </c>
-      <c r="AX8" s="86" t="s">
+      <c r="AX8" s="90" t="s">
         <v>652</v>
       </c>
-      <c r="AY8" s="87" t="s">
+      <c r="AY8" s="93" t="s">
         <v>657</v>
       </c>
-      <c r="AZ8" s="99"/>
-      <c r="BA8" s="86" t="s">
+      <c r="AZ8" s="104"/>
+      <c r="BA8" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="BB8" s="90" t="s">
+      <c r="BB8" s="94" t="s">
         <v>619</v>
       </c>
-      <c r="BC8" s="86"/>
-      <c r="BD8" s="86" t="s">
+      <c r="BC8" s="90"/>
+      <c r="BD8" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="BE8" s="89" t="s">
+      <c r="BE8" s="102" t="s">
         <v>680</v>
       </c>
-      <c r="BF8" s="90"/>
-      <c r="BG8" s="85" t="s">
+      <c r="BF8" s="94"/>
+      <c r="BG8" s="89" t="s">
         <v>178</v>
       </c>
-      <c r="BH8" s="86" t="s">
+      <c r="BH8" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="BI8" s="85"/>
-      <c r="BJ8" s="86"/>
-      <c r="BK8" s="101" t="s">
+      <c r="BI8" s="89"/>
+      <c r="BJ8" s="90"/>
+      <c r="BK8" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="BL8" s="90" t="s">
+      <c r="BL8" s="94" t="s">
         <v>619</v>
       </c>
-      <c r="BM8" s="90" t="s">
+      <c r="BM8" s="94" t="s">
         <v>619</v>
       </c>
-      <c r="BN8" s="124"/>
-      <c r="BO8" s="87" t="s">
+      <c r="BN8" s="107"/>
+      <c r="BO8" s="93" t="s">
         <v>698</v>
       </c>
-      <c r="BP8" s="86" t="s">
+      <c r="BP8" s="90" t="s">
         <v>702</v>
       </c>
       <c r="BQ8" s="88" t="s">
         <v>670</v>
       </c>
-      <c r="BR8" s="86" t="s">
+      <c r="BR8" s="90" t="s">
         <v>715</v>
       </c>
-      <c r="BS8" s="86" t="s">
+      <c r="BS8" s="90" t="s">
         <v>721</v>
       </c>
-      <c r="BT8" s="86" t="s">
+      <c r="BT8" s="90" t="s">
         <v>721</v>
       </c>
-      <c r="BU8" s="91" t="s">
+      <c r="BU8" s="129" t="s">
         <v>735</v>
       </c>
-      <c r="BV8" s="65"/>
+      <c r="BV8" s="136" t="s">
+        <v>766</v>
+      </c>
       <c r="BW8" s="42"/>
       <c r="BX8" s="42"/>
       <c r="BY8" s="42"/>
@@ -48159,63 +48213,63 @@
       <c r="A9" s="10">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="100" t="s">
+      <c r="B9" s="102"/>
+      <c r="C9" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="86" t="s">
+      <c r="D9" s="109"/>
+      <c r="E9" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="108"/>
+      <c r="F9" s="115"/>
       <c r="G9" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="115" t="s">
+      <c r="H9" s="124" t="s">
         <v>131</v>
       </c>
       <c r="I9" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93" t="s">
+      <c r="J9" s="113"/>
+      <c r="K9" s="113" t="s">
         <v>209</v>
       </c>
       <c r="L9" s="62" t="s">
         <v>229</v>
       </c>
-      <c r="M9" s="86" t="s">
+      <c r="M9" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="N9" s="86"/>
-      <c r="O9" s="108" t="s">
+      <c r="N9" s="90"/>
+      <c r="O9" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="86" t="s">
+      <c r="P9" s="90" t="s">
         <v>283</v>
       </c>
-      <c r="Q9" s="108" t="s">
+      <c r="Q9" s="115" t="s">
         <v>297</v>
       </c>
       <c r="R9" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="S9" s="99"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="86" t="s">
+      <c r="S9" s="104"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="90" t="s">
         <v>374</v>
       </c>
-      <c r="V9" s="99"/>
-      <c r="W9" s="108"/>
-      <c r="X9" s="101"/>
-      <c r="Y9" s="101" t="s">
+      <c r="V9" s="104"/>
+      <c r="W9" s="115"/>
+      <c r="X9" s="95"/>
+      <c r="Y9" s="95" t="s">
         <v>425</v>
       </c>
-      <c r="Z9" s="110" t="s">
+      <c r="Z9" s="111" t="s">
         <v>436</v>
       </c>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="90"/>
       <c r="AC9" s="56" t="s">
         <v>485</v>
       </c>
@@ -48225,65 +48279,67 @@
       <c r="AE9" s="55" t="s">
         <v>513</v>
       </c>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="101"/>
+      <c r="AF9" s="90"/>
+      <c r="AG9" s="95"/>
       <c r="AH9" s="52" t="s">
         <v>547</v>
       </c>
-      <c r="AI9" s="107" t="s">
+      <c r="AI9" s="112" t="s">
         <v>448</v>
       </c>
-      <c r="AJ9" s="85"/>
+      <c r="AJ9" s="89"/>
       <c r="AK9" s="59"/>
-      <c r="AL9" s="86"/>
-      <c r="AM9" s="85"/>
-      <c r="AN9" s="85"/>
-      <c r="AO9" s="86" t="s">
+      <c r="AL9" s="90"/>
+      <c r="AM9" s="89"/>
+      <c r="AN9" s="89"/>
+      <c r="AO9" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AP9" s="87" t="s">
+      <c r="AP9" s="93" t="s">
         <v>560</v>
       </c>
-      <c r="AQ9" s="85"/>
-      <c r="AR9" s="85"/>
-      <c r="AS9" s="90"/>
-      <c r="AT9" s="86"/>
-      <c r="AU9" s="86"/>
-      <c r="AV9" s="86"/>
-      <c r="AW9" s="89"/>
-      <c r="AX9" s="86"/>
-      <c r="AY9" s="87"/>
+      <c r="AQ9" s="89"/>
+      <c r="AR9" s="89"/>
+      <c r="AS9" s="94"/>
+      <c r="AT9" s="90"/>
+      <c r="AU9" s="90"/>
+      <c r="AV9" s="90"/>
+      <c r="AW9" s="102"/>
+      <c r="AX9" s="90"/>
+      <c r="AY9" s="93"/>
       <c r="AZ9" s="52" t="s">
         <v>665</v>
       </c>
-      <c r="BA9" s="86"/>
-      <c r="BB9" s="90"/>
+      <c r="BA9" s="90"/>
+      <c r="BB9" s="94"/>
       <c r="BC9" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="BD9" s="86"/>
-      <c r="BE9" s="89"/>
-      <c r="BF9" s="90"/>
-      <c r="BG9" s="85"/>
-      <c r="BH9" s="86"/>
+      <c r="BD9" s="90"/>
+      <c r="BE9" s="102"/>
+      <c r="BF9" s="94"/>
+      <c r="BG9" s="89"/>
+      <c r="BH9" s="90"/>
       <c r="BI9" s="88" t="s">
         <v>670</v>
       </c>
-      <c r="BJ9" s="87" t="s">
+      <c r="BJ9" s="93" t="s">
         <v>690</v>
       </c>
-      <c r="BK9" s="101"/>
-      <c r="BL9" s="90"/>
-      <c r="BM9" s="90"/>
-      <c r="BN9" s="124"/>
-      <c r="BO9" s="87"/>
-      <c r="BP9" s="86"/>
+      <c r="BK9" s="95"/>
+      <c r="BL9" s="94"/>
+      <c r="BM9" s="94"/>
+      <c r="BN9" s="107"/>
+      <c r="BO9" s="93"/>
+      <c r="BP9" s="90"/>
       <c r="BQ9" s="88"/>
-      <c r="BR9" s="86"/>
-      <c r="BS9" s="86"/>
-      <c r="BT9" s="86"/>
+      <c r="BR9" s="90"/>
+      <c r="BS9" s="90"/>
+      <c r="BT9" s="90"/>
       <c r="BU9" s="92"/>
-      <c r="BV9" s="65"/>
+      <c r="BV9" s="113" t="s">
+        <v>767</v>
+      </c>
       <c r="BW9" s="42"/>
       <c r="BX9" s="42"/>
       <c r="BY9" s="42"/>
@@ -48310,157 +48366,157 @@
       <c r="A10" s="10">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="108"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="115"/>
       <c r="G10" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="H10" s="115"/>
+      <c r="H10" s="124"/>
       <c r="I10" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="J10" s="106" t="s">
+      <c r="J10" s="110" t="s">
         <v>192</v>
       </c>
-      <c r="K10" s="93"/>
+      <c r="K10" s="113"/>
       <c r="L10" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="M10" s="86"/>
+      <c r="M10" s="90"/>
       <c r="N10" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="O10" s="108"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="86" t="s">
+      <c r="O10" s="115"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="115"/>
+      <c r="R10" s="90" t="s">
         <v>318</v>
       </c>
       <c r="S10" s="52" t="s">
         <v>327</v>
       </c>
-      <c r="T10" s="86"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="99"/>
-      <c r="W10" s="108"/>
-      <c r="X10" s="101" t="s">
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="104"/>
+      <c r="W10" s="115"/>
+      <c r="X10" s="95" t="s">
         <v>411</v>
       </c>
-      <c r="Y10" s="101"/>
-      <c r="Z10" s="110"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="86"/>
-      <c r="AC10" s="86" t="s">
+      <c r="Y10" s="95"/>
+      <c r="Z10" s="111"/>
+      <c r="AA10" s="90"/>
+      <c r="AB10" s="90"/>
+      <c r="AC10" s="90" t="s">
         <v>481</v>
       </c>
-      <c r="AD10" s="86" t="s">
+      <c r="AD10" s="90" t="s">
         <v>495</v>
       </c>
-      <c r="AE10" s="101" t="s">
+      <c r="AE10" s="95" t="s">
         <v>261</v>
       </c>
-      <c r="AF10" s="86"/>
-      <c r="AG10" s="101" t="s">
+      <c r="AF10" s="90"/>
+      <c r="AG10" s="95" t="s">
         <v>535</v>
       </c>
       <c r="AH10" s="61" t="s">
         <v>551</v>
       </c>
-      <c r="AI10" s="107"/>
-      <c r="AJ10" s="106" t="s">
+      <c r="AI10" s="112"/>
+      <c r="AJ10" s="110" t="s">
         <v>225</v>
       </c>
-      <c r="AK10" s="85" t="s">
+      <c r="AK10" s="89" t="s">
         <v>58</v>
       </c>
       <c r="AL10" s="51" t="s">
         <v>574</v>
       </c>
-      <c r="AM10" s="86" t="s">
+      <c r="AM10" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AN10" s="85"/>
-      <c r="AO10" s="86"/>
-      <c r="AP10" s="87"/>
-      <c r="AQ10" s="85"/>
-      <c r="AR10" s="90" t="s">
+      <c r="AN10" s="89"/>
+      <c r="AO10" s="90"/>
+      <c r="AP10" s="93"/>
+      <c r="AQ10" s="89"/>
+      <c r="AR10" s="94" t="s">
         <v>619</v>
       </c>
-      <c r="AS10" s="86" t="s">
+      <c r="AS10" s="90" t="s">
         <v>622</v>
       </c>
-      <c r="AT10" s="86"/>
-      <c r="AU10" s="87" t="s">
+      <c r="AT10" s="90"/>
+      <c r="AU10" s="93" t="s">
         <v>633</v>
       </c>
-      <c r="AV10" s="100" t="s">
+      <c r="AV10" s="109" t="s">
         <v>177</v>
       </c>
-      <c r="AW10" s="89"/>
-      <c r="AX10" s="86" t="s">
+      <c r="AW10" s="102"/>
+      <c r="AX10" s="90" t="s">
         <v>640</v>
       </c>
-      <c r="AY10" s="86" t="s">
+      <c r="AY10" s="90" t="s">
         <v>640</v>
       </c>
-      <c r="AZ10" s="101" t="s">
+      <c r="AZ10" s="95" t="s">
         <v>642</v>
       </c>
-      <c r="BA10" s="86" t="s">
+      <c r="BA10" s="90" t="s">
         <v>641</v>
       </c>
-      <c r="BB10" s="101" t="s">
+      <c r="BB10" s="95" t="s">
         <v>643</v>
       </c>
-      <c r="BC10" s="101" t="s">
+      <c r="BC10" s="95" t="s">
         <v>642</v>
       </c>
-      <c r="BD10" s="86" t="s">
+      <c r="BD10" s="90" t="s">
         <v>641</v>
       </c>
-      <c r="BE10" s="89"/>
-      <c r="BF10" s="85" t="s">
+      <c r="BE10" s="102"/>
+      <c r="BF10" s="89" t="s">
         <v>17</v>
       </c>
       <c r="BG10" s="54" t="s">
         <v>682</v>
       </c>
-      <c r="BH10" s="86"/>
+      <c r="BH10" s="90"/>
       <c r="BI10" s="88"/>
-      <c r="BJ10" s="87"/>
-      <c r="BK10" s="101" t="s">
+      <c r="BJ10" s="93"/>
+      <c r="BK10" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="BL10" s="121" t="s">
+      <c r="BL10" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="BM10" s="121" t="s">
+      <c r="BM10" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="BN10" s="124"/>
-      <c r="BO10" s="101" t="s">
+      <c r="BN10" s="107"/>
+      <c r="BO10" s="95" t="s">
         <v>699</v>
       </c>
-      <c r="BP10" s="86"/>
-      <c r="BQ10" s="87" t="s">
+      <c r="BP10" s="90"/>
+      <c r="BQ10" s="93" t="s">
         <v>708</v>
       </c>
-      <c r="BR10" s="86" t="s">
+      <c r="BR10" s="90" t="s">
         <v>717</v>
       </c>
-      <c r="BS10" s="85" t="s">
+      <c r="BS10" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="BT10" s="86" t="s">
+      <c r="BT10" s="90" t="s">
         <v>721</v>
       </c>
-      <c r="BU10" s="93" t="s">
+      <c r="BU10" s="113" t="s">
         <v>734</v>
       </c>
-      <c r="BV10" s="65"/>
+      <c r="BV10" s="90"/>
       <c r="BW10" s="42"/>
       <c r="BX10" s="42"/>
       <c r="BY10" s="42"/>
@@ -48487,129 +48543,131 @@
       <c r="A11" s="10">
         <v>0.4375</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
       <c r="E11" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="106" t="s">
+      <c r="F11" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="86" t="s">
+      <c r="G11" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="115"/>
-      <c r="I11" s="86" t="s">
+      <c r="H11" s="124"/>
+      <c r="I11" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="J11" s="106"/>
+      <c r="J11" s="110"/>
       <c r="K11" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="L11" s="86" t="s">
+      <c r="L11" s="90" t="s">
         <v>237</v>
       </c>
       <c r="M11" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="N11" s="86" t="s">
+      <c r="N11" s="90" t="s">
         <v>261</v>
       </c>
-      <c r="O11" s="108"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="86" t="s">
+      <c r="O11" s="115"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90" t="s">
         <v>295</v>
       </c>
-      <c r="R11" s="86"/>
-      <c r="S11" s="108" t="s">
+      <c r="R11" s="90"/>
+      <c r="S11" s="115" t="s">
         <v>328</v>
       </c>
       <c r="T11" s="54" t="s">
         <v>353</v>
       </c>
-      <c r="U11" s="86" t="s">
+      <c r="U11" s="90" t="s">
         <v>373</v>
       </c>
-      <c r="V11" s="99"/>
+      <c r="V11" s="104"/>
       <c r="W11" s="52" t="s">
         <v>400</v>
       </c>
-      <c r="X11" s="101"/>
+      <c r="X11" s="95"/>
       <c r="Y11" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="Z11" s="86" t="s">
+      <c r="Z11" s="90" t="s">
         <v>437</v>
       </c>
       <c r="AA11" s="62" t="s">
         <v>446</v>
       </c>
-      <c r="AB11" s="86" t="s">
+      <c r="AB11" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="AC11" s="86"/>
-      <c r="AD11" s="86"/>
-      <c r="AE11" s="101"/>
-      <c r="AF11" s="85" t="s">
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="90"/>
+      <c r="AE11" s="95"/>
+      <c r="AF11" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AG11" s="101"/>
-      <c r="AH11" s="86" t="s">
+      <c r="AG11" s="95"/>
+      <c r="AH11" s="90" t="s">
         <v>549</v>
       </c>
-      <c r="AI11" s="107"/>
-      <c r="AJ11" s="106"/>
-      <c r="AK11" s="85"/>
-      <c r="AL11" s="86" t="s">
+      <c r="AI11" s="112"/>
+      <c r="AJ11" s="110"/>
+      <c r="AK11" s="89"/>
+      <c r="AL11" s="90" t="s">
         <v>570</v>
       </c>
-      <c r="AM11" s="86"/>
-      <c r="AN11" s="85"/>
+      <c r="AM11" s="90"/>
+      <c r="AN11" s="89"/>
       <c r="AO11" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="AP11" s="87"/>
-      <c r="AQ11" s="85"/>
-      <c r="AR11" s="90"/>
-      <c r="AS11" s="86"/>
-      <c r="AT11" s="86"/>
-      <c r="AU11" s="87"/>
-      <c r="AV11" s="100"/>
-      <c r="AW11" s="89"/>
-      <c r="AX11" s="86"/>
-      <c r="AY11" s="86"/>
-      <c r="AZ11" s="101"/>
-      <c r="BA11" s="86"/>
-      <c r="BB11" s="101"/>
-      <c r="BC11" s="101"/>
-      <c r="BD11" s="86"/>
-      <c r="BE11" s="89"/>
-      <c r="BF11" s="85"/>
-      <c r="BG11" s="86" t="s">
+      <c r="AP11" s="93"/>
+      <c r="AQ11" s="89"/>
+      <c r="AR11" s="94"/>
+      <c r="AS11" s="90"/>
+      <c r="AT11" s="90"/>
+      <c r="AU11" s="93"/>
+      <c r="AV11" s="109"/>
+      <c r="AW11" s="102"/>
+      <c r="AX11" s="90"/>
+      <c r="AY11" s="90"/>
+      <c r="AZ11" s="95"/>
+      <c r="BA11" s="90"/>
+      <c r="BB11" s="95"/>
+      <c r="BC11" s="95"/>
+      <c r="BD11" s="90"/>
+      <c r="BE11" s="102"/>
+      <c r="BF11" s="89"/>
+      <c r="BG11" s="90" t="s">
         <v>45</v>
       </c>
       <c r="BH11" s="88" t="s">
         <v>670</v>
       </c>
-      <c r="BI11" s="101" t="s">
+      <c r="BI11" s="95" t="s">
         <v>685</v>
       </c>
-      <c r="BJ11" s="87" t="s">
+      <c r="BJ11" s="93" t="s">
         <v>690</v>
       </c>
-      <c r="BK11" s="101"/>
-      <c r="BL11" s="122"/>
-      <c r="BM11" s="122"/>
-      <c r="BN11" s="124"/>
-      <c r="BO11" s="101"/>
-      <c r="BP11" s="86"/>
-      <c r="BQ11" s="87"/>
-      <c r="BR11" s="86"/>
-      <c r="BS11" s="85"/>
-      <c r="BT11" s="86"/>
-      <c r="BU11" s="86"/>
-      <c r="BV11" s="65"/>
+      <c r="BK11" s="95"/>
+      <c r="BL11" s="97"/>
+      <c r="BM11" s="97"/>
+      <c r="BN11" s="107"/>
+      <c r="BO11" s="95"/>
+      <c r="BP11" s="90"/>
+      <c r="BQ11" s="93"/>
+      <c r="BR11" s="90"/>
+      <c r="BS11" s="89"/>
+      <c r="BT11" s="90"/>
+      <c r="BU11" s="90"/>
+      <c r="BV11" s="113" t="s">
+        <v>770</v>
+      </c>
       <c r="BW11" s="42"/>
       <c r="BX11" s="42"/>
       <c r="BY11" s="42"/>
@@ -48639,150 +48697,150 @@
       <c r="B12" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="101" t="s">
+      <c r="D12" s="95" t="s">
         <v>70</v>
       </c>
       <c r="E12" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="106"/>
-      <c r="G12" s="86"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="I12" s="86"/>
+      <c r="I12" s="90"/>
       <c r="J12" s="61" t="s">
         <v>193</v>
       </c>
       <c r="K12" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86" t="s">
+      <c r="L12" s="90"/>
+      <c r="M12" s="90" t="s">
         <v>252</v>
       </c>
-      <c r="N12" s="86"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108" t="s">
+      <c r="N12" s="90"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="115" t="s">
         <v>286</v>
       </c>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="108"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="115"/>
       <c r="T12" s="52" t="s">
         <v>363</v>
       </c>
-      <c r="U12" s="86"/>
-      <c r="V12" s="110" t="s">
+      <c r="U12" s="90"/>
+      <c r="V12" s="111" t="s">
         <v>388</v>
       </c>
-      <c r="W12" s="90" t="s">
+      <c r="W12" s="94" t="s">
         <v>401</v>
       </c>
       <c r="X12" s="55" t="s">
         <v>409</v>
       </c>
-      <c r="Y12" s="101" t="s">
+      <c r="Y12" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="85" t="s">
+      <c r="Z12" s="90"/>
+      <c r="AA12" s="89" t="s">
         <v>447</v>
       </c>
-      <c r="AB12" s="86"/>
-      <c r="AC12" s="86"/>
-      <c r="AD12" s="110" t="s">
+      <c r="AB12" s="90"/>
+      <c r="AC12" s="90"/>
+      <c r="AD12" s="111" t="s">
         <v>496</v>
       </c>
       <c r="AE12" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AF12" s="85"/>
-      <c r="AG12" s="101"/>
-      <c r="AH12" s="86"/>
-      <c r="AI12" s="107"/>
-      <c r="AJ12" s="86" t="s">
+      <c r="AF12" s="89"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="90"/>
+      <c r="AI12" s="112"/>
+      <c r="AJ12" s="90" t="s">
         <v>556</v>
       </c>
       <c r="AK12" s="88" t="s">
         <v>566</v>
       </c>
-      <c r="AL12" s="86"/>
+      <c r="AL12" s="90"/>
       <c r="AM12" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AN12" s="86" t="s">
+      <c r="AN12" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AO12" s="103" t="s">
+      <c r="AO12" s="117" t="s">
         <v>610</v>
       </c>
-      <c r="AP12" s="87"/>
+      <c r="AP12" s="93"/>
       <c r="AQ12" s="53" t="s">
         <v>605</v>
       </c>
       <c r="AR12" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AS12" s="86" t="s">
+      <c r="AS12" s="90" t="s">
         <v>622</v>
       </c>
-      <c r="AT12" s="86"/>
-      <c r="AU12" s="87"/>
-      <c r="AV12" s="106" t="s">
+      <c r="AT12" s="90"/>
+      <c r="AU12" s="93"/>
+      <c r="AV12" s="110" t="s">
         <v>634</v>
       </c>
-      <c r="AW12" s="99" t="s">
+      <c r="AW12" s="104" t="s">
         <v>645</v>
       </c>
-      <c r="AX12" s="86"/>
-      <c r="AY12" s="86"/>
-      <c r="AZ12" s="87" t="s">
+      <c r="AX12" s="90"/>
+      <c r="AY12" s="90"/>
+      <c r="AZ12" s="93" t="s">
         <v>657</v>
       </c>
-      <c r="BA12" s="86"/>
-      <c r="BB12" s="101"/>
-      <c r="BC12" s="101"/>
-      <c r="BD12" s="86"/>
-      <c r="BE12" s="104" t="s">
+      <c r="BA12" s="90"/>
+      <c r="BB12" s="95"/>
+      <c r="BC12" s="95"/>
+      <c r="BD12" s="90"/>
+      <c r="BE12" s="103" t="s">
         <v>670</v>
       </c>
-      <c r="BF12" s="87" t="s">
+      <c r="BF12" s="93" t="s">
         <v>677</v>
       </c>
-      <c r="BG12" s="86"/>
+      <c r="BG12" s="90"/>
       <c r="BH12" s="88"/>
-      <c r="BI12" s="101"/>
-      <c r="BJ12" s="87"/>
-      <c r="BK12" s="90" t="s">
+      <c r="BI12" s="95"/>
+      <c r="BJ12" s="93"/>
+      <c r="BK12" s="94" t="s">
         <v>619</v>
       </c>
-      <c r="BL12" s="122"/>
-      <c r="BM12" s="122"/>
-      <c r="BN12" s="124"/>
-      <c r="BO12" s="85" t="s">
+      <c r="BL12" s="97"/>
+      <c r="BM12" s="97"/>
+      <c r="BN12" s="107"/>
+      <c r="BO12" s="89" t="s">
         <v>58</v>
       </c>
       <c r="BP12" s="88" t="s">
         <v>691</v>
       </c>
-      <c r="BQ12" s="87"/>
-      <c r="BR12" s="86" t="s">
+      <c r="BQ12" s="93"/>
+      <c r="BR12" s="90" t="s">
         <v>718</v>
       </c>
-      <c r="BS12" s="87" t="s">
+      <c r="BS12" s="93" t="s">
         <v>722</v>
       </c>
-      <c r="BT12" s="85" t="s">
+      <c r="BT12" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BU12" s="87" t="s">
+      <c r="BU12" s="93" t="s">
         <v>762</v>
       </c>
-      <c r="BV12" s="65"/>
+      <c r="BV12" s="90"/>
       <c r="BW12" s="42"/>
       <c r="BX12" s="42"/>
       <c r="BY12" s="42"/>
@@ -48809,138 +48867,139 @@
       <c r="A13" s="10">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="86" t="s">
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="110" t="s">
+      <c r="F13" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="110" t="s">
+      <c r="G13" s="111" t="s">
         <v>117</v>
       </c>
-      <c r="H13" s="99" t="s">
+      <c r="H13" s="104" t="s">
         <v>143</v>
       </c>
       <c r="I13" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="J13" s="86" t="s">
+      <c r="J13" s="90" t="s">
         <v>194</v>
       </c>
       <c r="K13" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="99" t="s">
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="104" t="s">
         <v>264</v>
       </c>
-      <c r="P13" s="108"/>
+      <c r="P13" s="115"/>
       <c r="Q13" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="R13" s="110" t="s">
+      <c r="R13" s="111" t="s">
         <v>316</v>
       </c>
-      <c r="S13" s="110" t="s">
+      <c r="S13" s="111" t="s">
         <v>329</v>
       </c>
       <c r="T13" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="U13" s="86"/>
-      <c r="V13" s="110"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="101" t="s">
+      <c r="U13" s="90"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="95" t="s">
         <v>412</v>
       </c>
-      <c r="Y13" s="101"/>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="85"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="90"/>
+      <c r="AA13" s="89"/>
       <c r="AB13" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="AC13" s="86"/>
-      <c r="AD13" s="110"/>
-      <c r="AE13" s="86" t="s">
+      <c r="AC13" s="90"/>
+      <c r="AD13" s="111"/>
+      <c r="AE13" s="90" t="s">
         <v>508</v>
       </c>
-      <c r="AF13" s="93" t="s">
+      <c r="AF13" s="113" t="s">
         <v>532</v>
       </c>
-      <c r="AG13" s="101"/>
-      <c r="AH13" s="86" t="s">
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="90" t="s">
         <v>550</v>
       </c>
-      <c r="AI13" s="107"/>
-      <c r="AJ13" s="86"/>
+      <c r="AI13" s="112"/>
+      <c r="AJ13" s="90"/>
       <c r="AK13" s="88"/>
-      <c r="AL13" s="86"/>
-      <c r="AM13" s="106" t="s">
+      <c r="AL13" s="90"/>
+      <c r="AM13" s="110" t="s">
         <v>594</v>
       </c>
-      <c r="AN13" s="86"/>
-      <c r="AO13" s="103"/>
-      <c r="AP13" s="103" t="s">
+      <c r="AN13" s="90"/>
+      <c r="AO13" s="117"/>
+      <c r="AP13" s="117" t="s">
         <v>614</v>
       </c>
-      <c r="AQ13" s="107" t="s">
+      <c r="AQ13" s="112" t="s">
         <v>448</v>
       </c>
-      <c r="AR13" s="86" t="s">
+      <c r="AR13" s="90" t="s">
         <v>620</v>
       </c>
-      <c r="AS13" s="86"/>
-      <c r="AT13" s="85" t="s">
+      <c r="AS13" s="90"/>
+      <c r="AT13" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="AU13" s="87"/>
-      <c r="AV13" s="106"/>
-      <c r="AW13" s="99"/>
-      <c r="AX13" s="86"/>
-      <c r="AY13" s="86"/>
-      <c r="AZ13" s="87"/>
-      <c r="BA13" s="86"/>
-      <c r="BB13" s="101"/>
-      <c r="BC13" s="101"/>
-      <c r="BD13" s="86"/>
-      <c r="BE13" s="104"/>
-      <c r="BF13" s="87"/>
-      <c r="BG13" s="104" t="s">
+      <c r="AU13" s="93"/>
+      <c r="AV13" s="110"/>
+      <c r="AW13" s="104"/>
+      <c r="AX13" s="90"/>
+      <c r="AY13" s="90"/>
+      <c r="AZ13" s="93"/>
+      <c r="BA13" s="90"/>
+      <c r="BB13" s="95"/>
+      <c r="BC13" s="95"/>
+      <c r="BD13" s="90"/>
+      <c r="BE13" s="103"/>
+      <c r="BF13" s="93"/>
+      <c r="BG13" s="103" t="s">
         <v>683</v>
       </c>
-      <c r="BH13" s="85" t="s">
+      <c r="BH13" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BI13" s="85" t="s">
+      <c r="BI13" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BJ13" s="85" t="s">
+      <c r="BJ13" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BK13" s="90"/>
-      <c r="BL13" s="123"/>
-      <c r="BM13" s="123"/>
-      <c r="BN13" s="124"/>
-      <c r="BO13" s="85"/>
+      <c r="BK13" s="94"/>
+      <c r="BL13" s="98"/>
+      <c r="BM13" s="98"/>
+      <c r="BN13" s="107"/>
+      <c r="BO13" s="89"/>
       <c r="BP13" s="88"/>
-      <c r="BQ13" s="87" t="s">
+      <c r="BQ13" s="93" t="s">
         <v>709</v>
       </c>
-      <c r="BR13" s="86"/>
-      <c r="BS13" s="87"/>
-      <c r="BT13" s="85"/>
-      <c r="BU13" s="87"/>
-      <c r="BV13" s="65"/>
+      <c r="BR13" s="90"/>
+      <c r="BS13" s="93"/>
+      <c r="BT13" s="89"/>
+      <c r="BU13" s="93"/>
+      <c r="BV13" s="89" t="s">
+        <v>17</v>
+      </c>
       <c r="BW13" s="42"/>
       <c r="BX13" s="42"/>
-      <c r="BY13" s="42"/>
       <c r="BZ13" s="42"/>
       <c r="CA13" s="65"/>
       <c r="CB13" s="65"/>
@@ -48964,66 +49023,66 @@
       <c r="A14" s="10">
         <v>0.5</v>
       </c>
-      <c r="B14" s="100"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="85" t="s">
+      <c r="B14" s="109"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="J14" s="86"/>
+      <c r="J14" s="90"/>
       <c r="K14" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="86" t="s">
+      <c r="L14" s="90" t="s">
         <v>236</v>
       </c>
-      <c r="M14" s="86"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="O14" s="99"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="110" t="s">
+      <c r="O14" s="104"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="111" t="s">
         <v>296</v>
       </c>
-      <c r="R14" s="110"/>
-      <c r="S14" s="110"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
       <c r="T14" s="62" t="s">
         <v>336</v>
       </c>
-      <c r="U14" s="110" t="s">
+      <c r="U14" s="111" t="s">
         <v>375</v>
       </c>
       <c r="V14" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="W14" s="111" t="s">
+      <c r="W14" s="128" t="s">
         <v>402</v>
       </c>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="86" t="s">
+      <c r="X14" s="95"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="90"/>
+      <c r="AA14" s="90" t="s">
         <v>445</v>
       </c>
-      <c r="AB14" s="109" t="s">
+      <c r="AB14" s="118" t="s">
         <v>476</v>
       </c>
-      <c r="AC14" s="86"/>
+      <c r="AC14" s="90"/>
       <c r="AD14" s="88" t="s">
         <v>500</v>
       </c>
-      <c r="AE14" s="86"/>
-      <c r="AF14" s="93"/>
-      <c r="AG14" s="110" t="s">
+      <c r="AE14" s="90"/>
+      <c r="AF14" s="113"/>
+      <c r="AG14" s="111" t="s">
         <v>336</v>
       </c>
-      <c r="AH14" s="86"/>
-      <c r="AI14" s="107"/>
+      <c r="AH14" s="90"/>
+      <c r="AI14" s="112"/>
       <c r="AJ14" s="61" t="s">
         <v>193</v>
       </c>
@@ -49031,82 +49090,82 @@
       <c r="AL14" s="60" t="s">
         <v>575</v>
       </c>
-      <c r="AM14" s="106"/>
+      <c r="AM14" s="110"/>
       <c r="AN14" s="53" t="s">
         <v>600</v>
       </c>
-      <c r="AO14" s="103"/>
-      <c r="AP14" s="103"/>
-      <c r="AQ14" s="107"/>
-      <c r="AR14" s="86"/>
-      <c r="AS14" s="85" t="s">
+      <c r="AO14" s="117"/>
+      <c r="AP14" s="117"/>
+      <c r="AQ14" s="112"/>
+      <c r="AR14" s="90"/>
+      <c r="AS14" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="AT14" s="85"/>
-      <c r="AU14" s="85" t="s">
+      <c r="AT14" s="89"/>
+      <c r="AU14" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="AV14" s="87" t="s">
+      <c r="AV14" s="93" t="s">
         <v>633</v>
       </c>
-      <c r="AW14" s="85" t="s">
+      <c r="AW14" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="AX14" s="85" t="s">
+      <c r="AX14" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="AY14" s="87" t="s">
+      <c r="AY14" s="93" t="s">
         <v>657</v>
       </c>
-      <c r="AZ14" s="85" t="s">
+      <c r="AZ14" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BA14" s="86"/>
+      <c r="BA14" s="90"/>
       <c r="BB14" s="88" t="s">
         <v>668</v>
       </c>
-      <c r="BC14" s="85" t="s">
+      <c r="BC14" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BD14" s="85" t="s">
+      <c r="BD14" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BE14" s="104"/>
-      <c r="BF14" s="87"/>
-      <c r="BG14" s="104"/>
-      <c r="BH14" s="85"/>
-      <c r="BI14" s="85"/>
-      <c r="BJ14" s="85"/>
-      <c r="BK14" s="85" t="s">
+      <c r="BE14" s="103"/>
+      <c r="BF14" s="93"/>
+      <c r="BG14" s="103"/>
+      <c r="BH14" s="89"/>
+      <c r="BI14" s="89"/>
+      <c r="BJ14" s="89"/>
+      <c r="BK14" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BL14" s="85" t="s">
+      <c r="BL14" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BM14" s="85" t="s">
+      <c r="BM14" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BN14" s="124"/>
-      <c r="BO14" s="85" t="s">
+      <c r="BN14" s="107"/>
+      <c r="BO14" s="89" t="s">
         <v>58</v>
       </c>
       <c r="BP14" s="88" t="s">
         <v>691</v>
       </c>
-      <c r="BQ14" s="87"/>
+      <c r="BQ14" s="93"/>
       <c r="BR14" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="BS14" s="85" t="s">
+      <c r="BS14" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BT14" s="87" t="s">
+      <c r="BT14" s="93" t="s">
         <v>727</v>
       </c>
-      <c r="BU14" s="87" t="s">
+      <c r="BU14" s="93" t="s">
         <v>763</v>
       </c>
-      <c r="BV14" s="65"/>
+      <c r="BV14" s="89"/>
       <c r="BW14" s="42"/>
       <c r="BX14" s="42"/>
       <c r="BY14" s="42"/>
@@ -49133,11 +49192,11 @@
       <c r="A15" s="10">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B15" s="100"/>
-      <c r="C15" s="100" t="s">
+      <c r="B15" s="109"/>
+      <c r="C15" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="89" t="s">
         <v>71</v>
       </c>
       <c r="E15" s="51" t="s">
@@ -49149,117 +49208,119 @@
       <c r="G15" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="H15" s="99"/>
-      <c r="I15" s="85"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="89"/>
       <c r="J15" s="57" t="s">
         <v>195</v>
       </c>
       <c r="K15" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="L15" s="86"/>
-      <c r="M15" s="85" t="s">
+      <c r="L15" s="90"/>
+      <c r="M15" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="85" t="s">
+      <c r="N15" s="89" t="s">
         <v>258</v>
       </c>
-      <c r="O15" s="99"/>
-      <c r="P15" s="85" t="s">
+      <c r="O15" s="104"/>
+      <c r="P15" s="89" t="s">
         <v>284</v>
       </c>
-      <c r="Q15" s="110"/>
-      <c r="R15" s="110"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="111"/>
       <c r="S15" s="57" t="s">
         <v>330</v>
       </c>
-      <c r="T15" s="101" t="s">
+      <c r="T15" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="U15" s="110"/>
-      <c r="V15" s="89" t="s">
+      <c r="U15" s="111"/>
+      <c r="V15" s="102" t="s">
         <v>300</v>
       </c>
-      <c r="W15" s="111"/>
-      <c r="X15" s="87" t="s">
+      <c r="W15" s="128"/>
+      <c r="X15" s="93" t="s">
         <v>415</v>
       </c>
-      <c r="Y15" s="101" t="s">
+      <c r="Y15" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="86"/>
-      <c r="AB15" s="109"/>
-      <c r="AC15" s="109" t="s">
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="90"/>
+      <c r="AB15" s="118"/>
+      <c r="AC15" s="118" t="s">
         <v>486</v>
       </c>
       <c r="AD15" s="88"/>
       <c r="AE15" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AF15" s="93"/>
-      <c r="AG15" s="110"/>
-      <c r="AH15" s="86"/>
-      <c r="AI15" s="107"/>
-      <c r="AJ15" s="109" t="s">
+      <c r="AF15" s="113"/>
+      <c r="AG15" s="111"/>
+      <c r="AH15" s="90"/>
+      <c r="AI15" s="112"/>
+      <c r="AJ15" s="118" t="s">
         <v>559</v>
       </c>
       <c r="AK15" s="88"/>
-      <c r="AL15" s="85" t="s">
+      <c r="AL15" s="89" t="s">
         <v>571</v>
       </c>
-      <c r="AM15" s="106"/>
+      <c r="AM15" s="110"/>
       <c r="AN15" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="AO15" s="103"/>
-      <c r="AP15" s="103"/>
-      <c r="AQ15" s="107"/>
-      <c r="AR15" s="85" t="s">
+      <c r="AO15" s="117"/>
+      <c r="AP15" s="117"/>
+      <c r="AQ15" s="112"/>
+      <c r="AR15" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AS15" s="85"/>
-      <c r="AT15" s="87" t="s">
+      <c r="AS15" s="89"/>
+      <c r="AT15" s="93" t="s">
         <v>625</v>
       </c>
-      <c r="AU15" s="85"/>
-      <c r="AV15" s="87"/>
-      <c r="AW15" s="85"/>
-      <c r="AX15" s="85"/>
-      <c r="AY15" s="87"/>
-      <c r="AZ15" s="85"/>
-      <c r="BA15" s="86"/>
+      <c r="AU15" s="89"/>
+      <c r="AV15" s="93"/>
+      <c r="AW15" s="89"/>
+      <c r="AX15" s="89"/>
+      <c r="AY15" s="93"/>
+      <c r="AZ15" s="89"/>
+      <c r="BA15" s="90"/>
       <c r="BB15" s="88"/>
-      <c r="BC15" s="85"/>
-      <c r="BD15" s="85"/>
-      <c r="BE15" s="104"/>
-      <c r="BF15" s="87"/>
-      <c r="BG15" s="104"/>
-      <c r="BH15" s="87" t="s">
+      <c r="BC15" s="89"/>
+      <c r="BD15" s="89"/>
+      <c r="BE15" s="103"/>
+      <c r="BF15" s="93"/>
+      <c r="BG15" s="103"/>
+      <c r="BH15" s="93" t="s">
         <v>684</v>
       </c>
-      <c r="BI15" s="85" t="s">
+      <c r="BI15" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BJ15" s="87" t="s">
+      <c r="BJ15" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="BK15" s="85"/>
-      <c r="BL15" s="85"/>
-      <c r="BM15" s="85"/>
-      <c r="BN15" s="124"/>
-      <c r="BO15" s="85"/>
+      <c r="BK15" s="89"/>
+      <c r="BL15" s="89"/>
+      <c r="BM15" s="89"/>
+      <c r="BN15" s="107"/>
+      <c r="BO15" s="89"/>
       <c r="BP15" s="88"/>
-      <c r="BQ15" s="85" t="s">
+      <c r="BQ15" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="BR15" s="90" t="s">
+      <c r="BR15" s="94" t="s">
         <v>719</v>
       </c>
-      <c r="BS15" s="85"/>
-      <c r="BT15" s="87"/>
-      <c r="BU15" s="87"/>
-      <c r="BV15" s="65"/>
+      <c r="BS15" s="89"/>
+      <c r="BT15" s="93"/>
+      <c r="BU15" s="93"/>
+      <c r="BV15" s="90" t="s">
+        <v>726</v>
+      </c>
       <c r="BW15" s="42"/>
       <c r="BX15" s="42"/>
       <c r="BY15" s="42"/>
@@ -49289,9 +49350,9 @@
       <c r="B16" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="100" t="s">
+      <c r="C16" s="109"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="109" t="s">
         <v>90</v>
       </c>
       <c r="F16" s="55" t="s">
@@ -49300,7 +49361,7 @@
       <c r="G16" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="H16" s="99"/>
+      <c r="H16" s="104"/>
       <c r="I16" s="88" t="s">
         <v>177</v>
       </c>
@@ -49310,129 +49371,131 @@
       <c r="K16" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="L16" s="86"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="110"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="111"/>
       <c r="S16" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="T16" s="101"/>
+      <c r="T16" s="95"/>
       <c r="U16" s="88" t="s">
         <v>378</v>
       </c>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89" t="s">
+      <c r="V16" s="102"/>
+      <c r="W16" s="102" t="s">
         <v>403</v>
       </c>
-      <c r="X16" s="87"/>
-      <c r="Y16" s="101"/>
-      <c r="Z16" s="86"/>
+      <c r="X16" s="93"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="90"/>
       <c r="AA16" s="51" t="s">
         <v>449</v>
       </c>
       <c r="AB16" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AC16" s="109"/>
+      <c r="AC16" s="118"/>
       <c r="AD16" s="55" t="s">
         <v>501</v>
       </c>
       <c r="AE16" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="85" t="s">
+      <c r="AF16" s="113"/>
+      <c r="AG16" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AH16" s="85" t="s">
+      <c r="AH16" s="89" t="s">
         <v>548</v>
       </c>
-      <c r="AI16" s="85" t="s">
+      <c r="AI16" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="AJ16" s="109"/>
-      <c r="AK16" s="90" t="s">
+      <c r="AJ16" s="118"/>
+      <c r="AK16" s="94" t="s">
         <v>567</v>
       </c>
-      <c r="AL16" s="85"/>
-      <c r="AM16" s="87" t="s">
+      <c r="AL16" s="89"/>
+      <c r="AM16" s="93" t="s">
         <v>595</v>
       </c>
-      <c r="AN16" s="93" t="s">
+      <c r="AN16" s="113" t="s">
         <v>602</v>
       </c>
-      <c r="AO16" s="103"/>
-      <c r="AP16" s="103"/>
-      <c r="AQ16" s="107"/>
-      <c r="AR16" s="85"/>
-      <c r="AS16" s="85" t="s">
+      <c r="AO16" s="117"/>
+      <c r="AP16" s="117"/>
+      <c r="AQ16" s="112"/>
+      <c r="AR16" s="89"/>
+      <c r="AS16" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="AT16" s="87"/>
-      <c r="AU16" s="87" t="s">
+      <c r="AT16" s="93"/>
+      <c r="AU16" s="93" t="s">
         <v>633</v>
       </c>
-      <c r="AV16" s="87"/>
-      <c r="AW16" s="85" t="s">
+      <c r="AV16" s="93"/>
+      <c r="AW16" s="89" t="s">
         <v>58</v>
       </c>
       <c r="AX16" s="57" t="s">
         <v>653</v>
       </c>
-      <c r="AY16" s="85" t="s">
+      <c r="AY16" s="89" t="s">
         <v>17</v>
       </c>
       <c r="AZ16" s="88" t="s">
         <v>470</v>
       </c>
-      <c r="BA16" s="85" t="s">
+      <c r="BA16" s="89" t="s">
         <v>17</v>
       </c>
       <c r="BB16" s="88"/>
-      <c r="BC16" s="90" t="s">
+      <c r="BC16" s="94" t="s">
         <v>619</v>
       </c>
-      <c r="BD16" s="106" t="s">
+      <c r="BD16" s="110" t="s">
         <v>670</v>
       </c>
-      <c r="BE16" s="85" t="s">
+      <c r="BE16" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BF16" s="87"/>
-      <c r="BG16" s="104"/>
-      <c r="BH16" s="87"/>
-      <c r="BI16" s="85"/>
-      <c r="BJ16" s="87"/>
-      <c r="BK16" s="85" t="s">
+      <c r="BF16" s="93"/>
+      <c r="BG16" s="103"/>
+      <c r="BH16" s="93"/>
+      <c r="BI16" s="89"/>
+      <c r="BJ16" s="93"/>
+      <c r="BK16" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BL16" s="85" t="s">
+      <c r="BL16" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BM16" s="125" t="s">
+      <c r="BM16" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="BN16" s="124"/>
+      <c r="BN16" s="107"/>
       <c r="BO16" s="88" t="s">
         <v>700</v>
       </c>
-      <c r="BP16" s="102" t="s">
+      <c r="BP16" s="119" t="s">
         <v>416</v>
       </c>
-      <c r="BQ16" s="85"/>
-      <c r="BR16" s="90"/>
+      <c r="BQ16" s="89"/>
+      <c r="BR16" s="94"/>
       <c r="BS16" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="BT16" s="86" t="s">
+      <c r="BT16" s="90" t="s">
         <v>726</v>
       </c>
-      <c r="BU16" s="65"/>
-      <c r="BV16" s="65"/>
+      <c r="BU16" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="BV16" s="90"/>
       <c r="BW16" s="42"/>
       <c r="BX16" s="42"/>
       <c r="BY16" s="42"/>
@@ -49462,46 +49525,46 @@
       <c r="B17" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100" t="s">
+      <c r="C17" s="109"/>
+      <c r="D17" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="87" t="s">
+      <c r="E17" s="109"/>
+      <c r="F17" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="112" t="s">
+      <c r="G17" s="125" t="s">
         <v>122</v>
       </c>
       <c r="H17" s="51" t="s">
         <v>139</v>
       </c>
       <c r="I17" s="88"/>
-      <c r="J17" s="86" t="s">
+      <c r="J17" s="90" t="s">
         <v>21</v>
       </c>
       <c r="K17" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="L17" s="85" t="s">
+      <c r="L17" s="89" t="s">
         <v>240</v>
       </c>
       <c r="M17" s="88" t="s">
         <v>250</v>
       </c>
-      <c r="N17" s="100" t="s">
+      <c r="N17" s="109" t="s">
         <v>257</v>
       </c>
       <c r="O17" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="P17" s="100" t="s">
+      <c r="P17" s="109" t="s">
         <v>285</v>
       </c>
-      <c r="Q17" s="101" t="s">
+      <c r="Q17" s="95" t="s">
         <v>290</v>
       </c>
-      <c r="R17" s="110"/>
+      <c r="R17" s="111"/>
       <c r="S17" s="56" t="s">
         <v>332</v>
       </c>
@@ -49509,87 +49572,90 @@
         <v>338</v>
       </c>
       <c r="U17" s="88"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="102" t="s">
+      <c r="V17" s="102"/>
+      <c r="W17" s="102"/>
+      <c r="X17" s="119" t="s">
         <v>416</v>
       </c>
-      <c r="Y17" s="101" t="s">
+      <c r="Y17" s="95" t="s">
         <v>430</v>
       </c>
       <c r="Z17" s="55" t="s">
         <v>438</v>
       </c>
-      <c r="AA17" s="86" t="s">
+      <c r="AA17" s="90" t="s">
         <v>252</v>
       </c>
       <c r="AB17" s="57" t="s">
         <v>478</v>
       </c>
-      <c r="AC17" s="109"/>
+      <c r="AC17" s="118"/>
       <c r="AD17" s="55"/>
       <c r="AE17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AF17" s="93"/>
-      <c r="AG17" s="85"/>
-      <c r="AH17" s="85"/>
-      <c r="AI17" s="85"/>
-      <c r="AJ17" s="109"/>
-      <c r="AK17" s="90"/>
-      <c r="AL17" s="85" t="s">
+      <c r="AF17" s="113"/>
+      <c r="AG17" s="89"/>
+      <c r="AH17" s="89"/>
+      <c r="AI17" s="89"/>
+      <c r="AJ17" s="118"/>
+      <c r="AK17" s="94"/>
+      <c r="AL17" s="89" t="s">
         <v>572</v>
       </c>
-      <c r="AM17" s="87"/>
-      <c r="AN17" s="93"/>
-      <c r="AO17" s="103"/>
-      <c r="AP17" s="103"/>
-      <c r="AQ17" s="107"/>
-      <c r="AR17" s="86" t="s">
+      <c r="AM17" s="93"/>
+      <c r="AN17" s="113"/>
+      <c r="AO17" s="117"/>
+      <c r="AP17" s="117"/>
+      <c r="AQ17" s="112"/>
+      <c r="AR17" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AS17" s="85"/>
-      <c r="AT17" s="87"/>
-      <c r="AU17" s="87"/>
-      <c r="AV17" s="87"/>
-      <c r="AW17" s="85"/>
-      <c r="AX17" s="85" t="s">
+      <c r="AS17" s="89"/>
+      <c r="AT17" s="93"/>
+      <c r="AU17" s="93"/>
+      <c r="AV17" s="93"/>
+      <c r="AW17" s="89"/>
+      <c r="AX17" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AY17" s="85"/>
+      <c r="AY17" s="89"/>
       <c r="AZ17" s="88"/>
-      <c r="BA17" s="85"/>
+      <c r="BA17" s="89"/>
       <c r="BB17" s="88"/>
-      <c r="BC17" s="90"/>
-      <c r="BD17" s="106"/>
-      <c r="BE17" s="85"/>
-      <c r="BF17" s="87"/>
-      <c r="BG17" s="104"/>
-      <c r="BH17" s="85" t="s">
+      <c r="BC17" s="94"/>
+      <c r="BD17" s="110"/>
+      <c r="BE17" s="89"/>
+      <c r="BF17" s="93"/>
+      <c r="BG17" s="103"/>
+      <c r="BH17" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BI17" s="85" t="s">
+      <c r="BI17" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BJ17" s="85" t="s">
+      <c r="BJ17" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BK17" s="85"/>
-      <c r="BL17" s="85"/>
-      <c r="BM17" s="126"/>
-      <c r="BN17" s="124"/>
+      <c r="BK17" s="89"/>
+      <c r="BL17" s="89"/>
+      <c r="BM17" s="100"/>
+      <c r="BN17" s="107"/>
       <c r="BO17" s="88"/>
-      <c r="BP17" s="85"/>
-      <c r="BQ17" s="85" t="s">
+      <c r="BP17" s="89"/>
+      <c r="BQ17" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BR17" s="85" t="s">
+      <c r="BR17" s="89" t="s">
         <v>13</v>
       </c>
       <c r="BS17" s="88"/>
-      <c r="BT17" s="86"/>
-      <c r="BU17" s="2"/>
-      <c r="BV17" s="2"/>
+      <c r="BT17" s="90"/>
+      <c r="BU17" s="90"/>
+      <c r="BV17" s="90" t="s">
+        <v>159</v>
+      </c>
+      <c r="BX17" s="42"/>
       <c r="CA17" s="2"/>
       <c r="CB17" s="2"/>
       <c r="CC17" s="2"/>
@@ -49602,145 +49668,147 @@
       <c r="A18" s="10">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="100"/>
-      <c r="E18" s="110" t="s">
+      <c r="D18" s="109"/>
+      <c r="E18" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="87"/>
-      <c r="G18" s="112"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="125"/>
       <c r="H18" s="62" t="s">
         <v>140</v>
       </c>
       <c r="I18" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="J18" s="86"/>
+      <c r="J18" s="90"/>
       <c r="K18" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="L18" s="85"/>
+      <c r="L18" s="89"/>
       <c r="M18" s="88"/>
-      <c r="N18" s="100"/>
+      <c r="N18" s="109"/>
       <c r="O18" s="88"/>
-      <c r="P18" s="100"/>
-      <c r="Q18" s="101"/>
-      <c r="R18" s="101" t="s">
+      <c r="P18" s="109"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="S18" s="101" t="s">
+      <c r="S18" s="95" t="s">
         <v>331</v>
       </c>
-      <c r="T18" s="85" t="s">
+      <c r="T18" s="89" t="s">
         <v>365</v>
       </c>
-      <c r="U18" s="101" t="s">
+      <c r="U18" s="95" t="s">
         <v>379</v>
       </c>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="102"/>
-      <c r="Y18" s="101"/>
+      <c r="V18" s="102"/>
+      <c r="W18" s="102"/>
+      <c r="X18" s="119"/>
+      <c r="Y18" s="95"/>
       <c r="Z18" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AA18" s="86"/>
-      <c r="AB18" s="90" t="s">
+      <c r="AA18" s="90"/>
+      <c r="AB18" s="94" t="s">
         <v>477</v>
       </c>
-      <c r="AC18" s="85" t="s">
+      <c r="AC18" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="AD18" s="85" t="s">
+      <c r="AD18" s="89" t="s">
         <v>502</v>
       </c>
-      <c r="AE18" s="85" t="s">
+      <c r="AE18" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AF18" s="93"/>
+      <c r="AF18" s="113"/>
       <c r="AG18" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="AH18" s="85"/>
-      <c r="AI18" s="85"/>
-      <c r="AJ18" s="109"/>
-      <c r="AK18" s="85" t="s">
+      <c r="AH18" s="89"/>
+      <c r="AI18" s="89"/>
+      <c r="AJ18" s="118"/>
+      <c r="AK18" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="AL18" s="85"/>
-      <c r="AM18" s="101" t="s">
+      <c r="AL18" s="89"/>
+      <c r="AM18" s="95" t="s">
         <v>261</v>
       </c>
       <c r="AN18" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="AO18" s="103"/>
-      <c r="AP18" s="103"/>
-      <c r="AQ18" s="107"/>
-      <c r="AR18" s="86"/>
-      <c r="AS18" s="100" t="s">
+      <c r="AO18" s="117"/>
+      <c r="AP18" s="117"/>
+      <c r="AQ18" s="112"/>
+      <c r="AR18" s="90"/>
+      <c r="AS18" s="109" t="s">
         <v>177</v>
       </c>
-      <c r="AT18" s="87"/>
-      <c r="AU18" s="87"/>
-      <c r="AV18" s="85" t="s">
+      <c r="AT18" s="93"/>
+      <c r="AU18" s="93"/>
+      <c r="AV18" s="89" t="s">
         <v>17</v>
       </c>
       <c r="AW18" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="AX18" s="85"/>
-      <c r="AY18" s="106" t="s">
+      <c r="AX18" s="89"/>
+      <c r="AY18" s="110" t="s">
         <v>660</v>
       </c>
-      <c r="AZ18" s="100" t="s">
+      <c r="AZ18" s="109" t="s">
         <v>193</v>
       </c>
-      <c r="BA18" s="100" t="s">
+      <c r="BA18" s="109" t="s">
         <v>177</v>
       </c>
       <c r="BB18" s="88"/>
-      <c r="BC18" s="100" t="s">
+      <c r="BC18" s="109" t="s">
         <v>177</v>
       </c>
-      <c r="BD18" s="85" t="s">
+      <c r="BD18" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BE18" s="85" t="s">
+      <c r="BE18" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BF18" s="87"/>
-      <c r="BG18" s="104"/>
-      <c r="BH18" s="85"/>
-      <c r="BI18" s="85"/>
-      <c r="BJ18" s="85"/>
-      <c r="BK18" s="85" t="s">
+      <c r="BF18" s="93"/>
+      <c r="BG18" s="103"/>
+      <c r="BH18" s="89"/>
+      <c r="BI18" s="89"/>
+      <c r="BJ18" s="89"/>
+      <c r="BK18" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BL18" s="99" t="s">
+      <c r="BL18" s="104" t="s">
         <v>693</v>
       </c>
-      <c r="BM18" s="126"/>
-      <c r="BN18" s="124"/>
+      <c r="BM18" s="100"/>
+      <c r="BN18" s="107"/>
       <c r="BO18" s="88" t="s">
         <v>700</v>
       </c>
-      <c r="BP18" s="85"/>
-      <c r="BQ18" s="85"/>
-      <c r="BR18" s="85"/>
-      <c r="BS18" s="86" t="s">
+      <c r="BP18" s="89"/>
+      <c r="BQ18" s="89"/>
+      <c r="BR18" s="89"/>
+      <c r="BS18" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="BT18" s="87" t="s">
+      <c r="BT18" s="93" t="s">
         <v>728</v>
       </c>
-      <c r="BU18" s="65"/>
-      <c r="BV18" s="65"/>
+      <c r="BU18" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="BV18" s="90"/>
       <c r="BW18" s="42"/>
       <c r="BX18" s="42"/>
       <c r="BY18" s="42"/>
@@ -49767,131 +49835,135 @@
       <c r="A19" s="10">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B19" s="85"/>
-      <c r="C19" s="87"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="93"/>
       <c r="D19" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="110"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="113" t="s">
+      <c r="E19" s="111"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="126" t="s">
         <v>123</v>
       </c>
       <c r="H19" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="I19" s="90" t="s">
+      <c r="I19" s="94" t="s">
         <v>179</v>
       </c>
-      <c r="J19" s="90" t="s">
+      <c r="J19" s="94" t="s">
         <v>196</v>
       </c>
-      <c r="K19" s="86" t="s">
+      <c r="K19" s="90" t="s">
         <v>219</v>
       </c>
-      <c r="L19" s="85"/>
+      <c r="L19" s="89"/>
       <c r="M19" s="88"/>
-      <c r="N19" s="100"/>
+      <c r="N19" s="109"/>
       <c r="O19" s="88"/>
-      <c r="P19" s="106" t="s">
+      <c r="P19" s="110" t="s">
         <v>287</v>
       </c>
       <c r="Q19" s="63" t="s">
         <v>292</v>
       </c>
-      <c r="R19" s="101"/>
-      <c r="S19" s="101"/>
-      <c r="T19" s="85"/>
-      <c r="U19" s="101"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="89"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="102"/>
       <c r="X19" s="55" t="s">
         <v>409</v>
       </c>
-      <c r="Y19" s="101"/>
+      <c r="Y19" s="95"/>
       <c r="Z19" s="52" t="s">
         <v>439</v>
       </c>
-      <c r="AA19" s="86"/>
-      <c r="AB19" s="90"/>
-      <c r="AC19" s="85"/>
-      <c r="AD19" s="85"/>
-      <c r="AE19" s="85"/>
-      <c r="AF19" s="93"/>
+      <c r="AA19" s="90"/>
+      <c r="AB19" s="94"/>
+      <c r="AC19" s="89"/>
+      <c r="AD19" s="89"/>
+      <c r="AE19" s="89"/>
+      <c r="AF19" s="113"/>
       <c r="AG19" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="AH19" s="104" t="s">
+      <c r="AH19" s="103" t="s">
         <v>553</v>
       </c>
-      <c r="AI19" s="104" t="s">
+      <c r="AI19" s="103" t="s">
         <v>408</v>
       </c>
       <c r="AJ19" s="61" t="s">
         <v>558</v>
       </c>
-      <c r="AK19" s="85"/>
-      <c r="AL19" s="85"/>
-      <c r="AM19" s="101"/>
+      <c r="AK19" s="89"/>
+      <c r="AL19" s="89"/>
+      <c r="AM19" s="95"/>
       <c r="AN19" s="55" t="s">
         <v>603</v>
       </c>
-      <c r="AO19" s="103"/>
-      <c r="AP19" s="103"/>
-      <c r="AQ19" s="107"/>
-      <c r="AR19" s="86" t="s">
+      <c r="AO19" s="117"/>
+      <c r="AP19" s="117"/>
+      <c r="AQ19" s="112"/>
+      <c r="AR19" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AS19" s="100"/>
-      <c r="AT19" s="99" t="s">
+      <c r="AS19" s="109"/>
+      <c r="AT19" s="104" t="s">
         <v>624</v>
       </c>
-      <c r="AU19" s="87"/>
-      <c r="AV19" s="85"/>
-      <c r="AW19" s="85" t="s">
+      <c r="AU19" s="93"/>
+      <c r="AV19" s="89"/>
+      <c r="AW19" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AX19" s="86" t="s">
+      <c r="AX19" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AY19" s="106"/>
-      <c r="AZ19" s="100"/>
-      <c r="BA19" s="100"/>
+      <c r="AY19" s="110"/>
+      <c r="AZ19" s="109"/>
+      <c r="BA19" s="109"/>
       <c r="BB19" s="88"/>
-      <c r="BC19" s="100"/>
-      <c r="BD19" s="85"/>
-      <c r="BE19" s="85"/>
-      <c r="BF19" s="87"/>
-      <c r="BG19" s="104"/>
-      <c r="BH19" s="85" t="s">
+      <c r="BC19" s="109"/>
+      <c r="BD19" s="89"/>
+      <c r="BE19" s="89"/>
+      <c r="BF19" s="93"/>
+      <c r="BG19" s="103"/>
+      <c r="BH19" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BI19" s="87" t="s">
+      <c r="BI19" s="93" t="s">
         <v>687</v>
       </c>
-      <c r="BJ19" s="85" t="s">
+      <c r="BJ19" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BK19" s="85"/>
-      <c r="BL19" s="99"/>
-      <c r="BM19" s="127"/>
-      <c r="BN19" s="85" t="s">
+      <c r="BK19" s="89"/>
+      <c r="BL19" s="104"/>
+      <c r="BM19" s="101"/>
+      <c r="BN19" s="89" t="s">
         <v>58</v>
       </c>
       <c r="BO19" s="88"/>
-      <c r="BP19" s="87" t="s">
+      <c r="BP19" s="93" t="s">
         <v>697</v>
       </c>
       <c r="BQ19" s="67" t="s">
         <v>710</v>
       </c>
-      <c r="BR19" s="90" t="s">
+      <c r="BR19" s="94" t="s">
         <v>619</v>
       </c>
-      <c r="BS19" s="86"/>
-      <c r="BT19" s="87"/>
-      <c r="BU19" s="65"/>
-      <c r="BV19" s="65"/>
+      <c r="BS19" s="90"/>
+      <c r="BT19" s="93"/>
+      <c r="BU19" s="90" t="s">
+        <v>726</v>
+      </c>
+      <c r="BV19" s="136" t="s">
+        <v>768</v>
+      </c>
       <c r="BW19" s="42"/>
       <c r="BX19" s="42"/>
       <c r="BY19" s="42"/>
@@ -49918,35 +49990,35 @@
       <c r="A20" s="10">
         <v>0.625</v>
       </c>
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="101" t="s">
+      <c r="D20" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="110"/>
-      <c r="F20" s="108" t="s">
+      <c r="E20" s="111"/>
+      <c r="F20" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="113"/>
+      <c r="G20" s="126"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="86"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="90"/>
       <c r="L20" s="61" t="s">
         <v>241</v>
       </c>
       <c r="M20" s="88"/>
-      <c r="N20" s="100"/>
+      <c r="N20" s="109"/>
       <c r="O20" s="88"/>
-      <c r="P20" s="106"/>
+      <c r="P20" s="110"/>
       <c r="Q20" s="61" t="s">
         <v>291</v>
       </c>
-      <c r="R20" s="85" t="s">
+      <c r="R20" s="89" t="s">
         <v>13</v>
       </c>
       <c r="S20" s="62" t="s">
@@ -49955,116 +50027,118 @@
       <c r="T20" s="51" t="s">
         <v>366</v>
       </c>
-      <c r="U20" s="85" t="s">
+      <c r="U20" s="89" t="s">
         <v>380</v>
       </c>
-      <c r="V20" s="89"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="101" t="s">
+      <c r="V20" s="102"/>
+      <c r="W20" s="102"/>
+      <c r="X20" s="95" t="s">
         <v>413</v>
       </c>
       <c r="Y20" s="51" t="s">
         <v>426</v>
       </c>
-      <c r="Z20" s="90" t="s">
+      <c r="Z20" s="94" t="s">
         <v>441</v>
       </c>
       <c r="AA20" s="62" t="s">
         <v>450</v>
       </c>
-      <c r="AB20" s="90"/>
-      <c r="AC20" s="85" t="s">
+      <c r="AB20" s="94"/>
+      <c r="AC20" s="89" t="s">
         <v>487</v>
       </c>
-      <c r="AD20" s="85"/>
-      <c r="AE20" s="85"/>
-      <c r="AF20" s="93"/>
-      <c r="AG20" s="101" t="s">
+      <c r="AD20" s="89"/>
+      <c r="AE20" s="89"/>
+      <c r="AF20" s="113"/>
+      <c r="AG20" s="95" t="s">
         <v>536</v>
       </c>
-      <c r="AH20" s="104"/>
-      <c r="AI20" s="104"/>
-      <c r="AJ20" s="87" t="s">
+      <c r="AH20" s="103"/>
+      <c r="AI20" s="103"/>
+      <c r="AJ20" s="93" t="s">
         <v>560</v>
       </c>
-      <c r="AK20" s="86" t="s">
+      <c r="AK20" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AL20" s="86" t="s">
+      <c r="AL20" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AM20" s="99" t="s">
+      <c r="AM20" s="104" t="s">
         <v>596</v>
       </c>
       <c r="AN20" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AO20" s="103"/>
-      <c r="AP20" s="103"/>
-      <c r="AQ20" s="107" t="s">
+      <c r="AO20" s="117"/>
+      <c r="AP20" s="117"/>
+      <c r="AQ20" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="AR20" s="86"/>
-      <c r="AS20" s="85" t="s">
+      <c r="AR20" s="90"/>
+      <c r="AS20" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AT20" s="99"/>
-      <c r="AU20" s="87" t="s">
+      <c r="AT20" s="104"/>
+      <c r="AU20" s="93" t="s">
         <v>633</v>
       </c>
-      <c r="AV20" s="87" t="s">
+      <c r="AV20" s="93" t="s">
         <v>633</v>
       </c>
-      <c r="AW20" s="85"/>
-      <c r="AX20" s="86"/>
-      <c r="AY20" s="106"/>
-      <c r="AZ20" s="107" t="s">
+      <c r="AW20" s="89"/>
+      <c r="AX20" s="90"/>
+      <c r="AY20" s="110"/>
+      <c r="AZ20" s="112" t="s">
         <v>669</v>
       </c>
-      <c r="BA20" s="85" t="s">
+      <c r="BA20" s="89" t="s">
         <v>13</v>
       </c>
       <c r="BB20" s="88"/>
-      <c r="BC20" s="85" t="s">
+      <c r="BC20" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BD20" s="85" t="s">
+      <c r="BD20" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BE20" s="86" t="s">
+      <c r="BE20" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="BF20" s="87"/>
-      <c r="BG20" s="85" t="s">
+      <c r="BF20" s="93"/>
+      <c r="BG20" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BH20" s="85"/>
-      <c r="BI20" s="87"/>
-      <c r="BJ20" s="85"/>
+      <c r="BH20" s="89"/>
+      <c r="BI20" s="93"/>
+      <c r="BJ20" s="89"/>
       <c r="BK20" s="88" t="s">
         <v>670</v>
       </c>
-      <c r="BL20" s="99"/>
+      <c r="BL20" s="104"/>
       <c r="BM20" s="88" t="s">
         <v>670</v>
       </c>
-      <c r="BN20" s="85"/>
-      <c r="BO20" s="90" t="s">
+      <c r="BN20" s="89"/>
+      <c r="BO20" s="94" t="s">
         <v>701</v>
       </c>
-      <c r="BP20" s="87"/>
-      <c r="BQ20" s="87" t="s">
+      <c r="BP20" s="93"/>
+      <c r="BQ20" s="93" t="s">
         <v>711</v>
       </c>
-      <c r="BR20" s="90"/>
-      <c r="BS20" s="97" t="s">
+      <c r="BR20" s="94"/>
+      <c r="BS20" s="86" t="s">
         <v>723</v>
       </c>
-      <c r="BT20" s="97" t="s">
+      <c r="BT20" s="86" t="s">
         <v>729</v>
       </c>
-      <c r="BU20" s="65"/>
-      <c r="BV20" s="65"/>
+      <c r="BU20" s="90"/>
+      <c r="BV20" s="137" t="s">
+        <v>769</v>
+      </c>
       <c r="BW20" s="42"/>
       <c r="BX20" s="42"/>
       <c r="BY20" s="42"/>
@@ -50091,135 +50165,139 @@
       <c r="A21" s="10">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B21" s="100"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="101"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="95"/>
       <c r="E21" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="108"/>
-      <c r="G21" s="113"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="126"/>
       <c r="H21" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="I21" s="86" t="s">
+      <c r="I21" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="110" t="s">
+      <c r="J21" s="111" t="s">
         <v>197</v>
       </c>
       <c r="K21" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="L21" s="86" t="s">
+      <c r="L21" s="90" t="s">
         <v>242</v>
       </c>
       <c r="M21" s="88"/>
       <c r="N21" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="O21" s="86" t="s">
+      <c r="O21" s="90" t="s">
         <v>273</v>
       </c>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="86" t="s">
+      <c r="P21" s="110"/>
+      <c r="Q21" s="90" t="s">
         <v>298</v>
       </c>
-      <c r="R21" s="85"/>
-      <c r="S21" s="86" t="s">
+      <c r="R21" s="89"/>
+      <c r="S21" s="90" t="s">
         <v>327</v>
       </c>
       <c r="T21" s="88" t="s">
         <v>367</v>
       </c>
-      <c r="U21" s="85"/>
-      <c r="V21" s="100" t="s">
+      <c r="U21" s="89"/>
+      <c r="V21" s="109" t="s">
         <v>390</v>
       </c>
       <c r="W21" s="61" t="s">
         <v>404</v>
       </c>
-      <c r="X21" s="101"/>
-      <c r="Y21" s="101" t="s">
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="Z21" s="90"/>
-      <c r="AA21" s="105" t="s">
+      <c r="Z21" s="94"/>
+      <c r="AA21" s="114" t="s">
         <v>463</v>
       </c>
-      <c r="AB21" s="106" t="s">
+      <c r="AB21" s="110" t="s">
         <v>473</v>
       </c>
-      <c r="AC21" s="85"/>
-      <c r="AD21" s="85"/>
-      <c r="AE21" s="85"/>
-      <c r="AF21" s="93"/>
-      <c r="AG21" s="101"/>
-      <c r="AH21" s="104"/>
-      <c r="AI21" s="104"/>
-      <c r="AJ21" s="87"/>
-      <c r="AK21" s="86"/>
-      <c r="AL21" s="86"/>
-      <c r="AM21" s="99"/>
+      <c r="AC21" s="89"/>
+      <c r="AD21" s="89"/>
+      <c r="AE21" s="89"/>
+      <c r="AF21" s="113"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="103"/>
+      <c r="AI21" s="103"/>
+      <c r="AJ21" s="93"/>
+      <c r="AK21" s="90"/>
+      <c r="AL21" s="90"/>
+      <c r="AM21" s="104"/>
       <c r="AN21" s="53" t="s">
         <v>604</v>
       </c>
-      <c r="AO21" s="103"/>
-      <c r="AP21" s="103"/>
-      <c r="AQ21" s="107"/>
-      <c r="AR21" s="107" t="s">
+      <c r="AO21" s="117"/>
+      <c r="AP21" s="117"/>
+      <c r="AQ21" s="112"/>
+      <c r="AR21" s="112" t="s">
         <v>199</v>
       </c>
-      <c r="AS21" s="85"/>
-      <c r="AT21" s="86" t="s">
+      <c r="AS21" s="89"/>
+      <c r="AT21" s="90" t="s">
         <v>626</v>
       </c>
-      <c r="AU21" s="87"/>
-      <c r="AV21" s="87"/>
-      <c r="AW21" s="85" t="s">
+      <c r="AU21" s="93"/>
+      <c r="AV21" s="93"/>
+      <c r="AW21" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AX21" s="106" t="s">
+      <c r="AX21" s="110" t="s">
         <v>656</v>
       </c>
-      <c r="AY21" s="87" t="s">
+      <c r="AY21" s="93" t="s">
         <v>661</v>
       </c>
-      <c r="AZ21" s="107"/>
-      <c r="BA21" s="85"/>
+      <c r="AZ21" s="112"/>
+      <c r="BA21" s="89"/>
       <c r="BB21" s="88"/>
-      <c r="BC21" s="85"/>
-      <c r="BD21" s="85"/>
-      <c r="BE21" s="86"/>
-      <c r="BF21" s="87"/>
-      <c r="BG21" s="85"/>
-      <c r="BH21" s="86" t="s">
+      <c r="BC21" s="89"/>
+      <c r="BD21" s="89"/>
+      <c r="BE21" s="90"/>
+      <c r="BF21" s="93"/>
+      <c r="BG21" s="89"/>
+      <c r="BH21" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="BI21" s="87" t="s">
+      <c r="BI21" s="93" t="s">
         <v>688</v>
       </c>
       <c r="BJ21" s="88" t="s">
         <v>670</v>
       </c>
       <c r="BK21" s="88"/>
-      <c r="BL21" s="99"/>
+      <c r="BL21" s="104"/>
       <c r="BM21" s="88"/>
-      <c r="BN21" s="94" t="s">
+      <c r="BN21" s="105" t="s">
         <v>695</v>
       </c>
-      <c r="BO21" s="90"/>
-      <c r="BP21" s="101" t="s">
+      <c r="BO21" s="94"/>
+      <c r="BP21" s="95" t="s">
         <v>702</v>
       </c>
-      <c r="BQ21" s="87"/>
-      <c r="BR21" s="86" t="s">
+      <c r="BQ21" s="93"/>
+      <c r="BR21" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="BS21" s="98"/>
-      <c r="BT21" s="98"/>
-      <c r="BU21" s="65"/>
-      <c r="BV21" s="65"/>
+      <c r="BS21" s="87"/>
+      <c r="BT21" s="87"/>
+      <c r="BU21" s="90" t="s">
+        <v>726</v>
+      </c>
+      <c r="BV21" s="113" t="s">
+        <v>767</v>
+      </c>
       <c r="BW21" s="42"/>
       <c r="BX21" s="42"/>
       <c r="BY21" s="42"/>
@@ -50249,58 +50327,58 @@
       <c r="B22" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="100" t="s">
+      <c r="C22" s="109" t="s">
         <v>66</v>
       </c>
       <c r="D22" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="86" t="s">
+      <c r="E22" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="108"/>
-      <c r="G22" s="99" t="s">
+      <c r="F22" s="115"/>
+      <c r="G22" s="104" t="s">
         <v>124</v>
       </c>
       <c r="H22" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="I22" s="86"/>
-      <c r="J22" s="110"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="111"/>
       <c r="K22" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="L22" s="86"/>
+      <c r="L22" s="90"/>
       <c r="M22" s="88"/>
       <c r="N22" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="O22" s="86"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="99" t="s">
+      <c r="O22" s="90"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="104" t="s">
         <v>317</v>
       </c>
-      <c r="S22" s="86"/>
+      <c r="S22" s="90"/>
       <c r="T22" s="88"/>
-      <c r="U22" s="85"/>
-      <c r="V22" s="100"/>
-      <c r="W22" s="86" t="s">
+      <c r="U22" s="89"/>
+      <c r="V22" s="109"/>
+      <c r="W22" s="90" t="s">
         <v>405</v>
       </c>
-      <c r="X22" s="101" t="s">
+      <c r="X22" s="95" t="s">
         <v>414</v>
       </c>
-      <c r="Y22" s="101"/>
-      <c r="Z22" s="101" t="s">
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="95" t="s">
         <v>442</v>
       </c>
-      <c r="AA22" s="105"/>
-      <c r="AB22" s="106"/>
-      <c r="AC22" s="101" t="s">
+      <c r="AA22" s="114"/>
+      <c r="AB22" s="110"/>
+      <c r="AC22" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="AD22" s="101" t="s">
+      <c r="AD22" s="95" t="s">
         <v>503</v>
       </c>
       <c r="AE22" s="52" t="s">
@@ -50309,84 +50387,84 @@
       <c r="AF22" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="AG22" s="101"/>
-      <c r="AH22" s="104"/>
-      <c r="AI22" s="104"/>
-      <c r="AJ22" s="85" t="s">
+      <c r="AG22" s="95"/>
+      <c r="AH22" s="103"/>
+      <c r="AI22" s="103"/>
+      <c r="AJ22" s="89" t="s">
         <v>561</v>
       </c>
-      <c r="AK22" s="85" t="s">
+      <c r="AK22" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AL22" s="108" t="s">
+      <c r="AL22" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="AM22" s="85" t="s">
+      <c r="AM22" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="AN22" s="87" t="s">
+      <c r="AN22" s="93" t="s">
         <v>605</v>
       </c>
-      <c r="AO22" s="103"/>
-      <c r="AP22" s="103"/>
-      <c r="AQ22" s="107"/>
-      <c r="AR22" s="107"/>
-      <c r="AS22" s="85" t="s">
+      <c r="AO22" s="117"/>
+      <c r="AP22" s="117"/>
+      <c r="AQ22" s="112"/>
+      <c r="AR22" s="112"/>
+      <c r="AS22" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AT22" s="86"/>
-      <c r="AU22" s="87"/>
-      <c r="AV22" s="87"/>
-      <c r="AW22" s="85"/>
-      <c r="AX22" s="106"/>
-      <c r="AY22" s="87"/>
-      <c r="AZ22" s="107"/>
-      <c r="BA22" s="85" t="s">
+      <c r="AT22" s="90"/>
+      <c r="AU22" s="93"/>
+      <c r="AV22" s="93"/>
+      <c r="AW22" s="89"/>
+      <c r="AX22" s="110"/>
+      <c r="AY22" s="93"/>
+      <c r="AZ22" s="112"/>
+      <c r="BA22" s="89" t="s">
         <v>13</v>
       </c>
       <c r="BB22" s="53" t="s">
         <v>671</v>
       </c>
-      <c r="BC22" s="85" t="s">
+      <c r="BC22" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="BD22" s="104" t="s">
+      <c r="BD22" s="103" t="s">
         <v>647</v>
       </c>
-      <c r="BE22" s="85" t="s">
+      <c r="BE22" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BF22" s="87"/>
-      <c r="BG22" s="85" t="s">
+      <c r="BF22" s="93"/>
+      <c r="BG22" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BH22" s="86"/>
-      <c r="BI22" s="87"/>
+      <c r="BH22" s="90"/>
+      <c r="BI22" s="93"/>
       <c r="BJ22" s="88"/>
-      <c r="BK22" s="86" t="s">
+      <c r="BK22" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="BL22" s="99"/>
-      <c r="BM22" s="86" t="s">
+      <c r="BL22" s="104"/>
+      <c r="BM22" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="BN22" s="95"/>
-      <c r="BO22" s="87" t="s">
+      <c r="BN22" s="108"/>
+      <c r="BO22" s="93" t="s">
         <v>697</v>
       </c>
-      <c r="BP22" s="101"/>
+      <c r="BP22" s="95"/>
       <c r="BQ22" s="88" t="s">
         <v>670</v>
       </c>
-      <c r="BR22" s="86"/>
-      <c r="BS22" s="90" t="s">
+      <c r="BR22" s="90"/>
+      <c r="BS22" s="94" t="s">
         <v>723</v>
       </c>
       <c r="BT22" s="88" t="s">
         <v>647</v>
       </c>
-      <c r="BU22" s="65"/>
-      <c r="BV22" s="65"/>
+      <c r="BU22" s="90"/>
+      <c r="BV22" s="90"/>
       <c r="BW22" s="42"/>
       <c r="BX22" s="42"/>
       <c r="BY22" s="42"/>
@@ -50413,64 +50491,64 @@
       <c r="A23" s="10">
         <v>0.6875</v>
       </c>
-      <c r="B23" s="100" t="s">
+      <c r="B23" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="100"/>
-      <c r="D23" s="87" t="s">
+      <c r="C23" s="109"/>
+      <c r="D23" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="86"/>
-      <c r="F23" s="99" t="s">
+      <c r="E23" s="90"/>
+      <c r="F23" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="99"/>
-      <c r="H23" s="108" t="s">
+      <c r="G23" s="104"/>
+      <c r="H23" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="I23" s="86"/>
-      <c r="J23" s="93" t="s">
+      <c r="I23" s="90"/>
+      <c r="J23" s="113" t="s">
         <v>198</v>
       </c>
       <c r="K23" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="L23" s="110" t="s">
+      <c r="L23" s="111" t="s">
         <v>243</v>
       </c>
       <c r="M23" s="88"/>
-      <c r="N23" s="110" t="s">
+      <c r="N23" s="111" t="s">
         <v>265</v>
       </c>
-      <c r="O23" s="99" t="s">
+      <c r="O23" s="104" t="s">
         <v>274</v>
       </c>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="101" t="s">
+      <c r="P23" s="110"/>
+      <c r="Q23" s="95" t="s">
         <v>290</v>
       </c>
-      <c r="R23" s="99"/>
-      <c r="S23" s="86"/>
+      <c r="R23" s="104"/>
+      <c r="S23" s="90"/>
       <c r="T23" s="88"/>
-      <c r="U23" s="87" t="s">
+      <c r="U23" s="93" t="s">
         <v>381</v>
       </c>
-      <c r="V23" s="87" t="s">
+      <c r="V23" s="93" t="s">
         <v>391</v>
       </c>
-      <c r="W23" s="86"/>
-      <c r="X23" s="101"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="95"/>
       <c r="Y23" s="88" t="s">
         <v>427</v>
       </c>
-      <c r="Z23" s="101"/>
+      <c r="Z23" s="95"/>
       <c r="AA23" s="52" t="s">
         <v>465</v>
       </c>
-      <c r="AB23" s="106"/>
-      <c r="AC23" s="101"/>
-      <c r="AD23" s="101"/>
-      <c r="AE23" s="101" t="s">
+      <c r="AB23" s="110"/>
+      <c r="AC23" s="95"/>
+      <c r="AD23" s="95"/>
+      <c r="AE23" s="95" t="s">
         <v>45</v>
       </c>
       <c r="AF23" s="51" t="s">
@@ -50479,63 +50557,67 @@
       <c r="AG23" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="AH23" s="104"/>
-      <c r="AI23" s="104"/>
-      <c r="AJ23" s="85"/>
-      <c r="AK23" s="85"/>
-      <c r="AL23" s="108"/>
-      <c r="AM23" s="85"/>
-      <c r="AN23" s="87"/>
-      <c r="AO23" s="103"/>
-      <c r="AP23" s="103"/>
-      <c r="AQ23" s="107"/>
-      <c r="AR23" s="107"/>
-      <c r="AS23" s="85"/>
-      <c r="AT23" s="85" t="s">
+      <c r="AH23" s="103"/>
+      <c r="AI23" s="103"/>
+      <c r="AJ23" s="89"/>
+      <c r="AK23" s="89"/>
+      <c r="AL23" s="115"/>
+      <c r="AM23" s="89"/>
+      <c r="AN23" s="93"/>
+      <c r="AO23" s="117"/>
+      <c r="AP23" s="117"/>
+      <c r="AQ23" s="112"/>
+      <c r="AR23" s="112"/>
+      <c r="AS23" s="89"/>
+      <c r="AT23" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AU23" s="87"/>
-      <c r="AV23" s="87"/>
-      <c r="AW23" s="105" t="s">
+      <c r="AU23" s="93"/>
+      <c r="AV23" s="93"/>
+      <c r="AW23" s="114" t="s">
         <v>646</v>
       </c>
-      <c r="AX23" s="106"/>
+      <c r="AX23" s="110"/>
       <c r="AY23" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="AZ23" s="107"/>
-      <c r="BA23" s="85"/>
-      <c r="BB23" s="85" t="s">
+      <c r="AZ23" s="112"/>
+      <c r="BA23" s="89"/>
+      <c r="BB23" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BC23" s="85"/>
-      <c r="BD23" s="104"/>
-      <c r="BE23" s="85"/>
-      <c r="BF23" s="87"/>
-      <c r="BG23" s="85"/>
-      <c r="BH23" s="86"/>
-      <c r="BI23" s="87" t="s">
+      <c r="BC23" s="89"/>
+      <c r="BD23" s="103"/>
+      <c r="BE23" s="89"/>
+      <c r="BF23" s="93"/>
+      <c r="BG23" s="89"/>
+      <c r="BH23" s="90"/>
+      <c r="BI23" s="93" t="s">
         <v>689</v>
       </c>
-      <c r="BJ23" s="86" t="s">
+      <c r="BJ23" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="BK23" s="86"/>
-      <c r="BL23" s="99"/>
-      <c r="BM23" s="86"/>
-      <c r="BN23" s="95"/>
-      <c r="BO23" s="87"/>
+      <c r="BK23" s="90"/>
+      <c r="BL23" s="104"/>
+      <c r="BM23" s="90"/>
+      <c r="BN23" s="108"/>
+      <c r="BO23" s="93"/>
       <c r="BP23" s="67" t="s">
         <v>707</v>
       </c>
       <c r="BQ23" s="88"/>
-      <c r="BR23" s="85" t="s">
+      <c r="BR23" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BS23" s="90"/>
+      <c r="BS23" s="94"/>
       <c r="BT23" s="88"/>
-      <c r="BU23" s="65"/>
-      <c r="BV23" s="65"/>
+      <c r="BU23" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="BV23" s="113" t="s">
+        <v>767</v>
+      </c>
       <c r="BW23" s="42"/>
       <c r="BX23" s="42"/>
       <c r="BY23" s="42"/>
@@ -50562,50 +50644,50 @@
       <c r="A24" s="10">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="87"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="93"/>
       <c r="E24" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="99"/>
+      <c r="F24" s="104"/>
       <c r="G24" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="H24" s="108"/>
+      <c r="H24" s="115"/>
       <c r="I24" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="J24" s="93"/>
-      <c r="K24" s="110" t="s">
+      <c r="J24" s="113"/>
+      <c r="K24" s="111" t="s">
         <v>207</v>
       </c>
-      <c r="L24" s="110"/>
+      <c r="L24" s="111"/>
       <c r="M24" s="88"/>
-      <c r="N24" s="110"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="85" t="s">
+      <c r="N24" s="111"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="89" t="s">
         <v>17</v>
       </c>
       <c r="S24" s="62" t="s">
         <v>329</v>
       </c>
       <c r="T24" s="88"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="87"/>
+      <c r="U24" s="93"/>
+      <c r="V24" s="93"/>
       <c r="W24" s="62" t="s">
         <v>402</v>
       </c>
-      <c r="X24" s="102" t="s">
+      <c r="X24" s="119" t="s">
         <v>417</v>
       </c>
       <c r="Y24" s="88"/>
       <c r="Z24" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="AA24" s="101" t="s">
+      <c r="AA24" s="95" t="s">
         <v>45</v>
       </c>
       <c r="AB24" s="51" t="s">
@@ -50617,20 +50699,20 @@
       <c r="AD24" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AE24" s="101"/>
-      <c r="AF24" s="101" t="s">
+      <c r="AE24" s="95"/>
+      <c r="AF24" s="95" t="s">
         <v>261</v>
       </c>
       <c r="AG24" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AH24" s="85" t="s">
+      <c r="AH24" s="89" t="s">
         <v>548</v>
       </c>
       <c r="AI24" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="AJ24" s="100" t="s">
+      <c r="AJ24" s="109" t="s">
         <v>177</v>
       </c>
       <c r="AK24" s="51" t="s">
@@ -50645,70 +50727,70 @@
       <c r="AN24" s="51" t="s">
         <v>606</v>
       </c>
-      <c r="AO24" s="103"/>
-      <c r="AP24" s="103"/>
-      <c r="AQ24" s="107"/>
-      <c r="AR24" s="107"/>
-      <c r="AS24" s="85" t="s">
+      <c r="AO24" s="117"/>
+      <c r="AP24" s="117"/>
+      <c r="AQ24" s="112"/>
+      <c r="AR24" s="112"/>
+      <c r="AS24" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AT24" s="85"/>
-      <c r="AU24" s="85" t="s">
+      <c r="AT24" s="89"/>
+      <c r="AU24" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="AV24" s="85" t="s">
+      <c r="AV24" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="AW24" s="105"/>
+      <c r="AW24" s="114"/>
       <c r="AX24" s="88" t="s">
         <v>654</v>
       </c>
       <c r="AY24" s="57" t="s">
         <v>662</v>
       </c>
-      <c r="AZ24" s="107"/>
-      <c r="BA24" s="86" t="s">
+      <c r="AZ24" s="112"/>
+      <c r="BA24" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="BB24" s="85"/>
-      <c r="BC24" s="103" t="s">
+      <c r="BB24" s="89"/>
+      <c r="BC24" s="117" t="s">
         <v>674</v>
       </c>
-      <c r="BD24" s="104"/>
-      <c r="BE24" s="104" t="s">
+      <c r="BD24" s="103"/>
+      <c r="BE24" s="103" t="s">
         <v>681</v>
       </c>
-      <c r="BF24" s="94" t="s">
+      <c r="BF24" s="105" t="s">
         <v>679</v>
       </c>
-      <c r="BG24" s="85" t="s">
+      <c r="BG24" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BH24" s="85" t="s">
+      <c r="BH24" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BI24" s="87"/>
-      <c r="BJ24" s="86"/>
-      <c r="BK24" s="86"/>
-      <c r="BL24" s="99"/>
-      <c r="BM24" s="86"/>
-      <c r="BN24" s="95"/>
-      <c r="BO24" s="87"/>
-      <c r="BP24" s="85" t="s">
+      <c r="BI24" s="93"/>
+      <c r="BJ24" s="90"/>
+      <c r="BK24" s="90"/>
+      <c r="BL24" s="104"/>
+      <c r="BM24" s="90"/>
+      <c r="BN24" s="108"/>
+      <c r="BO24" s="93"/>
+      <c r="BP24" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BQ24" s="86" t="s">
+      <c r="BQ24" s="90" t="s">
         <v>702</v>
       </c>
-      <c r="BR24" s="85"/>
-      <c r="BS24" s="85" t="s">
+      <c r="BR24" s="89"/>
+      <c r="BS24" s="89" t="s">
         <v>17</v>
       </c>
       <c r="BT24" s="88" t="s">
         <v>647</v>
       </c>
-      <c r="BU24" s="2"/>
-      <c r="BV24" s="2"/>
+      <c r="BU24" s="89"/>
+      <c r="BV24" s="90"/>
       <c r="BZ24" s="2"/>
       <c r="CA24" s="2"/>
       <c r="CB24" s="2"/>
@@ -50725,143 +50807,145 @@
       <c r="B25" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="100"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="86" t="s">
+      <c r="C25" s="109"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="99"/>
-      <c r="G25" s="86" t="s">
+      <c r="F25" s="104"/>
+      <c r="G25" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="H25" s="86" t="s">
+      <c r="H25" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="I25" s="93" t="s">
+      <c r="I25" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="J25" s="106" t="s">
+      <c r="J25" s="110" t="s">
         <v>199</v>
       </c>
-      <c r="K25" s="110"/>
-      <c r="L25" s="93" t="s">
+      <c r="K25" s="111"/>
+      <c r="L25" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="M25" s="110" t="s">
+      <c r="M25" s="111" t="s">
         <v>251</v>
       </c>
-      <c r="N25" s="93" t="s">
+      <c r="N25" s="113" t="s">
         <v>266</v>
       </c>
-      <c r="O25" s="99"/>
-      <c r="P25" s="110" t="s">
+      <c r="O25" s="104"/>
+      <c r="P25" s="111" t="s">
         <v>288</v>
       </c>
-      <c r="Q25" s="119" t="s">
+      <c r="Q25" s="121" t="s">
         <v>302</v>
       </c>
-      <c r="R25" s="85"/>
-      <c r="S25" s="93" t="s">
+      <c r="R25" s="89"/>
+      <c r="S25" s="113" t="s">
         <v>301</v>
       </c>
       <c r="T25" s="88"/>
-      <c r="U25" s="87"/>
-      <c r="V25" s="87" t="s">
+      <c r="U25" s="93"/>
+      <c r="V25" s="93" t="s">
         <v>392</v>
       </c>
-      <c r="W25" s="93" t="s">
+      <c r="W25" s="113" t="s">
         <v>397</v>
       </c>
-      <c r="X25" s="102"/>
+      <c r="X25" s="119"/>
       <c r="Y25" s="88"/>
-      <c r="Z25" s="93" t="s">
+      <c r="Z25" s="113" t="s">
         <v>397</v>
       </c>
-      <c r="AA25" s="101"/>
-      <c r="AB25" s="93" t="s">
+      <c r="AA25" s="95"/>
+      <c r="AB25" s="113" t="s">
         <v>301</v>
       </c>
-      <c r="AC25" s="100" t="s">
+      <c r="AC25" s="109" t="s">
         <v>193</v>
       </c>
-      <c r="AD25" s="93" t="s">
+      <c r="AD25" s="113" t="s">
         <v>398</v>
       </c>
-      <c r="AE25" s="101" t="s">
+      <c r="AE25" s="95" t="s">
         <v>514</v>
       </c>
-      <c r="AF25" s="101"/>
-      <c r="AG25" s="93" t="s">
+      <c r="AF25" s="95"/>
+      <c r="AG25" s="113" t="s">
         <v>266</v>
       </c>
-      <c r="AH25" s="85"/>
-      <c r="AI25" s="93" t="s">
+      <c r="AH25" s="89"/>
+      <c r="AI25" s="113" t="s">
         <v>301</v>
       </c>
-      <c r="AJ25" s="100"/>
-      <c r="AK25" s="93" t="s">
+      <c r="AJ25" s="109"/>
+      <c r="AK25" s="113" t="s">
         <v>398</v>
       </c>
-      <c r="AL25" s="86" t="s">
+      <c r="AL25" s="90" t="s">
         <v>581</v>
       </c>
       <c r="AM25" s="88"/>
-      <c r="AN25" s="93" t="s">
+      <c r="AN25" s="113" t="s">
         <v>266</v>
       </c>
-      <c r="AO25" s="103"/>
-      <c r="AP25" s="103"/>
-      <c r="AQ25" s="107"/>
-      <c r="AR25" s="107"/>
-      <c r="AS25" s="85"/>
-      <c r="AT25" s="99" t="s">
+      <c r="AO25" s="117"/>
+      <c r="AP25" s="117"/>
+      <c r="AQ25" s="112"/>
+      <c r="AR25" s="112"/>
+      <c r="AS25" s="89"/>
+      <c r="AT25" s="104" t="s">
         <v>560</v>
       </c>
-      <c r="AU25" s="85"/>
-      <c r="AV25" s="85"/>
-      <c r="AW25" s="104" t="s">
+      <c r="AU25" s="89"/>
+      <c r="AV25" s="89"/>
+      <c r="AW25" s="103" t="s">
         <v>647</v>
       </c>
       <c r="AX25" s="88"/>
-      <c r="AY25" s="93" t="s">
+      <c r="AY25" s="113" t="s">
         <v>397</v>
       </c>
-      <c r="AZ25" s="107"/>
-      <c r="BA25" s="86"/>
-      <c r="BB25" s="93" t="s">
+      <c r="AZ25" s="112"/>
+      <c r="BA25" s="90"/>
+      <c r="BB25" s="113" t="s">
         <v>301</v>
       </c>
-      <c r="BC25" s="103"/>
-      <c r="BD25" s="104"/>
-      <c r="BE25" s="104"/>
-      <c r="BF25" s="96"/>
-      <c r="BG25" s="85"/>
-      <c r="BH25" s="85"/>
-      <c r="BI25" s="101" t="s">
+      <c r="BC25" s="117"/>
+      <c r="BD25" s="103"/>
+      <c r="BE25" s="103"/>
+      <c r="BF25" s="106"/>
+      <c r="BG25" s="89"/>
+      <c r="BH25" s="89"/>
+      <c r="BI25" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="BJ25" s="86"/>
-      <c r="BK25" s="85" t="s">
+      <c r="BJ25" s="90"/>
+      <c r="BK25" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BL25" s="85" t="s">
+      <c r="BL25" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BM25" s="85" t="s">
+      <c r="BM25" s="89" t="s">
         <v>694</v>
       </c>
-      <c r="BN25" s="95"/>
-      <c r="BO25" s="85" t="s">
+      <c r="BN25" s="108"/>
+      <c r="BO25" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BP25" s="85"/>
-      <c r="BQ25" s="86"/>
-      <c r="BR25" s="101" t="s">
+      <c r="BP25" s="89"/>
+      <c r="BQ25" s="90"/>
+      <c r="BR25" s="95" t="s">
         <v>720</v>
       </c>
-      <c r="BS25" s="85"/>
+      <c r="BS25" s="89"/>
       <c r="BT25" s="88"/>
-      <c r="BU25" s="2"/>
+      <c r="BU25" s="90" t="s">
+        <v>726</v>
+      </c>
       <c r="BV25" s="2"/>
       <c r="BZ25" s="2"/>
       <c r="CA25" s="2"/>
@@ -50876,118 +50960,118 @@
       <c r="A26" s="10">
         <v>0.75</v>
       </c>
-      <c r="B26" s="100" t="s">
+      <c r="B26" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="100"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="85" t="s">
+      <c r="C26" s="109"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="106"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="110"/>
       <c r="K26" s="56" t="s">
         <v>222</v>
       </c>
-      <c r="L26" s="93"/>
-      <c r="M26" s="110"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="119"/>
-      <c r="R26" s="86" t="s">
+      <c r="L26" s="113"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="121"/>
+      <c r="R26" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="S26" s="93"/>
+      <c r="S26" s="113"/>
       <c r="T26" s="88"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="87"/>
-      <c r="W26" s="93"/>
-      <c r="X26" s="102"/>
+      <c r="U26" s="93"/>
+      <c r="V26" s="93"/>
+      <c r="W26" s="113"/>
+      <c r="X26" s="119"/>
       <c r="Y26" s="88"/>
-      <c r="Z26" s="93"/>
+      <c r="Z26" s="113"/>
       <c r="AA26" s="51" t="s">
         <v>466</v>
       </c>
-      <c r="AB26" s="93"/>
-      <c r="AC26" s="100"/>
-      <c r="AD26" s="93"/>
-      <c r="AE26" s="101"/>
-      <c r="AF26" s="106" t="s">
+      <c r="AB26" s="113"/>
+      <c r="AC26" s="109"/>
+      <c r="AD26" s="113"/>
+      <c r="AE26" s="95"/>
+      <c r="AF26" s="110" t="s">
         <v>199</v>
       </c>
-      <c r="AG26" s="93"/>
-      <c r="AH26" s="85"/>
-      <c r="AI26" s="93"/>
-      <c r="AJ26" s="110" t="s">
+      <c r="AG26" s="113"/>
+      <c r="AH26" s="89"/>
+      <c r="AI26" s="113"/>
+      <c r="AJ26" s="111" t="s">
         <v>557</v>
       </c>
-      <c r="AK26" s="93"/>
-      <c r="AL26" s="86"/>
+      <c r="AK26" s="113"/>
+      <c r="AL26" s="90"/>
       <c r="AM26" s="88"/>
-      <c r="AN26" s="93"/>
-      <c r="AO26" s="103"/>
-      <c r="AP26" s="103"/>
-      <c r="AQ26" s="107"/>
-      <c r="AR26" s="107"/>
-      <c r="AS26" s="86" t="s">
+      <c r="AN26" s="113"/>
+      <c r="AO26" s="117"/>
+      <c r="AP26" s="117"/>
+      <c r="AQ26" s="112"/>
+      <c r="AR26" s="112"/>
+      <c r="AS26" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AT26" s="99"/>
-      <c r="AU26" s="93" t="s">
+      <c r="AT26" s="104"/>
+      <c r="AU26" s="113" t="s">
         <v>301</v>
       </c>
-      <c r="AV26" s="90" t="s">
+      <c r="AV26" s="94" t="s">
         <v>619</v>
       </c>
-      <c r="AW26" s="104"/>
+      <c r="AW26" s="103"/>
       <c r="AX26" s="88"/>
-      <c r="AY26" s="93"/>
-      <c r="AZ26" s="107"/>
+      <c r="AY26" s="113"/>
+      <c r="AZ26" s="112"/>
       <c r="BA26" s="88" t="s">
         <v>470</v>
       </c>
-      <c r="BB26" s="93"/>
-      <c r="BC26" s="86" t="s">
+      <c r="BB26" s="113"/>
+      <c r="BC26" s="90" t="s">
         <v>675</v>
       </c>
-      <c r="BD26" s="104"/>
-      <c r="BE26" s="104"/>
-      <c r="BF26" s="85" t="s">
+      <c r="BD26" s="103"/>
+      <c r="BE26" s="103"/>
+      <c r="BF26" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BG26" s="85" t="s">
+      <c r="BG26" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BH26" s="86" t="s">
+      <c r="BH26" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="BI26" s="101"/>
-      <c r="BJ26" s="85" t="s">
+      <c r="BI26" s="95"/>
+      <c r="BJ26" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BK26" s="85"/>
-      <c r="BL26" s="85"/>
-      <c r="BM26" s="85"/>
-      <c r="BN26" s="96"/>
-      <c r="BO26" s="85"/>
-      <c r="BP26" s="87" t="s">
+      <c r="BK26" s="89"/>
+      <c r="BL26" s="89"/>
+      <c r="BM26" s="89"/>
+      <c r="BN26" s="106"/>
+      <c r="BO26" s="89"/>
+      <c r="BP26" s="93" t="s">
         <v>706</v>
       </c>
-      <c r="BQ26" s="85" t="s">
+      <c r="BQ26" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BR26" s="101"/>
-      <c r="BS26" s="86" t="s">
+      <c r="BR26" s="95"/>
+      <c r="BS26" s="90" t="s">
         <v>721</v>
       </c>
-      <c r="BT26" s="85" t="s">
+      <c r="BT26" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BU26" s="65"/>
+      <c r="BU26" s="90"/>
       <c r="BV26" s="65"/>
       <c r="BW26" s="42"/>
       <c r="BX26" s="42"/>
@@ -51015,124 +51099,126 @@
       <c r="A27" s="10">
         <v>0.77083333333333304</v>
       </c>
-      <c r="B27" s="100"/>
-      <c r="C27" s="100" t="s">
+      <c r="B27" s="109"/>
+      <c r="C27" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="100" t="s">
+      <c r="D27" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="86"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="101" t="s">
+      <c r="E27" s="90"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="95" t="s">
         <v>148</v>
       </c>
-      <c r="I27" s="93"/>
-      <c r="J27" s="106"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="110"/>
       <c r="K27" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="L27" s="93"/>
+      <c r="L27" s="113"/>
       <c r="M27" s="62" t="s">
         <v>249</v>
       </c>
-      <c r="N27" s="93"/>
-      <c r="O27" s="110" t="s">
+      <c r="N27" s="113"/>
+      <c r="O27" s="111" t="s">
         <v>276</v>
       </c>
-      <c r="P27" s="99" t="s">
+      <c r="P27" s="104" t="s">
         <v>289</v>
       </c>
-      <c r="Q27" s="119"/>
-      <c r="R27" s="86"/>
-      <c r="S27" s="93"/>
+      <c r="Q27" s="121"/>
+      <c r="R27" s="90"/>
+      <c r="S27" s="113"/>
       <c r="T27" s="88"/>
-      <c r="U27" s="106" t="s">
+      <c r="U27" s="110" t="s">
         <v>376</v>
       </c>
       <c r="V27" s="51" t="s">
         <v>393</v>
       </c>
-      <c r="W27" s="93"/>
+      <c r="W27" s="113"/>
       <c r="X27" s="52" t="s">
         <v>118</v>
       </c>
       <c r="Y27" s="51" t="s">
         <v>431</v>
       </c>
-      <c r="Z27" s="93"/>
+      <c r="Z27" s="113"/>
       <c r="AA27" s="60" t="s">
         <v>470</v>
       </c>
-      <c r="AB27" s="93"/>
+      <c r="AB27" s="113"/>
       <c r="AC27" s="57" t="s">
         <v>489</v>
       </c>
-      <c r="AD27" s="93"/>
-      <c r="AE27" s="101"/>
-      <c r="AF27" s="106"/>
-      <c r="AG27" s="93"/>
-      <c r="AH27" s="105" t="s">
+      <c r="AD27" s="113"/>
+      <c r="AE27" s="95"/>
+      <c r="AF27" s="110"/>
+      <c r="AG27" s="113"/>
+      <c r="AH27" s="114" t="s">
         <v>463</v>
       </c>
-      <c r="AI27" s="93"/>
-      <c r="AJ27" s="110"/>
-      <c r="AK27" s="93"/>
-      <c r="AL27" s="86"/>
+      <c r="AI27" s="113"/>
+      <c r="AJ27" s="111"/>
+      <c r="AK27" s="113"/>
+      <c r="AL27" s="90"/>
       <c r="AM27" s="88"/>
-      <c r="AN27" s="93"/>
-      <c r="AO27" s="87" t="s">
+      <c r="AN27" s="113"/>
+      <c r="AO27" s="93" t="s">
         <v>560</v>
       </c>
-      <c r="AP27" s="103"/>
-      <c r="AQ27" s="105" t="s">
+      <c r="AP27" s="117"/>
+      <c r="AQ27" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="AR27" s="107"/>
-      <c r="AS27" s="86"/>
-      <c r="AT27" s="105" t="s">
+      <c r="AR27" s="112"/>
+      <c r="AS27" s="90"/>
+      <c r="AT27" s="114" t="s">
         <v>619</v>
       </c>
-      <c r="AU27" s="93"/>
-      <c r="AV27" s="90"/>
-      <c r="AW27" s="104"/>
+      <c r="AU27" s="113"/>
+      <c r="AV27" s="94"/>
+      <c r="AW27" s="103"/>
       <c r="AX27" s="55" t="s">
         <v>655</v>
       </c>
-      <c r="AY27" s="93"/>
+      <c r="AY27" s="113"/>
       <c r="AZ27" s="53" t="s">
         <v>666</v>
       </c>
       <c r="BA27" s="88"/>
-      <c r="BB27" s="93"/>
-      <c r="BC27" s="86"/>
-      <c r="BD27" s="104"/>
-      <c r="BE27" s="104"/>
-      <c r="BF27" s="85"/>
-      <c r="BG27" s="85"/>
-      <c r="BH27" s="86"/>
-      <c r="BI27" s="85" t="s">
+      <c r="BB27" s="113"/>
+      <c r="BC27" s="90"/>
+      <c r="BD27" s="103"/>
+      <c r="BE27" s="103"/>
+      <c r="BF27" s="89"/>
+      <c r="BG27" s="89"/>
+      <c r="BH27" s="90"/>
+      <c r="BI27" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BJ27" s="85"/>
-      <c r="BK27" s="86" t="s">
+      <c r="BJ27" s="89"/>
+      <c r="BK27" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="BL27" s="85"/>
-      <c r="BM27" s="85"/>
-      <c r="BN27" s="85" t="s">
+      <c r="BL27" s="89"/>
+      <c r="BM27" s="89"/>
+      <c r="BN27" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BO27" s="101" t="s">
+      <c r="BO27" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="BP27" s="87"/>
-      <c r="BQ27" s="85"/>
-      <c r="BR27" s="101"/>
-      <c r="BS27" s="86"/>
-      <c r="BT27" s="85"/>
-      <c r="BU27" s="65"/>
+      <c r="BP27" s="93"/>
+      <c r="BQ27" s="89"/>
+      <c r="BR27" s="95"/>
+      <c r="BS27" s="90"/>
+      <c r="BT27" s="89"/>
+      <c r="BU27" s="90" t="s">
+        <v>726</v>
+      </c>
       <c r="BV27" s="65"/>
       <c r="BW27" s="42"/>
       <c r="BX27" s="42"/>
@@ -51163,133 +51249,133 @@
       <c r="B28" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="99" t="s">
+      <c r="C28" s="109"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="86"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="93"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="113"/>
       <c r="J28" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="K28" s="106" t="s">
+      <c r="K28" s="110" t="s">
         <v>224</v>
       </c>
-      <c r="L28" s="93"/>
-      <c r="M28" s="86" t="s">
+      <c r="L28" s="113"/>
+      <c r="M28" s="90" t="s">
         <v>248</v>
       </c>
-      <c r="N28" s="93"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="119"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="104"/>
+      <c r="Q28" s="121"/>
       <c r="R28" s="60" t="s">
         <v>321</v>
       </c>
-      <c r="S28" s="93"/>
+      <c r="S28" s="113"/>
       <c r="T28" s="88"/>
-      <c r="U28" s="106"/>
-      <c r="V28" s="101" t="s">
+      <c r="U28" s="110"/>
+      <c r="V28" s="95" t="s">
         <v>394</v>
       </c>
-      <c r="W28" s="93"/>
+      <c r="W28" s="113"/>
       <c r="X28" s="57" t="s">
         <v>299</v>
       </c>
-      <c r="Y28" s="101" t="s">
+      <c r="Y28" s="95" t="s">
         <v>428</v>
       </c>
-      <c r="Z28" s="93"/>
+      <c r="Z28" s="113"/>
       <c r="AA28" s="52" t="s">
         <v>467</v>
       </c>
-      <c r="AB28" s="93"/>
-      <c r="AC28" s="86" t="s">
+      <c r="AB28" s="113"/>
+      <c r="AC28" s="90" t="s">
         <v>488</v>
       </c>
-      <c r="AD28" s="93"/>
+      <c r="AD28" s="113"/>
       <c r="AE28" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="AF28" s="106"/>
-      <c r="AG28" s="93"/>
-      <c r="AH28" s="105"/>
-      <c r="AI28" s="93"/>
-      <c r="AJ28" s="100" t="s">
+      <c r="AF28" s="110"/>
+      <c r="AG28" s="113"/>
+      <c r="AH28" s="114"/>
+      <c r="AI28" s="113"/>
+      <c r="AJ28" s="109" t="s">
         <v>193</v>
       </c>
-      <c r="AK28" s="93"/>
-      <c r="AL28" s="86"/>
+      <c r="AK28" s="113"/>
+      <c r="AL28" s="90"/>
       <c r="AM28" s="88"/>
-      <c r="AN28" s="93"/>
-      <c r="AO28" s="87"/>
-      <c r="AP28" s="103"/>
-      <c r="AQ28" s="105"/>
+      <c r="AN28" s="113"/>
+      <c r="AO28" s="93"/>
+      <c r="AP28" s="117"/>
+      <c r="AQ28" s="114"/>
       <c r="AR28" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AS28" s="85" t="s">
+      <c r="AS28" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="AT28" s="105"/>
-      <c r="AU28" s="93"/>
+      <c r="AT28" s="114"/>
+      <c r="AU28" s="113"/>
       <c r="AV28" s="53" t="s">
         <v>635</v>
       </c>
-      <c r="AW28" s="104"/>
-      <c r="AX28" s="85" t="s">
+      <c r="AW28" s="103"/>
+      <c r="AX28" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="AY28" s="93"/>
+      <c r="AY28" s="113"/>
       <c r="AZ28" s="88" t="s">
         <v>470</v>
       </c>
       <c r="BA28" s="88" t="s">
         <v>470</v>
       </c>
-      <c r="BB28" s="93"/>
-      <c r="BC28" s="86"/>
-      <c r="BD28" s="99" t="s">
+      <c r="BB28" s="113"/>
+      <c r="BC28" s="90"/>
+      <c r="BD28" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="BE28" s="85" t="s">
+      <c r="BE28" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="BF28" s="86" t="s">
+      <c r="BF28" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="BG28" s="86" t="s">
+      <c r="BG28" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="BH28" s="86"/>
-      <c r="BI28" s="85"/>
-      <c r="BJ28" s="101" t="s">
+      <c r="BH28" s="90"/>
+      <c r="BI28" s="89"/>
+      <c r="BJ28" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="BK28" s="86"/>
+      <c r="BK28" s="90"/>
       <c r="BL28" s="88" t="s">
         <v>691</v>
       </c>
       <c r="BM28" s="88" t="s">
         <v>691</v>
       </c>
-      <c r="BN28" s="85"/>
-      <c r="BO28" s="101"/>
-      <c r="BP28" s="87"/>
+      <c r="BN28" s="89"/>
+      <c r="BO28" s="95"/>
+      <c r="BP28" s="93"/>
       <c r="BQ28" s="88" t="s">
         <v>670</v>
       </c>
-      <c r="BR28" s="101"/>
-      <c r="BS28" s="86" t="s">
+      <c r="BR28" s="95"/>
+      <c r="BS28" s="90" t="s">
         <v>721</v>
       </c>
-      <c r="BT28" s="86" t="s">
+      <c r="BT28" s="90" t="s">
         <v>726</v>
       </c>
-      <c r="BU28" s="65"/>
+      <c r="BU28" s="90"/>
       <c r="BV28" s="65"/>
       <c r="BW28" s="42"/>
       <c r="BX28" s="42"/>
@@ -51317,124 +51403,126 @@
       <c r="A29" s="10">
         <v>0.8125</v>
       </c>
-      <c r="B29" s="101" t="s">
+      <c r="B29" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="104" t="s">
+      <c r="C29" s="109"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="I29" s="93"/>
-      <c r="J29" s="86" t="s">
+      <c r="I29" s="113"/>
+      <c r="J29" s="90" t="s">
         <v>202</v>
       </c>
-      <c r="K29" s="106"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="106" t="s">
+      <c r="K29" s="110"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="110" t="s">
         <v>275</v>
       </c>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="118" t="s">
+      <c r="P29" s="104"/>
+      <c r="Q29" s="120" t="s">
         <v>303</v>
       </c>
       <c r="R29" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="S29" s="93"/>
-      <c r="T29" s="90" t="s">
+      <c r="S29" s="113"/>
+      <c r="T29" s="94" t="s">
         <v>368</v>
       </c>
-      <c r="U29" s="106"/>
-      <c r="V29" s="101"/>
-      <c r="W29" s="93"/>
+      <c r="U29" s="110"/>
+      <c r="V29" s="95"/>
+      <c r="W29" s="113"/>
       <c r="X29" s="55" t="s">
         <v>409</v>
       </c>
-      <c r="Y29" s="101"/>
-      <c r="Z29" s="93"/>
-      <c r="AA29" s="101" t="s">
+      <c r="Y29" s="95"/>
+      <c r="Z29" s="113"/>
+      <c r="AA29" s="95" t="s">
         <v>468</v>
       </c>
-      <c r="AB29" s="93"/>
-      <c r="AC29" s="86"/>
-      <c r="AD29" s="93"/>
+      <c r="AB29" s="113"/>
+      <c r="AC29" s="90"/>
+      <c r="AD29" s="113"/>
       <c r="AE29" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="AF29" s="106"/>
-      <c r="AG29" s="93"/>
-      <c r="AH29" s="101" t="s">
+      <c r="AF29" s="110"/>
+      <c r="AG29" s="113"/>
+      <c r="AH29" s="95" t="s">
         <v>261</v>
       </c>
-      <c r="AI29" s="93"/>
-      <c r="AJ29" s="100"/>
-      <c r="AK29" s="93"/>
-      <c r="AL29" s="86"/>
-      <c r="AM29" s="86" t="s">
+      <c r="AI29" s="113"/>
+      <c r="AJ29" s="109"/>
+      <c r="AK29" s="113"/>
+      <c r="AL29" s="90"/>
+      <c r="AM29" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AN29" s="93"/>
-      <c r="AO29" s="86" t="s">
+      <c r="AN29" s="113"/>
+      <c r="AO29" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AP29" s="103"/>
-      <c r="AQ29" s="86" t="s">
+      <c r="AP29" s="117"/>
+      <c r="AQ29" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AR29" s="87" t="s">
+      <c r="AR29" s="93" t="s">
         <v>621</v>
       </c>
-      <c r="AS29" s="85"/>
-      <c r="AT29" s="105" t="s">
+      <c r="AS29" s="89"/>
+      <c r="AT29" s="114" t="s">
         <v>627</v>
       </c>
-      <c r="AU29" s="93"/>
-      <c r="AV29" s="86" t="s">
+      <c r="AU29" s="113"/>
+      <c r="AV29" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AW29" s="99" t="s">
+      <c r="AW29" s="104" t="s">
         <v>648</v>
       </c>
-      <c r="AX29" s="85"/>
-      <c r="AY29" s="93"/>
+      <c r="AX29" s="89"/>
+      <c r="AY29" s="113"/>
       <c r="AZ29" s="88"/>
       <c r="BA29" s="88"/>
-      <c r="BB29" s="93"/>
-      <c r="BC29" s="86"/>
-      <c r="BD29" s="99"/>
-      <c r="BE29" s="85"/>
-      <c r="BF29" s="86"/>
-      <c r="BG29" s="86"/>
-      <c r="BH29" s="85" t="s">
+      <c r="BB29" s="113"/>
+      <c r="BC29" s="90"/>
+      <c r="BD29" s="104"/>
+      <c r="BE29" s="89"/>
+      <c r="BF29" s="90"/>
+      <c r="BG29" s="90"/>
+      <c r="BH29" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BI29" s="94" t="s">
+      <c r="BI29" s="105" t="s">
         <v>691</v>
       </c>
-      <c r="BJ29" s="101"/>
-      <c r="BK29" s="86"/>
+      <c r="BJ29" s="95"/>
+      <c r="BK29" s="90"/>
       <c r="BL29" s="88"/>
       <c r="BM29" s="88"/>
-      <c r="BN29" s="90" t="s">
+      <c r="BN29" s="94" t="s">
         <v>696</v>
       </c>
-      <c r="BO29" s="85" t="s">
+      <c r="BO29" s="89" t="s">
         <v>13</v>
       </c>
       <c r="BP29" s="88" t="s">
         <v>691</v>
       </c>
       <c r="BQ29" s="88"/>
-      <c r="BR29" s="101"/>
-      <c r="BS29" s="86"/>
-      <c r="BT29" s="86"/>
-      <c r="BU29" s="65"/>
+      <c r="BR29" s="95"/>
+      <c r="BS29" s="90"/>
+      <c r="BT29" s="90"/>
+      <c r="BU29" s="94" t="s">
+        <v>619</v>
+      </c>
       <c r="BV29" s="65"/>
       <c r="BW29" s="42"/>
       <c r="BX29" s="42"/>
@@ -51462,132 +51550,132 @@
       <c r="A30" s="10">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B30" s="101"/>
-      <c r="C30" s="85" t="s">
+      <c r="B30" s="95"/>
+      <c r="C30" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="85" t="s">
+      <c r="D30" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="86"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86" t="s">
+      <c r="E30" s="90"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="93"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="106"/>
-      <c r="P30" s="99" t="s">
+      <c r="L30" s="113"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="110"/>
+      <c r="P30" s="104" t="s">
         <v>289</v>
       </c>
-      <c r="Q30" s="118"/>
-      <c r="R30" s="86" t="s">
+      <c r="Q30" s="120"/>
+      <c r="R30" s="90" t="s">
         <v>320</v>
       </c>
-      <c r="S30" s="93"/>
-      <c r="T30" s="90"/>
-      <c r="U30" s="108" t="s">
+      <c r="S30" s="113"/>
+      <c r="T30" s="94"/>
+      <c r="U30" s="115" t="s">
         <v>377</v>
       </c>
-      <c r="V30" s="101"/>
-      <c r="W30" s="93"/>
+      <c r="V30" s="95"/>
+      <c r="W30" s="113"/>
       <c r="X30" s="56" t="s">
         <v>418</v>
       </c>
       <c r="Y30" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="Z30" s="93"/>
-      <c r="AA30" s="101"/>
-      <c r="AB30" s="93"/>
-      <c r="AC30" s="86"/>
-      <c r="AD30" s="93"/>
-      <c r="AE30" s="106" t="s">
+      <c r="Z30" s="113"/>
+      <c r="AA30" s="95"/>
+      <c r="AB30" s="113"/>
+      <c r="AC30" s="90"/>
+      <c r="AD30" s="113"/>
+      <c r="AE30" s="110" t="s">
         <v>520</v>
       </c>
-      <c r="AF30" s="108" t="s">
+      <c r="AF30" s="115" t="s">
         <v>533</v>
       </c>
-      <c r="AG30" s="93"/>
-      <c r="AH30" s="101"/>
-      <c r="AI30" s="93"/>
-      <c r="AJ30" s="86" t="s">
+      <c r="AG30" s="113"/>
+      <c r="AH30" s="95"/>
+      <c r="AI30" s="113"/>
+      <c r="AJ30" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AK30" s="93"/>
-      <c r="AL30" s="86"/>
-      <c r="AM30" s="86"/>
-      <c r="AN30" s="93"/>
-      <c r="AO30" s="86"/>
-      <c r="AP30" s="85" t="s">
+      <c r="AK30" s="113"/>
+      <c r="AL30" s="90"/>
+      <c r="AM30" s="90"/>
+      <c r="AN30" s="113"/>
+      <c r="AO30" s="90"/>
+      <c r="AP30" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="AQ30" s="86"/>
-      <c r="AR30" s="87"/>
-      <c r="AS30" s="87" t="s">
+      <c r="AQ30" s="90"/>
+      <c r="AR30" s="93"/>
+      <c r="AS30" s="93" t="s">
         <v>621</v>
       </c>
-      <c r="AT30" s="105"/>
-      <c r="AU30" s="93"/>
-      <c r="AV30" s="86"/>
-      <c r="AW30" s="99"/>
-      <c r="AX30" s="86" t="s">
+      <c r="AT30" s="114"/>
+      <c r="AU30" s="113"/>
+      <c r="AV30" s="90"/>
+      <c r="AW30" s="104"/>
+      <c r="AX30" s="90" t="s">
         <v>641</v>
       </c>
-      <c r="AY30" s="101" t="s">
+      <c r="AY30" s="95" t="s">
         <v>642</v>
       </c>
-      <c r="AZ30" s="101" t="s">
+      <c r="AZ30" s="95" t="s">
         <v>643</v>
       </c>
-      <c r="BA30" s="101" t="s">
+      <c r="BA30" s="95" t="s">
         <v>642</v>
       </c>
-      <c r="BB30" s="86" t="s">
+      <c r="BB30" s="90" t="s">
         <v>641</v>
       </c>
-      <c r="BC30" s="86"/>
-      <c r="BD30" s="99" t="s">
+      <c r="BC30" s="90"/>
+      <c r="BD30" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="BE30" s="86" t="s">
+      <c r="BE30" s="90" t="s">
         <v>261</v>
       </c>
-      <c r="BF30" s="86"/>
-      <c r="BG30" s="86"/>
-      <c r="BH30" s="85"/>
-      <c r="BI30" s="95"/>
-      <c r="BJ30" s="94" t="s">
+      <c r="BF30" s="90"/>
+      <c r="BG30" s="90"/>
+      <c r="BH30" s="89"/>
+      <c r="BI30" s="108"/>
+      <c r="BJ30" s="105" t="s">
         <v>691</v>
       </c>
-      <c r="BK30" s="94" t="s">
+      <c r="BK30" s="105" t="s">
         <v>691</v>
       </c>
-      <c r="BL30" s="121" t="s">
+      <c r="BL30" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="BM30" s="121" t="s">
+      <c r="BM30" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="BN30" s="90"/>
-      <c r="BO30" s="85"/>
+      <c r="BN30" s="94"/>
+      <c r="BO30" s="89"/>
       <c r="BP30" s="88"/>
       <c r="BQ30" s="88" t="s">
         <v>691</v>
       </c>
-      <c r="BR30" s="101"/>
-      <c r="BS30" s="86" t="s">
+      <c r="BR30" s="95"/>
+      <c r="BS30" s="90" t="s">
         <v>721</v>
       </c>
-      <c r="BT30" s="86" t="s">
+      <c r="BT30" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="BU30" s="65"/>
+      <c r="BU30" s="94"/>
       <c r="BV30" s="65"/>
       <c r="BW30" s="42"/>
       <c r="BX30" s="42"/>
@@ -51615,106 +51703,106 @@
       <c r="A31" s="10">
         <v>0.85416666666666596</v>
       </c>
-      <c r="B31" s="101"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
       <c r="E31" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99" t="s">
+      <c r="F31" s="104"/>
+      <c r="G31" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="H31" s="104"/>
+      <c r="H31" s="103"/>
       <c r="I31" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="J31" s="93" t="s">
+      <c r="J31" s="113" t="s">
         <v>203</v>
       </c>
-      <c r="K31" s="86"/>
+      <c r="K31" s="90"/>
       <c r="L31" s="62" t="s">
         <v>58</v>
       </c>
       <c r="M31" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="N31" s="86" t="s">
+      <c r="N31" s="90" t="s">
         <v>267</v>
       </c>
-      <c r="O31" s="106"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="117" t="s">
+      <c r="O31" s="110"/>
+      <c r="P31" s="104"/>
+      <c r="Q31" s="122" t="s">
         <v>304</v>
       </c>
-      <c r="R31" s="86"/>
-      <c r="S31" s="108" t="s">
+      <c r="R31" s="90"/>
+      <c r="S31" s="115" t="s">
         <v>333</v>
       </c>
-      <c r="T31" s="99" t="s">
+      <c r="T31" s="104" t="s">
         <v>369</v>
       </c>
-      <c r="U31" s="108"/>
-      <c r="V31" s="101"/>
-      <c r="W31" s="110" t="s">
+      <c r="U31" s="115"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="111" t="s">
         <v>406</v>
       </c>
-      <c r="X31" s="101" t="s">
+      <c r="X31" s="95" t="s">
         <v>410</v>
       </c>
-      <c r="Y31" s="101" t="s">
+      <c r="Y31" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="Z31" s="101" t="s">
+      <c r="Z31" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="AA31" s="101"/>
-      <c r="AB31" s="86" t="s">
+      <c r="AA31" s="95"/>
+      <c r="AB31" s="90" t="s">
         <v>471</v>
       </c>
       <c r="AC31" s="55" t="s">
         <v>491</v>
       </c>
-      <c r="AD31" s="101" t="s">
+      <c r="AD31" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="AE31" s="106"/>
-      <c r="AF31" s="108"/>
-      <c r="AG31" s="86" t="s">
+      <c r="AE31" s="110"/>
+      <c r="AF31" s="115"/>
+      <c r="AG31" s="90" t="s">
         <v>261</v>
       </c>
       <c r="AH31" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="AI31" s="85" t="s">
+      <c r="AI31" s="89" t="s">
         <v>554</v>
       </c>
-      <c r="AJ31" s="86"/>
-      <c r="AK31" s="87" t="s">
+      <c r="AJ31" s="90"/>
+      <c r="AK31" s="93" t="s">
         <v>560</v>
       </c>
-      <c r="AL31" s="99" t="s">
+      <c r="AL31" s="104" t="s">
         <v>598</v>
       </c>
-      <c r="AM31" s="85" t="s">
+      <c r="AM31" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AN31" s="110" t="s">
+      <c r="AN31" s="111" t="s">
         <v>554</v>
       </c>
-      <c r="AO31" s="85" t="s">
+      <c r="AO31" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AP31" s="85"/>
-      <c r="AQ31" s="86" t="s">
+      <c r="AP31" s="89"/>
+      <c r="AQ31" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AR31" s="87"/>
-      <c r="AS31" s="87"/>
-      <c r="AT31" s="87" t="s">
+      <c r="AR31" s="93"/>
+      <c r="AS31" s="93"/>
+      <c r="AT31" s="93" t="s">
         <v>560</v>
       </c>
-      <c r="AU31" s="85" t="s">
+      <c r="AU31" s="89" t="s">
         <v>58</v>
       </c>
       <c r="AV31" s="57" t="s">
@@ -51723,26 +51811,26 @@
       <c r="AW31" s="52" t="s">
         <v>649</v>
       </c>
-      <c r="AX31" s="86"/>
-      <c r="AY31" s="101"/>
-      <c r="AZ31" s="101"/>
-      <c r="BA31" s="101"/>
-      <c r="BB31" s="86"/>
-      <c r="BC31" s="86"/>
-      <c r="BD31" s="99"/>
-      <c r="BE31" s="86"/>
-      <c r="BF31" s="86"/>
-      <c r="BG31" s="86"/>
-      <c r="BH31" s="101" t="s">
+      <c r="AX31" s="90"/>
+      <c r="AY31" s="95"/>
+      <c r="AZ31" s="95"/>
+      <c r="BA31" s="95"/>
+      <c r="BB31" s="90"/>
+      <c r="BC31" s="90"/>
+      <c r="BD31" s="104"/>
+      <c r="BE31" s="90"/>
+      <c r="BF31" s="90"/>
+      <c r="BG31" s="90"/>
+      <c r="BH31" s="95" t="s">
         <v>685</v>
       </c>
-      <c r="BI31" s="95"/>
-      <c r="BJ31" s="95"/>
-      <c r="BK31" s="95"/>
-      <c r="BL31" s="122"/>
-      <c r="BM31" s="122"/>
-      <c r="BN31" s="90"/>
-      <c r="BO31" s="85"/>
+      <c r="BI31" s="108"/>
+      <c r="BJ31" s="108"/>
+      <c r="BK31" s="108"/>
+      <c r="BL31" s="97"/>
+      <c r="BM31" s="97"/>
+      <c r="BN31" s="94"/>
+      <c r="BO31" s="89"/>
       <c r="BP31" s="88" t="s">
         <v>691</v>
       </c>
@@ -51750,9 +51838,11 @@
       <c r="BR31" s="88" t="s">
         <v>650</v>
       </c>
-      <c r="BS31" s="86"/>
-      <c r="BT31" s="86"/>
-      <c r="BU31" s="65"/>
+      <c r="BS31" s="90"/>
+      <c r="BT31" s="90"/>
+      <c r="BU31" s="90" t="s">
+        <v>726</v>
+      </c>
       <c r="BV31" s="65"/>
       <c r="BW31" s="42"/>
       <c r="BX31" s="42"/>
@@ -51783,22 +51873,22 @@
       <c r="B32" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="100" t="s">
+      <c r="C32" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="100" t="s">
+      <c r="D32" s="109" t="s">
         <v>57</v>
       </c>
       <c r="E32" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="116" t="s">
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="123" t="s">
         <v>182</v>
       </c>
-      <c r="J32" s="93"/>
+      <c r="J32" s="113"/>
       <c r="K32" s="55" t="s">
         <v>223</v>
       </c>
@@ -51808,92 +51898,92 @@
       <c r="M32" s="52" t="s">
         <v>248</v>
       </c>
-      <c r="N32" s="86"/>
-      <c r="O32" s="106"/>
-      <c r="P32" s="99"/>
-      <c r="Q32" s="117"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="110"/>
+      <c r="P32" s="104"/>
+      <c r="Q32" s="122"/>
       <c r="R32" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="S32" s="108"/>
-      <c r="T32" s="99"/>
-      <c r="U32" s="106" t="s">
+      <c r="S32" s="115"/>
+      <c r="T32" s="104"/>
+      <c r="U32" s="110" t="s">
         <v>382</v>
       </c>
-      <c r="V32" s="110" t="s">
+      <c r="V32" s="111" t="s">
         <v>395</v>
       </c>
-      <c r="W32" s="110"/>
-      <c r="X32" s="101"/>
-      <c r="Y32" s="101"/>
-      <c r="Z32" s="101"/>
-      <c r="AA32" s="101"/>
-      <c r="AB32" s="86"/>
+      <c r="W32" s="111"/>
+      <c r="X32" s="95"/>
+      <c r="Y32" s="95"/>
+      <c r="Z32" s="95"/>
+      <c r="AA32" s="95"/>
+      <c r="AB32" s="90"/>
       <c r="AC32" s="54" t="s">
         <v>490</v>
       </c>
-      <c r="AD32" s="101"/>
-      <c r="AE32" s="106"/>
+      <c r="AD32" s="95"/>
+      <c r="AE32" s="110"/>
       <c r="AF32" s="57" t="s">
         <v>534</v>
       </c>
-      <c r="AG32" s="86"/>
-      <c r="AH32" s="120" t="s">
+      <c r="AG32" s="90"/>
+      <c r="AH32" s="116" t="s">
         <v>552</v>
       </c>
-      <c r="AI32" s="85"/>
-      <c r="AJ32" s="86" t="s">
+      <c r="AI32" s="89"/>
+      <c r="AJ32" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AK32" s="87"/>
-      <c r="AL32" s="99"/>
-      <c r="AM32" s="85"/>
-      <c r="AN32" s="110"/>
-      <c r="AO32" s="85"/>
-      <c r="AP32" s="87" t="s">
+      <c r="AK32" s="93"/>
+      <c r="AL32" s="104"/>
+      <c r="AM32" s="89"/>
+      <c r="AN32" s="111"/>
+      <c r="AO32" s="89"/>
+      <c r="AP32" s="93" t="s">
         <v>391</v>
       </c>
-      <c r="AQ32" s="86"/>
-      <c r="AR32" s="87"/>
-      <c r="AS32" s="87"/>
-      <c r="AT32" s="87"/>
-      <c r="AU32" s="85"/>
-      <c r="AV32" s="85" t="s">
+      <c r="AQ32" s="90"/>
+      <c r="AR32" s="93"/>
+      <c r="AS32" s="93"/>
+      <c r="AT32" s="93"/>
+      <c r="AU32" s="89"/>
+      <c r="AV32" s="89" t="s">
         <v>58</v>
       </c>
       <c r="AW32" s="88" t="s">
         <v>650</v>
       </c>
-      <c r="AX32" s="86"/>
-      <c r="AY32" s="101"/>
-      <c r="AZ32" s="101"/>
-      <c r="BA32" s="101"/>
-      <c r="BB32" s="86"/>
-      <c r="BC32" s="86"/>
-      <c r="BD32" s="86" t="s">
+      <c r="AX32" s="90"/>
+      <c r="AY32" s="95"/>
+      <c r="AZ32" s="95"/>
+      <c r="BA32" s="95"/>
+      <c r="BB32" s="90"/>
+      <c r="BC32" s="90"/>
+      <c r="BD32" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="BE32" s="86" t="s">
+      <c r="BE32" s="90" t="s">
         <v>261</v>
       </c>
       <c r="BF32" s="88" t="s">
         <v>678</v>
       </c>
-      <c r="BG32" s="100" t="s">
+      <c r="BG32" s="109" t="s">
         <v>686</v>
       </c>
-      <c r="BH32" s="101"/>
-      <c r="BI32" s="96"/>
-      <c r="BJ32" s="95"/>
-      <c r="BK32" s="95"/>
-      <c r="BL32" s="122"/>
-      <c r="BM32" s="122"/>
-      <c r="BN32" s="85" t="s">
+      <c r="BH32" s="95"/>
+      <c r="BI32" s="106"/>
+      <c r="BJ32" s="108"/>
+      <c r="BK32" s="108"/>
+      <c r="BL32" s="97"/>
+      <c r="BM32" s="97"/>
+      <c r="BN32" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="BO32" s="85"/>
+      <c r="BO32" s="89"/>
       <c r="BP32" s="88"/>
-      <c r="BQ32" s="86" t="s">
+      <c r="BQ32" s="90" t="s">
         <v>712</v>
       </c>
       <c r="BR32" s="88"/>
@@ -51903,7 +51993,7 @@
       <c r="BT32" s="71" t="s">
         <v>732</v>
       </c>
-      <c r="BU32" s="65"/>
+      <c r="BU32" s="90"/>
       <c r="BV32" s="65"/>
       <c r="BW32" s="42"/>
       <c r="BX32" s="42"/>
@@ -51934,51 +52024,51 @@
       <c r="B33" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
       <c r="E33" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="99"/>
+      <c r="F33" s="104"/>
       <c r="G33" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="H33" s="104"/>
-      <c r="I33" s="116"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="123"/>
       <c r="J33" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="K33" s="110" t="s">
+      <c r="K33" s="111" t="s">
         <v>226</v>
       </c>
-      <c r="L33" s="106" t="s">
+      <c r="L33" s="110" t="s">
         <v>245</v>
       </c>
       <c r="M33" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="N33" s="110" t="s">
+      <c r="N33" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="O33" s="106"/>
-      <c r="P33" s="86" t="s">
+      <c r="O33" s="110"/>
+      <c r="P33" s="90" t="s">
         <v>290</v>
       </c>
-      <c r="Q33" s="110" t="s">
+      <c r="Q33" s="111" t="s">
         <v>268</v>
       </c>
       <c r="R33" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="S33" s="86" t="s">
+      <c r="S33" s="90" t="s">
         <v>327</v>
       </c>
       <c r="T33" s="62" t="s">
         <v>365</v>
       </c>
-      <c r="U33" s="106"/>
-      <c r="V33" s="110"/>
-      <c r="W33" s="86" t="s">
+      <c r="U33" s="110"/>
+      <c r="V33" s="111"/>
+      <c r="W33" s="90" t="s">
         <v>407</v>
       </c>
       <c r="X33" s="55" t="s">
@@ -52011,76 +52101,78 @@
       <c r="AG33" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="AH33" s="120"/>
-      <c r="AI33" s="85"/>
-      <c r="AJ33" s="86"/>
-      <c r="AK33" s="86" t="s">
+      <c r="AH33" s="116"/>
+      <c r="AI33" s="89"/>
+      <c r="AJ33" s="90"/>
+      <c r="AK33" s="90" t="s">
         <v>45</v>
       </c>
       <c r="AL33" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="AM33" s="110" t="s">
+      <c r="AM33" s="111" t="s">
         <v>233</v>
       </c>
       <c r="AN33" s="88" t="s">
         <v>607</v>
       </c>
-      <c r="AO33" s="85"/>
-      <c r="AP33" s="87"/>
-      <c r="AQ33" s="105" t="s">
+      <c r="AO33" s="89"/>
+      <c r="AP33" s="93"/>
+      <c r="AQ33" s="114" t="s">
         <v>618</v>
       </c>
-      <c r="AR33" s="87"/>
-      <c r="AS33" s="87"/>
-      <c r="AT33" s="85" t="s">
+      <c r="AR33" s="93"/>
+      <c r="AS33" s="93"/>
+      <c r="AT33" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="AU33" s="87" t="s">
+      <c r="AU33" s="93" t="s">
         <v>560</v>
       </c>
-      <c r="AV33" s="85"/>
+      <c r="AV33" s="89"/>
       <c r="AW33" s="88"/>
       <c r="AX33" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="AY33" s="101"/>
-      <c r="AZ33" s="101"/>
-      <c r="BA33" s="101"/>
-      <c r="BB33" s="86"/>
-      <c r="BC33" s="85" t="s">
+      <c r="AY33" s="95"/>
+      <c r="AZ33" s="95"/>
+      <c r="BA33" s="95"/>
+      <c r="BB33" s="90"/>
+      <c r="BC33" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="BD33" s="86"/>
-      <c r="BE33" s="86"/>
+      <c r="BD33" s="90"/>
+      <c r="BE33" s="90"/>
       <c r="BF33" s="88"/>
-      <c r="BG33" s="100"/>
+      <c r="BG33" s="109"/>
       <c r="BH33" s="55" t="s">
         <v>686</v>
       </c>
       <c r="BI33" s="51" t="s">
         <v>692</v>
       </c>
-      <c r="BJ33" s="96"/>
-      <c r="BK33" s="96"/>
-      <c r="BL33" s="123"/>
-      <c r="BM33" s="123"/>
-      <c r="BN33" s="85"/>
-      <c r="BO33" s="85"/>
-      <c r="BP33" s="101" t="s">
+      <c r="BJ33" s="106"/>
+      <c r="BK33" s="106"/>
+      <c r="BL33" s="98"/>
+      <c r="BM33" s="98"/>
+      <c r="BN33" s="89"/>
+      <c r="BO33" s="89"/>
+      <c r="BP33" s="95" t="s">
         <v>702</v>
       </c>
-      <c r="BQ33" s="86"/>
-      <c r="BR33" s="90" t="s">
+      <c r="BQ33" s="90"/>
+      <c r="BR33" s="94" t="s">
         <v>724</v>
       </c>
-      <c r="BS33" s="87" t="s">
+      <c r="BS33" s="93" t="s">
         <v>711</v>
       </c>
       <c r="BT33" s="88" t="s">
         <v>730</v>
       </c>
-      <c r="BU33" s="65"/>
+      <c r="BU33" s="88" t="s">
+        <v>765</v>
+      </c>
       <c r="BV33" s="65"/>
       <c r="BW33" s="88" t="s">
         <v>730</v>
@@ -52113,47 +52205,47 @@
       <c r="B34" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
       <c r="E34" s="62" t="s">
         <v>94</v>
       </c>
       <c r="F34" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="G34" s="99" t="s">
+      <c r="G34" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="H34" s="108" t="s">
+      <c r="H34" s="115" t="s">
         <v>155</v>
       </c>
-      <c r="I34" s="86" t="s">
+      <c r="I34" s="90" t="s">
         <v>183</v>
       </c>
-      <c r="J34" s="110" t="s">
+      <c r="J34" s="111" t="s">
         <v>204</v>
       </c>
-      <c r="K34" s="110"/>
-      <c r="L34" s="106"/>
-      <c r="M34" s="106" t="s">
+      <c r="K34" s="111"/>
+      <c r="L34" s="110"/>
+      <c r="M34" s="110" t="s">
         <v>255</v>
       </c>
-      <c r="N34" s="110"/>
-      <c r="O34" s="106"/>
-      <c r="P34" s="86"/>
-      <c r="Q34" s="110"/>
-      <c r="R34" s="99" t="s">
+      <c r="N34" s="111"/>
+      <c r="O34" s="110"/>
+      <c r="P34" s="90"/>
+      <c r="Q34" s="111"/>
+      <c r="R34" s="104" t="s">
         <v>324</v>
       </c>
-      <c r="S34" s="86"/>
-      <c r="T34" s="86" t="s">
+      <c r="S34" s="90"/>
+      <c r="T34" s="90" t="s">
         <v>363</v>
       </c>
-      <c r="U34" s="106"/>
-      <c r="V34" s="100" t="s">
+      <c r="U34" s="110"/>
+      <c r="V34" s="109" t="s">
         <v>390</v>
       </c>
-      <c r="W34" s="86"/>
+      <c r="W34" s="90"/>
       <c r="X34" s="51" t="s">
         <v>424</v>
       </c>
@@ -52163,10 +52255,10 @@
       <c r="Z34" s="88" t="s">
         <v>418</v>
       </c>
-      <c r="AA34" s="101" t="s">
+      <c r="AA34" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="AB34" s="101" t="s">
+      <c r="AB34" s="95" t="s">
         <v>45</v>
       </c>
       <c r="AC34" s="55" t="s">
@@ -52175,48 +52267,48 @@
       <c r="AD34" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="AE34" s="101" t="s">
+      <c r="AE34" s="95" t="s">
         <v>522</v>
       </c>
       <c r="AF34" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="AG34" s="86" t="s">
+      <c r="AG34" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AH34" s="120"/>
-      <c r="AI34" s="86" t="s">
+      <c r="AH34" s="116"/>
+      <c r="AI34" s="90" t="s">
         <v>555</v>
       </c>
-      <c r="AJ34" s="106" t="s">
+      <c r="AJ34" s="110" t="s">
         <v>178</v>
       </c>
-      <c r="AK34" s="86"/>
-      <c r="AL34" s="87" t="s">
+      <c r="AK34" s="90"/>
+      <c r="AL34" s="93" t="s">
         <v>560</v>
       </c>
-      <c r="AM34" s="110"/>
+      <c r="AM34" s="111"/>
       <c r="AN34" s="88"/>
-      <c r="AO34" s="85"/>
-      <c r="AP34" s="87" t="s">
+      <c r="AO34" s="89"/>
+      <c r="AP34" s="93" t="s">
         <v>560</v>
       </c>
-      <c r="AQ34" s="105"/>
-      <c r="AR34" s="86" t="s">
+      <c r="AQ34" s="114"/>
+      <c r="AR34" s="90" t="s">
         <v>255</v>
       </c>
-      <c r="AS34" s="85" t="s">
+      <c r="AS34" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="AT34" s="85"/>
-      <c r="AU34" s="87"/>
-      <c r="AV34" s="86" t="s">
+      <c r="AT34" s="89"/>
+      <c r="AU34" s="93"/>
+      <c r="AV34" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AW34" s="86" t="s">
+      <c r="AW34" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AX34" s="99" t="s">
+      <c r="AX34" s="104" t="s">
         <v>657</v>
       </c>
       <c r="AY34" s="62" t="s">
@@ -52228,48 +52320,48 @@
       <c r="BA34" s="58" t="s">
         <v>667</v>
       </c>
-      <c r="BB34" s="99" t="s">
+      <c r="BB34" s="104" t="s">
         <v>672</v>
       </c>
-      <c r="BC34" s="85"/>
-      <c r="BD34" s="106" t="s">
+      <c r="BC34" s="89"/>
+      <c r="BD34" s="110" t="s">
         <v>670</v>
       </c>
-      <c r="BE34" s="85" t="s">
+      <c r="BE34" s="89" t="s">
         <v>58</v>
       </c>
       <c r="BF34" s="88"/>
-      <c r="BG34" s="85" t="s">
+      <c r="BG34" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BH34" s="85" t="s">
+      <c r="BH34" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BI34" s="90" t="s">
+      <c r="BI34" s="94" t="s">
         <v>619</v>
       </c>
-      <c r="BJ34" s="90" t="s">
+      <c r="BJ34" s="94" t="s">
         <v>619</v>
       </c>
-      <c r="BK34" s="90" t="s">
+      <c r="BK34" s="94" t="s">
         <v>619</v>
       </c>
-      <c r="BL34" s="90" t="s">
+      <c r="BL34" s="94" t="s">
         <v>619</v>
       </c>
-      <c r="BM34" s="90" t="s">
+      <c r="BM34" s="94" t="s">
         <v>619</v>
       </c>
-      <c r="BN34" s="87" t="s">
+      <c r="BN34" s="93" t="s">
         <v>697</v>
       </c>
-      <c r="BO34" s="85"/>
-      <c r="BP34" s="101"/>
-      <c r="BQ34" s="86"/>
-      <c r="BR34" s="90"/>
-      <c r="BS34" s="87"/>
+      <c r="BO34" s="89"/>
+      <c r="BP34" s="95"/>
+      <c r="BQ34" s="90"/>
+      <c r="BR34" s="94"/>
+      <c r="BS34" s="93"/>
       <c r="BT34" s="88"/>
-      <c r="BU34" s="2"/>
+      <c r="BU34" s="88"/>
       <c r="BV34" s="2"/>
       <c r="BW34" s="88"/>
       <c r="BZ34" s="2"/>
@@ -52286,94 +52378,94 @@
         <v>0.937499999999999</v>
       </c>
       <c r="B35" s="88"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="101" t="s">
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="101" t="s">
+      <c r="F35" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="G35" s="99"/>
-      <c r="H35" s="108"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="101" t="s">
+      <c r="G35" s="104"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="95" t="s">
         <v>227</v>
       </c>
-      <c r="L35" s="106"/>
-      <c r="M35" s="106"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="110"/>
       <c r="N35" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="O35" s="85" t="s">
+      <c r="O35" s="89" t="s">
         <v>277</v>
       </c>
       <c r="P35" s="55" t="s">
         <v>291</v>
       </c>
-      <c r="Q35" s="101" t="s">
+      <c r="Q35" s="95" t="s">
         <v>305</v>
       </c>
-      <c r="R35" s="99"/>
+      <c r="R35" s="104"/>
       <c r="S35" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="T35" s="86"/>
-      <c r="U35" s="85" t="s">
+      <c r="T35" s="90"/>
+      <c r="U35" s="89" t="s">
         <v>383</v>
       </c>
-      <c r="V35" s="100"/>
-      <c r="W35" s="86"/>
-      <c r="X35" s="101" t="s">
+      <c r="V35" s="109"/>
+      <c r="W35" s="90"/>
+      <c r="X35" s="95" t="s">
         <v>410</v>
       </c>
-      <c r="Y35" s="103" t="s">
+      <c r="Y35" s="117" t="s">
         <v>432</v>
       </c>
       <c r="Z35" s="88"/>
-      <c r="AA35" s="101"/>
-      <c r="AB35" s="101"/>
+      <c r="AA35" s="95"/>
+      <c r="AB35" s="95"/>
       <c r="AC35" s="54" t="s">
         <v>492</v>
       </c>
       <c r="AD35" s="60" t="s">
         <v>504</v>
       </c>
-      <c r="AE35" s="101"/>
+      <c r="AE35" s="95"/>
       <c r="AF35" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="AG35" s="86"/>
-      <c r="AH35" s="86" t="s">
+      <c r="AG35" s="90"/>
+      <c r="AH35" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AI35" s="86"/>
-      <c r="AJ35" s="106"/>
-      <c r="AK35" s="86" t="s">
+      <c r="AI35" s="90"/>
+      <c r="AJ35" s="110"/>
+      <c r="AK35" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AL35" s="87"/>
-      <c r="AM35" s="86" t="s">
+      <c r="AL35" s="93"/>
+      <c r="AM35" s="90" t="s">
         <v>45</v>
       </c>
       <c r="AN35" s="88"/>
-      <c r="AO35" s="85"/>
-      <c r="AP35" s="87"/>
+      <c r="AO35" s="89"/>
+      <c r="AP35" s="93"/>
       <c r="AQ35" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="AR35" s="86"/>
-      <c r="AS35" s="85"/>
-      <c r="AT35" s="86" t="s">
+      <c r="AR35" s="90"/>
+      <c r="AS35" s="89"/>
+      <c r="AT35" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AU35" s="105" t="s">
+      <c r="AU35" s="114" t="s">
         <v>632</v>
       </c>
-      <c r="AV35" s="86"/>
-      <c r="AW35" s="86"/>
-      <c r="AX35" s="99"/>
+      <c r="AV35" s="90"/>
+      <c r="AW35" s="90"/>
+      <c r="AX35" s="104"/>
       <c r="AY35" s="57" t="s">
         <v>662</v>
       </c>
@@ -52383,38 +52475,40 @@
       <c r="BA35" s="58" t="s">
         <v>670</v>
       </c>
-      <c r="BB35" s="99"/>
+      <c r="BB35" s="104"/>
       <c r="BC35" s="88" t="s">
         <v>670</v>
       </c>
-      <c r="BD35" s="106"/>
-      <c r="BE35" s="85"/>
+      <c r="BD35" s="110"/>
+      <c r="BE35" s="89"/>
       <c r="BF35" s="88"/>
-      <c r="BG35" s="85"/>
-      <c r="BH35" s="85"/>
-      <c r="BI35" s="90"/>
-      <c r="BJ35" s="90"/>
-      <c r="BK35" s="90"/>
-      <c r="BL35" s="90"/>
-      <c r="BM35" s="90"/>
-      <c r="BN35" s="87"/>
-      <c r="BO35" s="85"/>
-      <c r="BP35" s="100" t="s">
+      <c r="BG35" s="89"/>
+      <c r="BH35" s="89"/>
+      <c r="BI35" s="94"/>
+      <c r="BJ35" s="94"/>
+      <c r="BK35" s="94"/>
+      <c r="BL35" s="94"/>
+      <c r="BM35" s="94"/>
+      <c r="BN35" s="93"/>
+      <c r="BO35" s="89"/>
+      <c r="BP35" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="BQ35" s="86"/>
-      <c r="BR35" s="94" t="s">
+      <c r="BQ35" s="90"/>
+      <c r="BR35" s="105" t="s">
         <v>691</v>
       </c>
       <c r="BS35" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="BT35" s="89" t="s">
+      <c r="BT35" s="102" t="s">
         <v>731</v>
       </c>
-      <c r="BU35" s="2"/>
+      <c r="BU35" s="134" t="s">
+        <v>619</v>
+      </c>
       <c r="BV35" s="2"/>
-      <c r="BW35" s="89" t="s">
+      <c r="BW35" s="102" t="s">
         <v>731</v>
       </c>
       <c r="BZ35" s="2"/>
@@ -52430,59 +52524,59 @@
       <c r="A36" s="10">
         <v>0.95833333333333304</v>
       </c>
-      <c r="B36" s="100" t="s">
+      <c r="B36" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="100"/>
-      <c r="D36" s="85" t="s">
+      <c r="C36" s="109"/>
+      <c r="D36" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="85" t="s">
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="89" t="s">
         <v>156</v>
       </c>
-      <c r="I36" s="100" t="s">
+      <c r="I36" s="109" t="s">
         <v>184</v>
       </c>
-      <c r="J36" s="85" t="s">
+      <c r="J36" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="K36" s="101"/>
+      <c r="K36" s="95"/>
       <c r="L36" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="M36" s="100" t="s">
+      <c r="M36" s="109" t="s">
         <v>253</v>
       </c>
-      <c r="N36" s="101" t="s">
+      <c r="N36" s="95" t="s">
         <v>270</v>
       </c>
-      <c r="O36" s="85"/>
-      <c r="P36" s="85" t="s">
+      <c r="O36" s="89"/>
+      <c r="P36" s="89" t="s">
         <v>292</v>
       </c>
-      <c r="Q36" s="101"/>
-      <c r="R36" s="85" t="s">
+      <c r="Q36" s="95"/>
+      <c r="R36" s="89" t="s">
         <v>323</v>
       </c>
-      <c r="S36" s="85" t="s">
+      <c r="S36" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="T36" s="99" t="s">
+      <c r="T36" s="104" t="s">
         <v>370</v>
       </c>
-      <c r="U36" s="85"/>
-      <c r="V36" s="85" t="s">
+      <c r="U36" s="89"/>
+      <c r="V36" s="89" t="s">
         <v>384</v>
       </c>
-      <c r="W36" s="85" t="s">
+      <c r="W36" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="X36" s="101"/>
-      <c r="Y36" s="103"/>
-      <c r="Z36" s="85" t="s">
+      <c r="X36" s="95"/>
+      <c r="Y36" s="117"/>
+      <c r="Z36" s="89" t="s">
         <v>13</v>
       </c>
       <c r="AA36" s="57" t="s">
@@ -52491,113 +52585,113 @@
       <c r="AB36" s="56" t="s">
         <v>479</v>
       </c>
-      <c r="AC36" s="101" t="s">
+      <c r="AC36" s="95" t="s">
         <v>45</v>
       </c>
       <c r="AD36" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="AE36" s="85" t="s">
+      <c r="AE36" s="89" t="s">
         <v>523</v>
       </c>
-      <c r="AF36" s="85" t="s">
+      <c r="AF36" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AG36" s="85" t="s">
+      <c r="AG36" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AH36" s="86"/>
+      <c r="AH36" s="90"/>
       <c r="AI36" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="AJ36" s="85" t="s">
+      <c r="AJ36" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AK36" s="86"/>
-      <c r="AL36" s="85" t="s">
+      <c r="AK36" s="90"/>
+      <c r="AL36" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AM36" s="86"/>
+      <c r="AM36" s="90"/>
       <c r="AN36" s="88"/>
-      <c r="AO36" s="85"/>
-      <c r="AP36" s="87"/>
-      <c r="AQ36" s="85" t="s">
+      <c r="AO36" s="89"/>
+      <c r="AP36" s="93"/>
+      <c r="AQ36" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AR36" s="85" t="s">
+      <c r="AR36" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AS36" s="86" t="s">
+      <c r="AS36" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AT36" s="86"/>
-      <c r="AU36" s="105"/>
-      <c r="AV36" s="85" t="s">
+      <c r="AT36" s="90"/>
+      <c r="AU36" s="114"/>
+      <c r="AV36" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AW36" s="85" t="s">
+      <c r="AW36" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AX36" s="99"/>
-      <c r="AY36" s="100" t="s">
+      <c r="AX36" s="104"/>
+      <c r="AY36" s="109" t="s">
         <v>177</v>
       </c>
-      <c r="AZ36" s="85" t="s">
+      <c r="AZ36" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BA36" s="85" t="s">
+      <c r="BA36" s="89" t="s">
         <v>13</v>
       </c>
       <c r="BB36" s="88" t="s">
         <v>673</v>
       </c>
       <c r="BC36" s="88"/>
-      <c r="BD36" s="85" t="s">
+      <c r="BD36" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BE36" s="85" t="s">
+      <c r="BE36" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="BF36" s="85" t="s">
+      <c r="BF36" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BG36" s="85" t="s">
+      <c r="BG36" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BH36" s="85" t="s">
+      <c r="BH36" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BI36" s="90" t="s">
+      <c r="BI36" s="94" t="s">
         <v>619</v>
       </c>
-      <c r="BJ36" s="90" t="s">
+      <c r="BJ36" s="94" t="s">
         <v>619</v>
       </c>
-      <c r="BK36" s="90" t="s">
+      <c r="BK36" s="94" t="s">
         <v>619</v>
       </c>
-      <c r="BL36" s="90" t="s">
+      <c r="BL36" s="94" t="s">
         <v>619</v>
       </c>
-      <c r="BM36" s="90" t="s">
+      <c r="BM36" s="94" t="s">
         <v>619</v>
       </c>
-      <c r="BN36" s="87" t="s">
+      <c r="BN36" s="93" t="s">
         <v>697</v>
       </c>
-      <c r="BO36" s="85"/>
-      <c r="BP36" s="100"/>
-      <c r="BQ36" s="85" t="s">
+      <c r="BO36" s="89"/>
+      <c r="BP36" s="109"/>
+      <c r="BQ36" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BR36" s="95"/>
-      <c r="BS36" s="85" t="s">
+      <c r="BR36" s="108"/>
+      <c r="BS36" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="BT36" s="87"/>
-      <c r="BU36" s="2"/>
+      <c r="BT36" s="93"/>
+      <c r="BU36" s="135"/>
       <c r="BV36" s="2"/>
-      <c r="BW36" s="87"/>
+      <c r="BW36" s="93"/>
       <c r="BZ36" s="2"/>
       <c r="CA36" s="2"/>
       <c r="CB36" s="2"/>
@@ -52611,114 +52705,114 @@
       <c r="A37" s="10">
         <v>0.97916666666666596</v>
       </c>
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="85"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="89"/>
       <c r="K37" s="57" t="s">
         <v>228</v>
       </c>
       <c r="L37" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="M37" s="100"/>
-      <c r="N37" s="101"/>
+      <c r="M37" s="109"/>
+      <c r="N37" s="95"/>
       <c r="O37" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="P37" s="85"/>
+      <c r="P37" s="89"/>
       <c r="Q37" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="R37" s="85"/>
-      <c r="S37" s="85"/>
-      <c r="T37" s="99"/>
-      <c r="U37" s="85"/>
-      <c r="V37" s="85"/>
-      <c r="W37" s="85"/>
+      <c r="R37" s="89"/>
+      <c r="S37" s="89"/>
+      <c r="T37" s="104"/>
+      <c r="U37" s="89"/>
+      <c r="V37" s="89"/>
+      <c r="W37" s="89"/>
       <c r="X37" s="51" t="s">
         <v>13</v>
       </c>
       <c r="Y37" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="Z37" s="85"/>
+      <c r="Z37" s="89"/>
       <c r="AA37" s="51" t="s">
         <v>13</v>
       </c>
       <c r="AB37" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AC37" s="101"/>
+      <c r="AC37" s="95"/>
       <c r="AD37" s="57" t="s">
         <v>505</v>
       </c>
-      <c r="AE37" s="85"/>
-      <c r="AF37" s="85"/>
-      <c r="AG37" s="85"/>
+      <c r="AE37" s="89"/>
+      <c r="AF37" s="89"/>
+      <c r="AG37" s="89"/>
       <c r="AH37" s="55" t="s">
         <v>96</v>
       </c>
       <c r="AI37" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="AJ37" s="85"/>
+      <c r="AJ37" s="89"/>
       <c r="AK37" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AL37" s="85"/>
+      <c r="AL37" s="89"/>
       <c r="AM37" s="55" t="s">
         <v>96</v>
       </c>
       <c r="AN37" s="53" t="s">
         <v>608</v>
       </c>
-      <c r="AO37" s="85"/>
-      <c r="AP37" s="87"/>
-      <c r="AQ37" s="85"/>
-      <c r="AR37" s="85"/>
-      <c r="AS37" s="86"/>
+      <c r="AO37" s="89"/>
+      <c r="AP37" s="93"/>
+      <c r="AQ37" s="89"/>
+      <c r="AR37" s="89"/>
+      <c r="AS37" s="90"/>
       <c r="AT37" s="51" t="s">
         <v>13</v>
       </c>
       <c r="AU37" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="AV37" s="85"/>
-      <c r="AW37" s="85"/>
-      <c r="AX37" s="99"/>
-      <c r="AY37" s="100"/>
-      <c r="AZ37" s="85"/>
-      <c r="BA37" s="85"/>
+      <c r="AV37" s="89"/>
+      <c r="AW37" s="89"/>
+      <c r="AX37" s="104"/>
+      <c r="AY37" s="109"/>
+      <c r="AZ37" s="89"/>
+      <c r="BA37" s="89"/>
       <c r="BB37" s="88"/>
       <c r="BC37" s="55" t="s">
         <v>676</v>
       </c>
-      <c r="BD37" s="85"/>
-      <c r="BE37" s="85"/>
-      <c r="BF37" s="85"/>
-      <c r="BG37" s="85"/>
-      <c r="BH37" s="85"/>
-      <c r="BI37" s="90"/>
-      <c r="BJ37" s="90"/>
-      <c r="BK37" s="90"/>
-      <c r="BL37" s="90"/>
-      <c r="BM37" s="90"/>
-      <c r="BN37" s="87"/>
-      <c r="BO37" s="85"/>
-      <c r="BP37" s="100"/>
-      <c r="BQ37" s="85"/>
-      <c r="BR37" s="96"/>
-      <c r="BS37" s="85"/>
+      <c r="BD37" s="89"/>
+      <c r="BE37" s="89"/>
+      <c r="BF37" s="89"/>
+      <c r="BG37" s="89"/>
+      <c r="BH37" s="89"/>
+      <c r="BI37" s="94"/>
+      <c r="BJ37" s="94"/>
+      <c r="BK37" s="94"/>
+      <c r="BL37" s="94"/>
+      <c r="BM37" s="94"/>
+      <c r="BN37" s="93"/>
+      <c r="BO37" s="89"/>
+      <c r="BP37" s="109"/>
+      <c r="BQ37" s="89"/>
+      <c r="BR37" s="106"/>
+      <c r="BS37" s="89"/>
       <c r="BT37" s="72" t="s">
         <v>733</v>
       </c>
-      <c r="BU37" s="2"/>
+      <c r="BU37" s="135"/>
       <c r="BV37" s="2"/>
       <c r="BZ37" s="2"/>
       <c r="CA37" s="2"/>
@@ -59680,7 +59774,862 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="859">
+  <mergeCells count="879">
+    <mergeCell ref="BU33:BU34"/>
+    <mergeCell ref="BU35:BU37"/>
+    <mergeCell ref="BV2:BV3"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BV6:BV7"/>
+    <mergeCell ref="BV9:BV10"/>
+    <mergeCell ref="BV11:BV12"/>
+    <mergeCell ref="BV13:BV14"/>
+    <mergeCell ref="BV15:BV16"/>
+    <mergeCell ref="BV17:BV18"/>
+    <mergeCell ref="BV21:BV22"/>
+    <mergeCell ref="BV23:BV24"/>
+    <mergeCell ref="BU16:BU17"/>
+    <mergeCell ref="BU19:BU20"/>
+    <mergeCell ref="BU21:BU22"/>
+    <mergeCell ref="BU23:BU24"/>
+    <mergeCell ref="BU25:BU26"/>
+    <mergeCell ref="BU27:BU28"/>
+    <mergeCell ref="BU29:BU30"/>
+    <mergeCell ref="BU31:BU32"/>
+    <mergeCell ref="BR2:BR3"/>
+    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BT18:BT19"/>
+    <mergeCell ref="BW33:BW34"/>
+    <mergeCell ref="BW35:BW36"/>
+    <mergeCell ref="BT33:BT34"/>
+    <mergeCell ref="BT35:BT36"/>
+    <mergeCell ref="BU2:BU3"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="BU6:BU7"/>
+    <mergeCell ref="BU8:BU9"/>
+    <mergeCell ref="BU10:BU11"/>
+    <mergeCell ref="BU12:BU13"/>
+    <mergeCell ref="BU14:BU15"/>
+    <mergeCell ref="BS26:BS27"/>
+    <mergeCell ref="BS28:BS29"/>
+    <mergeCell ref="BS30:BS31"/>
+    <mergeCell ref="BR35:BR37"/>
+    <mergeCell ref="BS33:BS34"/>
+    <mergeCell ref="BS36:BS37"/>
+    <mergeCell ref="BT6:BT7"/>
+    <mergeCell ref="BT8:BT9"/>
+    <mergeCell ref="BT10:BT11"/>
+    <mergeCell ref="BS8:BS9"/>
+    <mergeCell ref="BS10:BS11"/>
+    <mergeCell ref="BS12:BS13"/>
+    <mergeCell ref="BS14:BS15"/>
+    <mergeCell ref="BS16:BS17"/>
+    <mergeCell ref="BS18:BS19"/>
+    <mergeCell ref="BS20:BS21"/>
+    <mergeCell ref="BS22:BS23"/>
+    <mergeCell ref="BS24:BS25"/>
+    <mergeCell ref="BR31:BR32"/>
+    <mergeCell ref="BR19:BR20"/>
+    <mergeCell ref="BR21:BR22"/>
+    <mergeCell ref="BR23:BR24"/>
+    <mergeCell ref="BR33:BR34"/>
+    <mergeCell ref="BL16:BL17"/>
+    <mergeCell ref="BL18:BL24"/>
+    <mergeCell ref="BK25:BK26"/>
+    <mergeCell ref="BK27:BK29"/>
+    <mergeCell ref="BK18:BK19"/>
+    <mergeCell ref="BK20:BK21"/>
+    <mergeCell ref="BM20:BM21"/>
+    <mergeCell ref="BP35:BP37"/>
+    <mergeCell ref="BQ22:BQ23"/>
+    <mergeCell ref="BQ24:BQ25"/>
+    <mergeCell ref="BP26:BP28"/>
+    <mergeCell ref="BP29:BP30"/>
+    <mergeCell ref="BP31:BP32"/>
+    <mergeCell ref="BP33:BP34"/>
+    <mergeCell ref="BP16:BP18"/>
+    <mergeCell ref="BP19:BP20"/>
+    <mergeCell ref="BP21:BP22"/>
+    <mergeCell ref="BP24:BP25"/>
+    <mergeCell ref="BQ20:BQ21"/>
+    <mergeCell ref="BQ28:BQ29"/>
+    <mergeCell ref="BQ30:BQ31"/>
+    <mergeCell ref="BQ32:BQ35"/>
+    <mergeCell ref="BQ36:BQ37"/>
+    <mergeCell ref="BI23:BI24"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="BI4:BI6"/>
+    <mergeCell ref="BI7:BI8"/>
+    <mergeCell ref="BI9:BI10"/>
+    <mergeCell ref="BI11:BI12"/>
+    <mergeCell ref="BI13:BI14"/>
+    <mergeCell ref="BO29:BO37"/>
+    <mergeCell ref="BP2:BP4"/>
+    <mergeCell ref="BP6:BP7"/>
+    <mergeCell ref="BK6:BK7"/>
+    <mergeCell ref="BK8:BK9"/>
+    <mergeCell ref="BK10:BK11"/>
+    <mergeCell ref="BJ23:BJ25"/>
+    <mergeCell ref="BJ26:BJ27"/>
+    <mergeCell ref="BJ28:BJ29"/>
+    <mergeCell ref="BJ36:BJ37"/>
+    <mergeCell ref="BJ34:BJ35"/>
+    <mergeCell ref="BK34:BK35"/>
+    <mergeCell ref="BK22:BK24"/>
+    <mergeCell ref="BK14:BK15"/>
+    <mergeCell ref="BL14:BL15"/>
+    <mergeCell ref="BM14:BM15"/>
+    <mergeCell ref="BK16:BK17"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BJ6:BJ8"/>
+    <mergeCell ref="BJ9:BJ10"/>
+    <mergeCell ref="BJ11:BJ12"/>
+    <mergeCell ref="BJ13:BJ14"/>
+    <mergeCell ref="BJ15:BJ16"/>
+    <mergeCell ref="BJ17:BJ18"/>
+    <mergeCell ref="BJ21:BJ22"/>
+    <mergeCell ref="BJ19:BJ20"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BB6:BB7"/>
+    <mergeCell ref="BB8:BB9"/>
+    <mergeCell ref="BB10:BB13"/>
+    <mergeCell ref="BB25:BB29"/>
+    <mergeCell ref="BC24:BC25"/>
+    <mergeCell ref="BC26:BC32"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BG6:BG7"/>
+    <mergeCell ref="BG8:BG9"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="BF6:BF9"/>
+    <mergeCell ref="BF10:BF11"/>
+    <mergeCell ref="BC7:BC8"/>
+    <mergeCell ref="BC10:BC13"/>
+    <mergeCell ref="BG11:BG12"/>
+    <mergeCell ref="BG13:BG19"/>
+    <mergeCell ref="BG20:BG21"/>
+    <mergeCell ref="BB23:BB24"/>
+    <mergeCell ref="BB14:BB21"/>
+    <mergeCell ref="BC14:BC15"/>
+    <mergeCell ref="AX8:AX9"/>
+    <mergeCell ref="AZ3:AZ4"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="AZ7:AZ8"/>
+    <mergeCell ref="AZ12:AZ13"/>
+    <mergeCell ref="AZ10:AZ11"/>
+    <mergeCell ref="AZ16:AZ17"/>
+    <mergeCell ref="AZ14:AZ15"/>
+    <mergeCell ref="AZ18:AZ19"/>
+    <mergeCell ref="AU20:AU23"/>
+    <mergeCell ref="AW16:AW17"/>
+    <mergeCell ref="AW19:AW20"/>
+    <mergeCell ref="AU35:AU36"/>
+    <mergeCell ref="AU26:AU30"/>
+    <mergeCell ref="AV6:AV7"/>
+    <mergeCell ref="AV8:AV9"/>
+    <mergeCell ref="AV10:AV11"/>
+    <mergeCell ref="AV12:AV13"/>
+    <mergeCell ref="AV14:AV17"/>
+    <mergeCell ref="AV18:AV19"/>
+    <mergeCell ref="AV20:AV23"/>
+    <mergeCell ref="AV24:AV25"/>
+    <mergeCell ref="AV26:AV27"/>
+    <mergeCell ref="AV29:AV30"/>
+    <mergeCell ref="AV32:AV33"/>
+    <mergeCell ref="AV34:AV35"/>
+    <mergeCell ref="AV36:AV37"/>
+    <mergeCell ref="AU24:AU25"/>
+    <mergeCell ref="AW21:AW22"/>
+    <mergeCell ref="AW23:AW24"/>
+    <mergeCell ref="AW25:AW28"/>
+    <mergeCell ref="AW6:AW7"/>
+    <mergeCell ref="AW29:AW30"/>
+    <mergeCell ref="AT25:AT26"/>
+    <mergeCell ref="AT27:AT28"/>
+    <mergeCell ref="AT29:AT30"/>
+    <mergeCell ref="AT31:AT32"/>
+    <mergeCell ref="AT33:AT34"/>
+    <mergeCell ref="AU31:AU32"/>
+    <mergeCell ref="AU33:AU34"/>
+    <mergeCell ref="AT35:AT36"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="AT6:AT7"/>
+    <mergeCell ref="AT8:AT12"/>
+    <mergeCell ref="AT13:AT14"/>
+    <mergeCell ref="AT15:AT18"/>
+    <mergeCell ref="AT19:AT20"/>
+    <mergeCell ref="AT21:AT22"/>
+    <mergeCell ref="AT23:AT24"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AU6:AU7"/>
+    <mergeCell ref="AU8:AU9"/>
+    <mergeCell ref="AU10:AU13"/>
+    <mergeCell ref="AU14:AU15"/>
+    <mergeCell ref="AU16:AU19"/>
+    <mergeCell ref="AS20:AS21"/>
+    <mergeCell ref="AS22:AS23"/>
+    <mergeCell ref="AS24:AS25"/>
+    <mergeCell ref="AS26:AS27"/>
+    <mergeCell ref="AS28:AS29"/>
+    <mergeCell ref="AS30:AS33"/>
+    <mergeCell ref="AS34:AS35"/>
+    <mergeCell ref="AS36:AS37"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AS6:AS7"/>
+    <mergeCell ref="AS8:AS9"/>
+    <mergeCell ref="AS10:AS11"/>
+    <mergeCell ref="AS12:AS13"/>
+    <mergeCell ref="AS14:AS15"/>
+    <mergeCell ref="AS16:AS17"/>
+    <mergeCell ref="AS18:AS19"/>
+    <mergeCell ref="AQ33:AQ34"/>
+    <mergeCell ref="AQ36:AQ37"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AR6:AR7"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AR10:AR11"/>
+    <mergeCell ref="AR13:AR14"/>
+    <mergeCell ref="AR15:AR16"/>
+    <mergeCell ref="AR17:AR18"/>
+    <mergeCell ref="AR19:AR20"/>
+    <mergeCell ref="AR21:AR27"/>
+    <mergeCell ref="AQ27:AQ28"/>
+    <mergeCell ref="AQ29:AQ30"/>
+    <mergeCell ref="AQ31:AQ32"/>
+    <mergeCell ref="AR29:AR33"/>
+    <mergeCell ref="AR36:AR37"/>
+    <mergeCell ref="AR34:AR35"/>
+    <mergeCell ref="AQ2:AQ5"/>
+    <mergeCell ref="AQ6:AQ11"/>
+    <mergeCell ref="AQ13:AQ19"/>
+    <mergeCell ref="AQ20:AQ26"/>
+    <mergeCell ref="AK33:AK34"/>
+    <mergeCell ref="AK35:AK36"/>
+    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AP7:AP8"/>
+    <mergeCell ref="AP9:AP12"/>
+    <mergeCell ref="AP13:AP29"/>
+    <mergeCell ref="AP30:AP31"/>
+    <mergeCell ref="AP32:AP33"/>
+    <mergeCell ref="AP34:AP37"/>
+    <mergeCell ref="AO12:AO26"/>
+    <mergeCell ref="AO29:AO30"/>
+    <mergeCell ref="AL31:AL32"/>
+    <mergeCell ref="AM18:AM19"/>
+    <mergeCell ref="AM20:AM21"/>
+    <mergeCell ref="AM22:AM23"/>
+    <mergeCell ref="AM24:AM28"/>
+    <mergeCell ref="AM29:AM30"/>
+    <mergeCell ref="AM31:AM32"/>
+    <mergeCell ref="AN22:AN23"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AK18:AK19"/>
+    <mergeCell ref="AK20:AK21"/>
+    <mergeCell ref="AK22:AK23"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AE18:AE21"/>
+    <mergeCell ref="AE23:AE24"/>
+    <mergeCell ref="AF8:AF10"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AI4:AI7"/>
+    <mergeCell ref="AJ2:AJ5"/>
+    <mergeCell ref="AJ15:AJ18"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AJ24:AJ25"/>
+    <mergeCell ref="AK16:AK17"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH13:AH15"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="Z6:Z8"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA17:AA19"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="Y12:Y14"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="AA6:AA10"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="AD2:AD4"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AB8:AB10"/>
+    <mergeCell ref="AD6:AD8"/>
+    <mergeCell ref="Z11:Z16"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="V7:V11"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="V15:V20"/>
+    <mergeCell ref="W16:W20"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="U20:U22"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="O2:O6"/>
+    <mergeCell ref="O29:O34"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="P19:P24"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="O23:O26"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="Q2:Q8"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="R13:R17"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="T7:T10"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="S3:S6"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G25:G30"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I30"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="L33:L35"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K5:K8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L25:L30"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N25:N30"/>
+    <mergeCell ref="M28:M30"/>
+    <mergeCell ref="M17:M24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="R36:R37"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="R10:R12"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q14:Q16"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="Q25:Q28"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="Z36:Z37"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Y23:Y26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="V28:V31"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="V36:V37"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="U27:U29"/>
+    <mergeCell ref="U23:U26"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="S25:S30"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="T21:T28"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="U35:U37"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="AB18:AB20"/>
+    <mergeCell ref="AB21:AB23"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="AA21:AA22"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W33:W35"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z34:Z35"/>
+    <mergeCell ref="W25:W30"/>
+    <mergeCell ref="X35:X36"/>
+    <mergeCell ref="X24:X26"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AA29:AA32"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="Z25:Z30"/>
+    <mergeCell ref="Z31:Z32"/>
+    <mergeCell ref="AB25:AB30"/>
+    <mergeCell ref="U11:U13"/>
+    <mergeCell ref="Y17:Y19"/>
+    <mergeCell ref="W36:W37"/>
+    <mergeCell ref="AH32:AH34"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="AC10:AC14"/>
+    <mergeCell ref="AC15:AC17"/>
+    <mergeCell ref="AC18:AC19"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="AC22:AC23"/>
+    <mergeCell ref="AD25:AD30"/>
+    <mergeCell ref="AD14:AD15"/>
+    <mergeCell ref="AD12:AD13"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AG25:AG30"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AH24:AH26"/>
+    <mergeCell ref="AH29:AH30"/>
+    <mergeCell ref="AH27:AH28"/>
+    <mergeCell ref="U32:U34"/>
+    <mergeCell ref="AH35:AH36"/>
+    <mergeCell ref="AI34:AI35"/>
+    <mergeCell ref="AC36:AC37"/>
+    <mergeCell ref="AB31:AB32"/>
+    <mergeCell ref="AI31:AI33"/>
+    <mergeCell ref="AL25:AL30"/>
+    <mergeCell ref="AL36:AL37"/>
+    <mergeCell ref="AL34:AL35"/>
+    <mergeCell ref="AN31:AN32"/>
+    <mergeCell ref="AF24:AF25"/>
+    <mergeCell ref="AJ32:AJ33"/>
+    <mergeCell ref="AK31:AK32"/>
+    <mergeCell ref="AN33:AN36"/>
+    <mergeCell ref="AM33:AM34"/>
+    <mergeCell ref="AM35:AM36"/>
+    <mergeCell ref="AK25:AK30"/>
+    <mergeCell ref="AD31:AD32"/>
+    <mergeCell ref="AB34:AB35"/>
+    <mergeCell ref="AJ36:AJ37"/>
+    <mergeCell ref="AJ34:AJ35"/>
+    <mergeCell ref="AJ26:AJ27"/>
+    <mergeCell ref="AJ28:AJ29"/>
+    <mergeCell ref="AC28:AC30"/>
+    <mergeCell ref="AE30:AE32"/>
+    <mergeCell ref="AH16:AH18"/>
+    <mergeCell ref="AJ10:AJ11"/>
+    <mergeCell ref="AI16:AI18"/>
+    <mergeCell ref="AI9:AI15"/>
+    <mergeCell ref="AJ12:AJ13"/>
+    <mergeCell ref="AH19:AH23"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AH11:AH12"/>
+    <mergeCell ref="AI25:AI30"/>
+    <mergeCell ref="AJ30:AJ31"/>
+    <mergeCell ref="AD18:AD21"/>
+    <mergeCell ref="AG36:AG37"/>
+    <mergeCell ref="AG31:AG32"/>
+    <mergeCell ref="AG34:AG35"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AE36:AE37"/>
+    <mergeCell ref="AE34:AE35"/>
+    <mergeCell ref="AF13:AF21"/>
+    <mergeCell ref="AF26:AF29"/>
+    <mergeCell ref="AG10:AG13"/>
+    <mergeCell ref="AG16:AG17"/>
+    <mergeCell ref="AG20:AG22"/>
+    <mergeCell ref="AF30:AF31"/>
+    <mergeCell ref="AF36:AF37"/>
+    <mergeCell ref="AE25:AE27"/>
+    <mergeCell ref="AN16:AN17"/>
+    <mergeCell ref="AO27:AO28"/>
+    <mergeCell ref="AO31:AO37"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AN6:AN11"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AO2:AO5"/>
+    <mergeCell ref="AO6:AO7"/>
+    <mergeCell ref="AN25:AN30"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AK10:AK11"/>
+    <mergeCell ref="AK12:AK15"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AM4:AM9"/>
+    <mergeCell ref="AM10:AM11"/>
+    <mergeCell ref="AM13:AM15"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AL7:AL9"/>
+    <mergeCell ref="AL11:AL13"/>
+    <mergeCell ref="AL15:AL16"/>
+    <mergeCell ref="AM16:AM17"/>
+    <mergeCell ref="AL17:AL19"/>
+    <mergeCell ref="AW32:AW33"/>
+    <mergeCell ref="BA22:BA23"/>
+    <mergeCell ref="BA24:BA25"/>
+    <mergeCell ref="BA26:BA27"/>
+    <mergeCell ref="AZ36:AZ37"/>
+    <mergeCell ref="AZ20:AZ26"/>
+    <mergeCell ref="AZ28:AZ29"/>
+    <mergeCell ref="AX21:AX23"/>
+    <mergeCell ref="AX24:AX26"/>
+    <mergeCell ref="AX28:AX29"/>
+    <mergeCell ref="AX30:AX32"/>
+    <mergeCell ref="AW36:AW37"/>
+    <mergeCell ref="AW34:AW35"/>
+    <mergeCell ref="BA28:BA29"/>
+    <mergeCell ref="AY25:AY29"/>
+    <mergeCell ref="AY18:AY20"/>
+    <mergeCell ref="AY21:AY22"/>
+    <mergeCell ref="AX19:AX20"/>
+    <mergeCell ref="BA18:BA19"/>
+    <mergeCell ref="BD28:BD29"/>
+    <mergeCell ref="BD4:BD7"/>
+    <mergeCell ref="BA36:BA37"/>
+    <mergeCell ref="AY10:AY13"/>
+    <mergeCell ref="BA30:BA33"/>
+    <mergeCell ref="AY30:AY33"/>
+    <mergeCell ref="AZ30:AZ33"/>
+    <mergeCell ref="AX34:AX37"/>
+    <mergeCell ref="AY36:AY37"/>
+    <mergeCell ref="AX14:AX15"/>
+    <mergeCell ref="AX17:AX18"/>
+    <mergeCell ref="BB34:BB35"/>
+    <mergeCell ref="BB36:BB37"/>
+    <mergeCell ref="AY14:AY15"/>
+    <mergeCell ref="AY16:AY17"/>
+    <mergeCell ref="AY3:AY4"/>
+    <mergeCell ref="AY5:AY6"/>
+    <mergeCell ref="BA6:BA7"/>
+    <mergeCell ref="BA8:BA9"/>
+    <mergeCell ref="BA16:BA17"/>
+    <mergeCell ref="BA10:BA15"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AX6:AX7"/>
+    <mergeCell ref="BC20:BC21"/>
+    <mergeCell ref="BC22:BC23"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BD8:BD9"/>
+    <mergeCell ref="BD14:BD15"/>
+    <mergeCell ref="BD10:BD13"/>
+    <mergeCell ref="BD16:BD17"/>
+    <mergeCell ref="BD18:BD19"/>
+    <mergeCell ref="BD20:BD21"/>
+    <mergeCell ref="BD22:BD27"/>
+    <mergeCell ref="BE20:BE21"/>
+    <mergeCell ref="BE22:BE23"/>
+    <mergeCell ref="BB30:BB33"/>
+    <mergeCell ref="BA20:BA21"/>
+    <mergeCell ref="AW8:AW11"/>
+    <mergeCell ref="BD34:BD35"/>
+    <mergeCell ref="BD36:BD37"/>
+    <mergeCell ref="BF12:BF23"/>
+    <mergeCell ref="BF26:BF27"/>
+    <mergeCell ref="BF28:BF31"/>
+    <mergeCell ref="BF32:BF35"/>
+    <mergeCell ref="BF36:BF37"/>
+    <mergeCell ref="BE24:BE27"/>
+    <mergeCell ref="BE28:BE29"/>
+    <mergeCell ref="BE30:BE31"/>
+    <mergeCell ref="BE32:BE33"/>
+    <mergeCell ref="BE34:BE35"/>
+    <mergeCell ref="BE36:BE37"/>
+    <mergeCell ref="BC33:BC34"/>
+    <mergeCell ref="BC35:BC36"/>
+    <mergeCell ref="BD30:BD31"/>
+    <mergeCell ref="BD32:BD33"/>
+    <mergeCell ref="BC16:BC17"/>
+    <mergeCell ref="BC18:BC19"/>
+    <mergeCell ref="BG36:BG37"/>
+    <mergeCell ref="BH36:BH37"/>
+    <mergeCell ref="BG34:BG35"/>
+    <mergeCell ref="BH34:BH35"/>
+    <mergeCell ref="BG32:BG33"/>
+    <mergeCell ref="BL34:BL35"/>
+    <mergeCell ref="BM34:BM35"/>
+    <mergeCell ref="BK36:BK37"/>
+    <mergeCell ref="BL36:BL37"/>
+    <mergeCell ref="BM36:BM37"/>
+    <mergeCell ref="BK30:BK33"/>
+    <mergeCell ref="BJ30:BJ33"/>
+    <mergeCell ref="BI29:BI32"/>
+    <mergeCell ref="BI36:BI37"/>
+    <mergeCell ref="BI34:BI35"/>
+    <mergeCell ref="BG28:BG31"/>
+    <mergeCell ref="BH26:BH28"/>
+    <mergeCell ref="BH29:BH30"/>
+    <mergeCell ref="BH31:BH32"/>
+    <mergeCell ref="BI25:BI26"/>
+    <mergeCell ref="BI27:BI28"/>
+    <mergeCell ref="BL28:BL29"/>
+    <mergeCell ref="BM28:BM29"/>
+    <mergeCell ref="BM22:BM24"/>
+    <mergeCell ref="BN29:BN31"/>
+    <mergeCell ref="BN32:BN33"/>
+    <mergeCell ref="BN34:BN35"/>
+    <mergeCell ref="BN36:BN37"/>
+    <mergeCell ref="BN27:BN28"/>
+    <mergeCell ref="BL30:BL33"/>
+    <mergeCell ref="BM30:BM33"/>
+    <mergeCell ref="BN21:BN26"/>
+    <mergeCell ref="BO2:BO3"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BN6:BN18"/>
+    <mergeCell ref="BN2:BN3"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BN19:BN20"/>
+    <mergeCell ref="BO10:BO11"/>
+    <mergeCell ref="BO12:BO13"/>
+    <mergeCell ref="BO14:BO15"/>
+    <mergeCell ref="BO16:BO17"/>
+    <mergeCell ref="BO18:BO19"/>
+    <mergeCell ref="BO20:BO21"/>
+    <mergeCell ref="BO6:BO7"/>
+    <mergeCell ref="BO8:BO9"/>
+    <mergeCell ref="BF24:BF25"/>
+    <mergeCell ref="BL6:BL7"/>
+    <mergeCell ref="BM6:BM7"/>
+    <mergeCell ref="BK12:BK13"/>
+    <mergeCell ref="BL8:BL9"/>
+    <mergeCell ref="BM8:BM9"/>
+    <mergeCell ref="BI15:BI16"/>
+    <mergeCell ref="BI17:BI18"/>
+    <mergeCell ref="BI19:BI20"/>
+    <mergeCell ref="BH21:BH23"/>
+    <mergeCell ref="BL25:BL27"/>
+    <mergeCell ref="BM25:BM27"/>
+    <mergeCell ref="BG22:BG23"/>
+    <mergeCell ref="BG24:BG25"/>
+    <mergeCell ref="BG26:BG27"/>
+    <mergeCell ref="BH6:BH7"/>
+    <mergeCell ref="BH8:BH10"/>
+    <mergeCell ref="BH11:BH12"/>
+    <mergeCell ref="BH13:BH14"/>
+    <mergeCell ref="BH15:BH16"/>
+    <mergeCell ref="BH17:BH18"/>
+    <mergeCell ref="BH19:BH20"/>
+    <mergeCell ref="BH24:BH25"/>
+    <mergeCell ref="BI21:BI22"/>
+    <mergeCell ref="AV2:AV5"/>
+    <mergeCell ref="BA2:BA5"/>
+    <mergeCell ref="BC2:BC5"/>
+    <mergeCell ref="BK2:BK5"/>
+    <mergeCell ref="BL2:BL5"/>
+    <mergeCell ref="BM2:BM5"/>
+    <mergeCell ref="BL10:BL13"/>
+    <mergeCell ref="BM10:BM13"/>
+    <mergeCell ref="BM16:BM19"/>
+    <mergeCell ref="BH2:BH3"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="BE2:BE3"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="BE6:BE7"/>
+    <mergeCell ref="BE8:BE11"/>
+    <mergeCell ref="BE12:BE15"/>
+    <mergeCell ref="BE16:BE17"/>
+    <mergeCell ref="BE18:BE19"/>
+    <mergeCell ref="AW12:AW13"/>
+    <mergeCell ref="AW14:AW15"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AY8:AY9"/>
+    <mergeCell ref="AX10:AX13"/>
+    <mergeCell ref="BR10:BR11"/>
+    <mergeCell ref="BR12:BR13"/>
+    <mergeCell ref="BR25:BR30"/>
+    <mergeCell ref="BO22:BO24"/>
+    <mergeCell ref="BO25:BO26"/>
+    <mergeCell ref="BO27:BO28"/>
+    <mergeCell ref="BP8:BP11"/>
+    <mergeCell ref="BP12:BP13"/>
+    <mergeCell ref="BP14:BP15"/>
+    <mergeCell ref="BQ8:BQ9"/>
     <mergeCell ref="BT20:BT21"/>
     <mergeCell ref="BT22:BT23"/>
     <mergeCell ref="BT24:BT25"/>
@@ -59705,841 +60654,6 @@
     <mergeCell ref="BR15:BR16"/>
     <mergeCell ref="BR17:BR18"/>
     <mergeCell ref="BR8:BR9"/>
-    <mergeCell ref="BR10:BR11"/>
-    <mergeCell ref="BR12:BR13"/>
-    <mergeCell ref="BR25:BR30"/>
-    <mergeCell ref="BO22:BO24"/>
-    <mergeCell ref="BO25:BO26"/>
-    <mergeCell ref="BO27:BO28"/>
-    <mergeCell ref="BP8:BP11"/>
-    <mergeCell ref="BP12:BP13"/>
-    <mergeCell ref="BP14:BP15"/>
-    <mergeCell ref="BQ8:BQ9"/>
-    <mergeCell ref="AV2:AV5"/>
-    <mergeCell ref="BA2:BA5"/>
-    <mergeCell ref="BC2:BC5"/>
-    <mergeCell ref="BK2:BK5"/>
-    <mergeCell ref="BL2:BL5"/>
-    <mergeCell ref="BM2:BM5"/>
-    <mergeCell ref="BL10:BL13"/>
-    <mergeCell ref="BM10:BM13"/>
-    <mergeCell ref="BM16:BM19"/>
-    <mergeCell ref="BH2:BH3"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="BE2:BE3"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="BE6:BE7"/>
-    <mergeCell ref="BE8:BE11"/>
-    <mergeCell ref="BE12:BE15"/>
-    <mergeCell ref="BE16:BE17"/>
-    <mergeCell ref="BE18:BE19"/>
-    <mergeCell ref="AW12:AW13"/>
-    <mergeCell ref="AW14:AW15"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AY8:AY9"/>
-    <mergeCell ref="AX10:AX13"/>
-    <mergeCell ref="BF24:BF25"/>
-    <mergeCell ref="BL6:BL7"/>
-    <mergeCell ref="BM6:BM7"/>
-    <mergeCell ref="BK12:BK13"/>
-    <mergeCell ref="BL8:BL9"/>
-    <mergeCell ref="BM8:BM9"/>
-    <mergeCell ref="BI15:BI16"/>
-    <mergeCell ref="BI17:BI18"/>
-    <mergeCell ref="BI19:BI20"/>
-    <mergeCell ref="BH21:BH23"/>
-    <mergeCell ref="BL25:BL27"/>
-    <mergeCell ref="BM25:BM27"/>
-    <mergeCell ref="BG22:BG23"/>
-    <mergeCell ref="BG24:BG25"/>
-    <mergeCell ref="BG26:BG27"/>
-    <mergeCell ref="BH6:BH7"/>
-    <mergeCell ref="BH8:BH10"/>
-    <mergeCell ref="BH11:BH12"/>
-    <mergeCell ref="BH13:BH14"/>
-    <mergeCell ref="BH15:BH16"/>
-    <mergeCell ref="BH17:BH18"/>
-    <mergeCell ref="BH19:BH20"/>
-    <mergeCell ref="BH24:BH25"/>
-    <mergeCell ref="BI21:BI22"/>
-    <mergeCell ref="BO2:BO3"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BN6:BN18"/>
-    <mergeCell ref="BN2:BN3"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BN19:BN20"/>
-    <mergeCell ref="BO10:BO11"/>
-    <mergeCell ref="BO12:BO13"/>
-    <mergeCell ref="BO14:BO15"/>
-    <mergeCell ref="BO16:BO17"/>
-    <mergeCell ref="BO18:BO19"/>
-    <mergeCell ref="BO20:BO21"/>
-    <mergeCell ref="BO6:BO7"/>
-    <mergeCell ref="BO8:BO9"/>
-    <mergeCell ref="BM22:BM24"/>
-    <mergeCell ref="BN29:BN31"/>
-    <mergeCell ref="BN32:BN33"/>
-    <mergeCell ref="BN34:BN35"/>
-    <mergeCell ref="BN36:BN37"/>
-    <mergeCell ref="BN27:BN28"/>
-    <mergeCell ref="BL30:BL33"/>
-    <mergeCell ref="BM30:BM33"/>
-    <mergeCell ref="BN21:BN26"/>
-    <mergeCell ref="BG36:BG37"/>
-    <mergeCell ref="BH36:BH37"/>
-    <mergeCell ref="BG34:BG35"/>
-    <mergeCell ref="BH34:BH35"/>
-    <mergeCell ref="BG32:BG33"/>
-    <mergeCell ref="BL34:BL35"/>
-    <mergeCell ref="BM34:BM35"/>
-    <mergeCell ref="BK36:BK37"/>
-    <mergeCell ref="BL36:BL37"/>
-    <mergeCell ref="BM36:BM37"/>
-    <mergeCell ref="BK30:BK33"/>
-    <mergeCell ref="BJ30:BJ33"/>
-    <mergeCell ref="BI29:BI32"/>
-    <mergeCell ref="BI36:BI37"/>
-    <mergeCell ref="BI34:BI35"/>
-    <mergeCell ref="BG28:BG31"/>
-    <mergeCell ref="BH26:BH28"/>
-    <mergeCell ref="BH29:BH30"/>
-    <mergeCell ref="BH31:BH32"/>
-    <mergeCell ref="BI25:BI26"/>
-    <mergeCell ref="BI27:BI28"/>
-    <mergeCell ref="BL28:BL29"/>
-    <mergeCell ref="BM28:BM29"/>
-    <mergeCell ref="BE20:BE21"/>
-    <mergeCell ref="BE22:BE23"/>
-    <mergeCell ref="BB30:BB33"/>
-    <mergeCell ref="BA20:BA21"/>
-    <mergeCell ref="AW8:AW11"/>
-    <mergeCell ref="BD34:BD35"/>
-    <mergeCell ref="BD36:BD37"/>
-    <mergeCell ref="BF12:BF23"/>
-    <mergeCell ref="BF26:BF27"/>
-    <mergeCell ref="BF28:BF31"/>
-    <mergeCell ref="BF32:BF35"/>
-    <mergeCell ref="BF36:BF37"/>
-    <mergeCell ref="BE24:BE27"/>
-    <mergeCell ref="BE28:BE29"/>
-    <mergeCell ref="BE30:BE31"/>
-    <mergeCell ref="BE32:BE33"/>
-    <mergeCell ref="BE34:BE35"/>
-    <mergeCell ref="BE36:BE37"/>
-    <mergeCell ref="BC33:BC34"/>
-    <mergeCell ref="BC35:BC36"/>
-    <mergeCell ref="BD30:BD31"/>
-    <mergeCell ref="BD32:BD33"/>
-    <mergeCell ref="BC16:BC17"/>
-    <mergeCell ref="BC18:BC19"/>
-    <mergeCell ref="BC20:BC21"/>
-    <mergeCell ref="BC22:BC23"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="BD8:BD9"/>
-    <mergeCell ref="BD14:BD15"/>
-    <mergeCell ref="BD10:BD13"/>
-    <mergeCell ref="BD16:BD17"/>
-    <mergeCell ref="BD18:BD19"/>
-    <mergeCell ref="BD20:BD21"/>
-    <mergeCell ref="BD22:BD27"/>
-    <mergeCell ref="BD28:BD29"/>
-    <mergeCell ref="BD4:BD7"/>
-    <mergeCell ref="BA36:BA37"/>
-    <mergeCell ref="AY10:AY13"/>
-    <mergeCell ref="BA30:BA33"/>
-    <mergeCell ref="AY30:AY33"/>
-    <mergeCell ref="AZ30:AZ33"/>
-    <mergeCell ref="AX34:AX37"/>
-    <mergeCell ref="AY36:AY37"/>
-    <mergeCell ref="AX14:AX15"/>
-    <mergeCell ref="AX17:AX18"/>
-    <mergeCell ref="BB34:BB35"/>
-    <mergeCell ref="BB36:BB37"/>
-    <mergeCell ref="AY14:AY15"/>
-    <mergeCell ref="AY16:AY17"/>
-    <mergeCell ref="AY3:AY4"/>
-    <mergeCell ref="AY5:AY6"/>
-    <mergeCell ref="BA6:BA7"/>
-    <mergeCell ref="BA8:BA9"/>
-    <mergeCell ref="BA16:BA17"/>
-    <mergeCell ref="BA10:BA15"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AX6:AX7"/>
-    <mergeCell ref="AW32:AW33"/>
-    <mergeCell ref="BA22:BA23"/>
-    <mergeCell ref="BA24:BA25"/>
-    <mergeCell ref="BA26:BA27"/>
-    <mergeCell ref="AZ36:AZ37"/>
-    <mergeCell ref="AZ20:AZ26"/>
-    <mergeCell ref="AZ28:AZ29"/>
-    <mergeCell ref="AX21:AX23"/>
-    <mergeCell ref="AX24:AX26"/>
-    <mergeCell ref="AX28:AX29"/>
-    <mergeCell ref="AX30:AX32"/>
-    <mergeCell ref="AW36:AW37"/>
-    <mergeCell ref="AW34:AW35"/>
-    <mergeCell ref="BA28:BA29"/>
-    <mergeCell ref="AY25:AY29"/>
-    <mergeCell ref="AY18:AY20"/>
-    <mergeCell ref="AY21:AY22"/>
-    <mergeCell ref="AX19:AX20"/>
-    <mergeCell ref="BA18:BA19"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AK10:AK11"/>
-    <mergeCell ref="AK12:AK15"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AM4:AM9"/>
-    <mergeCell ref="AM10:AM11"/>
-    <mergeCell ref="AM13:AM15"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AL7:AL9"/>
-    <mergeCell ref="AL11:AL13"/>
-    <mergeCell ref="AL15:AL16"/>
-    <mergeCell ref="AM16:AM17"/>
-    <mergeCell ref="AN16:AN17"/>
-    <mergeCell ref="AO27:AO28"/>
-    <mergeCell ref="AO31:AO37"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AN6:AN11"/>
-    <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AO2:AO5"/>
-    <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="AL17:AL19"/>
-    <mergeCell ref="AD18:AD21"/>
-    <mergeCell ref="AG36:AG37"/>
-    <mergeCell ref="AG31:AG32"/>
-    <mergeCell ref="AG34:AG35"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="AE36:AE37"/>
-    <mergeCell ref="AE34:AE35"/>
-    <mergeCell ref="AF13:AF21"/>
-    <mergeCell ref="AF26:AF29"/>
-    <mergeCell ref="AG10:AG13"/>
-    <mergeCell ref="AG16:AG17"/>
-    <mergeCell ref="AG20:AG22"/>
-    <mergeCell ref="AF30:AF31"/>
-    <mergeCell ref="AF36:AF37"/>
-    <mergeCell ref="AH16:AH18"/>
-    <mergeCell ref="AJ10:AJ11"/>
-    <mergeCell ref="AI16:AI18"/>
-    <mergeCell ref="AI9:AI15"/>
-    <mergeCell ref="AJ12:AJ13"/>
-    <mergeCell ref="AH19:AH23"/>
-    <mergeCell ref="AI19:AI23"/>
-    <mergeCell ref="AH11:AH12"/>
-    <mergeCell ref="AI25:AI30"/>
-    <mergeCell ref="AN25:AN30"/>
-    <mergeCell ref="AH35:AH36"/>
-    <mergeCell ref="AI34:AI35"/>
-    <mergeCell ref="AC36:AC37"/>
-    <mergeCell ref="AB31:AB32"/>
-    <mergeCell ref="AI31:AI33"/>
-    <mergeCell ref="AL25:AL30"/>
-    <mergeCell ref="AL36:AL37"/>
-    <mergeCell ref="AL34:AL35"/>
-    <mergeCell ref="AN31:AN32"/>
-    <mergeCell ref="AF24:AF25"/>
-    <mergeCell ref="AJ32:AJ33"/>
-    <mergeCell ref="AK31:AK32"/>
-    <mergeCell ref="AN33:AN36"/>
-    <mergeCell ref="AM33:AM34"/>
-    <mergeCell ref="AM35:AM36"/>
-    <mergeCell ref="AK25:AK30"/>
-    <mergeCell ref="AD31:AD32"/>
-    <mergeCell ref="AB34:AB35"/>
-    <mergeCell ref="AJ36:AJ37"/>
-    <mergeCell ref="AJ34:AJ35"/>
-    <mergeCell ref="AJ26:AJ27"/>
-    <mergeCell ref="AJ28:AJ29"/>
-    <mergeCell ref="U11:U13"/>
-    <mergeCell ref="Y17:Y19"/>
-    <mergeCell ref="W36:W37"/>
-    <mergeCell ref="AH32:AH34"/>
-    <mergeCell ref="Y35:Y36"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="AC10:AC14"/>
-    <mergeCell ref="AC15:AC17"/>
-    <mergeCell ref="AC18:AC19"/>
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="AC22:AC23"/>
-    <mergeCell ref="AD25:AD30"/>
-    <mergeCell ref="AD14:AD15"/>
-    <mergeCell ref="AD12:AD13"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AG25:AG30"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AH24:AH26"/>
-    <mergeCell ref="AH29:AH30"/>
-    <mergeCell ref="AH27:AH28"/>
-    <mergeCell ref="U32:U34"/>
-    <mergeCell ref="U35:U37"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="AB18:AB20"/>
-    <mergeCell ref="AB21:AB23"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="AA21:AA22"/>
-    <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="W33:W35"/>
-    <mergeCell ref="AC28:AC30"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="AE30:AE32"/>
-    <mergeCell ref="AE25:AE27"/>
-    <mergeCell ref="Z34:Z35"/>
-    <mergeCell ref="W25:W30"/>
-    <mergeCell ref="X35:X36"/>
-    <mergeCell ref="X24:X26"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AA29:AA32"/>
-    <mergeCell ref="AA34:AA35"/>
-    <mergeCell ref="Z25:Z30"/>
-    <mergeCell ref="Z31:Z32"/>
-    <mergeCell ref="AJ30:AJ31"/>
-    <mergeCell ref="AB25:AB30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="Q25:Q28"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="Z36:Z37"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="Y23:Y26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="V28:V31"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="V34:V35"/>
-    <mergeCell ref="V36:V37"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="U27:U29"/>
-    <mergeCell ref="U23:U26"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="S25:S30"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="T21:T28"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q14:Q16"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="T31:T32"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="R36:R37"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N25:N30"/>
-    <mergeCell ref="M28:M30"/>
-    <mergeCell ref="M17:M24"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="L33:L35"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K5:K8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L25:L30"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C37"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G25:G30"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I30"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E25:E30"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="H13:H16"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="R10:R12"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="R13:R17"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="T7:T10"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="S3:S6"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="O2:O6"/>
-    <mergeCell ref="O29:O34"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="P27:P29"/>
-    <mergeCell ref="P30:P32"/>
-    <mergeCell ref="P19:P24"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="O23:O26"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="Q2:Q8"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AB8:AB10"/>
-    <mergeCell ref="AD6:AD8"/>
-    <mergeCell ref="Z11:Z16"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="W3:W5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="V7:V11"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="V15:V20"/>
-    <mergeCell ref="W16:W20"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="U20:U22"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="Z6:Z8"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA17:AA19"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="AJ20:AJ21"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AE10:AE11"/>
-    <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="Y12:Y14"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="AA6:AA10"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="AD2:AD4"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AK22:AK23"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AE18:AE21"/>
-    <mergeCell ref="AE23:AE24"/>
-    <mergeCell ref="AF8:AF10"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AI4:AI7"/>
-    <mergeCell ref="AJ2:AJ5"/>
-    <mergeCell ref="AJ15:AJ18"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AJ24:AJ25"/>
-    <mergeCell ref="AK16:AK17"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH13:AH15"/>
-    <mergeCell ref="AK33:AK34"/>
-    <mergeCell ref="AK35:AK36"/>
-    <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AP7:AP8"/>
-    <mergeCell ref="AP9:AP12"/>
-    <mergeCell ref="AP13:AP29"/>
-    <mergeCell ref="AP30:AP31"/>
-    <mergeCell ref="AP32:AP33"/>
-    <mergeCell ref="AP34:AP37"/>
-    <mergeCell ref="AO12:AO26"/>
-    <mergeCell ref="AO29:AO30"/>
-    <mergeCell ref="AL31:AL32"/>
-    <mergeCell ref="AM18:AM19"/>
-    <mergeCell ref="AM20:AM21"/>
-    <mergeCell ref="AM22:AM23"/>
-    <mergeCell ref="AM24:AM28"/>
-    <mergeCell ref="AM29:AM30"/>
-    <mergeCell ref="AM31:AM32"/>
-    <mergeCell ref="AN22:AN23"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AK18:AK19"/>
-    <mergeCell ref="AK20:AK21"/>
-    <mergeCell ref="AQ33:AQ34"/>
-    <mergeCell ref="AQ36:AQ37"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AR6:AR7"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AR10:AR11"/>
-    <mergeCell ref="AR13:AR14"/>
-    <mergeCell ref="AR15:AR16"/>
-    <mergeCell ref="AR17:AR18"/>
-    <mergeCell ref="AR19:AR20"/>
-    <mergeCell ref="AR21:AR27"/>
-    <mergeCell ref="AQ27:AQ28"/>
-    <mergeCell ref="AQ29:AQ30"/>
-    <mergeCell ref="AQ31:AQ32"/>
-    <mergeCell ref="AR29:AR33"/>
-    <mergeCell ref="AR36:AR37"/>
-    <mergeCell ref="AR34:AR35"/>
-    <mergeCell ref="AQ2:AQ5"/>
-    <mergeCell ref="AQ6:AQ11"/>
-    <mergeCell ref="AQ13:AQ19"/>
-    <mergeCell ref="AQ20:AQ26"/>
-    <mergeCell ref="AS20:AS21"/>
-    <mergeCell ref="AS22:AS23"/>
-    <mergeCell ref="AS24:AS25"/>
-    <mergeCell ref="AS26:AS27"/>
-    <mergeCell ref="AS28:AS29"/>
-    <mergeCell ref="AS30:AS33"/>
-    <mergeCell ref="AS34:AS35"/>
-    <mergeCell ref="AS36:AS37"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AS6:AS7"/>
-    <mergeCell ref="AS8:AS9"/>
-    <mergeCell ref="AS10:AS11"/>
-    <mergeCell ref="AS12:AS13"/>
-    <mergeCell ref="AS14:AS15"/>
-    <mergeCell ref="AS16:AS17"/>
-    <mergeCell ref="AS18:AS19"/>
-    <mergeCell ref="AT25:AT26"/>
-    <mergeCell ref="AT27:AT28"/>
-    <mergeCell ref="AT29:AT30"/>
-    <mergeCell ref="AT31:AT32"/>
-    <mergeCell ref="AT33:AT34"/>
-    <mergeCell ref="AU31:AU32"/>
-    <mergeCell ref="AU33:AU34"/>
-    <mergeCell ref="AT35:AT36"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="AT6:AT7"/>
-    <mergeCell ref="AT8:AT12"/>
-    <mergeCell ref="AT13:AT14"/>
-    <mergeCell ref="AT15:AT18"/>
-    <mergeCell ref="AT19:AT20"/>
-    <mergeCell ref="AT21:AT22"/>
-    <mergeCell ref="AT23:AT24"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AU6:AU7"/>
-    <mergeCell ref="AU8:AU9"/>
-    <mergeCell ref="AU10:AU13"/>
-    <mergeCell ref="AU14:AU15"/>
-    <mergeCell ref="AU16:AU19"/>
-    <mergeCell ref="AU20:AU23"/>
-    <mergeCell ref="AW16:AW17"/>
-    <mergeCell ref="AW19:AW20"/>
-    <mergeCell ref="AU35:AU36"/>
-    <mergeCell ref="AU26:AU30"/>
-    <mergeCell ref="AV6:AV7"/>
-    <mergeCell ref="AV8:AV9"/>
-    <mergeCell ref="AV10:AV11"/>
-    <mergeCell ref="AV12:AV13"/>
-    <mergeCell ref="AV14:AV17"/>
-    <mergeCell ref="AV18:AV19"/>
-    <mergeCell ref="AV20:AV23"/>
-    <mergeCell ref="AV24:AV25"/>
-    <mergeCell ref="AV26:AV27"/>
-    <mergeCell ref="AV29:AV30"/>
-    <mergeCell ref="AV32:AV33"/>
-    <mergeCell ref="AV34:AV35"/>
-    <mergeCell ref="AV36:AV37"/>
-    <mergeCell ref="AU24:AU25"/>
-    <mergeCell ref="AW21:AW22"/>
-    <mergeCell ref="AW23:AW24"/>
-    <mergeCell ref="AW25:AW28"/>
-    <mergeCell ref="AW6:AW7"/>
-    <mergeCell ref="AW29:AW30"/>
-    <mergeCell ref="AX8:AX9"/>
-    <mergeCell ref="AZ3:AZ4"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="AZ7:AZ8"/>
-    <mergeCell ref="AZ12:AZ13"/>
-    <mergeCell ref="AZ10:AZ11"/>
-    <mergeCell ref="AZ16:AZ17"/>
-    <mergeCell ref="AZ14:AZ15"/>
-    <mergeCell ref="AZ18:AZ19"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BB6:BB7"/>
-    <mergeCell ref="BB8:BB9"/>
-    <mergeCell ref="BB10:BB13"/>
-    <mergeCell ref="BB25:BB29"/>
-    <mergeCell ref="BC24:BC25"/>
-    <mergeCell ref="BC26:BC32"/>
-    <mergeCell ref="BG2:BG3"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BG6:BG7"/>
-    <mergeCell ref="BG8:BG9"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="BF6:BF9"/>
-    <mergeCell ref="BF10:BF11"/>
-    <mergeCell ref="BC7:BC8"/>
-    <mergeCell ref="BC10:BC13"/>
-    <mergeCell ref="BG11:BG12"/>
-    <mergeCell ref="BG13:BG19"/>
-    <mergeCell ref="BG20:BG21"/>
-    <mergeCell ref="BB23:BB24"/>
-    <mergeCell ref="BB14:BB21"/>
-    <mergeCell ref="BC14:BC15"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BJ6:BJ8"/>
-    <mergeCell ref="BJ9:BJ10"/>
-    <mergeCell ref="BJ11:BJ12"/>
-    <mergeCell ref="BJ13:BJ14"/>
-    <mergeCell ref="BJ15:BJ16"/>
-    <mergeCell ref="BJ17:BJ18"/>
-    <mergeCell ref="BJ21:BJ22"/>
-    <mergeCell ref="BJ19:BJ20"/>
-    <mergeCell ref="BI23:BI24"/>
-    <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="BI4:BI6"/>
-    <mergeCell ref="BI7:BI8"/>
-    <mergeCell ref="BI9:BI10"/>
-    <mergeCell ref="BI11:BI12"/>
-    <mergeCell ref="BI13:BI14"/>
-    <mergeCell ref="BO29:BO37"/>
-    <mergeCell ref="BP2:BP4"/>
-    <mergeCell ref="BP6:BP7"/>
-    <mergeCell ref="BK6:BK7"/>
-    <mergeCell ref="BK8:BK9"/>
-    <mergeCell ref="BK10:BK11"/>
-    <mergeCell ref="BJ23:BJ25"/>
-    <mergeCell ref="BJ26:BJ27"/>
-    <mergeCell ref="BJ28:BJ29"/>
-    <mergeCell ref="BJ36:BJ37"/>
-    <mergeCell ref="BJ34:BJ35"/>
-    <mergeCell ref="BK34:BK35"/>
-    <mergeCell ref="BK22:BK24"/>
-    <mergeCell ref="BK14:BK15"/>
-    <mergeCell ref="BL14:BL15"/>
-    <mergeCell ref="BM14:BM15"/>
-    <mergeCell ref="BK16:BK17"/>
-    <mergeCell ref="BR33:BR34"/>
-    <mergeCell ref="BL16:BL17"/>
-    <mergeCell ref="BL18:BL24"/>
-    <mergeCell ref="BK25:BK26"/>
-    <mergeCell ref="BK27:BK29"/>
-    <mergeCell ref="BK18:BK19"/>
-    <mergeCell ref="BK20:BK21"/>
-    <mergeCell ref="BM20:BM21"/>
-    <mergeCell ref="BP35:BP37"/>
-    <mergeCell ref="BQ22:BQ23"/>
-    <mergeCell ref="BQ24:BQ25"/>
-    <mergeCell ref="BP26:BP28"/>
-    <mergeCell ref="BP29:BP30"/>
-    <mergeCell ref="BP31:BP32"/>
-    <mergeCell ref="BP33:BP34"/>
-    <mergeCell ref="BP16:BP18"/>
-    <mergeCell ref="BP19:BP20"/>
-    <mergeCell ref="BP21:BP22"/>
-    <mergeCell ref="BP24:BP25"/>
-    <mergeCell ref="BQ20:BQ21"/>
-    <mergeCell ref="BQ28:BQ29"/>
-    <mergeCell ref="BQ30:BQ31"/>
-    <mergeCell ref="BQ32:BQ35"/>
-    <mergeCell ref="BQ36:BQ37"/>
-    <mergeCell ref="BS10:BS11"/>
-    <mergeCell ref="BS12:BS13"/>
-    <mergeCell ref="BS14:BS15"/>
-    <mergeCell ref="BS16:BS17"/>
-    <mergeCell ref="BS18:BS19"/>
-    <mergeCell ref="BS20:BS21"/>
-    <mergeCell ref="BS22:BS23"/>
-    <mergeCell ref="BS24:BS25"/>
-    <mergeCell ref="BR31:BR32"/>
-    <mergeCell ref="BR19:BR20"/>
-    <mergeCell ref="BR21:BR22"/>
-    <mergeCell ref="BR23:BR24"/>
-    <mergeCell ref="BR2:BR3"/>
-    <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BT18:BT19"/>
-    <mergeCell ref="BW33:BW34"/>
-    <mergeCell ref="BW35:BW36"/>
-    <mergeCell ref="BT33:BT34"/>
-    <mergeCell ref="BT35:BT36"/>
-    <mergeCell ref="BU2:BU3"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="BU6:BU7"/>
-    <mergeCell ref="BU8:BU9"/>
-    <mergeCell ref="BU10:BU11"/>
-    <mergeCell ref="BU12:BU13"/>
-    <mergeCell ref="BU14:BU15"/>
-    <mergeCell ref="BS26:BS27"/>
-    <mergeCell ref="BS28:BS29"/>
-    <mergeCell ref="BS30:BS31"/>
-    <mergeCell ref="BR35:BR37"/>
-    <mergeCell ref="BS33:BS34"/>
-    <mergeCell ref="BS36:BS37"/>
-    <mergeCell ref="BT6:BT7"/>
-    <mergeCell ref="BT8:BT9"/>
-    <mergeCell ref="BT10:BT11"/>
-    <mergeCell ref="BS8:BS9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -64432,13 +64546,13 @@
       <c r="B13" s="79">
         <v>43647</v>
       </c>
-      <c r="C13" s="129" t="s">
+      <c r="C13" s="130" t="s">
         <v>740</v>
       </c>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
       <c r="I13" s="79">
         <f t="array" ref="I13:J13">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(WeekStart="星期一")+1)+36</f>
         <v>43681</v>
@@ -64446,13 +64560,13 @@
       <c r="J13" s="79">
         <v>43682</v>
       </c>
-      <c r="K13" s="129" t="s">
+      <c r="K13" s="130" t="s">
         <v>740</v>
       </c>
-      <c r="L13" s="130"/>
-      <c r="M13" s="130"/>
-      <c r="N13" s="130"/>
-      <c r="O13" s="130"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="131"/>
       <c r="Q13" s="79">
         <f t="array" ref="Q13:R13">DaysAndWeeks+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(WeekStart="星期一")+1)+36</f>
         <v>43709</v>
@@ -64460,36 +64574,36 @@
       <c r="R13" s="79">
         <v>43710</v>
       </c>
-      <c r="S13" s="129" t="s">
+      <c r="S13" s="130" t="s">
         <v>740</v>
       </c>
-      <c r="T13" s="130"/>
-      <c r="U13" s="130"/>
-      <c r="V13" s="130"/>
-      <c r="W13" s="130"/>
+      <c r="T13" s="131"/>
+      <c r="U13" s="131"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="80"/>
       <c r="B14" s="80"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="131"/>
       <c r="I14" s="80"/>
       <c r="J14" s="80"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="130"/>
-      <c r="O14" s="130"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="131"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="131"/>
       <c r="Q14" s="80"/>
       <c r="R14" s="80"/>
-      <c r="S14" s="129"/>
-      <c r="T14" s="130"/>
-      <c r="U14" s="130"/>
-      <c r="V14" s="130"/>
-      <c r="W14" s="130"/>
+      <c r="S14" s="130"/>
+      <c r="T14" s="131"/>
+      <c r="U14" s="131"/>
+      <c r="V14" s="131"/>
+      <c r="W14" s="131"/>
     </row>
     <row r="16" spans="1:23" ht="43.8" x14ac:dyDescent="0.25">
       <c r="A16" s="74" t="str">
@@ -65136,13 +65250,13 @@
       <c r="B28" s="79">
         <v>43745</v>
       </c>
-      <c r="C28" s="129" t="s">
+      <c r="C28" s="130" t="s">
         <v>740</v>
       </c>
-      <c r="D28" s="130"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="130"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
       <c r="J28">
         <v>9</v>
       </c>
@@ -65153,29 +65267,29 @@
       <c r="R28" s="79">
         <v>43801</v>
       </c>
-      <c r="S28" s="129" t="s">
+      <c r="S28" s="130" t="s">
         <v>740</v>
       </c>
-      <c r="T28" s="130"/>
-      <c r="U28" s="130"/>
-      <c r="V28" s="130"/>
-      <c r="W28" s="130"/>
+      <c r="T28" s="131"/>
+      <c r="U28" s="131"/>
+      <c r="V28" s="131"/>
+      <c r="W28" s="131"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="80"/>
       <c r="B29" s="80"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
       <c r="Q29" s="80"/>
       <c r="R29" s="80"/>
-      <c r="S29" s="129"/>
-      <c r="T29" s="130"/>
-      <c r="U29" s="130"/>
-      <c r="V29" s="130"/>
-      <c r="W29" s="130"/>
+      <c r="S29" s="130"/>
+      <c r="T29" s="131"/>
+      <c r="U29" s="131"/>
+      <c r="V29" s="131"/>
+      <c r="W29" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -70574,15 +70688,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.75">
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="132" t="s">
         <v>461</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -70660,19 +70774,19 @@
       <c r="C5" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="D5" s="132" t="s">
+      <c r="D5" s="133" t="s">
         <v>498</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="133" t="s">
         <v>531</v>
       </c>
-      <c r="F5" s="132" t="s">
+      <c r="F5" s="133" t="s">
         <v>516</v>
       </c>
-      <c r="G5" s="132" t="s">
+      <c r="G5" s="133" t="s">
         <v>517</v>
       </c>
-      <c r="H5" s="132" t="s">
+      <c r="H5" s="133" t="s">
         <v>518</v>
       </c>
     </row>
@@ -70686,11 +70800,11 @@
       <c r="C6" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="44">

--- a/DTP_deeplearning/_其他/zyh每日总结.xlsx
+++ b/DTP_deeplearning/_其他/zyh每日总结.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BBF298-DB20-449C-9D9E-F26BF283A960}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7154EB0-7437-454B-A3CD-B49F2888DCD0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="644" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="单词本记录" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,15 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">单词本记录!$J$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">单词本记录!$J$2:$J$108</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">单词本记录!$J$2:$J$96</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$G$1</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$G$2:$G$132</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">单词本记录!$J$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">单词本记录!$J$2:$J$96</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">单词效率统计!$D$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">单词效率统计!$D$2:$D$100</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">单词效率统计!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">单词效率统计!$B$2:$B$114</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">单词本记录!$J$2:$J$108</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">单词效率统计!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">单词效率统计!$B$2:$B$114</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">单词效率统计!$D$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">单词效率统计!$D$2:$D$100</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">单词效率统计!$E$1</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">单词效率统计!$E$2:$E$114</definedName>
     <definedName name="CalendarYear">'[1]1 月'!$K$2</definedName>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="795">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3388,6 +3388,49 @@
   <si>
     <t>知乎
 浪费</t>
+  </si>
+  <si>
+    <t>目标需要很明确，每个时间点都要有目的。
+可以找一个导师，发消息问道相关的要求，再再照着要求努力。
+这是一个黑箱，我需要有自己找到信息的能力。
+忽略一些负面的想法和对过去的惋惜。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行了实验，优化了代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计实验调整模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构数据集，去冗余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装blits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行blits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验采用当前模式调试网络。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看论文，发送消息寻找教授</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构数据处理模块。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4100,41 +4143,53 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4142,40 +4197,94 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="9" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4187,62 +4296,17 @@
     <xf numFmtId="20" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="9" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -4255,27 +4319,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -28464,7 +28507,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -28475,7 +28518,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{91E6295A-9F76-4719-99A2-73F180FA0B66}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>背单词数量</cx:v>
             </cx:txData>
           </cx:tx>
@@ -28510,7 +28553,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -28521,7 +28564,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6575ED08-11F7-4B0F-B318-33D7253A0147}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>背单词数量</cx:v>
             </cx:txData>
           </cx:tx>
@@ -28550,7 +28593,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -28561,7 +28604,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{8A056E3C-19F3-4081-A4E0-655852D4252B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>单词词数</cx:v>
             </cx:txData>
           </cx:tx>
@@ -28590,7 +28633,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -28601,7 +28644,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{246CBFEB-33C4-4DA4-BB2D-22D4896CD188}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>个/分</cx:v>
             </cx:txData>
           </cx:tx>
@@ -47059,7 +47102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23060E10-F570-42D6-BBBF-C7B084849695}">
   <dimension ref="A1:DL158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AU1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="CE89" sqref="CE89"/>
     </sheetView>
@@ -47368,7 +47411,7 @@
       <c r="C2" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="124" t="s">
         <v>66</v>
       </c>
       <c r="E2" s="51" t="s">
@@ -47404,13 +47447,13 @@
       <c r="O2" s="90" t="s">
         <v>271</v>
       </c>
-      <c r="P2" s="106" t="s">
+      <c r="P2" s="124" t="s">
         <v>279</v>
       </c>
-      <c r="Q2" s="107" t="s">
+      <c r="Q2" s="131" t="s">
         <v>293</v>
       </c>
-      <c r="R2" s="106" t="s">
+      <c r="R2" s="124" t="s">
         <v>313</v>
       </c>
       <c r="S2" s="61" t="s">
@@ -47446,7 +47489,7 @@
       <c r="AC2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="106" t="s">
+      <c r="AD2" s="124" t="s">
         <v>279</v>
       </c>
       <c r="AE2" s="53" t="s">
@@ -47464,7 +47507,7 @@
       <c r="AI2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="113" t="s">
+      <c r="AJ2" s="130" t="s">
         <v>279</v>
       </c>
       <c r="AK2" s="90" t="s">
@@ -47473,10 +47516,10 @@
       <c r="AL2" s="51" t="s">
         <v>573</v>
       </c>
-      <c r="AM2" s="106" t="s">
+      <c r="AM2" s="124" t="s">
         <v>177</v>
       </c>
-      <c r="AN2" s="106" t="s">
+      <c r="AN2" s="124" t="s">
         <v>177</v>
       </c>
       <c r="AO2" s="96" t="s">
@@ -47485,10 +47528,10 @@
       <c r="AP2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AQ2" s="106" t="s">
+      <c r="AQ2" s="124" t="s">
         <v>560</v>
       </c>
-      <c r="AR2" s="106" t="s">
+      <c r="AR2" s="124" t="s">
         <v>177</v>
       </c>
       <c r="AS2" s="90" t="s">
@@ -47524,10 +47567,10 @@
       <c r="BC2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BD2" s="97" t="s">
+      <c r="BD2" s="95" t="s">
         <v>619</v>
       </c>
-      <c r="BE2" s="97" t="s">
+      <c r="BE2" s="95" t="s">
         <v>619</v>
       </c>
       <c r="BF2" s="90" t="s">
@@ -47560,7 +47603,7 @@
       <c r="BO2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BP2" s="91" t="s">
+      <c r="BP2" s="94" t="s">
         <v>45</v>
       </c>
       <c r="BQ2" s="90" t="s">
@@ -47575,19 +47618,19 @@
       <c r="BT2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BU2" s="97" t="s">
+      <c r="BU2" s="95" t="s">
         <v>619</v>
       </c>
-      <c r="BV2" s="97" t="s">
+      <c r="BV2" s="95" t="s">
         <v>619</v>
       </c>
       <c r="BW2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BX2" s="91" t="s">
+      <c r="BX2" s="94" t="s">
         <v>773</v>
       </c>
-      <c r="BY2" s="91" t="s">
+      <c r="BY2" s="94" t="s">
         <v>773</v>
       </c>
       <c r="CA2" s="2" t="s">
@@ -47617,10 +47660,10 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="B3" s="90"/>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="106"/>
+      <c r="D3" s="124"/>
       <c r="E3" s="90" t="s">
         <v>81</v>
       </c>
@@ -47644,9 +47687,9 @@
       <c r="M3" s="90"/>
       <c r="N3" s="90"/>
       <c r="O3" s="90"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="106"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="124"/>
       <c r="S3" s="90" t="s">
         <v>325</v>
       </c>
@@ -47668,7 +47711,7 @@
         <v>385</v>
       </c>
       <c r="AC3" s="90"/>
-      <c r="AD3" s="106"/>
+      <c r="AD3" s="124"/>
       <c r="AE3" s="52" t="s">
         <v>507</v>
       </c>
@@ -47676,19 +47719,19 @@
       <c r="AG3" s="90"/>
       <c r="AH3" s="90"/>
       <c r="AI3" s="90"/>
-      <c r="AJ3" s="113"/>
+      <c r="AJ3" s="130"/>
       <c r="AK3" s="90"/>
-      <c r="AL3" s="91" t="s">
+      <c r="AL3" s="94" t="s">
         <v>568</v>
       </c>
-      <c r="AM3" s="106"/>
-      <c r="AN3" s="106"/>
+      <c r="AM3" s="124"/>
+      <c r="AN3" s="124"/>
       <c r="AO3" s="96"/>
       <c r="AP3" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="AQ3" s="106"/>
-      <c r="AR3" s="106"/>
+      <c r="AQ3" s="124"/>
+      <c r="AR3" s="124"/>
       <c r="AS3" s="90"/>
       <c r="AT3" s="90"/>
       <c r="AU3" s="90"/>
@@ -47704,8 +47747,8 @@
       <c r="BA3" s="90"/>
       <c r="BB3" s="90"/>
       <c r="BC3" s="90"/>
-      <c r="BD3" s="97"/>
-      <c r="BE3" s="97"/>
+      <c r="BD3" s="95"/>
+      <c r="BE3" s="95"/>
       <c r="BF3" s="90"/>
       <c r="BG3" s="90"/>
       <c r="BH3" s="90"/>
@@ -47716,16 +47759,16 @@
       <c r="BM3" s="90"/>
       <c r="BN3" s="90"/>
       <c r="BO3" s="90"/>
-      <c r="BP3" s="91"/>
+      <c r="BP3" s="94"/>
       <c r="BQ3" s="90"/>
       <c r="BR3" s="90"/>
       <c r="BS3" s="90"/>
       <c r="BT3" s="90"/>
-      <c r="BU3" s="97"/>
-      <c r="BV3" s="97"/>
+      <c r="BU3" s="95"/>
+      <c r="BV3" s="95"/>
       <c r="BW3" s="90"/>
-      <c r="BX3" s="91"/>
-      <c r="BY3" s="91"/>
+      <c r="BX3" s="94"/>
+      <c r="BY3" s="94"/>
       <c r="BZ3" s="42"/>
       <c r="CA3" s="65"/>
       <c r="CB3" s="65"/>
@@ -47752,14 +47795,14 @@
       <c r="B4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="106"/>
+      <c r="C4" s="124"/>
       <c r="D4" s="90" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="90"/>
       <c r="F4" s="90"/>
       <c r="G4" s="90"/>
-      <c r="H4" s="119" t="s">
+      <c r="H4" s="141" t="s">
         <v>127</v>
       </c>
       <c r="I4" s="90" t="s">
@@ -47782,8 +47825,8 @@
       <c r="P4" s="90" t="s">
         <v>280</v>
       </c>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="106"/>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="124"/>
       <c r="S4" s="90"/>
       <c r="T4" s="51" t="s">
         <v>334</v>
@@ -47805,38 +47848,38 @@
       <c r="AC4" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="AD4" s="106"/>
+      <c r="AD4" s="124"/>
       <c r="AE4" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AF4" s="91" t="s">
+      <c r="AF4" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AG4" s="110" t="s">
+      <c r="AG4" s="128" t="s">
         <v>537</v>
       </c>
-      <c r="AH4" s="91" t="s">
+      <c r="AH4" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AI4" s="113" t="s">
+      <c r="AI4" s="130" t="s">
         <v>279</v>
       </c>
-      <c r="AJ4" s="113"/>
+      <c r="AJ4" s="130"/>
       <c r="AK4" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AL4" s="91"/>
+      <c r="AL4" s="94"/>
       <c r="AM4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AN4" s="110" t="s">
+      <c r="AN4" s="128" t="s">
         <v>599</v>
       </c>
       <c r="AO4" s="96"/>
       <c r="AP4" s="54" t="s">
         <v>611</v>
       </c>
-      <c r="AQ4" s="106"/>
+      <c r="AQ4" s="124"/>
       <c r="AR4" s="90" t="s">
         <v>13</v>
       </c>
@@ -47850,10 +47893,10 @@
         <v>58</v>
       </c>
       <c r="AV4" s="90"/>
-      <c r="AW4" s="91" t="s">
+      <c r="AW4" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AX4" s="91" t="s">
+      <c r="AX4" s="94" t="s">
         <v>45</v>
       </c>
       <c r="AY4" s="90"/>
@@ -47878,7 +47921,7 @@
       <c r="BH4" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="BI4" s="91" t="s">
+      <c r="BI4" s="94" t="s">
         <v>45</v>
       </c>
       <c r="BJ4" s="90" t="s">
@@ -47893,17 +47936,17 @@
       <c r="BO4" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BP4" s="91"/>
+      <c r="BP4" s="94"/>
       <c r="BQ4" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BR4" s="91" t="s">
+      <c r="BR4" s="94" t="s">
         <v>45</v>
       </c>
       <c r="BS4" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="BT4" s="135" t="s">
+      <c r="BT4" s="106" t="s">
         <v>58</v>
       </c>
       <c r="BU4" s="90" t="s">
@@ -47947,7 +47990,7 @@
       <c r="B5" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="106"/>
+      <c r="C5" s="124"/>
       <c r="D5" s="90"/>
       <c r="E5" s="57" t="s">
         <v>82</v>
@@ -47958,7 +48001,7 @@
       <c r="G5" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="119"/>
+      <c r="H5" s="141"/>
       <c r="I5" s="90"/>
       <c r="J5" s="90" t="s">
         <v>188</v>
@@ -47972,17 +48015,17 @@
       <c r="M5" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="N5" s="104" t="s">
+      <c r="N5" s="108" t="s">
         <v>256</v>
       </c>
       <c r="O5" s="90"/>
       <c r="P5" s="90"/>
-      <c r="Q5" s="107"/>
+      <c r="Q5" s="131"/>
       <c r="R5" s="90" t="s">
         <v>314</v>
       </c>
       <c r="S5" s="90"/>
-      <c r="T5" s="104" t="s">
+      <c r="T5" s="108" t="s">
         <v>335</v>
       </c>
       <c r="U5" s="90"/>
@@ -47991,50 +48034,50 @@
       <c r="X5" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="Y5" s="104" t="s">
+      <c r="Y5" s="108" t="s">
         <v>45</v>
       </c>
       <c r="Z5" s="51" t="s">
         <v>435</v>
       </c>
       <c r="AA5" s="90"/>
-      <c r="AB5" s="91" t="s">
+      <c r="AB5" s="94" t="s">
         <v>471</v>
       </c>
-      <c r="AC5" s="91" t="s">
+      <c r="AC5" s="94" t="s">
         <v>45</v>
       </c>
       <c r="AD5" s="51" t="s">
         <v>58</v>
       </c>
       <c r="AE5" s="90"/>
-      <c r="AF5" s="91"/>
-      <c r="AG5" s="110"/>
-      <c r="AH5" s="91"/>
-      <c r="AI5" s="113"/>
-      <c r="AJ5" s="113"/>
+      <c r="AF5" s="94"/>
+      <c r="AG5" s="128"/>
+      <c r="AH5" s="94"/>
+      <c r="AI5" s="130"/>
+      <c r="AJ5" s="130"/>
       <c r="AK5" s="90"/>
       <c r="AL5" s="90" t="s">
         <v>58</v>
       </c>
       <c r="AM5" s="90"/>
-      <c r="AN5" s="110"/>
+      <c r="AN5" s="128"/>
       <c r="AO5" s="96"/>
-      <c r="AP5" s="91" t="s">
+      <c r="AP5" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AQ5" s="106"/>
+      <c r="AQ5" s="124"/>
       <c r="AR5" s="90"/>
       <c r="AS5" s="90"/>
       <c r="AT5" s="90"/>
       <c r="AU5" s="90"/>
       <c r="AV5" s="90"/>
-      <c r="AW5" s="91"/>
-      <c r="AX5" s="91"/>
-      <c r="AY5" s="91" t="s">
+      <c r="AW5" s="94"/>
+      <c r="AX5" s="94"/>
+      <c r="AY5" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AZ5" s="91" t="s">
+      <c r="AZ5" s="94" t="s">
         <v>45</v>
       </c>
       <c r="BA5" s="90"/>
@@ -48045,7 +48088,7 @@
       <c r="BF5" s="90"/>
       <c r="BG5" s="90"/>
       <c r="BH5" s="90"/>
-      <c r="BI5" s="91"/>
+      <c r="BI5" s="94"/>
       <c r="BJ5" s="90"/>
       <c r="BK5" s="90"/>
       <c r="BL5" s="90"/>
@@ -48056,11 +48099,11 @@
         <v>17</v>
       </c>
       <c r="BQ5" s="90"/>
-      <c r="BR5" s="91"/>
-      <c r="BS5" s="91" t="s">
+      <c r="BR5" s="94"/>
+      <c r="BS5" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="BT5" s="103"/>
+      <c r="BT5" s="107"/>
       <c r="BU5" s="90"/>
       <c r="BV5" s="90"/>
       <c r="BW5" s="90"/>
@@ -48081,58 +48124,58 @@
       <c r="B6" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="106"/>
+      <c r="C6" s="124"/>
       <c r="D6" s="90"/>
       <c r="E6" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="91" t="s">
+      <c r="F6" s="94" t="s">
         <v>98</v>
       </c>
       <c r="G6" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="H6" s="119"/>
+      <c r="H6" s="141"/>
       <c r="I6" s="54" t="s">
         <v>159</v>
       </c>
       <c r="J6" s="90"/>
       <c r="K6" s="90"/>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="94" t="s">
         <v>231</v>
       </c>
-      <c r="M6" s="91" t="s">
+      <c r="M6" s="94" t="s">
         <v>246</v>
       </c>
-      <c r="N6" s="104"/>
+      <c r="N6" s="108"/>
       <c r="O6" s="90"/>
       <c r="P6" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="Q6" s="107"/>
+      <c r="Q6" s="131"/>
       <c r="R6" s="90"/>
       <c r="S6" s="90"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="91" t="s">
+      <c r="T6" s="108"/>
+      <c r="U6" s="94" t="s">
         <v>373</v>
       </c>
       <c r="V6" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="W6" s="104" t="s">
+      <c r="W6" s="108" t="s">
         <v>45</v>
       </c>
       <c r="X6" s="90"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104" t="s">
+      <c r="Y6" s="108"/>
+      <c r="Z6" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="AA6" s="91" t="s">
+      <c r="AA6" s="94" t="s">
         <v>354</v>
       </c>
-      <c r="AB6" s="91"/>
-      <c r="AC6" s="91"/>
-      <c r="AD6" s="97" t="s">
+      <c r="AB6" s="94"/>
+      <c r="AC6" s="94"/>
+      <c r="AD6" s="95" t="s">
         <v>493</v>
       </c>
       <c r="AE6" s="52" t="s">
@@ -48141,17 +48184,17 @@
       <c r="AF6" s="53" t="s">
         <v>506</v>
       </c>
-      <c r="AG6" s="91" t="s">
+      <c r="AG6" s="94" t="s">
         <v>45</v>
       </c>
       <c r="AH6" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AI6" s="113"/>
+      <c r="AI6" s="130"/>
       <c r="AJ6" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AK6" s="97" t="s">
+      <c r="AK6" s="95" t="s">
         <v>477</v>
       </c>
       <c r="AL6" s="90"/>
@@ -48162,20 +48205,20 @@
       <c r="AO6" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AP6" s="91"/>
+      <c r="AP6" s="94"/>
       <c r="AQ6" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AR6" s="91" t="s">
+      <c r="AR6" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AS6" s="91" t="s">
+      <c r="AS6" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AT6" s="91" t="s">
+      <c r="AT6" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AU6" s="91" t="s">
+      <c r="AU6" s="94" t="s">
         <v>45</v>
       </c>
       <c r="AV6" s="90" t="s">
@@ -48184,15 +48227,15 @@
       <c r="AW6" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AX6" s="115" t="s">
+      <c r="AX6" s="126" t="s">
         <v>651</v>
       </c>
-      <c r="AY6" s="91"/>
-      <c r="AZ6" s="91"/>
+      <c r="AY6" s="94"/>
+      <c r="AZ6" s="94"/>
       <c r="BA6" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="BB6" s="91" t="s">
+      <c r="BB6" s="94" t="s">
         <v>45</v>
       </c>
       <c r="BC6" s="62" t="s">
@@ -48202,7 +48245,7 @@
       <c r="BE6" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="BF6" s="97" t="s">
+      <c r="BF6" s="95" t="s">
         <v>477</v>
       </c>
       <c r="BG6" s="90" t="s">
@@ -48211,8 +48254,8 @@
       <c r="BH6" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BI6" s="91"/>
-      <c r="BJ6" s="91" t="s">
+      <c r="BI6" s="94"/>
+      <c r="BJ6" s="94" t="s">
         <v>45</v>
       </c>
       <c r="BK6" s="90" t="s">
@@ -48224,7 +48267,7 @@
       <c r="BM6" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BN6" s="129" t="s">
+      <c r="BN6" s="123" t="s">
         <v>399</v>
       </c>
       <c r="BO6" s="96" t="s">
@@ -48239,14 +48282,14 @@
       <c r="BR6" s="67" t="s">
         <v>713</v>
       </c>
-      <c r="BS6" s="91"/>
-      <c r="BT6" s="97" t="s">
+      <c r="BS6" s="94"/>
+      <c r="BT6" s="95" t="s">
         <v>477</v>
       </c>
-      <c r="BU6" s="91" t="s">
+      <c r="BU6" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="BV6" s="91" t="s">
+      <c r="BV6" s="94" t="s">
         <v>726</v>
       </c>
       <c r="BW6" s="90" t="s">
@@ -48281,123 +48324,123 @@
       <c r="A7" s="10">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="117" t="s">
         <v>145</v>
       </c>
       <c r="C7" s="90" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="90"/>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91" t="s">
+      <c r="F7" s="94"/>
+      <c r="G7" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="120" t="s">
+      <c r="H7" s="138" t="s">
         <v>130</v>
       </c>
       <c r="I7" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="J7" s="92" t="s">
+      <c r="J7" s="93" t="s">
         <v>189</v>
       </c>
       <c r="K7" s="90"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
       <c r="N7" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="O7" s="115" t="s">
+      <c r="O7" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="P7" s="115" t="s">
+      <c r="P7" s="126" t="s">
         <v>282</v>
       </c>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="91" t="s">
+      <c r="Q7" s="131"/>
+      <c r="R7" s="94" t="s">
         <v>315</v>
       </c>
-      <c r="S7" s="105" t="s">
+      <c r="S7" s="119" t="s">
         <v>326</v>
       </c>
-      <c r="T7" s="91" t="s">
+      <c r="T7" s="94" t="s">
         <v>354</v>
       </c>
-      <c r="U7" s="91"/>
-      <c r="V7" s="105" t="s">
+      <c r="U7" s="94"/>
+      <c r="V7" s="119" t="s">
         <v>387</v>
       </c>
-      <c r="W7" s="104"/>
+      <c r="W7" s="108"/>
       <c r="X7" s="55" t="s">
         <v>409</v>
       </c>
       <c r="Y7" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="Z7" s="104"/>
-      <c r="AA7" s="91"/>
+      <c r="Z7" s="108"/>
+      <c r="AA7" s="94"/>
       <c r="AB7" s="62" t="s">
         <v>472</v>
       </c>
-      <c r="AC7" s="91" t="s">
+      <c r="AC7" s="94" t="s">
         <v>480</v>
       </c>
-      <c r="AD7" s="97"/>
-      <c r="AE7" s="104" t="s">
+      <c r="AD7" s="95"/>
+      <c r="AE7" s="108" t="s">
         <v>512</v>
       </c>
       <c r="AF7" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="AG7" s="91"/>
+      <c r="AG7" s="94"/>
       <c r="AH7" s="90"/>
-      <c r="AI7" s="113"/>
+      <c r="AI7" s="130"/>
       <c r="AJ7" s="90"/>
-      <c r="AK7" s="97"/>
-      <c r="AL7" s="91" t="s">
+      <c r="AK7" s="95"/>
+      <c r="AL7" s="94" t="s">
         <v>569</v>
       </c>
       <c r="AM7" s="90"/>
       <c r="AN7" s="90"/>
       <c r="AO7" s="90"/>
-      <c r="AP7" s="91" t="s">
+      <c r="AP7" s="94" t="s">
         <v>159</v>
       </c>
       <c r="AQ7" s="90"/>
-      <c r="AR7" s="91"/>
-      <c r="AS7" s="91"/>
-      <c r="AT7" s="91"/>
-      <c r="AU7" s="91"/>
+      <c r="AR7" s="94"/>
+      <c r="AS7" s="94"/>
+      <c r="AT7" s="94"/>
+      <c r="AU7" s="94"/>
       <c r="AV7" s="90"/>
       <c r="AW7" s="90"/>
-      <c r="AX7" s="115"/>
+      <c r="AX7" s="126"/>
       <c r="AY7" s="62" t="s">
         <v>659</v>
       </c>
-      <c r="AZ7" s="105" t="s">
+      <c r="AZ7" s="119" t="s">
         <v>664</v>
       </c>
       <c r="BA7" s="90"/>
-      <c r="BB7" s="91"/>
-      <c r="BC7" s="91" t="s">
+      <c r="BB7" s="94"/>
+      <c r="BC7" s="94" t="s">
         <v>45</v>
       </c>
       <c r="BD7" s="90"/>
       <c r="BE7" s="90"/>
-      <c r="BF7" s="97"/>
+      <c r="BF7" s="95"/>
       <c r="BG7" s="90"/>
       <c r="BH7" s="90"/>
       <c r="BI7" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BJ7" s="91"/>
+      <c r="BJ7" s="94"/>
       <c r="BK7" s="90"/>
       <c r="BL7" s="90"/>
       <c r="BM7" s="90"/>
-      <c r="BN7" s="129"/>
+      <c r="BN7" s="123"/>
       <c r="BO7" s="96"/>
       <c r="BP7" s="96"/>
       <c r="BQ7" s="90"/>
@@ -48407,9 +48450,9 @@
       <c r="BS7" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="BT7" s="97"/>
-      <c r="BU7" s="91"/>
-      <c r="BV7" s="91"/>
+      <c r="BT7" s="95"/>
+      <c r="BU7" s="94"/>
+      <c r="BV7" s="94"/>
       <c r="BW7" s="90"/>
       <c r="BX7" s="90"/>
       <c r="BY7" s="90"/>
@@ -48436,58 +48479,58 @@
       <c r="A8" s="10">
         <v>0.375</v>
       </c>
-      <c r="B8" s="101"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="90"/>
-      <c r="D8" s="106" t="s">
+      <c r="D8" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="91"/>
-      <c r="F8" s="113" t="s">
+      <c r="E8" s="94"/>
+      <c r="F8" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="91"/>
-      <c r="H8" s="120"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="138"/>
       <c r="I8" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="92"/>
+      <c r="J8" s="93"/>
       <c r="K8" s="90"/>
       <c r="L8" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91" t="s">
+      <c r="M8" s="94"/>
+      <c r="N8" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="91"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="131"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="94"/>
       <c r="U8" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="V8" s="105"/>
-      <c r="W8" s="113" t="s">
+      <c r="V8" s="119"/>
+      <c r="W8" s="130" t="s">
         <v>396</v>
       </c>
-      <c r="X8" s="104" t="s">
+      <c r="X8" s="108" t="s">
         <v>410</v>
       </c>
       <c r="Y8" s="90"/>
-      <c r="Z8" s="104"/>
-      <c r="AA8" s="91"/>
-      <c r="AB8" s="91" t="s">
+      <c r="Z8" s="108"/>
+      <c r="AA8" s="94"/>
+      <c r="AB8" s="94" t="s">
         <v>474</v>
       </c>
-      <c r="AC8" s="91"/>
-      <c r="AD8" s="97"/>
-      <c r="AE8" s="104"/>
-      <c r="AF8" s="91" t="s">
+      <c r="AC8" s="94"/>
+      <c r="AD8" s="95"/>
+      <c r="AE8" s="108"/>
+      <c r="AF8" s="94" t="s">
         <v>524</v>
       </c>
-      <c r="AG8" s="104" t="s">
+      <c r="AG8" s="108" t="s">
         <v>538</v>
       </c>
       <c r="AH8" s="51" t="s">
@@ -48502,99 +48545,99 @@
       <c r="AK8" s="59" t="s">
         <v>565</v>
       </c>
-      <c r="AL8" s="91"/>
+      <c r="AL8" s="94"/>
       <c r="AM8" s="90"/>
       <c r="AN8" s="90"/>
       <c r="AO8" s="54" t="s">
         <v>609</v>
       </c>
-      <c r="AP8" s="91"/>
+      <c r="AP8" s="94"/>
       <c r="AQ8" s="90"/>
       <c r="AR8" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AS8" s="97" t="s">
+      <c r="AS8" s="95" t="s">
         <v>619</v>
       </c>
-      <c r="AT8" s="91" t="s">
+      <c r="AT8" s="94" t="s">
         <v>623</v>
       </c>
-      <c r="AU8" s="91" t="s">
+      <c r="AU8" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="AV8" s="91" t="s">
+      <c r="AV8" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AW8" s="101" t="s">
+      <c r="AW8" s="117" t="s">
         <v>644</v>
       </c>
-      <c r="AX8" s="91" t="s">
+      <c r="AX8" s="94" t="s">
         <v>652</v>
       </c>
       <c r="AY8" s="96" t="s">
         <v>657</v>
       </c>
-      <c r="AZ8" s="105"/>
-      <c r="BA8" s="91" t="s">
+      <c r="AZ8" s="119"/>
+      <c r="BA8" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="BB8" s="97" t="s">
+      <c r="BB8" s="95" t="s">
         <v>619</v>
       </c>
-      <c r="BC8" s="91"/>
-      <c r="BD8" s="91" t="s">
+      <c r="BC8" s="94"/>
+      <c r="BD8" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="BE8" s="101" t="s">
+      <c r="BE8" s="117" t="s">
         <v>680</v>
       </c>
-      <c r="BF8" s="97"/>
+      <c r="BF8" s="95"/>
       <c r="BG8" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="BH8" s="91" t="s">
+      <c r="BH8" s="94" t="s">
         <v>45</v>
       </c>
       <c r="BI8" s="90"/>
-      <c r="BJ8" s="91"/>
-      <c r="BK8" s="104" t="s">
+      <c r="BJ8" s="94"/>
+      <c r="BK8" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="BL8" s="97" t="s">
+      <c r="BL8" s="95" t="s">
         <v>619</v>
       </c>
-      <c r="BM8" s="97" t="s">
+      <c r="BM8" s="95" t="s">
         <v>619</v>
       </c>
-      <c r="BN8" s="129"/>
+      <c r="BN8" s="123"/>
       <c r="BO8" s="96" t="s">
         <v>698</v>
       </c>
-      <c r="BP8" s="91" t="s">
+      <c r="BP8" s="94" t="s">
         <v>702</v>
       </c>
-      <c r="BQ8" s="98" t="s">
+      <c r="BQ8" s="102" t="s">
         <v>670</v>
       </c>
-      <c r="BR8" s="91" t="s">
+      <c r="BR8" s="94" t="s">
         <v>715</v>
       </c>
-      <c r="BS8" s="91" t="s">
+      <c r="BS8" s="94" t="s">
         <v>721</v>
       </c>
-      <c r="BT8" s="91" t="s">
+      <c r="BT8" s="94" t="s">
         <v>721</v>
       </c>
-      <c r="BU8" s="102" t="s">
+      <c r="BU8" s="143" t="s">
         <v>735</v>
       </c>
       <c r="BV8" s="87" t="s">
         <v>766</v>
       </c>
-      <c r="BW8" s="136" t="s">
+      <c r="BW8" s="103" t="s">
         <v>771</v>
       </c>
-      <c r="BX8" s="92" t="s">
+      <c r="BX8" s="93" t="s">
         <v>767</v>
       </c>
       <c r="BY8" s="90" t="s">
@@ -48623,63 +48666,63 @@
       <c r="A9" s="10">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B9" s="101"/>
-      <c r="C9" s="106" t="s">
+      <c r="B9" s="117"/>
+      <c r="C9" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="91" t="s">
+      <c r="D9" s="124"/>
+      <c r="E9" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="113"/>
+      <c r="F9" s="130"/>
       <c r="G9" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="120" t="s">
+      <c r="H9" s="138" t="s">
         <v>131</v>
       </c>
       <c r="I9" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92" t="s">
+      <c r="J9" s="93"/>
+      <c r="K9" s="93" t="s">
         <v>209</v>
       </c>
       <c r="L9" s="62" t="s">
         <v>229</v>
       </c>
-      <c r="M9" s="91" t="s">
+      <c r="M9" s="94" t="s">
         <v>231</v>
       </c>
-      <c r="N9" s="91"/>
-      <c r="O9" s="113" t="s">
+      <c r="N9" s="94"/>
+      <c r="O9" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="91" t="s">
+      <c r="P9" s="94" t="s">
         <v>283</v>
       </c>
-      <c r="Q9" s="113" t="s">
+      <c r="Q9" s="130" t="s">
         <v>297</v>
       </c>
       <c r="R9" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="S9" s="105"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91" t="s">
+      <c r="S9" s="119"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94" t="s">
         <v>374</v>
       </c>
-      <c r="V9" s="105"/>
-      <c r="W9" s="113"/>
-      <c r="X9" s="104"/>
-      <c r="Y9" s="104" t="s">
+      <c r="V9" s="119"/>
+      <c r="W9" s="130"/>
+      <c r="X9" s="108"/>
+      <c r="Y9" s="108" t="s">
         <v>425</v>
       </c>
-      <c r="Z9" s="115" t="s">
+      <c r="Z9" s="126" t="s">
         <v>436</v>
       </c>
-      <c r="AA9" s="91"/>
-      <c r="AB9" s="91"/>
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="94"/>
       <c r="AC9" s="56" t="s">
         <v>485</v>
       </c>
@@ -48689,20 +48732,20 @@
       <c r="AE9" s="55" t="s">
         <v>513</v>
       </c>
-      <c r="AF9" s="91"/>
-      <c r="AG9" s="104"/>
+      <c r="AF9" s="94"/>
+      <c r="AG9" s="108"/>
       <c r="AH9" s="52" t="s">
         <v>547</v>
       </c>
-      <c r="AI9" s="112" t="s">
+      <c r="AI9" s="127" t="s">
         <v>448</v>
       </c>
       <c r="AJ9" s="90"/>
       <c r="AK9" s="59"/>
-      <c r="AL9" s="91"/>
+      <c r="AL9" s="94"/>
       <c r="AM9" s="90"/>
       <c r="AN9" s="90"/>
-      <c r="AO9" s="91" t="s">
+      <c r="AO9" s="94" t="s">
         <v>45</v>
       </c>
       <c r="AP9" s="96" t="s">
@@ -48710,48 +48753,48 @@
       </c>
       <c r="AQ9" s="90"/>
       <c r="AR9" s="90"/>
-      <c r="AS9" s="97"/>
-      <c r="AT9" s="91"/>
-      <c r="AU9" s="91"/>
-      <c r="AV9" s="91"/>
-      <c r="AW9" s="101"/>
-      <c r="AX9" s="91"/>
+      <c r="AS9" s="95"/>
+      <c r="AT9" s="94"/>
+      <c r="AU9" s="94"/>
+      <c r="AV9" s="94"/>
+      <c r="AW9" s="117"/>
+      <c r="AX9" s="94"/>
       <c r="AY9" s="96"/>
       <c r="AZ9" s="52" t="s">
         <v>665</v>
       </c>
-      <c r="BA9" s="91"/>
-      <c r="BB9" s="97"/>
+      <c r="BA9" s="94"/>
+      <c r="BB9" s="95"/>
       <c r="BC9" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="BD9" s="91"/>
-      <c r="BE9" s="101"/>
-      <c r="BF9" s="97"/>
+      <c r="BD9" s="94"/>
+      <c r="BE9" s="117"/>
+      <c r="BF9" s="95"/>
       <c r="BG9" s="90"/>
-      <c r="BH9" s="91"/>
-      <c r="BI9" s="98" t="s">
+      <c r="BH9" s="94"/>
+      <c r="BI9" s="102" t="s">
         <v>670</v>
       </c>
       <c r="BJ9" s="96" t="s">
         <v>690</v>
       </c>
-      <c r="BK9" s="104"/>
-      <c r="BL9" s="97"/>
-      <c r="BM9" s="97"/>
-      <c r="BN9" s="129"/>
+      <c r="BK9" s="108"/>
+      <c r="BL9" s="95"/>
+      <c r="BM9" s="95"/>
+      <c r="BN9" s="123"/>
       <c r="BO9" s="96"/>
-      <c r="BP9" s="91"/>
-      <c r="BQ9" s="98"/>
-      <c r="BR9" s="91"/>
-      <c r="BS9" s="91"/>
-      <c r="BT9" s="91"/>
-      <c r="BU9" s="103"/>
-      <c r="BV9" s="92" t="s">
+      <c r="BP9" s="94"/>
+      <c r="BQ9" s="102"/>
+      <c r="BR9" s="94"/>
+      <c r="BS9" s="94"/>
+      <c r="BT9" s="94"/>
+      <c r="BU9" s="107"/>
+      <c r="BV9" s="93" t="s">
         <v>767</v>
       </c>
-      <c r="BW9" s="137"/>
-      <c r="BX9" s="91"/>
+      <c r="BW9" s="104"/>
+      <c r="BX9" s="94"/>
       <c r="BY9" s="90"/>
       <c r="BZ9" s="42"/>
       <c r="CA9" s="65"/>
@@ -48776,67 +48819,67 @@
       <c r="A10" s="10">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="113"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="130"/>
       <c r="G10" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="H10" s="120"/>
+      <c r="H10" s="138"/>
       <c r="I10" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="J10" s="111" t="s">
+      <c r="J10" s="125" t="s">
         <v>192</v>
       </c>
-      <c r="K10" s="92"/>
+      <c r="K10" s="93"/>
       <c r="L10" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="M10" s="91"/>
+      <c r="M10" s="94"/>
       <c r="N10" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="O10" s="113"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="113"/>
-      <c r="R10" s="91" t="s">
+      <c r="O10" s="130"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="130"/>
+      <c r="R10" s="94" t="s">
         <v>318</v>
       </c>
       <c r="S10" s="52" t="s">
         <v>327</v>
       </c>
-      <c r="T10" s="91"/>
-      <c r="U10" s="91"/>
-      <c r="V10" s="105"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="104" t="s">
+      <c r="T10" s="94"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="119"/>
+      <c r="W10" s="130"/>
+      <c r="X10" s="108" t="s">
         <v>411</v>
       </c>
-      <c r="Y10" s="104"/>
-      <c r="Z10" s="115"/>
-      <c r="AA10" s="91"/>
-      <c r="AB10" s="91"/>
-      <c r="AC10" s="91" t="s">
+      <c r="Y10" s="108"/>
+      <c r="Z10" s="126"/>
+      <c r="AA10" s="94"/>
+      <c r="AB10" s="94"/>
+      <c r="AC10" s="94" t="s">
         <v>481</v>
       </c>
-      <c r="AD10" s="91" t="s">
+      <c r="AD10" s="94" t="s">
         <v>495</v>
       </c>
-      <c r="AE10" s="104" t="s">
+      <c r="AE10" s="108" t="s">
         <v>261</v>
       </c>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="104" t="s">
+      <c r="AF10" s="94"/>
+      <c r="AG10" s="108" t="s">
         <v>535</v>
       </c>
       <c r="AH10" s="61" t="s">
         <v>551</v>
       </c>
-      <c r="AI10" s="112"/>
-      <c r="AJ10" s="111" t="s">
+      <c r="AI10" s="127"/>
+      <c r="AJ10" s="125" t="s">
         <v>225</v>
       </c>
       <c r="AK10" s="90" t="s">
@@ -48845,90 +48888,90 @@
       <c r="AL10" s="51" t="s">
         <v>574</v>
       </c>
-      <c r="AM10" s="91" t="s">
+      <c r="AM10" s="94" t="s">
         <v>45</v>
       </c>
       <c r="AN10" s="90"/>
-      <c r="AO10" s="91"/>
+      <c r="AO10" s="94"/>
       <c r="AP10" s="96"/>
       <c r="AQ10" s="90"/>
-      <c r="AR10" s="97" t="s">
+      <c r="AR10" s="95" t="s">
         <v>619</v>
       </c>
-      <c r="AS10" s="91" t="s">
+      <c r="AS10" s="94" t="s">
         <v>622</v>
       </c>
-      <c r="AT10" s="91"/>
+      <c r="AT10" s="94"/>
       <c r="AU10" s="96" t="s">
         <v>633</v>
       </c>
-      <c r="AV10" s="106" t="s">
+      <c r="AV10" s="124" t="s">
         <v>177</v>
       </c>
-      <c r="AW10" s="101"/>
-      <c r="AX10" s="91" t="s">
+      <c r="AW10" s="117"/>
+      <c r="AX10" s="94" t="s">
         <v>640</v>
       </c>
-      <c r="AY10" s="91" t="s">
+      <c r="AY10" s="94" t="s">
         <v>640</v>
       </c>
-      <c r="AZ10" s="104" t="s">
+      <c r="AZ10" s="108" t="s">
         <v>642</v>
       </c>
-      <c r="BA10" s="91" t="s">
+      <c r="BA10" s="94" t="s">
         <v>641</v>
       </c>
-      <c r="BB10" s="104" t="s">
+      <c r="BB10" s="108" t="s">
         <v>643</v>
       </c>
-      <c r="BC10" s="104" t="s">
+      <c r="BC10" s="108" t="s">
         <v>642</v>
       </c>
-      <c r="BD10" s="91" t="s">
+      <c r="BD10" s="94" t="s">
         <v>641</v>
       </c>
-      <c r="BE10" s="101"/>
+      <c r="BE10" s="117"/>
       <c r="BF10" s="90" t="s">
         <v>17</v>
       </c>
       <c r="BG10" s="54" t="s">
         <v>682</v>
       </c>
-      <c r="BH10" s="91"/>
-      <c r="BI10" s="98"/>
+      <c r="BH10" s="94"/>
+      <c r="BI10" s="102"/>
       <c r="BJ10" s="96"/>
-      <c r="BK10" s="104" t="s">
+      <c r="BK10" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="BL10" s="126" t="s">
+      <c r="BL10" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="BM10" s="126" t="s">
+      <c r="BM10" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="BN10" s="129"/>
-      <c r="BO10" s="104" t="s">
+      <c r="BN10" s="123"/>
+      <c r="BO10" s="108" t="s">
         <v>699</v>
       </c>
-      <c r="BP10" s="91"/>
+      <c r="BP10" s="94"/>
       <c r="BQ10" s="96" t="s">
         <v>708</v>
       </c>
-      <c r="BR10" s="91" t="s">
+      <c r="BR10" s="94" t="s">
         <v>717</v>
       </c>
       <c r="BS10" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="BT10" s="91" t="s">
+      <c r="BT10" s="94" t="s">
         <v>721</v>
       </c>
-      <c r="BU10" s="92" t="s">
+      <c r="BU10" s="93" t="s">
         <v>734</v>
       </c>
-      <c r="BV10" s="91"/>
-      <c r="BW10" s="137"/>
-      <c r="BX10" s="92" t="s">
+      <c r="BV10" s="94"/>
+      <c r="BW10" s="104"/>
+      <c r="BX10" s="93" t="s">
         <v>767</v>
       </c>
       <c r="BY10" s="90" t="s">
@@ -48957,133 +49000,133 @@
       <c r="A11" s="10">
         <v>0.4375</v>
       </c>
-      <c r="B11" s="101"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
       <c r="E11" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="111" t="s">
+      <c r="F11" s="125" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="91" t="s">
+      <c r="G11" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="120"/>
-      <c r="I11" s="91" t="s">
+      <c r="H11" s="138"/>
+      <c r="I11" s="94" t="s">
         <v>161</v>
       </c>
-      <c r="J11" s="111"/>
+      <c r="J11" s="125"/>
       <c r="K11" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="L11" s="91" t="s">
+      <c r="L11" s="94" t="s">
         <v>237</v>
       </c>
       <c r="M11" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="N11" s="91" t="s">
+      <c r="N11" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="O11" s="113"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="91" t="s">
+      <c r="O11" s="130"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94" t="s">
         <v>295</v>
       </c>
-      <c r="R11" s="91"/>
-      <c r="S11" s="113" t="s">
+      <c r="R11" s="94"/>
+      <c r="S11" s="130" t="s">
         <v>328</v>
       </c>
       <c r="T11" s="54" t="s">
         <v>353</v>
       </c>
-      <c r="U11" s="91" t="s">
+      <c r="U11" s="94" t="s">
         <v>373</v>
       </c>
-      <c r="V11" s="105"/>
+      <c r="V11" s="119"/>
       <c r="W11" s="52" t="s">
         <v>400</v>
       </c>
-      <c r="X11" s="104"/>
+      <c r="X11" s="108"/>
       <c r="Y11" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="Z11" s="91" t="s">
+      <c r="Z11" s="94" t="s">
         <v>437</v>
       </c>
       <c r="AA11" s="62" t="s">
         <v>446</v>
       </c>
-      <c r="AB11" s="91" t="s">
+      <c r="AB11" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="AC11" s="91"/>
-      <c r="AD11" s="91"/>
-      <c r="AE11" s="104"/>
+      <c r="AC11" s="94"/>
+      <c r="AD11" s="94"/>
+      <c r="AE11" s="108"/>
       <c r="AF11" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AG11" s="104"/>
-      <c r="AH11" s="91" t="s">
+      <c r="AG11" s="108"/>
+      <c r="AH11" s="94" t="s">
         <v>549</v>
       </c>
-      <c r="AI11" s="112"/>
-      <c r="AJ11" s="111"/>
+      <c r="AI11" s="127"/>
+      <c r="AJ11" s="125"/>
       <c r="AK11" s="90"/>
-      <c r="AL11" s="91" t="s">
+      <c r="AL11" s="94" t="s">
         <v>570</v>
       </c>
-      <c r="AM11" s="91"/>
+      <c r="AM11" s="94"/>
       <c r="AN11" s="90"/>
       <c r="AO11" s="51" t="s">
         <v>58</v>
       </c>
       <c r="AP11" s="96"/>
       <c r="AQ11" s="90"/>
-      <c r="AR11" s="97"/>
-      <c r="AS11" s="91"/>
-      <c r="AT11" s="91"/>
+      <c r="AR11" s="95"/>
+      <c r="AS11" s="94"/>
+      <c r="AT11" s="94"/>
       <c r="AU11" s="96"/>
-      <c r="AV11" s="106"/>
-      <c r="AW11" s="101"/>
-      <c r="AX11" s="91"/>
-      <c r="AY11" s="91"/>
-      <c r="AZ11" s="104"/>
-      <c r="BA11" s="91"/>
-      <c r="BB11" s="104"/>
-      <c r="BC11" s="104"/>
-      <c r="BD11" s="91"/>
-      <c r="BE11" s="101"/>
+      <c r="AV11" s="124"/>
+      <c r="AW11" s="117"/>
+      <c r="AX11" s="94"/>
+      <c r="AY11" s="94"/>
+      <c r="AZ11" s="108"/>
+      <c r="BA11" s="94"/>
+      <c r="BB11" s="108"/>
+      <c r="BC11" s="108"/>
+      <c r="BD11" s="94"/>
+      <c r="BE11" s="117"/>
       <c r="BF11" s="90"/>
-      <c r="BG11" s="91" t="s">
+      <c r="BG11" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="BH11" s="98" t="s">
+      <c r="BH11" s="102" t="s">
         <v>670</v>
       </c>
-      <c r="BI11" s="104" t="s">
+      <c r="BI11" s="108" t="s">
         <v>685</v>
       </c>
       <c r="BJ11" s="96" t="s">
         <v>690</v>
       </c>
-      <c r="BK11" s="104"/>
-      <c r="BL11" s="127"/>
-      <c r="BM11" s="127"/>
-      <c r="BN11" s="129"/>
-      <c r="BO11" s="104"/>
-      <c r="BP11" s="91"/>
+      <c r="BK11" s="108"/>
+      <c r="BL11" s="112"/>
+      <c r="BM11" s="112"/>
+      <c r="BN11" s="123"/>
+      <c r="BO11" s="108"/>
+      <c r="BP11" s="94"/>
       <c r="BQ11" s="96"/>
-      <c r="BR11" s="91"/>
+      <c r="BR11" s="94"/>
       <c r="BS11" s="90"/>
-      <c r="BT11" s="91"/>
-      <c r="BU11" s="91"/>
-      <c r="BV11" s="92" t="s">
+      <c r="BT11" s="94"/>
+      <c r="BU11" s="94"/>
+      <c r="BV11" s="93" t="s">
         <v>770</v>
       </c>
-      <c r="BW11" s="137"/>
-      <c r="BX11" s="91"/>
+      <c r="BW11" s="104"/>
+      <c r="BX11" s="94"/>
       <c r="BY11" s="90"/>
       <c r="BZ11" s="42"/>
       <c r="CA11" s="65"/>
@@ -49111,85 +49154,85 @@
       <c r="B12" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="104" t="s">
+      <c r="C12" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="108" t="s">
         <v>70</v>
       </c>
       <c r="E12" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="111"/>
-      <c r="G12" s="91"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="94"/>
       <c r="H12" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="I12" s="91"/>
+      <c r="I12" s="94"/>
       <c r="J12" s="61" t="s">
         <v>193</v>
       </c>
       <c r="K12" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91" t="s">
+      <c r="L12" s="94"/>
+      <c r="M12" s="94" t="s">
         <v>252</v>
       </c>
-      <c r="N12" s="91"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="113" t="s">
+      <c r="N12" s="94"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="130" t="s">
         <v>286</v>
       </c>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="91"/>
-      <c r="S12" s="113"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="130"/>
       <c r="T12" s="52" t="s">
         <v>363</v>
       </c>
-      <c r="U12" s="91"/>
-      <c r="V12" s="115" t="s">
+      <c r="U12" s="94"/>
+      <c r="V12" s="126" t="s">
         <v>388</v>
       </c>
-      <c r="W12" s="97" t="s">
+      <c r="W12" s="95" t="s">
         <v>401</v>
       </c>
       <c r="X12" s="55" t="s">
         <v>409</v>
       </c>
-      <c r="Y12" s="104" t="s">
+      <c r="Y12" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="Z12" s="91"/>
+      <c r="Z12" s="94"/>
       <c r="AA12" s="90" t="s">
         <v>447</v>
       </c>
-      <c r="AB12" s="91"/>
-      <c r="AC12" s="91"/>
-      <c r="AD12" s="115" t="s">
+      <c r="AB12" s="94"/>
+      <c r="AC12" s="94"/>
+      <c r="AD12" s="126" t="s">
         <v>496</v>
       </c>
       <c r="AE12" s="51" t="s">
         <v>13</v>
       </c>
       <c r="AF12" s="90"/>
-      <c r="AG12" s="104"/>
-      <c r="AH12" s="91"/>
-      <c r="AI12" s="112"/>
-      <c r="AJ12" s="91" t="s">
+      <c r="AG12" s="108"/>
+      <c r="AH12" s="94"/>
+      <c r="AI12" s="127"/>
+      <c r="AJ12" s="94" t="s">
         <v>556</v>
       </c>
-      <c r="AK12" s="98" t="s">
+      <c r="AK12" s="102" t="s">
         <v>566</v>
       </c>
-      <c r="AL12" s="91"/>
+      <c r="AL12" s="94"/>
       <c r="AM12" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AN12" s="91" t="s">
+      <c r="AN12" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AO12" s="108" t="s">
+      <c r="AO12" s="129" t="s">
         <v>610</v>
       </c>
       <c r="AP12" s="96"/>
@@ -49199,50 +49242,50 @@
       <c r="AR12" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AS12" s="91" t="s">
+      <c r="AS12" s="94" t="s">
         <v>622</v>
       </c>
-      <c r="AT12" s="91"/>
+      <c r="AT12" s="94"/>
       <c r="AU12" s="96"/>
-      <c r="AV12" s="111" t="s">
+      <c r="AV12" s="125" t="s">
         <v>634</v>
       </c>
-      <c r="AW12" s="105" t="s">
+      <c r="AW12" s="119" t="s">
         <v>645</v>
       </c>
-      <c r="AX12" s="91"/>
-      <c r="AY12" s="91"/>
+      <c r="AX12" s="94"/>
+      <c r="AY12" s="94"/>
       <c r="AZ12" s="96" t="s">
         <v>657</v>
       </c>
-      <c r="BA12" s="91"/>
-      <c r="BB12" s="104"/>
-      <c r="BC12" s="104"/>
-      <c r="BD12" s="91"/>
-      <c r="BE12" s="109" t="s">
+      <c r="BA12" s="94"/>
+      <c r="BB12" s="108"/>
+      <c r="BC12" s="108"/>
+      <c r="BD12" s="94"/>
+      <c r="BE12" s="118" t="s">
         <v>670</v>
       </c>
       <c r="BF12" s="96" t="s">
         <v>677</v>
       </c>
-      <c r="BG12" s="91"/>
-      <c r="BH12" s="98"/>
-      <c r="BI12" s="104"/>
+      <c r="BG12" s="94"/>
+      <c r="BH12" s="102"/>
+      <c r="BI12" s="108"/>
       <c r="BJ12" s="96"/>
-      <c r="BK12" s="97" t="s">
+      <c r="BK12" s="95" t="s">
         <v>619</v>
       </c>
-      <c r="BL12" s="127"/>
-      <c r="BM12" s="127"/>
-      <c r="BN12" s="129"/>
+      <c r="BL12" s="112"/>
+      <c r="BM12" s="112"/>
+      <c r="BN12" s="123"/>
       <c r="BO12" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="BP12" s="98" t="s">
+      <c r="BP12" s="102" t="s">
         <v>691</v>
       </c>
       <c r="BQ12" s="96"/>
-      <c r="BR12" s="91" t="s">
+      <c r="BR12" s="94" t="s">
         <v>718</v>
       </c>
       <c r="BS12" s="96" t="s">
@@ -49254,9 +49297,9 @@
       <c r="BU12" s="96" t="s">
         <v>762</v>
       </c>
-      <c r="BV12" s="91"/>
-      <c r="BW12" s="138"/>
-      <c r="BX12" s="92" t="s">
+      <c r="BV12" s="94"/>
+      <c r="BW12" s="105"/>
+      <c r="BX12" s="93" t="s">
         <v>767</v>
       </c>
       <c r="BY12" s="96" t="s">
@@ -49285,110 +49328,110 @@
       <c r="A13" s="10">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="91" t="s">
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="115" t="s">
+      <c r="F13" s="126" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="115" t="s">
+      <c r="G13" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="H13" s="105" t="s">
+      <c r="H13" s="119" t="s">
         <v>143</v>
       </c>
       <c r="I13" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="J13" s="91" t="s">
+      <c r="J13" s="94" t="s">
         <v>194</v>
       </c>
       <c r="K13" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="105" t="s">
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="119" t="s">
         <v>264</v>
       </c>
-      <c r="P13" s="113"/>
+      <c r="P13" s="130"/>
       <c r="Q13" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="R13" s="115" t="s">
+      <c r="R13" s="126" t="s">
         <v>316</v>
       </c>
-      <c r="S13" s="115" t="s">
+      <c r="S13" s="126" t="s">
         <v>329</v>
       </c>
       <c r="T13" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="U13" s="91"/>
-      <c r="V13" s="115"/>
-      <c r="W13" s="97"/>
-      <c r="X13" s="104" t="s">
+      <c r="U13" s="94"/>
+      <c r="V13" s="126"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="108" t="s">
         <v>412</v>
       </c>
-      <c r="Y13" s="104"/>
-      <c r="Z13" s="91"/>
+      <c r="Y13" s="108"/>
+      <c r="Z13" s="94"/>
       <c r="AA13" s="90"/>
       <c r="AB13" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="AC13" s="91"/>
-      <c r="AD13" s="115"/>
-      <c r="AE13" s="91" t="s">
+      <c r="AC13" s="94"/>
+      <c r="AD13" s="126"/>
+      <c r="AE13" s="94" t="s">
         <v>508</v>
       </c>
-      <c r="AF13" s="92" t="s">
+      <c r="AF13" s="93" t="s">
         <v>532</v>
       </c>
-      <c r="AG13" s="104"/>
-      <c r="AH13" s="91" t="s">
+      <c r="AG13" s="108"/>
+      <c r="AH13" s="94" t="s">
         <v>550</v>
       </c>
-      <c r="AI13" s="112"/>
-      <c r="AJ13" s="91"/>
-      <c r="AK13" s="98"/>
-      <c r="AL13" s="91"/>
-      <c r="AM13" s="111" t="s">
+      <c r="AI13" s="127"/>
+      <c r="AJ13" s="94"/>
+      <c r="AK13" s="102"/>
+      <c r="AL13" s="94"/>
+      <c r="AM13" s="125" t="s">
         <v>594</v>
       </c>
-      <c r="AN13" s="91"/>
-      <c r="AO13" s="108"/>
-      <c r="AP13" s="108" t="s">
+      <c r="AN13" s="94"/>
+      <c r="AO13" s="129"/>
+      <c r="AP13" s="129" t="s">
         <v>614</v>
       </c>
-      <c r="AQ13" s="112" t="s">
+      <c r="AQ13" s="127" t="s">
         <v>448</v>
       </c>
-      <c r="AR13" s="91" t="s">
+      <c r="AR13" s="94" t="s">
         <v>620</v>
       </c>
-      <c r="AS13" s="91"/>
+      <c r="AS13" s="94"/>
       <c r="AT13" s="90" t="s">
         <v>17</v>
       </c>
       <c r="AU13" s="96"/>
-      <c r="AV13" s="111"/>
-      <c r="AW13" s="105"/>
-      <c r="AX13" s="91"/>
-      <c r="AY13" s="91"/>
+      <c r="AV13" s="125"/>
+      <c r="AW13" s="119"/>
+      <c r="AX13" s="94"/>
+      <c r="AY13" s="94"/>
       <c r="AZ13" s="96"/>
-      <c r="BA13" s="91"/>
-      <c r="BB13" s="104"/>
-      <c r="BC13" s="104"/>
-      <c r="BD13" s="91"/>
-      <c r="BE13" s="109"/>
+      <c r="BA13" s="94"/>
+      <c r="BB13" s="108"/>
+      <c r="BC13" s="108"/>
+      <c r="BD13" s="94"/>
+      <c r="BE13" s="118"/>
       <c r="BF13" s="96"/>
-      <c r="BG13" s="109" t="s">
+      <c r="BG13" s="118" t="s">
         <v>683</v>
       </c>
       <c r="BH13" s="90" t="s">
@@ -49400,16 +49443,16 @@
       <c r="BJ13" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BK13" s="97"/>
-      <c r="BL13" s="128"/>
-      <c r="BM13" s="128"/>
-      <c r="BN13" s="129"/>
+      <c r="BK13" s="95"/>
+      <c r="BL13" s="113"/>
+      <c r="BM13" s="113"/>
+      <c r="BN13" s="123"/>
       <c r="BO13" s="90"/>
-      <c r="BP13" s="98"/>
+      <c r="BP13" s="102"/>
       <c r="BQ13" s="96" t="s">
         <v>709</v>
       </c>
-      <c r="BR13" s="91"/>
+      <c r="BR13" s="94"/>
       <c r="BS13" s="96"/>
       <c r="BT13" s="90"/>
       <c r="BU13" s="96"/>
@@ -49419,7 +49462,7 @@
       <c r="BW13" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BX13" s="91"/>
+      <c r="BX13" s="94"/>
       <c r="BY13" s="96"/>
       <c r="BZ13" s="42"/>
       <c r="CA13" s="65"/>
@@ -49444,81 +49487,81 @@
       <c r="A14" s="10">
         <v>0.5</v>
       </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="105"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="119"/>
       <c r="I14" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="J14" s="91"/>
+      <c r="J14" s="94"/>
       <c r="K14" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="91" t="s">
+      <c r="L14" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="M14" s="91"/>
+      <c r="M14" s="94"/>
       <c r="N14" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="O14" s="105"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="115" t="s">
+      <c r="O14" s="119"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="126" t="s">
         <v>296</v>
       </c>
-      <c r="R14" s="115"/>
-      <c r="S14" s="115"/>
+      <c r="R14" s="126"/>
+      <c r="S14" s="126"/>
       <c r="T14" s="62" t="s">
         <v>336</v>
       </c>
-      <c r="U14" s="115" t="s">
+      <c r="U14" s="126" t="s">
         <v>375</v>
       </c>
       <c r="V14" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="W14" s="116" t="s">
+      <c r="W14" s="142" t="s">
         <v>402</v>
       </c>
-      <c r="X14" s="104"/>
-      <c r="Y14" s="104"/>
-      <c r="Z14" s="91"/>
-      <c r="AA14" s="91" t="s">
+      <c r="X14" s="108"/>
+      <c r="Y14" s="108"/>
+      <c r="Z14" s="94"/>
+      <c r="AA14" s="94" t="s">
         <v>445</v>
       </c>
-      <c r="AB14" s="114" t="s">
+      <c r="AB14" s="133" t="s">
         <v>476</v>
       </c>
-      <c r="AC14" s="91"/>
-      <c r="AD14" s="98" t="s">
+      <c r="AC14" s="94"/>
+      <c r="AD14" s="102" t="s">
         <v>500</v>
       </c>
-      <c r="AE14" s="91"/>
-      <c r="AF14" s="92"/>
-      <c r="AG14" s="115" t="s">
+      <c r="AE14" s="94"/>
+      <c r="AF14" s="93"/>
+      <c r="AG14" s="126" t="s">
         <v>336</v>
       </c>
-      <c r="AH14" s="91"/>
-      <c r="AI14" s="112"/>
+      <c r="AH14" s="94"/>
+      <c r="AI14" s="127"/>
       <c r="AJ14" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="AK14" s="98"/>
+      <c r="AK14" s="102"/>
       <c r="AL14" s="60" t="s">
         <v>575</v>
       </c>
-      <c r="AM14" s="111"/>
+      <c r="AM14" s="125"/>
       <c r="AN14" s="53" t="s">
         <v>600</v>
       </c>
-      <c r="AO14" s="108"/>
-      <c r="AP14" s="108"/>
-      <c r="AQ14" s="112"/>
-      <c r="AR14" s="91"/>
+      <c r="AO14" s="129"/>
+      <c r="AP14" s="129"/>
+      <c r="AQ14" s="127"/>
+      <c r="AR14" s="94"/>
       <c r="AS14" s="90" t="s">
         <v>58</v>
       </c>
@@ -49541,8 +49584,8 @@
       <c r="AZ14" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BA14" s="91"/>
-      <c r="BB14" s="98" t="s">
+      <c r="BA14" s="94"/>
+      <c r="BB14" s="102" t="s">
         <v>668</v>
       </c>
       <c r="BC14" s="90" t="s">
@@ -49551,9 +49594,9 @@
       <c r="BD14" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BE14" s="109"/>
+      <c r="BE14" s="118"/>
       <c r="BF14" s="96"/>
-      <c r="BG14" s="109"/>
+      <c r="BG14" s="118"/>
       <c r="BH14" s="90"/>
       <c r="BI14" s="90"/>
       <c r="BJ14" s="90"/>
@@ -49566,11 +49609,11 @@
       <c r="BM14" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BN14" s="129"/>
+      <c r="BN14" s="123"/>
       <c r="BO14" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="BP14" s="98" t="s">
+      <c r="BP14" s="102" t="s">
         <v>691</v>
       </c>
       <c r="BQ14" s="96"/>
@@ -49617,8 +49660,8 @@
       <c r="A15" s="10">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106" t="s">
+      <c r="B15" s="124"/>
+      <c r="C15" s="124" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="90" t="s">
@@ -49633,7 +49676,7 @@
       <c r="G15" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="H15" s="105"/>
+      <c r="H15" s="119"/>
       <c r="I15" s="90"/>
       <c r="J15" s="57" t="s">
         <v>195</v>
@@ -49641,64 +49684,64 @@
       <c r="K15" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="L15" s="91"/>
+      <c r="L15" s="94"/>
       <c r="M15" s="90" t="s">
         <v>17</v>
       </c>
       <c r="N15" s="90" t="s">
         <v>258</v>
       </c>
-      <c r="O15" s="105"/>
+      <c r="O15" s="119"/>
       <c r="P15" s="90" t="s">
         <v>284</v>
       </c>
-      <c r="Q15" s="115"/>
-      <c r="R15" s="115"/>
+      <c r="Q15" s="126"/>
+      <c r="R15" s="126"/>
       <c r="S15" s="57" t="s">
         <v>330</v>
       </c>
-      <c r="T15" s="104" t="s">
+      <c r="T15" s="108" t="s">
         <v>337</v>
       </c>
-      <c r="U15" s="115"/>
-      <c r="V15" s="101" t="s">
+      <c r="U15" s="126"/>
+      <c r="V15" s="117" t="s">
         <v>300</v>
       </c>
-      <c r="W15" s="116"/>
+      <c r="W15" s="142"/>
       <c r="X15" s="96" t="s">
         <v>415</v>
       </c>
-      <c r="Y15" s="104" t="s">
+      <c r="Y15" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="Z15" s="91"/>
-      <c r="AA15" s="91"/>
-      <c r="AB15" s="114"/>
-      <c r="AC15" s="114" t="s">
+      <c r="Z15" s="94"/>
+      <c r="AA15" s="94"/>
+      <c r="AB15" s="133"/>
+      <c r="AC15" s="133" t="s">
         <v>486</v>
       </c>
-      <c r="AD15" s="98"/>
+      <c r="AD15" s="102"/>
       <c r="AE15" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AF15" s="92"/>
-      <c r="AG15" s="115"/>
-      <c r="AH15" s="91"/>
-      <c r="AI15" s="112"/>
-      <c r="AJ15" s="114" t="s">
+      <c r="AF15" s="93"/>
+      <c r="AG15" s="126"/>
+      <c r="AH15" s="94"/>
+      <c r="AI15" s="127"/>
+      <c r="AJ15" s="133" t="s">
         <v>559</v>
       </c>
-      <c r="AK15" s="98"/>
+      <c r="AK15" s="102"/>
       <c r="AL15" s="90" t="s">
         <v>571</v>
       </c>
-      <c r="AM15" s="111"/>
+      <c r="AM15" s="125"/>
       <c r="AN15" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="AO15" s="108"/>
-      <c r="AP15" s="108"/>
-      <c r="AQ15" s="112"/>
+      <c r="AO15" s="129"/>
+      <c r="AP15" s="129"/>
+      <c r="AQ15" s="127"/>
       <c r="AR15" s="90" t="s">
         <v>13</v>
       </c>
@@ -49712,13 +49755,13 @@
       <c r="AX15" s="90"/>
       <c r="AY15" s="96"/>
       <c r="AZ15" s="90"/>
-      <c r="BA15" s="91"/>
-      <c r="BB15" s="98"/>
+      <c r="BA15" s="94"/>
+      <c r="BB15" s="102"/>
       <c r="BC15" s="90"/>
       <c r="BD15" s="90"/>
-      <c r="BE15" s="109"/>
+      <c r="BE15" s="118"/>
       <c r="BF15" s="96"/>
-      <c r="BG15" s="109"/>
+      <c r="BG15" s="118"/>
       <c r="BH15" s="96" t="s">
         <v>684</v>
       </c>
@@ -49731,22 +49774,22 @@
       <c r="BK15" s="90"/>
       <c r="BL15" s="90"/>
       <c r="BM15" s="90"/>
-      <c r="BN15" s="129"/>
+      <c r="BN15" s="123"/>
       <c r="BO15" s="90"/>
-      <c r="BP15" s="98"/>
+      <c r="BP15" s="102"/>
       <c r="BQ15" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="BR15" s="97" t="s">
+      <c r="BR15" s="95" t="s">
         <v>719</v>
       </c>
       <c r="BS15" s="90"/>
       <c r="BT15" s="96"/>
       <c r="BU15" s="96"/>
-      <c r="BV15" s="91" t="s">
+      <c r="BV15" s="94" t="s">
         <v>726</v>
       </c>
-      <c r="BW15" s="91" t="s">
+      <c r="BW15" s="94" t="s">
         <v>726</v>
       </c>
       <c r="BX15" s="90"/>
@@ -49777,9 +49820,9 @@
       <c r="B16" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="106"/>
+      <c r="C16" s="124"/>
       <c r="D16" s="90"/>
-      <c r="E16" s="106" t="s">
+      <c r="E16" s="124" t="s">
         <v>90</v>
       </c>
       <c r="F16" s="55" t="s">
@@ -49788,8 +49831,8 @@
       <c r="G16" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="H16" s="105"/>
-      <c r="I16" s="98" t="s">
+      <c r="H16" s="119"/>
+      <c r="I16" s="102" t="s">
         <v>177</v>
       </c>
       <c r="J16" s="51" t="s">
@@ -49798,41 +49841,41 @@
       <c r="K16" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="L16" s="91"/>
+      <c r="L16" s="94"/>
       <c r="M16" s="90"/>
       <c r="N16" s="90"/>
-      <c r="O16" s="105"/>
+      <c r="O16" s="119"/>
       <c r="P16" s="90"/>
-      <c r="Q16" s="115"/>
-      <c r="R16" s="115"/>
+      <c r="Q16" s="126"/>
+      <c r="R16" s="126"/>
       <c r="S16" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="T16" s="104"/>
-      <c r="U16" s="98" t="s">
+      <c r="T16" s="108"/>
+      <c r="U16" s="102" t="s">
         <v>378</v>
       </c>
-      <c r="V16" s="101"/>
-      <c r="W16" s="101" t="s">
+      <c r="V16" s="117"/>
+      <c r="W16" s="117" t="s">
         <v>403</v>
       </c>
       <c r="X16" s="96"/>
-      <c r="Y16" s="104"/>
-      <c r="Z16" s="91"/>
+      <c r="Y16" s="108"/>
+      <c r="Z16" s="94"/>
       <c r="AA16" s="51" t="s">
         <v>449</v>
       </c>
       <c r="AB16" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AC16" s="114"/>
+      <c r="AC16" s="133"/>
       <c r="AD16" s="55" t="s">
         <v>501</v>
       </c>
       <c r="AE16" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AF16" s="92"/>
+      <c r="AF16" s="93"/>
       <c r="AG16" s="90" t="s">
         <v>13</v>
       </c>
@@ -49842,20 +49885,20 @@
       <c r="AI16" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AJ16" s="114"/>
-      <c r="AK16" s="97" t="s">
+      <c r="AJ16" s="133"/>
+      <c r="AK16" s="95" t="s">
         <v>567</v>
       </c>
       <c r="AL16" s="90"/>
       <c r="AM16" s="96" t="s">
         <v>595</v>
       </c>
-      <c r="AN16" s="92" t="s">
+      <c r="AN16" s="93" t="s">
         <v>602</v>
       </c>
-      <c r="AO16" s="108"/>
-      <c r="AP16" s="108"/>
-      <c r="AQ16" s="112"/>
+      <c r="AO16" s="129"/>
+      <c r="AP16" s="129"/>
+      <c r="AQ16" s="127"/>
       <c r="AR16" s="90"/>
       <c r="AS16" s="90" t="s">
         <v>58</v>
@@ -49874,24 +49917,24 @@
       <c r="AY16" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="AZ16" s="98" t="s">
+      <c r="AZ16" s="102" t="s">
         <v>470</v>
       </c>
       <c r="BA16" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BB16" s="98"/>
-      <c r="BC16" s="97" t="s">
+      <c r="BB16" s="102"/>
+      <c r="BC16" s="95" t="s">
         <v>619</v>
       </c>
-      <c r="BD16" s="111" t="s">
+      <c r="BD16" s="125" t="s">
         <v>670</v>
       </c>
       <c r="BE16" s="90" t="s">
         <v>13</v>
       </c>
       <c r="BF16" s="96"/>
-      <c r="BG16" s="109"/>
+      <c r="BG16" s="118"/>
       <c r="BH16" s="96"/>
       <c r="BI16" s="90"/>
       <c r="BJ16" s="96"/>
@@ -49901,33 +49944,33 @@
       <c r="BL16" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BM16" s="130" t="s">
+      <c r="BM16" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="BN16" s="129"/>
-      <c r="BO16" s="98" t="s">
+      <c r="BN16" s="123"/>
+      <c r="BO16" s="102" t="s">
         <v>700</v>
       </c>
-      <c r="BP16" s="107" t="s">
+      <c r="BP16" s="131" t="s">
         <v>416</v>
       </c>
       <c r="BQ16" s="90"/>
-      <c r="BR16" s="97"/>
-      <c r="BS16" s="98" t="s">
+      <c r="BR16" s="95"/>
+      <c r="BS16" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="BT16" s="91" t="s">
+      <c r="BT16" s="94" t="s">
         <v>726</v>
       </c>
-      <c r="BU16" s="91" t="s">
+      <c r="BU16" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="BV16" s="91"/>
-      <c r="BW16" s="91"/>
-      <c r="BX16" s="143" t="s">
+      <c r="BV16" s="94"/>
+      <c r="BW16" s="94"/>
+      <c r="BX16" s="97" t="s">
         <v>776</v>
       </c>
-      <c r="BY16" s="148" t="s">
+      <c r="BY16" s="91" t="s">
         <v>780</v>
       </c>
       <c r="BZ16" s="42"/>
@@ -49956,22 +49999,22 @@
       <c r="B17" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106" t="s">
+      <c r="C17" s="124"/>
+      <c r="D17" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="106"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="117" t="s">
+      <c r="G17" s="139" t="s">
         <v>122</v>
       </c>
       <c r="H17" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="I17" s="98"/>
-      <c r="J17" s="91" t="s">
+      <c r="I17" s="102"/>
+      <c r="J17" s="94" t="s">
         <v>21</v>
       </c>
       <c r="K17" s="57" t="s">
@@ -49980,66 +50023,66 @@
       <c r="L17" s="90" t="s">
         <v>240</v>
       </c>
-      <c r="M17" s="98" t="s">
+      <c r="M17" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="N17" s="106" t="s">
+      <c r="N17" s="124" t="s">
         <v>257</v>
       </c>
-      <c r="O17" s="98" t="s">
+      <c r="O17" s="102" t="s">
         <v>272</v>
       </c>
-      <c r="P17" s="106" t="s">
+      <c r="P17" s="124" t="s">
         <v>285</v>
       </c>
-      <c r="Q17" s="104" t="s">
+      <c r="Q17" s="108" t="s">
         <v>290</v>
       </c>
-      <c r="R17" s="115"/>
+      <c r="R17" s="126"/>
       <c r="S17" s="56" t="s">
         <v>332</v>
       </c>
       <c r="T17" s="52" t="s">
         <v>338</v>
       </c>
-      <c r="U17" s="98"/>
-      <c r="V17" s="101"/>
-      <c r="W17" s="101"/>
-      <c r="X17" s="107" t="s">
+      <c r="U17" s="102"/>
+      <c r="V17" s="117"/>
+      <c r="W17" s="117"/>
+      <c r="X17" s="131" t="s">
         <v>416</v>
       </c>
-      <c r="Y17" s="104" t="s">
+      <c r="Y17" s="108" t="s">
         <v>430</v>
       </c>
       <c r="Z17" s="55" t="s">
         <v>438</v>
       </c>
-      <c r="AA17" s="91" t="s">
+      <c r="AA17" s="94" t="s">
         <v>252</v>
       </c>
       <c r="AB17" s="57" t="s">
         <v>478</v>
       </c>
-      <c r="AC17" s="114"/>
+      <c r="AC17" s="133"/>
       <c r="AD17" s="55"/>
       <c r="AE17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AF17" s="92"/>
+      <c r="AF17" s="93"/>
       <c r="AG17" s="90"/>
       <c r="AH17" s="90"/>
       <c r="AI17" s="90"/>
-      <c r="AJ17" s="114"/>
-      <c r="AK17" s="97"/>
+      <c r="AJ17" s="133"/>
+      <c r="AK17" s="95"/>
       <c r="AL17" s="90" t="s">
         <v>572</v>
       </c>
       <c r="AM17" s="96"/>
-      <c r="AN17" s="92"/>
-      <c r="AO17" s="108"/>
-      <c r="AP17" s="108"/>
-      <c r="AQ17" s="112"/>
-      <c r="AR17" s="91" t="s">
+      <c r="AN17" s="93"/>
+      <c r="AO17" s="129"/>
+      <c r="AP17" s="129"/>
+      <c r="AQ17" s="127"/>
+      <c r="AR17" s="94" t="s">
         <v>45</v>
       </c>
       <c r="AS17" s="90"/>
@@ -50051,14 +50094,14 @@
         <v>13</v>
       </c>
       <c r="AY17" s="90"/>
-      <c r="AZ17" s="98"/>
+      <c r="AZ17" s="102"/>
       <c r="BA17" s="90"/>
-      <c r="BB17" s="98"/>
-      <c r="BC17" s="97"/>
-      <c r="BD17" s="111"/>
+      <c r="BB17" s="102"/>
+      <c r="BC17" s="95"/>
+      <c r="BD17" s="125"/>
       <c r="BE17" s="90"/>
       <c r="BF17" s="96"/>
-      <c r="BG17" s="109"/>
+      <c r="BG17" s="118"/>
       <c r="BH17" s="90" t="s">
         <v>13</v>
       </c>
@@ -50070,9 +50113,9 @@
       </c>
       <c r="BK17" s="90"/>
       <c r="BL17" s="90"/>
-      <c r="BM17" s="131"/>
-      <c r="BN17" s="129"/>
-      <c r="BO17" s="98"/>
+      <c r="BM17" s="115"/>
+      <c r="BN17" s="123"/>
+      <c r="BO17" s="102"/>
       <c r="BP17" s="90"/>
       <c r="BQ17" s="90" t="s">
         <v>17</v>
@@ -50080,17 +50123,17 @@
       <c r="BR17" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BS17" s="98"/>
-      <c r="BT17" s="91"/>
-      <c r="BU17" s="91"/>
-      <c r="BV17" s="91" t="s">
+      <c r="BS17" s="102"/>
+      <c r="BT17" s="94"/>
+      <c r="BU17" s="94"/>
+      <c r="BV17" s="94" t="s">
         <v>159</v>
       </c>
-      <c r="BW17" s="91" t="s">
+      <c r="BW17" s="94" t="s">
         <v>726</v>
       </c>
-      <c r="BX17" s="144"/>
-      <c r="BY17" s="149"/>
+      <c r="BX17" s="98"/>
+      <c r="BY17" s="92"/>
       <c r="CA17" s="2"/>
       <c r="CB17" s="2"/>
       <c r="CC17" s="2"/>
@@ -50109,49 +50152,49 @@
       <c r="C18" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="106"/>
-      <c r="E18" s="115" t="s">
+      <c r="D18" s="124"/>
+      <c r="E18" s="126" t="s">
         <v>91</v>
       </c>
       <c r="F18" s="96"/>
-      <c r="G18" s="117"/>
+      <c r="G18" s="139"/>
       <c r="H18" s="62" t="s">
         <v>140</v>
       </c>
       <c r="I18" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="J18" s="91"/>
+      <c r="J18" s="94"/>
       <c r="K18" s="62" t="s">
         <v>218</v>
       </c>
       <c r="L18" s="90"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="104"/>
-      <c r="R18" s="104" t="s">
+      <c r="M18" s="102"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="102"/>
+      <c r="P18" s="124"/>
+      <c r="Q18" s="108"/>
+      <c r="R18" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="S18" s="104" t="s">
+      <c r="S18" s="108" t="s">
         <v>331</v>
       </c>
       <c r="T18" s="90" t="s">
         <v>365</v>
       </c>
-      <c r="U18" s="104" t="s">
+      <c r="U18" s="108" t="s">
         <v>379</v>
       </c>
-      <c r="V18" s="101"/>
-      <c r="W18" s="101"/>
-      <c r="X18" s="107"/>
-      <c r="Y18" s="104"/>
+      <c r="V18" s="117"/>
+      <c r="W18" s="117"/>
+      <c r="X18" s="131"/>
+      <c r="Y18" s="108"/>
       <c r="Z18" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AA18" s="91"/>
-      <c r="AB18" s="97" t="s">
+      <c r="AA18" s="94"/>
+      <c r="AB18" s="95" t="s">
         <v>477</v>
       </c>
       <c r="AC18" s="90" t="s">
@@ -50163,28 +50206,28 @@
       <c r="AE18" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AF18" s="92"/>
+      <c r="AF18" s="93"/>
       <c r="AG18" s="55" t="s">
         <v>96</v>
       </c>
       <c r="AH18" s="90"/>
       <c r="AI18" s="90"/>
-      <c r="AJ18" s="114"/>
+      <c r="AJ18" s="133"/>
       <c r="AK18" s="90" t="s">
         <v>17</v>
       </c>
       <c r="AL18" s="90"/>
-      <c r="AM18" s="104" t="s">
+      <c r="AM18" s="108" t="s">
         <v>261</v>
       </c>
       <c r="AN18" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="AO18" s="108"/>
-      <c r="AP18" s="108"/>
-      <c r="AQ18" s="112"/>
-      <c r="AR18" s="91"/>
-      <c r="AS18" s="106" t="s">
+      <c r="AO18" s="129"/>
+      <c r="AP18" s="129"/>
+      <c r="AQ18" s="127"/>
+      <c r="AR18" s="94"/>
+      <c r="AS18" s="124" t="s">
         <v>177</v>
       </c>
       <c r="AT18" s="96"/>
@@ -50196,17 +50239,17 @@
         <v>177</v>
       </c>
       <c r="AX18" s="90"/>
-      <c r="AY18" s="111" t="s">
+      <c r="AY18" s="125" t="s">
         <v>660</v>
       </c>
-      <c r="AZ18" s="106" t="s">
+      <c r="AZ18" s="124" t="s">
         <v>193</v>
       </c>
-      <c r="BA18" s="106" t="s">
+      <c r="BA18" s="124" t="s">
         <v>177</v>
       </c>
-      <c r="BB18" s="98"/>
-      <c r="BC18" s="106" t="s">
+      <c r="BB18" s="102"/>
+      <c r="BC18" s="124" t="s">
         <v>177</v>
       </c>
       <c r="BD18" s="90" t="s">
@@ -50216,25 +50259,25 @@
         <v>13</v>
       </c>
       <c r="BF18" s="96"/>
-      <c r="BG18" s="109"/>
+      <c r="BG18" s="118"/>
       <c r="BH18" s="90"/>
       <c r="BI18" s="90"/>
       <c r="BJ18" s="90"/>
       <c r="BK18" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BL18" s="105" t="s">
+      <c r="BL18" s="119" t="s">
         <v>693</v>
       </c>
-      <c r="BM18" s="131"/>
-      <c r="BN18" s="129"/>
-      <c r="BO18" s="98" t="s">
+      <c r="BM18" s="115"/>
+      <c r="BN18" s="123"/>
+      <c r="BO18" s="102" t="s">
         <v>700</v>
       </c>
       <c r="BP18" s="90"/>
       <c r="BQ18" s="90"/>
       <c r="BR18" s="90"/>
-      <c r="BS18" s="91" t="s">
+      <c r="BS18" s="94" t="s">
         <v>45</v>
       </c>
       <c r="BT18" s="96" t="s">
@@ -50243,10 +50286,10 @@
       <c r="BU18" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="BV18" s="91"/>
-      <c r="BW18" s="91"/>
-      <c r="BX18" s="145"/>
-      <c r="BY18" s="148" t="s">
+      <c r="BV18" s="94"/>
+      <c r="BW18" s="94"/>
+      <c r="BX18" s="99"/>
+      <c r="BY18" s="91" t="s">
         <v>781</v>
       </c>
       <c r="BZ18" s="65"/>
@@ -50277,59 +50320,59 @@
       <c r="D19" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="115"/>
+      <c r="E19" s="126"/>
       <c r="F19" s="96"/>
-      <c r="G19" s="118" t="s">
+      <c r="G19" s="140" t="s">
         <v>123</v>
       </c>
       <c r="H19" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="I19" s="97" t="s">
+      <c r="I19" s="95" t="s">
         <v>179</v>
       </c>
-      <c r="J19" s="97" t="s">
+      <c r="J19" s="95" t="s">
         <v>196</v>
       </c>
-      <c r="K19" s="91" t="s">
+      <c r="K19" s="94" t="s">
         <v>219</v>
       </c>
       <c r="L19" s="90"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="98"/>
-      <c r="P19" s="111" t="s">
+      <c r="M19" s="102"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="102"/>
+      <c r="P19" s="125" t="s">
         <v>287</v>
       </c>
       <c r="Q19" s="63" t="s">
         <v>292</v>
       </c>
-      <c r="R19" s="104"/>
-      <c r="S19" s="104"/>
+      <c r="R19" s="108"/>
+      <c r="S19" s="108"/>
       <c r="T19" s="90"/>
-      <c r="U19" s="104"/>
-      <c r="V19" s="101"/>
-      <c r="W19" s="101"/>
+      <c r="U19" s="108"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="117"/>
       <c r="X19" s="55" t="s">
         <v>409</v>
       </c>
-      <c r="Y19" s="104"/>
+      <c r="Y19" s="108"/>
       <c r="Z19" s="52" t="s">
         <v>439</v>
       </c>
-      <c r="AA19" s="91"/>
-      <c r="AB19" s="97"/>
+      <c r="AA19" s="94"/>
+      <c r="AB19" s="95"/>
       <c r="AC19" s="90"/>
       <c r="AD19" s="90"/>
       <c r="AE19" s="90"/>
-      <c r="AF19" s="92"/>
+      <c r="AF19" s="93"/>
       <c r="AG19" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="AH19" s="109" t="s">
+      <c r="AH19" s="118" t="s">
         <v>553</v>
       </c>
-      <c r="AI19" s="109" t="s">
+      <c r="AI19" s="118" t="s">
         <v>408</v>
       </c>
       <c r="AJ19" s="61" t="s">
@@ -50337,18 +50380,18 @@
       </c>
       <c r="AK19" s="90"/>
       <c r="AL19" s="90"/>
-      <c r="AM19" s="104"/>
+      <c r="AM19" s="108"/>
       <c r="AN19" s="55" t="s">
         <v>603</v>
       </c>
-      <c r="AO19" s="108"/>
-      <c r="AP19" s="108"/>
-      <c r="AQ19" s="112"/>
-      <c r="AR19" s="91" t="s">
+      <c r="AO19" s="129"/>
+      <c r="AP19" s="129"/>
+      <c r="AQ19" s="127"/>
+      <c r="AR19" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AS19" s="106"/>
-      <c r="AT19" s="105" t="s">
+      <c r="AS19" s="124"/>
+      <c r="AT19" s="119" t="s">
         <v>624</v>
       </c>
       <c r="AU19" s="96"/>
@@ -50356,18 +50399,18 @@
       <c r="AW19" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AX19" s="91" t="s">
+      <c r="AX19" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AY19" s="111"/>
-      <c r="AZ19" s="106"/>
-      <c r="BA19" s="106"/>
-      <c r="BB19" s="98"/>
-      <c r="BC19" s="106"/>
+      <c r="AY19" s="125"/>
+      <c r="AZ19" s="124"/>
+      <c r="BA19" s="124"/>
+      <c r="BB19" s="102"/>
+      <c r="BC19" s="124"/>
       <c r="BD19" s="90"/>
       <c r="BE19" s="90"/>
       <c r="BF19" s="96"/>
-      <c r="BG19" s="109"/>
+      <c r="BG19" s="118"/>
       <c r="BH19" s="90" t="s">
         <v>13</v>
       </c>
@@ -50378,24 +50421,24 @@
         <v>13</v>
       </c>
       <c r="BK19" s="90"/>
-      <c r="BL19" s="105"/>
-      <c r="BM19" s="132"/>
+      <c r="BL19" s="119"/>
+      <c r="BM19" s="116"/>
       <c r="BN19" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="BO19" s="98"/>
+      <c r="BO19" s="102"/>
       <c r="BP19" s="96" t="s">
         <v>697</v>
       </c>
       <c r="BQ19" s="67" t="s">
         <v>710</v>
       </c>
-      <c r="BR19" s="97" t="s">
+      <c r="BR19" s="95" t="s">
         <v>619</v>
       </c>
-      <c r="BS19" s="91"/>
+      <c r="BS19" s="94"/>
       <c r="BT19" s="96"/>
-      <c r="BU19" s="91" t="s">
+      <c r="BU19" s="94" t="s">
         <v>726</v>
       </c>
       <c r="BV19" s="87" t="s">
@@ -50407,7 +50450,7 @@
       <c r="BX19" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="BY19" s="149"/>
+      <c r="BY19" s="92"/>
       <c r="BZ19" s="65"/>
       <c r="CA19" s="65"/>
       <c r="CB19" s="65"/>
@@ -50431,31 +50474,31 @@
       <c r="A20" s="10">
         <v>0.625</v>
       </c>
-      <c r="B20" s="106" t="s">
+      <c r="B20" s="124" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="104" t="s">
+      <c r="D20" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="115"/>
-      <c r="F20" s="113" t="s">
+      <c r="E20" s="126"/>
+      <c r="F20" s="130" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="118"/>
+      <c r="G20" s="140"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="91"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="94"/>
       <c r="L20" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="M20" s="98"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="98"/>
-      <c r="P20" s="111"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="125"/>
       <c r="Q20" s="61" t="s">
         <v>291</v>
       </c>
@@ -50471,57 +50514,57 @@
       <c r="U20" s="90" t="s">
         <v>380</v>
       </c>
-      <c r="V20" s="101"/>
-      <c r="W20" s="101"/>
-      <c r="X20" s="104" t="s">
+      <c r="V20" s="117"/>
+      <c r="W20" s="117"/>
+      <c r="X20" s="108" t="s">
         <v>413</v>
       </c>
       <c r="Y20" s="51" t="s">
         <v>426</v>
       </c>
-      <c r="Z20" s="97" t="s">
+      <c r="Z20" s="95" t="s">
         <v>441</v>
       </c>
       <c r="AA20" s="62" t="s">
         <v>450</v>
       </c>
-      <c r="AB20" s="97"/>
+      <c r="AB20" s="95"/>
       <c r="AC20" s="90" t="s">
         <v>487</v>
       </c>
       <c r="AD20" s="90"/>
       <c r="AE20" s="90"/>
-      <c r="AF20" s="92"/>
-      <c r="AG20" s="104" t="s">
+      <c r="AF20" s="93"/>
+      <c r="AG20" s="108" t="s">
         <v>536</v>
       </c>
-      <c r="AH20" s="109"/>
-      <c r="AI20" s="109"/>
+      <c r="AH20" s="118"/>
+      <c r="AI20" s="118"/>
       <c r="AJ20" s="96" t="s">
         <v>560</v>
       </c>
-      <c r="AK20" s="91" t="s">
+      <c r="AK20" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AL20" s="91" t="s">
+      <c r="AL20" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AM20" s="105" t="s">
+      <c r="AM20" s="119" t="s">
         <v>596</v>
       </c>
       <c r="AN20" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AO20" s="108"/>
-      <c r="AP20" s="108"/>
-      <c r="AQ20" s="112" t="s">
+      <c r="AO20" s="129"/>
+      <c r="AP20" s="129"/>
+      <c r="AQ20" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="AR20" s="91"/>
+      <c r="AR20" s="94"/>
       <c r="AS20" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AT20" s="105"/>
+      <c r="AT20" s="119"/>
       <c r="AU20" s="96" t="s">
         <v>633</v>
       </c>
@@ -50529,22 +50572,22 @@
         <v>633</v>
       </c>
       <c r="AW20" s="90"/>
-      <c r="AX20" s="91"/>
-      <c r="AY20" s="111"/>
-      <c r="AZ20" s="112" t="s">
+      <c r="AX20" s="94"/>
+      <c r="AY20" s="125"/>
+      <c r="AZ20" s="127" t="s">
         <v>669</v>
       </c>
       <c r="BA20" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BB20" s="98"/>
+      <c r="BB20" s="102"/>
       <c r="BC20" s="90" t="s">
         <v>13</v>
       </c>
       <c r="BD20" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BE20" s="91" t="s">
+      <c r="BE20" s="94" t="s">
         <v>45</v>
       </c>
       <c r="BF20" s="96"/>
@@ -50554,37 +50597,37 @@
       <c r="BH20" s="90"/>
       <c r="BI20" s="96"/>
       <c r="BJ20" s="90"/>
-      <c r="BK20" s="98" t="s">
+      <c r="BK20" s="102" t="s">
         <v>670</v>
       </c>
-      <c r="BL20" s="105"/>
-      <c r="BM20" s="98" t="s">
+      <c r="BL20" s="119"/>
+      <c r="BM20" s="102" t="s">
         <v>670</v>
       </c>
       <c r="BN20" s="90"/>
-      <c r="BO20" s="97" t="s">
+      <c r="BO20" s="95" t="s">
         <v>701</v>
       </c>
       <c r="BP20" s="96"/>
       <c r="BQ20" s="96" t="s">
         <v>711</v>
       </c>
-      <c r="BR20" s="97"/>
-      <c r="BS20" s="133" t="s">
+      <c r="BR20" s="95"/>
+      <c r="BS20" s="109" t="s">
         <v>723</v>
       </c>
-      <c r="BT20" s="133" t="s">
+      <c r="BT20" s="109" t="s">
         <v>729</v>
       </c>
-      <c r="BU20" s="91"/>
+      <c r="BU20" s="94"/>
       <c r="BV20" s="88" t="s">
         <v>769</v>
       </c>
-      <c r="BW20" s="92" t="s">
+      <c r="BW20" s="93" t="s">
         <v>767</v>
       </c>
       <c r="BX20" s="90"/>
-      <c r="BY20" s="148" t="s">
+      <c r="BY20" s="91" t="s">
         <v>780</v>
       </c>
       <c r="BZ20" s="65"/>
@@ -50610,87 +50653,87 @@
       <c r="A21" s="10">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B21" s="106"/>
+      <c r="B21" s="124"/>
       <c r="C21" s="90"/>
-      <c r="D21" s="104"/>
+      <c r="D21" s="108"/>
       <c r="E21" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="113"/>
-      <c r="G21" s="118"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="140"/>
       <c r="H21" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="I21" s="91" t="s">
+      <c r="I21" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="115" t="s">
+      <c r="J21" s="126" t="s">
         <v>197</v>
       </c>
       <c r="K21" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="L21" s="91" t="s">
+      <c r="L21" s="94" t="s">
         <v>242</v>
       </c>
-      <c r="M21" s="98"/>
+      <c r="M21" s="102"/>
       <c r="N21" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="O21" s="91" t="s">
+      <c r="O21" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="P21" s="111"/>
-      <c r="Q21" s="91" t="s">
+      <c r="P21" s="125"/>
+      <c r="Q21" s="94" t="s">
         <v>298</v>
       </c>
       <c r="R21" s="90"/>
-      <c r="S21" s="91" t="s">
+      <c r="S21" s="94" t="s">
         <v>327</v>
       </c>
-      <c r="T21" s="98" t="s">
+      <c r="T21" s="102" t="s">
         <v>367</v>
       </c>
       <c r="U21" s="90"/>
-      <c r="V21" s="106" t="s">
+      <c r="V21" s="124" t="s">
         <v>390</v>
       </c>
       <c r="W21" s="61" t="s">
         <v>404</v>
       </c>
-      <c r="X21" s="104"/>
-      <c r="Y21" s="104" t="s">
+      <c r="X21" s="108"/>
+      <c r="Y21" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="Z21" s="97"/>
-      <c r="AA21" s="110" t="s">
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="128" t="s">
         <v>463</v>
       </c>
-      <c r="AB21" s="111" t="s">
+      <c r="AB21" s="125" t="s">
         <v>473</v>
       </c>
       <c r="AC21" s="90"/>
       <c r="AD21" s="90"/>
       <c r="AE21" s="90"/>
-      <c r="AF21" s="92"/>
-      <c r="AG21" s="104"/>
-      <c r="AH21" s="109"/>
-      <c r="AI21" s="109"/>
+      <c r="AF21" s="93"/>
+      <c r="AG21" s="108"/>
+      <c r="AH21" s="118"/>
+      <c r="AI21" s="118"/>
       <c r="AJ21" s="96"/>
-      <c r="AK21" s="91"/>
-      <c r="AL21" s="91"/>
-      <c r="AM21" s="105"/>
+      <c r="AK21" s="94"/>
+      <c r="AL21" s="94"/>
+      <c r="AM21" s="119"/>
       <c r="AN21" s="53" t="s">
         <v>604</v>
       </c>
-      <c r="AO21" s="108"/>
-      <c r="AP21" s="108"/>
-      <c r="AQ21" s="112"/>
-      <c r="AR21" s="112" t="s">
+      <c r="AO21" s="129"/>
+      <c r="AP21" s="129"/>
+      <c r="AQ21" s="127"/>
+      <c r="AR21" s="127" t="s">
         <v>199</v>
       </c>
       <c r="AS21" s="90"/>
-      <c r="AT21" s="91" t="s">
+      <c r="AT21" s="94" t="s">
         <v>626</v>
       </c>
       <c r="AU21" s="96"/>
@@ -50698,56 +50741,56 @@
       <c r="AW21" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AX21" s="111" t="s">
+      <c r="AX21" s="125" t="s">
         <v>656</v>
       </c>
       <c r="AY21" s="96" t="s">
         <v>661</v>
       </c>
-      <c r="AZ21" s="112"/>
+      <c r="AZ21" s="127"/>
       <c r="BA21" s="90"/>
-      <c r="BB21" s="98"/>
+      <c r="BB21" s="102"/>
       <c r="BC21" s="90"/>
       <c r="BD21" s="90"/>
-      <c r="BE21" s="91"/>
+      <c r="BE21" s="94"/>
       <c r="BF21" s="96"/>
       <c r="BG21" s="90"/>
-      <c r="BH21" s="91" t="s">
+      <c r="BH21" s="94" t="s">
         <v>45</v>
       </c>
       <c r="BI21" s="96" t="s">
         <v>688</v>
       </c>
-      <c r="BJ21" s="98" t="s">
+      <c r="BJ21" s="102" t="s">
         <v>670</v>
       </c>
-      <c r="BK21" s="98"/>
-      <c r="BL21" s="105"/>
-      <c r="BM21" s="98"/>
-      <c r="BN21" s="93" t="s">
+      <c r="BK21" s="102"/>
+      <c r="BL21" s="119"/>
+      <c r="BM21" s="102"/>
+      <c r="BN21" s="120" t="s">
         <v>695</v>
       </c>
-      <c r="BO21" s="97"/>
-      <c r="BP21" s="104" t="s">
+      <c r="BO21" s="95"/>
+      <c r="BP21" s="108" t="s">
         <v>702</v>
       </c>
       <c r="BQ21" s="96"/>
-      <c r="BR21" s="91" t="s">
+      <c r="BR21" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="BS21" s="134"/>
-      <c r="BT21" s="134"/>
-      <c r="BU21" s="91" t="s">
+      <c r="BS21" s="110"/>
+      <c r="BT21" s="110"/>
+      <c r="BU21" s="94" t="s">
         <v>726</v>
       </c>
-      <c r="BV21" s="92" t="s">
+      <c r="BV21" s="93" t="s">
         <v>767</v>
       </c>
-      <c r="BW21" s="91"/>
+      <c r="BW21" s="94"/>
       <c r="BX21" s="13" t="s">
         <v>777</v>
       </c>
-      <c r="BY21" s="149"/>
+      <c r="BY21" s="92"/>
       <c r="BZ21" s="65"/>
       <c r="CA21" s="65"/>
       <c r="CB21" s="65"/>
@@ -50774,58 +50817,58 @@
       <c r="B22" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="106" t="s">
+      <c r="C22" s="124" t="s">
         <v>66</v>
       </c>
       <c r="D22" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="91" t="s">
+      <c r="E22" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="113"/>
-      <c r="G22" s="105" t="s">
+      <c r="F22" s="130"/>
+      <c r="G22" s="119" t="s">
         <v>124</v>
       </c>
       <c r="H22" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="I22" s="91"/>
-      <c r="J22" s="115"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="126"/>
       <c r="K22" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="L22" s="91"/>
-      <c r="M22" s="98"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="102"/>
       <c r="N22" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="O22" s="91"/>
-      <c r="P22" s="111"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="105" t="s">
+      <c r="O22" s="94"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="119" t="s">
         <v>317</v>
       </c>
-      <c r="S22" s="91"/>
-      <c r="T22" s="98"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="102"/>
       <c r="U22" s="90"/>
-      <c r="V22" s="106"/>
-      <c r="W22" s="91" t="s">
+      <c r="V22" s="124"/>
+      <c r="W22" s="94" t="s">
         <v>405</v>
       </c>
-      <c r="X22" s="104" t="s">
+      <c r="X22" s="108" t="s">
         <v>414</v>
       </c>
-      <c r="Y22" s="104"/>
-      <c r="Z22" s="104" t="s">
+      <c r="Y22" s="108"/>
+      <c r="Z22" s="108" t="s">
         <v>442</v>
       </c>
-      <c r="AA22" s="110"/>
-      <c r="AB22" s="111"/>
-      <c r="AC22" s="104" t="s">
+      <c r="AA22" s="128"/>
+      <c r="AB22" s="125"/>
+      <c r="AC22" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="AD22" s="104" t="s">
+      <c r="AD22" s="108" t="s">
         <v>503</v>
       </c>
       <c r="AE22" s="52" t="s">
@@ -50834,16 +50877,16 @@
       <c r="AF22" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="AG22" s="104"/>
-      <c r="AH22" s="109"/>
-      <c r="AI22" s="109"/>
+      <c r="AG22" s="108"/>
+      <c r="AH22" s="118"/>
+      <c r="AI22" s="118"/>
       <c r="AJ22" s="90" t="s">
         <v>561</v>
       </c>
       <c r="AK22" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AL22" s="113" t="s">
+      <c r="AL22" s="130" t="s">
         <v>96</v>
       </c>
       <c r="AM22" s="90" t="s">
@@ -50852,20 +50895,20 @@
       <c r="AN22" s="96" t="s">
         <v>605</v>
       </c>
-      <c r="AO22" s="108"/>
-      <c r="AP22" s="108"/>
-      <c r="AQ22" s="112"/>
-      <c r="AR22" s="112"/>
+      <c r="AO22" s="129"/>
+      <c r="AP22" s="129"/>
+      <c r="AQ22" s="127"/>
+      <c r="AR22" s="127"/>
       <c r="AS22" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AT22" s="91"/>
+      <c r="AT22" s="94"/>
       <c r="AU22" s="96"/>
       <c r="AV22" s="96"/>
       <c r="AW22" s="90"/>
-      <c r="AX22" s="111"/>
+      <c r="AX22" s="125"/>
       <c r="AY22" s="96"/>
-      <c r="AZ22" s="112"/>
+      <c r="AZ22" s="127"/>
       <c r="BA22" s="90" t="s">
         <v>13</v>
       </c>
@@ -50875,7 +50918,7 @@
       <c r="BC22" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="BD22" s="109" t="s">
+      <c r="BD22" s="118" t="s">
         <v>647</v>
       </c>
       <c r="BE22" s="90" t="s">
@@ -50885,38 +50928,38 @@
       <c r="BG22" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BH22" s="91"/>
+      <c r="BH22" s="94"/>
       <c r="BI22" s="96"/>
-      <c r="BJ22" s="98"/>
-      <c r="BK22" s="91" t="s">
+      <c r="BJ22" s="102"/>
+      <c r="BK22" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="BL22" s="105"/>
-      <c r="BM22" s="91" t="s">
+      <c r="BL22" s="119"/>
+      <c r="BM22" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="BN22" s="94"/>
+      <c r="BN22" s="122"/>
       <c r="BO22" s="96" t="s">
         <v>697</v>
       </c>
-      <c r="BP22" s="104"/>
-      <c r="BQ22" s="98" t="s">
+      <c r="BP22" s="108"/>
+      <c r="BQ22" s="102" t="s">
         <v>670</v>
       </c>
-      <c r="BR22" s="91"/>
-      <c r="BS22" s="97" t="s">
+      <c r="BR22" s="94"/>
+      <c r="BS22" s="95" t="s">
         <v>723</v>
       </c>
-      <c r="BT22" s="98" t="s">
+      <c r="BT22" s="102" t="s">
         <v>647</v>
       </c>
-      <c r="BU22" s="91"/>
-      <c r="BV22" s="91"/>
-      <c r="BW22" s="92" t="s">
+      <c r="BU22" s="94"/>
+      <c r="BV22" s="94"/>
+      <c r="BW22" s="93" t="s">
         <v>767</v>
       </c>
       <c r="BX22" s="13"/>
-      <c r="BY22" s="92" t="s">
+      <c r="BY22" s="93" t="s">
         <v>782</v>
       </c>
       <c r="BZ22" s="65"/>
@@ -50942,64 +50985,64 @@
       <c r="A23" s="10">
         <v>0.6875</v>
       </c>
-      <c r="B23" s="106" t="s">
+      <c r="B23" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="106"/>
+      <c r="C23" s="124"/>
       <c r="D23" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="91"/>
-      <c r="F23" s="105" t="s">
+      <c r="E23" s="94"/>
+      <c r="F23" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="105"/>
-      <c r="H23" s="113" t="s">
+      <c r="G23" s="119"/>
+      <c r="H23" s="130" t="s">
         <v>146</v>
       </c>
-      <c r="I23" s="91"/>
-      <c r="J23" s="92" t="s">
+      <c r="I23" s="94"/>
+      <c r="J23" s="93" t="s">
         <v>198</v>
       </c>
       <c r="K23" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="L23" s="115" t="s">
+      <c r="L23" s="126" t="s">
         <v>243</v>
       </c>
-      <c r="M23" s="98"/>
-      <c r="N23" s="115" t="s">
+      <c r="M23" s="102"/>
+      <c r="N23" s="126" t="s">
         <v>265</v>
       </c>
-      <c r="O23" s="105" t="s">
+      <c r="O23" s="119" t="s">
         <v>274</v>
       </c>
-      <c r="P23" s="111"/>
-      <c r="Q23" s="104" t="s">
+      <c r="P23" s="125"/>
+      <c r="Q23" s="108" t="s">
         <v>290</v>
       </c>
-      <c r="R23" s="105"/>
-      <c r="S23" s="91"/>
-      <c r="T23" s="98"/>
+      <c r="R23" s="119"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="102"/>
       <c r="U23" s="96" t="s">
         <v>381</v>
       </c>
       <c r="V23" s="96" t="s">
         <v>391</v>
       </c>
-      <c r="W23" s="91"/>
-      <c r="X23" s="104"/>
-      <c r="Y23" s="98" t="s">
+      <c r="W23" s="94"/>
+      <c r="X23" s="108"/>
+      <c r="Y23" s="102" t="s">
         <v>427</v>
       </c>
-      <c r="Z23" s="104"/>
+      <c r="Z23" s="108"/>
       <c r="AA23" s="52" t="s">
         <v>465</v>
       </c>
-      <c r="AB23" s="111"/>
-      <c r="AC23" s="104"/>
-      <c r="AD23" s="104"/>
-      <c r="AE23" s="104" t="s">
+      <c r="AB23" s="125"/>
+      <c r="AC23" s="108"/>
+      <c r="AD23" s="108"/>
+      <c r="AE23" s="108" t="s">
         <v>45</v>
       </c>
       <c r="AF23" s="51" t="s">
@@ -51008,72 +51051,72 @@
       <c r="AG23" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="AH23" s="109"/>
-      <c r="AI23" s="109"/>
+      <c r="AH23" s="118"/>
+      <c r="AI23" s="118"/>
       <c r="AJ23" s="90"/>
       <c r="AK23" s="90"/>
-      <c r="AL23" s="113"/>
+      <c r="AL23" s="130"/>
       <c r="AM23" s="90"/>
       <c r="AN23" s="96"/>
-      <c r="AO23" s="108"/>
-      <c r="AP23" s="108"/>
-      <c r="AQ23" s="112"/>
-      <c r="AR23" s="112"/>
+      <c r="AO23" s="129"/>
+      <c r="AP23" s="129"/>
+      <c r="AQ23" s="127"/>
+      <c r="AR23" s="127"/>
       <c r="AS23" s="90"/>
       <c r="AT23" s="90" t="s">
         <v>13</v>
       </c>
       <c r="AU23" s="96"/>
       <c r="AV23" s="96"/>
-      <c r="AW23" s="110" t="s">
+      <c r="AW23" s="128" t="s">
         <v>646</v>
       </c>
-      <c r="AX23" s="111"/>
+      <c r="AX23" s="125"/>
       <c r="AY23" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="AZ23" s="112"/>
+      <c r="AZ23" s="127"/>
       <c r="BA23" s="90"/>
       <c r="BB23" s="90" t="s">
         <v>17</v>
       </c>
       <c r="BC23" s="90"/>
-      <c r="BD23" s="109"/>
+      <c r="BD23" s="118"/>
       <c r="BE23" s="90"/>
       <c r="BF23" s="96"/>
       <c r="BG23" s="90"/>
-      <c r="BH23" s="91"/>
+      <c r="BH23" s="94"/>
       <c r="BI23" s="96" t="s">
         <v>689</v>
       </c>
-      <c r="BJ23" s="91" t="s">
+      <c r="BJ23" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="BK23" s="91"/>
-      <c r="BL23" s="105"/>
-      <c r="BM23" s="91"/>
-      <c r="BN23" s="94"/>
+      <c r="BK23" s="94"/>
+      <c r="BL23" s="119"/>
+      <c r="BM23" s="94"/>
+      <c r="BN23" s="122"/>
       <c r="BO23" s="96"/>
       <c r="BP23" s="67" t="s">
         <v>707</v>
       </c>
-      <c r="BQ23" s="98"/>
+      <c r="BQ23" s="102"/>
       <c r="BR23" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BS23" s="97"/>
-      <c r="BT23" s="98"/>
+      <c r="BS23" s="95"/>
+      <c r="BT23" s="102"/>
       <c r="BU23" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BV23" s="92" t="s">
+      <c r="BV23" s="93" t="s">
         <v>767</v>
       </c>
-      <c r="BW23" s="91"/>
-      <c r="BX23" s="147" t="s">
+      <c r="BW23" s="94"/>
+      <c r="BX23" s="100" t="s">
         <v>779</v>
       </c>
-      <c r="BY23" s="91"/>
+      <c r="BY23" s="94"/>
       <c r="BZ23" s="65"/>
       <c r="CA23" s="65"/>
       <c r="CB23" s="65"/>
@@ -51097,50 +51140,50 @@
       <c r="A24" s="10">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="124"/>
       <c r="D24" s="96"/>
       <c r="E24" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="105"/>
+      <c r="F24" s="119"/>
       <c r="G24" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="H24" s="113"/>
+      <c r="H24" s="130"/>
       <c r="I24" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="J24" s="92"/>
-      <c r="K24" s="115" t="s">
+      <c r="J24" s="93"/>
+      <c r="K24" s="126" t="s">
         <v>207</v>
       </c>
-      <c r="L24" s="115"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="115"/>
-      <c r="O24" s="105"/>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="104"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="108"/>
       <c r="R24" s="90" t="s">
         <v>17</v>
       </c>
       <c r="S24" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="T24" s="98"/>
+      <c r="T24" s="102"/>
       <c r="U24" s="96"/>
       <c r="V24" s="96"/>
       <c r="W24" s="62" t="s">
         <v>402</v>
       </c>
-      <c r="X24" s="107" t="s">
+      <c r="X24" s="131" t="s">
         <v>417</v>
       </c>
-      <c r="Y24" s="98"/>
+      <c r="Y24" s="102"/>
       <c r="Z24" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="AA24" s="104" t="s">
+      <c r="AA24" s="108" t="s">
         <v>45</v>
       </c>
       <c r="AB24" s="51" t="s">
@@ -51152,8 +51195,8 @@
       <c r="AD24" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AE24" s="104"/>
-      <c r="AF24" s="104" t="s">
+      <c r="AE24" s="108"/>
+      <c r="AF24" s="108" t="s">
         <v>261</v>
       </c>
       <c r="AG24" s="51" t="s">
@@ -51165,7 +51208,7 @@
       <c r="AI24" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="AJ24" s="106" t="s">
+      <c r="AJ24" s="124" t="s">
         <v>177</v>
       </c>
       <c r="AK24" s="51" t="s">
@@ -51174,16 +51217,16 @@
       <c r="AL24" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="AM24" s="98" t="s">
+      <c r="AM24" s="102" t="s">
         <v>597</v>
       </c>
       <c r="AN24" s="51" t="s">
         <v>606</v>
       </c>
-      <c r="AO24" s="108"/>
-      <c r="AP24" s="108"/>
-      <c r="AQ24" s="112"/>
-      <c r="AR24" s="112"/>
+      <c r="AO24" s="129"/>
+      <c r="AP24" s="129"/>
+      <c r="AQ24" s="127"/>
+      <c r="AR24" s="127"/>
       <c r="AS24" s="90" t="s">
         <v>13</v>
       </c>
@@ -51194,26 +51237,26 @@
       <c r="AV24" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="AW24" s="110"/>
-      <c r="AX24" s="98" t="s">
+      <c r="AW24" s="128"/>
+      <c r="AX24" s="102" t="s">
         <v>654</v>
       </c>
       <c r="AY24" s="57" t="s">
         <v>662</v>
       </c>
-      <c r="AZ24" s="112"/>
-      <c r="BA24" s="91" t="s">
+      <c r="AZ24" s="127"/>
+      <c r="BA24" s="94" t="s">
         <v>45</v>
       </c>
       <c r="BB24" s="90"/>
-      <c r="BC24" s="108" t="s">
+      <c r="BC24" s="129" t="s">
         <v>674</v>
       </c>
-      <c r="BD24" s="109"/>
-      <c r="BE24" s="109" t="s">
+      <c r="BD24" s="118"/>
+      <c r="BE24" s="118" t="s">
         <v>681</v>
       </c>
-      <c r="BF24" s="93" t="s">
+      <c r="BF24" s="120" t="s">
         <v>679</v>
       </c>
       <c r="BG24" s="90" t="s">
@@ -51223,32 +51266,32 @@
         <v>17</v>
       </c>
       <c r="BI24" s="96"/>
-      <c r="BJ24" s="91"/>
-      <c r="BK24" s="91"/>
-      <c r="BL24" s="105"/>
-      <c r="BM24" s="91"/>
-      <c r="BN24" s="94"/>
+      <c r="BJ24" s="94"/>
+      <c r="BK24" s="94"/>
+      <c r="BL24" s="119"/>
+      <c r="BM24" s="94"/>
+      <c r="BN24" s="122"/>
       <c r="BO24" s="96"/>
       <c r="BP24" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BQ24" s="91" t="s">
+      <c r="BQ24" s="94" t="s">
         <v>702</v>
       </c>
       <c r="BR24" s="90"/>
       <c r="BS24" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BT24" s="98" t="s">
+      <c r="BT24" s="102" t="s">
         <v>647</v>
       </c>
       <c r="BU24" s="90"/>
-      <c r="BV24" s="91"/>
+      <c r="BV24" s="94"/>
       <c r="BW24" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BX24" s="146"/>
-      <c r="BY24" s="148" t="s">
+      <c r="BX24" s="101"/>
+      <c r="BY24" s="91" t="s">
         <v>780</v>
       </c>
       <c r="BZ24" s="2"/>
@@ -51267,122 +51310,122 @@
       <c r="B25" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="106"/>
+      <c r="C25" s="124"/>
       <c r="D25" s="96"/>
-      <c r="E25" s="91" t="s">
+      <c r="E25" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="105"/>
-      <c r="G25" s="91" t="s">
+      <c r="F25" s="119"/>
+      <c r="G25" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="H25" s="91" t="s">
+      <c r="H25" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="I25" s="92" t="s">
+      <c r="I25" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="J25" s="111" t="s">
+      <c r="J25" s="125" t="s">
         <v>199</v>
       </c>
-      <c r="K25" s="115"/>
-      <c r="L25" s="92" t="s">
+      <c r="K25" s="126"/>
+      <c r="L25" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="M25" s="115" t="s">
+      <c r="M25" s="126" t="s">
         <v>251</v>
       </c>
-      <c r="N25" s="92" t="s">
+      <c r="N25" s="93" t="s">
         <v>266</v>
       </c>
-      <c r="O25" s="105"/>
-      <c r="P25" s="115" t="s">
+      <c r="O25" s="119"/>
+      <c r="P25" s="126" t="s">
         <v>288</v>
       </c>
-      <c r="Q25" s="124" t="s">
+      <c r="Q25" s="134" t="s">
         <v>302</v>
       </c>
       <c r="R25" s="90"/>
-      <c r="S25" s="92" t="s">
+      <c r="S25" s="93" t="s">
         <v>301</v>
       </c>
-      <c r="T25" s="98"/>
+      <c r="T25" s="102"/>
       <c r="U25" s="96"/>
       <c r="V25" s="96" t="s">
         <v>392</v>
       </c>
-      <c r="W25" s="92" t="s">
+      <c r="W25" s="93" t="s">
         <v>397</v>
       </c>
-      <c r="X25" s="107"/>
-      <c r="Y25" s="98"/>
-      <c r="Z25" s="92" t="s">
+      <c r="X25" s="131"/>
+      <c r="Y25" s="102"/>
+      <c r="Z25" s="93" t="s">
         <v>397</v>
       </c>
-      <c r="AA25" s="104"/>
-      <c r="AB25" s="92" t="s">
+      <c r="AA25" s="108"/>
+      <c r="AB25" s="93" t="s">
         <v>301</v>
       </c>
-      <c r="AC25" s="106" t="s">
+      <c r="AC25" s="124" t="s">
         <v>193</v>
       </c>
-      <c r="AD25" s="92" t="s">
+      <c r="AD25" s="93" t="s">
         <v>398</v>
       </c>
-      <c r="AE25" s="104" t="s">
+      <c r="AE25" s="108" t="s">
         <v>514</v>
       </c>
-      <c r="AF25" s="104"/>
-      <c r="AG25" s="92" t="s">
+      <c r="AF25" s="108"/>
+      <c r="AG25" s="93" t="s">
         <v>266</v>
       </c>
       <c r="AH25" s="90"/>
-      <c r="AI25" s="92" t="s">
+      <c r="AI25" s="93" t="s">
         <v>301</v>
       </c>
-      <c r="AJ25" s="106"/>
-      <c r="AK25" s="92" t="s">
+      <c r="AJ25" s="124"/>
+      <c r="AK25" s="93" t="s">
         <v>398</v>
       </c>
-      <c r="AL25" s="91" t="s">
+      <c r="AL25" s="94" t="s">
         <v>581</v>
       </c>
-      <c r="AM25" s="98"/>
-      <c r="AN25" s="92" t="s">
+      <c r="AM25" s="102"/>
+      <c r="AN25" s="93" t="s">
         <v>266</v>
       </c>
-      <c r="AO25" s="108"/>
-      <c r="AP25" s="108"/>
-      <c r="AQ25" s="112"/>
-      <c r="AR25" s="112"/>
+      <c r="AO25" s="129"/>
+      <c r="AP25" s="129"/>
+      <c r="AQ25" s="127"/>
+      <c r="AR25" s="127"/>
       <c r="AS25" s="90"/>
-      <c r="AT25" s="105" t="s">
+      <c r="AT25" s="119" t="s">
         <v>560</v>
       </c>
       <c r="AU25" s="90"/>
       <c r="AV25" s="90"/>
-      <c r="AW25" s="109" t="s">
+      <c r="AW25" s="118" t="s">
         <v>647</v>
       </c>
-      <c r="AX25" s="98"/>
-      <c r="AY25" s="92" t="s">
+      <c r="AX25" s="102"/>
+      <c r="AY25" s="93" t="s">
         <v>397</v>
       </c>
-      <c r="AZ25" s="112"/>
-      <c r="BA25" s="91"/>
-      <c r="BB25" s="92" t="s">
+      <c r="AZ25" s="127"/>
+      <c r="BA25" s="94"/>
+      <c r="BB25" s="93" t="s">
         <v>301</v>
       </c>
-      <c r="BC25" s="108"/>
-      <c r="BD25" s="109"/>
-      <c r="BE25" s="109"/>
-      <c r="BF25" s="95"/>
+      <c r="BC25" s="129"/>
+      <c r="BD25" s="118"/>
+      <c r="BE25" s="118"/>
+      <c r="BF25" s="121"/>
       <c r="BG25" s="90"/>
       <c r="BH25" s="90"/>
-      <c r="BI25" s="104" t="s">
+      <c r="BI25" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="BJ25" s="91"/>
+      <c r="BJ25" s="94"/>
       <c r="BK25" s="90" t="s">
         <v>17</v>
       </c>
@@ -51392,26 +51435,26 @@
       <c r="BM25" s="90" t="s">
         <v>694</v>
       </c>
-      <c r="BN25" s="94"/>
+      <c r="BN25" s="122"/>
       <c r="BO25" s="90" t="s">
         <v>17</v>
       </c>
       <c r="BP25" s="90"/>
-      <c r="BQ25" s="91"/>
-      <c r="BR25" s="104" t="s">
+      <c r="BQ25" s="94"/>
+      <c r="BR25" s="108" t="s">
         <v>720</v>
       </c>
       <c r="BS25" s="90"/>
-      <c r="BT25" s="98"/>
-      <c r="BU25" s="91" t="s">
+      <c r="BT25" s="102"/>
+      <c r="BU25" s="94" t="s">
         <v>726</v>
       </c>
       <c r="BV25" s="90" t="s">
         <v>17</v>
       </c>
       <c r="BW25" s="90"/>
-      <c r="BX25" s="146"/>
-      <c r="BY25" s="149"/>
+      <c r="BX25" s="101"/>
+      <c r="BY25" s="92"/>
       <c r="BZ25" s="2"/>
       <c r="CA25" s="2"/>
       <c r="CB25" s="2"/>
@@ -51425,103 +51468,103 @@
       <c r="A26" s="10">
         <v>0.75</v>
       </c>
-      <c r="B26" s="106" t="s">
+      <c r="B26" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="106"/>
+      <c r="C26" s="124"/>
       <c r="D26" s="96"/>
-      <c r="E26" s="91"/>
+      <c r="E26" s="94"/>
       <c r="F26" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="111"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="125"/>
       <c r="K26" s="56" t="s">
         <v>222</v>
       </c>
-      <c r="L26" s="92"/>
-      <c r="M26" s="115"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="105"/>
-      <c r="P26" s="115"/>
-      <c r="Q26" s="124"/>
-      <c r="R26" s="91" t="s">
+      <c r="L26" s="93"/>
+      <c r="M26" s="126"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="119"/>
+      <c r="P26" s="126"/>
+      <c r="Q26" s="134"/>
+      <c r="R26" s="94" t="s">
         <v>319</v>
       </c>
-      <c r="S26" s="92"/>
-      <c r="T26" s="98"/>
+      <c r="S26" s="93"/>
+      <c r="T26" s="102"/>
       <c r="U26" s="96"/>
       <c r="V26" s="96"/>
-      <c r="W26" s="92"/>
-      <c r="X26" s="107"/>
-      <c r="Y26" s="98"/>
-      <c r="Z26" s="92"/>
+      <c r="W26" s="93"/>
+      <c r="X26" s="131"/>
+      <c r="Y26" s="102"/>
+      <c r="Z26" s="93"/>
       <c r="AA26" s="51" t="s">
         <v>466</v>
       </c>
-      <c r="AB26" s="92"/>
-      <c r="AC26" s="106"/>
-      <c r="AD26" s="92"/>
-      <c r="AE26" s="104"/>
-      <c r="AF26" s="111" t="s">
+      <c r="AB26" s="93"/>
+      <c r="AC26" s="124"/>
+      <c r="AD26" s="93"/>
+      <c r="AE26" s="108"/>
+      <c r="AF26" s="125" t="s">
         <v>199</v>
       </c>
-      <c r="AG26" s="92"/>
+      <c r="AG26" s="93"/>
       <c r="AH26" s="90"/>
-      <c r="AI26" s="92"/>
-      <c r="AJ26" s="115" t="s">
+      <c r="AI26" s="93"/>
+      <c r="AJ26" s="126" t="s">
         <v>557</v>
       </c>
-      <c r="AK26" s="92"/>
-      <c r="AL26" s="91"/>
-      <c r="AM26" s="98"/>
-      <c r="AN26" s="92"/>
-      <c r="AO26" s="108"/>
-      <c r="AP26" s="108"/>
-      <c r="AQ26" s="112"/>
-      <c r="AR26" s="112"/>
-      <c r="AS26" s="91" t="s">
+      <c r="AK26" s="93"/>
+      <c r="AL26" s="94"/>
+      <c r="AM26" s="102"/>
+      <c r="AN26" s="93"/>
+      <c r="AO26" s="129"/>
+      <c r="AP26" s="129"/>
+      <c r="AQ26" s="127"/>
+      <c r="AR26" s="127"/>
+      <c r="AS26" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AT26" s="105"/>
-      <c r="AU26" s="92" t="s">
+      <c r="AT26" s="119"/>
+      <c r="AU26" s="93" t="s">
         <v>301</v>
       </c>
-      <c r="AV26" s="97" t="s">
+      <c r="AV26" s="95" t="s">
         <v>619</v>
       </c>
-      <c r="AW26" s="109"/>
-      <c r="AX26" s="98"/>
-      <c r="AY26" s="92"/>
-      <c r="AZ26" s="112"/>
-      <c r="BA26" s="98" t="s">
+      <c r="AW26" s="118"/>
+      <c r="AX26" s="102"/>
+      <c r="AY26" s="93"/>
+      <c r="AZ26" s="127"/>
+      <c r="BA26" s="102" t="s">
         <v>470</v>
       </c>
-      <c r="BB26" s="92"/>
-      <c r="BC26" s="91" t="s">
+      <c r="BB26" s="93"/>
+      <c r="BC26" s="94" t="s">
         <v>675</v>
       </c>
-      <c r="BD26" s="109"/>
-      <c r="BE26" s="109"/>
+      <c r="BD26" s="118"/>
+      <c r="BE26" s="118"/>
       <c r="BF26" s="90" t="s">
         <v>17</v>
       </c>
       <c r="BG26" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BH26" s="91" t="s">
+      <c r="BH26" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="BI26" s="104"/>
+      <c r="BI26" s="108"/>
       <c r="BJ26" s="90" t="s">
         <v>17</v>
       </c>
       <c r="BK26" s="90"/>
       <c r="BL26" s="90"/>
       <c r="BM26" s="90"/>
-      <c r="BN26" s="95"/>
+      <c r="BN26" s="121"/>
       <c r="BO26" s="90"/>
       <c r="BP26" s="96" t="s">
         <v>706</v>
@@ -51529,19 +51572,19 @@
       <c r="BQ26" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BR26" s="104"/>
-      <c r="BS26" s="91" t="s">
+      <c r="BR26" s="108"/>
+      <c r="BS26" s="94" t="s">
         <v>721</v>
       </c>
       <c r="BT26" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BU26" s="91"/>
+      <c r="BU26" s="94"/>
       <c r="BV26" s="90"/>
-      <c r="BW26" s="91" t="s">
+      <c r="BW26" s="94" t="s">
         <v>726</v>
       </c>
-      <c r="BX26" s="146"/>
+      <c r="BX26" s="101"/>
       <c r="BY26" s="89" t="s">
         <v>17</v>
       </c>
@@ -51568,108 +51611,108 @@
       <c r="A27" s="10">
         <v>0.77083333333333304</v>
       </c>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106" t="s">
+      <c r="B27" s="124"/>
+      <c r="C27" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="106" t="s">
+      <c r="D27" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="91"/>
+      <c r="E27" s="94"/>
       <c r="F27" s="90"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="104" t="s">
+      <c r="G27" s="94"/>
+      <c r="H27" s="108" t="s">
         <v>148</v>
       </c>
-      <c r="I27" s="92"/>
-      <c r="J27" s="111"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="125"/>
       <c r="K27" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="L27" s="92"/>
+      <c r="L27" s="93"/>
       <c r="M27" s="62" t="s">
         <v>249</v>
       </c>
-      <c r="N27" s="92"/>
-      <c r="O27" s="115" t="s">
+      <c r="N27" s="93"/>
+      <c r="O27" s="126" t="s">
         <v>276</v>
       </c>
-      <c r="P27" s="105" t="s">
+      <c r="P27" s="119" t="s">
         <v>289</v>
       </c>
-      <c r="Q27" s="124"/>
-      <c r="R27" s="91"/>
-      <c r="S27" s="92"/>
-      <c r="T27" s="98"/>
-      <c r="U27" s="111" t="s">
+      <c r="Q27" s="134"/>
+      <c r="R27" s="94"/>
+      <c r="S27" s="93"/>
+      <c r="T27" s="102"/>
+      <c r="U27" s="125" t="s">
         <v>376</v>
       </c>
       <c r="V27" s="51" t="s">
         <v>393</v>
       </c>
-      <c r="W27" s="92"/>
+      <c r="W27" s="93"/>
       <c r="X27" s="52" t="s">
         <v>118</v>
       </c>
       <c r="Y27" s="51" t="s">
         <v>431</v>
       </c>
-      <c r="Z27" s="92"/>
+      <c r="Z27" s="93"/>
       <c r="AA27" s="60" t="s">
         <v>470</v>
       </c>
-      <c r="AB27" s="92"/>
+      <c r="AB27" s="93"/>
       <c r="AC27" s="57" t="s">
         <v>489</v>
       </c>
-      <c r="AD27" s="92"/>
-      <c r="AE27" s="104"/>
-      <c r="AF27" s="111"/>
-      <c r="AG27" s="92"/>
-      <c r="AH27" s="110" t="s">
+      <c r="AD27" s="93"/>
+      <c r="AE27" s="108"/>
+      <c r="AF27" s="125"/>
+      <c r="AG27" s="93"/>
+      <c r="AH27" s="128" t="s">
         <v>463</v>
       </c>
-      <c r="AI27" s="92"/>
-      <c r="AJ27" s="115"/>
-      <c r="AK27" s="92"/>
-      <c r="AL27" s="91"/>
-      <c r="AM27" s="98"/>
-      <c r="AN27" s="92"/>
+      <c r="AI27" s="93"/>
+      <c r="AJ27" s="126"/>
+      <c r="AK27" s="93"/>
+      <c r="AL27" s="94"/>
+      <c r="AM27" s="102"/>
+      <c r="AN27" s="93"/>
       <c r="AO27" s="96" t="s">
         <v>560</v>
       </c>
-      <c r="AP27" s="108"/>
-      <c r="AQ27" s="110" t="s">
+      <c r="AP27" s="129"/>
+      <c r="AQ27" s="128" t="s">
         <v>615</v>
       </c>
-      <c r="AR27" s="112"/>
-      <c r="AS27" s="91"/>
-      <c r="AT27" s="110" t="s">
+      <c r="AR27" s="127"/>
+      <c r="AS27" s="94"/>
+      <c r="AT27" s="128" t="s">
         <v>619</v>
       </c>
-      <c r="AU27" s="92"/>
-      <c r="AV27" s="97"/>
-      <c r="AW27" s="109"/>
+      <c r="AU27" s="93"/>
+      <c r="AV27" s="95"/>
+      <c r="AW27" s="118"/>
       <c r="AX27" s="55" t="s">
         <v>655</v>
       </c>
-      <c r="AY27" s="92"/>
+      <c r="AY27" s="93"/>
       <c r="AZ27" s="53" t="s">
         <v>666</v>
       </c>
-      <c r="BA27" s="98"/>
-      <c r="BB27" s="92"/>
-      <c r="BC27" s="91"/>
-      <c r="BD27" s="109"/>
-      <c r="BE27" s="109"/>
+      <c r="BA27" s="102"/>
+      <c r="BB27" s="93"/>
+      <c r="BC27" s="94"/>
+      <c r="BD27" s="118"/>
+      <c r="BE27" s="118"/>
       <c r="BF27" s="90"/>
       <c r="BG27" s="90"/>
-      <c r="BH27" s="91"/>
+      <c r="BH27" s="94"/>
       <c r="BI27" s="90" t="s">
         <v>17</v>
       </c>
       <c r="BJ27" s="90"/>
-      <c r="BK27" s="91" t="s">
+      <c r="BK27" s="94" t="s">
         <v>45</v>
       </c>
       <c r="BL27" s="90"/>
@@ -51677,22 +51720,22 @@
       <c r="BN27" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BO27" s="104" t="s">
+      <c r="BO27" s="108" t="s">
         <v>45</v>
       </c>
       <c r="BP27" s="96"/>
       <c r="BQ27" s="90"/>
-      <c r="BR27" s="104"/>
-      <c r="BS27" s="91"/>
+      <c r="BR27" s="108"/>
+      <c r="BS27" s="94"/>
       <c r="BT27" s="90"/>
-      <c r="BU27" s="91" t="s">
+      <c r="BU27" s="94" t="s">
         <v>726</v>
       </c>
-      <c r="BV27" s="91" t="s">
+      <c r="BV27" s="94" t="s">
         <v>726</v>
       </c>
-      <c r="BW27" s="91"/>
-      <c r="BX27" s="146"/>
+      <c r="BW27" s="94"/>
+      <c r="BX27" s="101"/>
       <c r="BY27" s="89"/>
       <c r="BZ27" s="65"/>
       <c r="CA27" s="65"/>
@@ -51720,139 +51763,139 @@
       <c r="B28" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="105" t="s">
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="91"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="92"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="93"/>
       <c r="J28" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="K28" s="111" t="s">
+      <c r="K28" s="125" t="s">
         <v>224</v>
       </c>
-      <c r="L28" s="92"/>
-      <c r="M28" s="91" t="s">
+      <c r="L28" s="93"/>
+      <c r="M28" s="94" t="s">
         <v>248</v>
       </c>
-      <c r="N28" s="92"/>
-      <c r="O28" s="115"/>
-      <c r="P28" s="105"/>
-      <c r="Q28" s="124"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="126"/>
+      <c r="P28" s="119"/>
+      <c r="Q28" s="134"/>
       <c r="R28" s="60" t="s">
         <v>321</v>
       </c>
-      <c r="S28" s="92"/>
-      <c r="T28" s="98"/>
-      <c r="U28" s="111"/>
-      <c r="V28" s="104" t="s">
+      <c r="S28" s="93"/>
+      <c r="T28" s="102"/>
+      <c r="U28" s="125"/>
+      <c r="V28" s="108" t="s">
         <v>394</v>
       </c>
-      <c r="W28" s="92"/>
+      <c r="W28" s="93"/>
       <c r="X28" s="57" t="s">
         <v>299</v>
       </c>
-      <c r="Y28" s="104" t="s">
+      <c r="Y28" s="108" t="s">
         <v>428</v>
       </c>
-      <c r="Z28" s="92"/>
+      <c r="Z28" s="93"/>
       <c r="AA28" s="52" t="s">
         <v>467</v>
       </c>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="91" t="s">
+      <c r="AB28" s="93"/>
+      <c r="AC28" s="94" t="s">
         <v>488</v>
       </c>
-      <c r="AD28" s="92"/>
+      <c r="AD28" s="93"/>
       <c r="AE28" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="AF28" s="111"/>
-      <c r="AG28" s="92"/>
-      <c r="AH28" s="110"/>
-      <c r="AI28" s="92"/>
-      <c r="AJ28" s="106" t="s">
+      <c r="AF28" s="125"/>
+      <c r="AG28" s="93"/>
+      <c r="AH28" s="128"/>
+      <c r="AI28" s="93"/>
+      <c r="AJ28" s="124" t="s">
         <v>193</v>
       </c>
-      <c r="AK28" s="92"/>
-      <c r="AL28" s="91"/>
-      <c r="AM28" s="98"/>
-      <c r="AN28" s="92"/>
+      <c r="AK28" s="93"/>
+      <c r="AL28" s="94"/>
+      <c r="AM28" s="102"/>
+      <c r="AN28" s="93"/>
       <c r="AO28" s="96"/>
-      <c r="AP28" s="108"/>
-      <c r="AQ28" s="110"/>
+      <c r="AP28" s="129"/>
+      <c r="AQ28" s="128"/>
       <c r="AR28" s="51" t="s">
         <v>17</v>
       </c>
       <c r="AS28" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AT28" s="110"/>
-      <c r="AU28" s="92"/>
+      <c r="AT28" s="128"/>
+      <c r="AU28" s="93"/>
       <c r="AV28" s="53" t="s">
         <v>635</v>
       </c>
-      <c r="AW28" s="109"/>
+      <c r="AW28" s="118"/>
       <c r="AX28" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="AY28" s="92"/>
-      <c r="AZ28" s="98" t="s">
+      <c r="AY28" s="93"/>
+      <c r="AZ28" s="102" t="s">
         <v>470</v>
       </c>
-      <c r="BA28" s="98" t="s">
+      <c r="BA28" s="102" t="s">
         <v>470</v>
       </c>
-      <c r="BB28" s="92"/>
-      <c r="BC28" s="91"/>
-      <c r="BD28" s="105" t="s">
+      <c r="BB28" s="93"/>
+      <c r="BC28" s="94"/>
+      <c r="BD28" s="119" t="s">
         <v>60</v>
       </c>
       <c r="BE28" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="BF28" s="91" t="s">
+      <c r="BF28" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="BG28" s="91" t="s">
+      <c r="BG28" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="BH28" s="91"/>
+      <c r="BH28" s="94"/>
       <c r="BI28" s="90"/>
-      <c r="BJ28" s="104" t="s">
+      <c r="BJ28" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="BK28" s="91"/>
-      <c r="BL28" s="98" t="s">
+      <c r="BK28" s="94"/>
+      <c r="BL28" s="102" t="s">
         <v>691</v>
       </c>
-      <c r="BM28" s="98" t="s">
+      <c r="BM28" s="102" t="s">
         <v>691</v>
       </c>
       <c r="BN28" s="90"/>
-      <c r="BO28" s="104"/>
+      <c r="BO28" s="108"/>
       <c r="BP28" s="96"/>
-      <c r="BQ28" s="98" t="s">
+      <c r="BQ28" s="102" t="s">
         <v>670</v>
       </c>
-      <c r="BR28" s="104"/>
-      <c r="BS28" s="91" t="s">
+      <c r="BR28" s="108"/>
+      <c r="BS28" s="94" t="s">
         <v>721</v>
       </c>
-      <c r="BT28" s="91" t="s">
+      <c r="BT28" s="94" t="s">
         <v>726</v>
       </c>
-      <c r="BU28" s="91"/>
-      <c r="BV28" s="91"/>
-      <c r="BW28" s="91" t="s">
+      <c r="BU28" s="94"/>
+      <c r="BV28" s="94"/>
+      <c r="BW28" s="94" t="s">
         <v>726</v>
       </c>
-      <c r="BX28" s="146"/>
-      <c r="BY28" s="148" t="s">
+      <c r="BX28" s="101"/>
+      <c r="BY28" s="91" t="s">
         <v>781</v>
       </c>
       <c r="BZ28" s="65"/>
@@ -51878,132 +51921,132 @@
       <c r="A29" s="10">
         <v>0.8125</v>
       </c>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="109" t="s">
+      <c r="C29" s="124"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="118" t="s">
         <v>163</v>
       </c>
-      <c r="I29" s="92"/>
-      <c r="J29" s="91" t="s">
+      <c r="I29" s="93"/>
+      <c r="J29" s="94" t="s">
         <v>202</v>
       </c>
-      <c r="K29" s="111"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="111" t="s">
+      <c r="K29" s="125"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="125" t="s">
         <v>275</v>
       </c>
-      <c r="P29" s="105"/>
-      <c r="Q29" s="123" t="s">
+      <c r="P29" s="119"/>
+      <c r="Q29" s="136" t="s">
         <v>303</v>
       </c>
       <c r="R29" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="S29" s="92"/>
-      <c r="T29" s="97" t="s">
+      <c r="S29" s="93"/>
+      <c r="T29" s="95" t="s">
         <v>368</v>
       </c>
-      <c r="U29" s="111"/>
-      <c r="V29" s="104"/>
-      <c r="W29" s="92"/>
+      <c r="U29" s="125"/>
+      <c r="V29" s="108"/>
+      <c r="W29" s="93"/>
       <c r="X29" s="55" t="s">
         <v>409</v>
       </c>
-      <c r="Y29" s="104"/>
-      <c r="Z29" s="92"/>
-      <c r="AA29" s="104" t="s">
+      <c r="Y29" s="108"/>
+      <c r="Z29" s="93"/>
+      <c r="AA29" s="108" t="s">
         <v>468</v>
       </c>
-      <c r="AB29" s="92"/>
-      <c r="AC29" s="91"/>
-      <c r="AD29" s="92"/>
+      <c r="AB29" s="93"/>
+      <c r="AC29" s="94"/>
+      <c r="AD29" s="93"/>
       <c r="AE29" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="AF29" s="111"/>
-      <c r="AG29" s="92"/>
-      <c r="AH29" s="104" t="s">
+      <c r="AF29" s="125"/>
+      <c r="AG29" s="93"/>
+      <c r="AH29" s="108" t="s">
         <v>261</v>
       </c>
-      <c r="AI29" s="92"/>
-      <c r="AJ29" s="106"/>
-      <c r="AK29" s="92"/>
-      <c r="AL29" s="91"/>
-      <c r="AM29" s="91" t="s">
+      <c r="AI29" s="93"/>
+      <c r="AJ29" s="124"/>
+      <c r="AK29" s="93"/>
+      <c r="AL29" s="94"/>
+      <c r="AM29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AN29" s="92"/>
-      <c r="AO29" s="91" t="s">
+      <c r="AN29" s="93"/>
+      <c r="AO29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AP29" s="108"/>
-      <c r="AQ29" s="91" t="s">
+      <c r="AP29" s="129"/>
+      <c r="AQ29" s="94" t="s">
         <v>45</v>
       </c>
       <c r="AR29" s="96" t="s">
         <v>621</v>
       </c>
       <c r="AS29" s="90"/>
-      <c r="AT29" s="110" t="s">
+      <c r="AT29" s="128" t="s">
         <v>627</v>
       </c>
-      <c r="AU29" s="92"/>
-      <c r="AV29" s="91" t="s">
+      <c r="AU29" s="93"/>
+      <c r="AV29" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AW29" s="105" t="s">
+      <c r="AW29" s="119" t="s">
         <v>648</v>
       </c>
       <c r="AX29" s="90"/>
-      <c r="AY29" s="92"/>
-      <c r="AZ29" s="98"/>
-      <c r="BA29" s="98"/>
-      <c r="BB29" s="92"/>
-      <c r="BC29" s="91"/>
-      <c r="BD29" s="105"/>
+      <c r="AY29" s="93"/>
+      <c r="AZ29" s="102"/>
+      <c r="BA29" s="102"/>
+      <c r="BB29" s="93"/>
+      <c r="BC29" s="94"/>
+      <c r="BD29" s="119"/>
       <c r="BE29" s="90"/>
-      <c r="BF29" s="91"/>
-      <c r="BG29" s="91"/>
+      <c r="BF29" s="94"/>
+      <c r="BG29" s="94"/>
       <c r="BH29" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BI29" s="93" t="s">
+      <c r="BI29" s="120" t="s">
         <v>691</v>
       </c>
-      <c r="BJ29" s="104"/>
-      <c r="BK29" s="91"/>
-      <c r="BL29" s="98"/>
-      <c r="BM29" s="98"/>
-      <c r="BN29" s="97" t="s">
+      <c r="BJ29" s="108"/>
+      <c r="BK29" s="94"/>
+      <c r="BL29" s="102"/>
+      <c r="BM29" s="102"/>
+      <c r="BN29" s="95" t="s">
         <v>696</v>
       </c>
       <c r="BO29" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BP29" s="98" t="s">
+      <c r="BP29" s="102" t="s">
         <v>691</v>
       </c>
-      <c r="BQ29" s="98"/>
-      <c r="BR29" s="104"/>
-      <c r="BS29" s="91"/>
-      <c r="BT29" s="91"/>
-      <c r="BU29" s="97" t="s">
+      <c r="BQ29" s="102"/>
+      <c r="BR29" s="108"/>
+      <c r="BS29" s="94"/>
+      <c r="BT29" s="94"/>
+      <c r="BU29" s="95" t="s">
         <v>619</v>
       </c>
-      <c r="BV29" s="91" t="s">
+      <c r="BV29" s="94" t="s">
         <v>726</v>
       </c>
-      <c r="BW29" s="91"/>
-      <c r="BX29" s="146"/>
-      <c r="BY29" s="149"/>
+      <c r="BW29" s="94"/>
+      <c r="BX29" s="101"/>
+      <c r="BY29" s="92"/>
       <c r="BZ29" s="65"/>
       <c r="CA29" s="65"/>
       <c r="CB29" s="65"/>
@@ -52027,138 +52070,138 @@
       <c r="A30" s="10">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B30" s="104"/>
+      <c r="B30" s="108"/>
       <c r="C30" s="90" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="91"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91" t="s">
+      <c r="E30" s="94"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="92"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="111"/>
-      <c r="P30" s="105" t="s">
+      <c r="L30" s="93"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="125"/>
+      <c r="P30" s="119" t="s">
         <v>289</v>
       </c>
-      <c r="Q30" s="123"/>
-      <c r="R30" s="91" t="s">
+      <c r="Q30" s="136"/>
+      <c r="R30" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="S30" s="92"/>
-      <c r="T30" s="97"/>
-      <c r="U30" s="113" t="s">
+      <c r="S30" s="93"/>
+      <c r="T30" s="95"/>
+      <c r="U30" s="130" t="s">
         <v>377</v>
       </c>
-      <c r="V30" s="104"/>
-      <c r="W30" s="92"/>
+      <c r="V30" s="108"/>
+      <c r="W30" s="93"/>
       <c r="X30" s="56" t="s">
         <v>418</v>
       </c>
       <c r="Y30" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="Z30" s="92"/>
-      <c r="AA30" s="104"/>
-      <c r="AB30" s="92"/>
-      <c r="AC30" s="91"/>
-      <c r="AD30" s="92"/>
-      <c r="AE30" s="111" t="s">
+      <c r="Z30" s="93"/>
+      <c r="AA30" s="108"/>
+      <c r="AB30" s="93"/>
+      <c r="AC30" s="94"/>
+      <c r="AD30" s="93"/>
+      <c r="AE30" s="125" t="s">
         <v>520</v>
       </c>
-      <c r="AF30" s="113" t="s">
+      <c r="AF30" s="130" t="s">
         <v>533</v>
       </c>
-      <c r="AG30" s="92"/>
-      <c r="AH30" s="104"/>
-      <c r="AI30" s="92"/>
-      <c r="AJ30" s="91" t="s">
+      <c r="AG30" s="93"/>
+      <c r="AH30" s="108"/>
+      <c r="AI30" s="93"/>
+      <c r="AJ30" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AK30" s="92"/>
-      <c r="AL30" s="91"/>
-      <c r="AM30" s="91"/>
-      <c r="AN30" s="92"/>
-      <c r="AO30" s="91"/>
+      <c r="AK30" s="93"/>
+      <c r="AL30" s="94"/>
+      <c r="AM30" s="94"/>
+      <c r="AN30" s="93"/>
+      <c r="AO30" s="94"/>
       <c r="AP30" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AQ30" s="91"/>
+      <c r="AQ30" s="94"/>
       <c r="AR30" s="96"/>
       <c r="AS30" s="96" t="s">
         <v>621</v>
       </c>
-      <c r="AT30" s="110"/>
-      <c r="AU30" s="92"/>
-      <c r="AV30" s="91"/>
-      <c r="AW30" s="105"/>
-      <c r="AX30" s="91" t="s">
+      <c r="AT30" s="128"/>
+      <c r="AU30" s="93"/>
+      <c r="AV30" s="94"/>
+      <c r="AW30" s="119"/>
+      <c r="AX30" s="94" t="s">
         <v>641</v>
       </c>
-      <c r="AY30" s="104" t="s">
+      <c r="AY30" s="108" t="s">
         <v>642</v>
       </c>
-      <c r="AZ30" s="104" t="s">
+      <c r="AZ30" s="108" t="s">
         <v>643</v>
       </c>
-      <c r="BA30" s="104" t="s">
+      <c r="BA30" s="108" t="s">
         <v>642</v>
       </c>
-      <c r="BB30" s="91" t="s">
+      <c r="BB30" s="94" t="s">
         <v>641</v>
       </c>
-      <c r="BC30" s="91"/>
-      <c r="BD30" s="105" t="s">
+      <c r="BC30" s="94"/>
+      <c r="BD30" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="BE30" s="91" t="s">
+      <c r="BE30" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="BF30" s="91"/>
-      <c r="BG30" s="91"/>
+      <c r="BF30" s="94"/>
+      <c r="BG30" s="94"/>
       <c r="BH30" s="90"/>
-      <c r="BI30" s="94"/>
-      <c r="BJ30" s="93" t="s">
+      <c r="BI30" s="122"/>
+      <c r="BJ30" s="120" t="s">
         <v>691</v>
       </c>
-      <c r="BK30" s="93" t="s">
+      <c r="BK30" s="120" t="s">
         <v>691</v>
       </c>
-      <c r="BL30" s="126" t="s">
+      <c r="BL30" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="BM30" s="126" t="s">
+      <c r="BM30" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="BN30" s="97"/>
+      <c r="BN30" s="95"/>
       <c r="BO30" s="90"/>
-      <c r="BP30" s="98"/>
-      <c r="BQ30" s="98" t="s">
+      <c r="BP30" s="102"/>
+      <c r="BQ30" s="102" t="s">
         <v>691</v>
       </c>
-      <c r="BR30" s="104"/>
-      <c r="BS30" s="91" t="s">
+      <c r="BR30" s="108"/>
+      <c r="BS30" s="94" t="s">
         <v>721</v>
       </c>
-      <c r="BT30" s="91" t="s">
+      <c r="BT30" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="BU30" s="97"/>
-      <c r="BV30" s="91"/>
+      <c r="BU30" s="95"/>
+      <c r="BV30" s="94"/>
       <c r="BW30" s="96" t="s">
         <v>772</v>
       </c>
-      <c r="BX30" s="146"/>
-      <c r="BY30" s="148" t="s">
+      <c r="BX30" s="101"/>
+      <c r="BY30" s="91" t="s">
         <v>781</v>
       </c>
       <c r="BZ30" s="65"/>
@@ -52184,72 +52227,72 @@
       <c r="A31" s="10">
         <v>0.85416666666666596</v>
       </c>
-      <c r="B31" s="104"/>
+      <c r="B31" s="108"/>
       <c r="C31" s="90"/>
       <c r="D31" s="90"/>
       <c r="E31" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105" t="s">
+      <c r="F31" s="119"/>
+      <c r="G31" s="119" t="s">
         <v>126</v>
       </c>
-      <c r="H31" s="109"/>
+      <c r="H31" s="118"/>
       <c r="I31" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="J31" s="92" t="s">
+      <c r="J31" s="93" t="s">
         <v>203</v>
       </c>
-      <c r="K31" s="91"/>
+      <c r="K31" s="94"/>
       <c r="L31" s="62" t="s">
         <v>58</v>
       </c>
       <c r="M31" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="N31" s="91" t="s">
+      <c r="N31" s="94" t="s">
         <v>267</v>
       </c>
-      <c r="O31" s="111"/>
-      <c r="P31" s="105"/>
-      <c r="Q31" s="122" t="s">
+      <c r="O31" s="125"/>
+      <c r="P31" s="119"/>
+      <c r="Q31" s="135" t="s">
         <v>304</v>
       </c>
-      <c r="R31" s="91"/>
-      <c r="S31" s="113" t="s">
+      <c r="R31" s="94"/>
+      <c r="S31" s="130" t="s">
         <v>333</v>
       </c>
-      <c r="T31" s="105" t="s">
+      <c r="T31" s="119" t="s">
         <v>369</v>
       </c>
-      <c r="U31" s="113"/>
-      <c r="V31" s="104"/>
-      <c r="W31" s="115" t="s">
+      <c r="U31" s="130"/>
+      <c r="V31" s="108"/>
+      <c r="W31" s="126" t="s">
         <v>406</v>
       </c>
-      <c r="X31" s="104" t="s">
+      <c r="X31" s="108" t="s">
         <v>410</v>
       </c>
-      <c r="Y31" s="104" t="s">
+      <c r="Y31" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="Z31" s="104" t="s">
+      <c r="Z31" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="AA31" s="104"/>
-      <c r="AB31" s="91" t="s">
+      <c r="AA31" s="108"/>
+      <c r="AB31" s="94" t="s">
         <v>471</v>
       </c>
       <c r="AC31" s="55" t="s">
         <v>491</v>
       </c>
-      <c r="AD31" s="104" t="s">
+      <c r="AD31" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="AE31" s="111"/>
-      <c r="AF31" s="113"/>
-      <c r="AG31" s="91" t="s">
+      <c r="AE31" s="125"/>
+      <c r="AF31" s="130"/>
+      <c r="AG31" s="94" t="s">
         <v>261</v>
       </c>
       <c r="AH31" s="62" t="s">
@@ -52258,24 +52301,24 @@
       <c r="AI31" s="90" t="s">
         <v>554</v>
       </c>
-      <c r="AJ31" s="91"/>
+      <c r="AJ31" s="94"/>
       <c r="AK31" s="96" t="s">
         <v>560</v>
       </c>
-      <c r="AL31" s="105" t="s">
+      <c r="AL31" s="119" t="s">
         <v>598</v>
       </c>
       <c r="AM31" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AN31" s="115" t="s">
+      <c r="AN31" s="126" t="s">
         <v>554</v>
       </c>
       <c r="AO31" s="90" t="s">
         <v>13</v>
       </c>
       <c r="AP31" s="90"/>
-      <c r="AQ31" s="91" t="s">
+      <c r="AQ31" s="94" t="s">
         <v>45</v>
       </c>
       <c r="AR31" s="96"/>
@@ -52292,46 +52335,46 @@
       <c r="AW31" s="52" t="s">
         <v>649</v>
       </c>
-      <c r="AX31" s="91"/>
-      <c r="AY31" s="104"/>
-      <c r="AZ31" s="104"/>
-      <c r="BA31" s="104"/>
-      <c r="BB31" s="91"/>
-      <c r="BC31" s="91"/>
-      <c r="BD31" s="105"/>
-      <c r="BE31" s="91"/>
-      <c r="BF31" s="91"/>
-      <c r="BG31" s="91"/>
-      <c r="BH31" s="104" t="s">
+      <c r="AX31" s="94"/>
+      <c r="AY31" s="108"/>
+      <c r="AZ31" s="108"/>
+      <c r="BA31" s="108"/>
+      <c r="BB31" s="94"/>
+      <c r="BC31" s="94"/>
+      <c r="BD31" s="119"/>
+      <c r="BE31" s="94"/>
+      <c r="BF31" s="94"/>
+      <c r="BG31" s="94"/>
+      <c r="BH31" s="108" t="s">
         <v>685</v>
       </c>
-      <c r="BI31" s="94"/>
-      <c r="BJ31" s="94"/>
-      <c r="BK31" s="94"/>
-      <c r="BL31" s="127"/>
-      <c r="BM31" s="127"/>
-      <c r="BN31" s="97"/>
+      <c r="BI31" s="122"/>
+      <c r="BJ31" s="122"/>
+      <c r="BK31" s="122"/>
+      <c r="BL31" s="112"/>
+      <c r="BM31" s="112"/>
+      <c r="BN31" s="95"/>
       <c r="BO31" s="90"/>
-      <c r="BP31" s="98" t="s">
+      <c r="BP31" s="102" t="s">
         <v>691</v>
       </c>
-      <c r="BQ31" s="98"/>
-      <c r="BR31" s="98" t="s">
+      <c r="BQ31" s="102"/>
+      <c r="BR31" s="102" t="s">
         <v>650</v>
       </c>
-      <c r="BS31" s="91"/>
-      <c r="BT31" s="91"/>
-      <c r="BU31" s="91" t="s">
+      <c r="BS31" s="94"/>
+      <c r="BT31" s="94"/>
+      <c r="BU31" s="94" t="s">
         <v>726</v>
       </c>
-      <c r="BV31" s="97" t="s">
+      <c r="BV31" s="95" t="s">
         <v>619</v>
       </c>
       <c r="BW31" s="96"/>
-      <c r="BX31" s="97" t="s">
+      <c r="BX31" s="95" t="s">
         <v>784</v>
       </c>
-      <c r="BY31" s="149"/>
+      <c r="BY31" s="92"/>
       <c r="BZ31" s="65"/>
       <c r="CA31" s="65"/>
       <c r="CB31" s="65"/>
@@ -52358,22 +52401,22 @@
       <c r="B32" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="106" t="s">
+      <c r="C32" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="106" t="s">
+      <c r="D32" s="124" t="s">
         <v>57</v>
       </c>
       <c r="E32" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="121" t="s">
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="137" t="s">
         <v>182</v>
       </c>
-      <c r="J32" s="92"/>
+      <c r="J32" s="93"/>
       <c r="K32" s="55" t="s">
         <v>223</v>
       </c>
@@ -52383,52 +52426,52 @@
       <c r="M32" s="52" t="s">
         <v>248</v>
       </c>
-      <c r="N32" s="91"/>
-      <c r="O32" s="111"/>
-      <c r="P32" s="105"/>
-      <c r="Q32" s="122"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="125"/>
+      <c r="P32" s="119"/>
+      <c r="Q32" s="135"/>
       <c r="R32" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="S32" s="113"/>
-      <c r="T32" s="105"/>
-      <c r="U32" s="111" t="s">
+      <c r="S32" s="130"/>
+      <c r="T32" s="119"/>
+      <c r="U32" s="125" t="s">
         <v>382</v>
       </c>
-      <c r="V32" s="115" t="s">
+      <c r="V32" s="126" t="s">
         <v>395</v>
       </c>
-      <c r="W32" s="115"/>
-      <c r="X32" s="104"/>
-      <c r="Y32" s="104"/>
-      <c r="Z32" s="104"/>
-      <c r="AA32" s="104"/>
-      <c r="AB32" s="91"/>
+      <c r="W32" s="126"/>
+      <c r="X32" s="108"/>
+      <c r="Y32" s="108"/>
+      <c r="Z32" s="108"/>
+      <c r="AA32" s="108"/>
+      <c r="AB32" s="94"/>
       <c r="AC32" s="54" t="s">
         <v>490</v>
       </c>
-      <c r="AD32" s="104"/>
-      <c r="AE32" s="111"/>
+      <c r="AD32" s="108"/>
+      <c r="AE32" s="125"/>
       <c r="AF32" s="57" t="s">
         <v>534</v>
       </c>
-      <c r="AG32" s="91"/>
-      <c r="AH32" s="125" t="s">
+      <c r="AG32" s="94"/>
+      <c r="AH32" s="132" t="s">
         <v>552</v>
       </c>
       <c r="AI32" s="90"/>
-      <c r="AJ32" s="91" t="s">
+      <c r="AJ32" s="94" t="s">
         <v>45</v>
       </c>
       <c r="AK32" s="96"/>
-      <c r="AL32" s="105"/>
+      <c r="AL32" s="119"/>
       <c r="AM32" s="90"/>
-      <c r="AN32" s="115"/>
+      <c r="AN32" s="126"/>
       <c r="AO32" s="90"/>
       <c r="AP32" s="96" t="s">
         <v>391</v>
       </c>
-      <c r="AQ32" s="91"/>
+      <c r="AQ32" s="94"/>
       <c r="AR32" s="96"/>
       <c r="AS32" s="96"/>
       <c r="AT32" s="96"/>
@@ -52436,55 +52479,55 @@
       <c r="AV32" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AW32" s="98" t="s">
+      <c r="AW32" s="102" t="s">
         <v>650</v>
       </c>
-      <c r="AX32" s="91"/>
-      <c r="AY32" s="104"/>
-      <c r="AZ32" s="104"/>
-      <c r="BA32" s="104"/>
-      <c r="BB32" s="91"/>
-      <c r="BC32" s="91"/>
-      <c r="BD32" s="91" t="s">
+      <c r="AX32" s="94"/>
+      <c r="AY32" s="108"/>
+      <c r="AZ32" s="108"/>
+      <c r="BA32" s="108"/>
+      <c r="BB32" s="94"/>
+      <c r="BC32" s="94"/>
+      <c r="BD32" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="BE32" s="91" t="s">
+      <c r="BE32" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="BF32" s="98" t="s">
+      <c r="BF32" s="102" t="s">
         <v>678</v>
       </c>
-      <c r="BG32" s="106" t="s">
+      <c r="BG32" s="124" t="s">
         <v>686</v>
       </c>
-      <c r="BH32" s="104"/>
-      <c r="BI32" s="95"/>
-      <c r="BJ32" s="94"/>
-      <c r="BK32" s="94"/>
-      <c r="BL32" s="127"/>
-      <c r="BM32" s="127"/>
+      <c r="BH32" s="108"/>
+      <c r="BI32" s="121"/>
+      <c r="BJ32" s="122"/>
+      <c r="BK32" s="122"/>
+      <c r="BL32" s="112"/>
+      <c r="BM32" s="112"/>
       <c r="BN32" s="90" t="s">
         <v>58</v>
       </c>
       <c r="BO32" s="90"/>
-      <c r="BP32" s="98"/>
-      <c r="BQ32" s="91" t="s">
+      <c r="BP32" s="102"/>
+      <c r="BQ32" s="94" t="s">
         <v>712</v>
       </c>
-      <c r="BR32" s="98"/>
+      <c r="BR32" s="102"/>
       <c r="BS32" s="70" t="s">
         <v>58</v>
       </c>
       <c r="BT32" s="71" t="s">
         <v>732</v>
       </c>
-      <c r="BU32" s="91"/>
-      <c r="BV32" s="97"/>
+      <c r="BU32" s="94"/>
+      <c r="BV32" s="95"/>
       <c r="BW32" s="11" t="s">
         <v>775</v>
       </c>
-      <c r="BX32" s="97"/>
-      <c r="BY32" s="148" t="s">
+      <c r="BX32" s="95"/>
+      <c r="BY32" s="91" t="s">
         <v>781</v>
       </c>
       <c r="BZ32" s="65"/>
@@ -52513,51 +52556,51 @@
       <c r="B33" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="106"/>
-      <c r="D33" s="106"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="124"/>
       <c r="E33" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="105"/>
+      <c r="F33" s="119"/>
       <c r="G33" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="H33" s="109"/>
-      <c r="I33" s="121"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="137"/>
       <c r="J33" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="K33" s="115" t="s">
+      <c r="K33" s="126" t="s">
         <v>226</v>
       </c>
-      <c r="L33" s="111" t="s">
+      <c r="L33" s="125" t="s">
         <v>245</v>
       </c>
       <c r="M33" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="N33" s="115" t="s">
+      <c r="N33" s="126" t="s">
         <v>268</v>
       </c>
-      <c r="O33" s="111"/>
-      <c r="P33" s="91" t="s">
+      <c r="O33" s="125"/>
+      <c r="P33" s="94" t="s">
         <v>290</v>
       </c>
-      <c r="Q33" s="115" t="s">
+      <c r="Q33" s="126" t="s">
         <v>268</v>
       </c>
       <c r="R33" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="S33" s="91" t="s">
+      <c r="S33" s="94" t="s">
         <v>327</v>
       </c>
       <c r="T33" s="62" t="s">
         <v>365</v>
       </c>
-      <c r="U33" s="111"/>
-      <c r="V33" s="115"/>
-      <c r="W33" s="91" t="s">
+      <c r="U33" s="125"/>
+      <c r="V33" s="126"/>
+      <c r="W33" s="94" t="s">
         <v>407</v>
       </c>
       <c r="X33" s="55" t="s">
@@ -52590,24 +52633,24 @@
       <c r="AG33" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="AH33" s="125"/>
+      <c r="AH33" s="132"/>
       <c r="AI33" s="90"/>
-      <c r="AJ33" s="91"/>
-      <c r="AK33" s="91" t="s">
+      <c r="AJ33" s="94"/>
+      <c r="AK33" s="94" t="s">
         <v>45</v>
       </c>
       <c r="AL33" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="AM33" s="115" t="s">
+      <c r="AM33" s="126" t="s">
         <v>233</v>
       </c>
-      <c r="AN33" s="98" t="s">
+      <c r="AN33" s="102" t="s">
         <v>607</v>
       </c>
       <c r="AO33" s="90"/>
       <c r="AP33" s="96"/>
-      <c r="AQ33" s="110" t="s">
+      <c r="AQ33" s="128" t="s">
         <v>618</v>
       </c>
       <c r="AR33" s="96"/>
@@ -52619,47 +52662,47 @@
         <v>560</v>
       </c>
       <c r="AV33" s="90"/>
-      <c r="AW33" s="98"/>
+      <c r="AW33" s="102"/>
       <c r="AX33" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="AY33" s="104"/>
-      <c r="AZ33" s="104"/>
-      <c r="BA33" s="104"/>
-      <c r="BB33" s="91"/>
+      <c r="AY33" s="108"/>
+      <c r="AZ33" s="108"/>
+      <c r="BA33" s="108"/>
+      <c r="BB33" s="94"/>
       <c r="BC33" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="BD33" s="91"/>
-      <c r="BE33" s="91"/>
-      <c r="BF33" s="98"/>
-      <c r="BG33" s="106"/>
+      <c r="BD33" s="94"/>
+      <c r="BE33" s="94"/>
+      <c r="BF33" s="102"/>
+      <c r="BG33" s="124"/>
       <c r="BH33" s="55" t="s">
         <v>686</v>
       </c>
       <c r="BI33" s="51" t="s">
         <v>692</v>
       </c>
-      <c r="BJ33" s="95"/>
-      <c r="BK33" s="95"/>
-      <c r="BL33" s="128"/>
-      <c r="BM33" s="128"/>
+      <c r="BJ33" s="121"/>
+      <c r="BK33" s="121"/>
+      <c r="BL33" s="113"/>
+      <c r="BM33" s="113"/>
       <c r="BN33" s="90"/>
       <c r="BO33" s="90"/>
-      <c r="BP33" s="104" t="s">
+      <c r="BP33" s="108" t="s">
         <v>702</v>
       </c>
-      <c r="BQ33" s="91"/>
-      <c r="BR33" s="97" t="s">
+      <c r="BQ33" s="94"/>
+      <c r="BR33" s="95" t="s">
         <v>724</v>
       </c>
       <c r="BS33" s="96" t="s">
         <v>711</v>
       </c>
-      <c r="BT33" s="98" t="s">
+      <c r="BT33" s="102" t="s">
         <v>730</v>
       </c>
-      <c r="BU33" s="98" t="s">
+      <c r="BU33" s="102" t="s">
         <v>765</v>
       </c>
       <c r="BV33" s="86" t="s">
@@ -52668,10 +52711,10 @@
       <c r="BW33" s="86" t="s">
         <v>268</v>
       </c>
-      <c r="BX33" s="98" t="s">
+      <c r="BX33" s="102" t="s">
         <v>765</v>
       </c>
-      <c r="BY33" s="149"/>
+      <c r="BY33" s="92"/>
       <c r="BZ33" s="65"/>
       <c r="CA33" s="65"/>
       <c r="CB33" s="65"/>
@@ -52695,63 +52738,63 @@
       <c r="A34" s="10">
         <v>0.91666666666666596</v>
       </c>
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="124"/>
       <c r="E34" s="62" t="s">
         <v>94</v>
       </c>
       <c r="F34" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="G34" s="105" t="s">
+      <c r="G34" s="119" t="s">
         <v>126</v>
       </c>
-      <c r="H34" s="113" t="s">
+      <c r="H34" s="130" t="s">
         <v>155</v>
       </c>
-      <c r="I34" s="91" t="s">
+      <c r="I34" s="94" t="s">
         <v>183</v>
       </c>
-      <c r="J34" s="115" t="s">
+      <c r="J34" s="126" t="s">
         <v>204</v>
       </c>
-      <c r="K34" s="115"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="111" t="s">
+      <c r="K34" s="126"/>
+      <c r="L34" s="125"/>
+      <c r="M34" s="125" t="s">
         <v>255</v>
       </c>
-      <c r="N34" s="115"/>
-      <c r="O34" s="111"/>
-      <c r="P34" s="91"/>
-      <c r="Q34" s="115"/>
-      <c r="R34" s="105" t="s">
+      <c r="N34" s="126"/>
+      <c r="O34" s="125"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="126"/>
+      <c r="R34" s="119" t="s">
         <v>324</v>
       </c>
-      <c r="S34" s="91"/>
-      <c r="T34" s="91" t="s">
+      <c r="S34" s="94"/>
+      <c r="T34" s="94" t="s">
         <v>363</v>
       </c>
-      <c r="U34" s="111"/>
-      <c r="V34" s="106" t="s">
+      <c r="U34" s="125"/>
+      <c r="V34" s="124" t="s">
         <v>390</v>
       </c>
-      <c r="W34" s="91"/>
+      <c r="W34" s="94"/>
       <c r="X34" s="51" t="s">
         <v>424</v>
       </c>
       <c r="Y34" s="51" t="s">
         <v>433</v>
       </c>
-      <c r="Z34" s="98" t="s">
+      <c r="Z34" s="102" t="s">
         <v>418</v>
       </c>
-      <c r="AA34" s="104" t="s">
+      <c r="AA34" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="AB34" s="104" t="s">
+      <c r="AB34" s="108" t="s">
         <v>45</v>
       </c>
       <c r="AC34" s="55" t="s">
@@ -52760,34 +52803,34 @@
       <c r="AD34" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="AE34" s="104" t="s">
+      <c r="AE34" s="108" t="s">
         <v>522</v>
       </c>
       <c r="AF34" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="AG34" s="91" t="s">
+      <c r="AG34" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AH34" s="125"/>
-      <c r="AI34" s="91" t="s">
+      <c r="AH34" s="132"/>
+      <c r="AI34" s="94" t="s">
         <v>555</v>
       </c>
-      <c r="AJ34" s="111" t="s">
+      <c r="AJ34" s="125" t="s">
         <v>178</v>
       </c>
-      <c r="AK34" s="91"/>
+      <c r="AK34" s="94"/>
       <c r="AL34" s="96" t="s">
         <v>560</v>
       </c>
-      <c r="AM34" s="115"/>
-      <c r="AN34" s="98"/>
+      <c r="AM34" s="126"/>
+      <c r="AN34" s="102"/>
       <c r="AO34" s="90"/>
       <c r="AP34" s="96" t="s">
         <v>560</v>
       </c>
-      <c r="AQ34" s="110"/>
-      <c r="AR34" s="91" t="s">
+      <c r="AQ34" s="128"/>
+      <c r="AR34" s="94" t="s">
         <v>255</v>
       </c>
       <c r="AS34" s="90" t="s">
@@ -52795,13 +52838,13 @@
       </c>
       <c r="AT34" s="90"/>
       <c r="AU34" s="96"/>
-      <c r="AV34" s="91" t="s">
+      <c r="AV34" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AW34" s="91" t="s">
+      <c r="AW34" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AX34" s="105" t="s">
+      <c r="AX34" s="119" t="s">
         <v>657</v>
       </c>
       <c r="AY34" s="62" t="s">
@@ -52813,55 +52856,55 @@
       <c r="BA34" s="58" t="s">
         <v>667</v>
       </c>
-      <c r="BB34" s="105" t="s">
+      <c r="BB34" s="119" t="s">
         <v>672</v>
       </c>
       <c r="BC34" s="90"/>
-      <c r="BD34" s="111" t="s">
+      <c r="BD34" s="125" t="s">
         <v>670</v>
       </c>
       <c r="BE34" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="BF34" s="98"/>
+      <c r="BF34" s="102"/>
       <c r="BG34" s="90" t="s">
         <v>13</v>
       </c>
       <c r="BH34" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BI34" s="97" t="s">
+      <c r="BI34" s="95" t="s">
         <v>619</v>
       </c>
-      <c r="BJ34" s="97" t="s">
+      <c r="BJ34" s="95" t="s">
         <v>619</v>
       </c>
-      <c r="BK34" s="97" t="s">
+      <c r="BK34" s="95" t="s">
         <v>619</v>
       </c>
-      <c r="BL34" s="97" t="s">
+      <c r="BL34" s="95" t="s">
         <v>619</v>
       </c>
-      <c r="BM34" s="97" t="s">
+      <c r="BM34" s="95" t="s">
         <v>619</v>
       </c>
       <c r="BN34" s="96" t="s">
         <v>697</v>
       </c>
       <c r="BO34" s="90"/>
-      <c r="BP34" s="104"/>
-      <c r="BQ34" s="91"/>
-      <c r="BR34" s="97"/>
+      <c r="BP34" s="108"/>
+      <c r="BQ34" s="94"/>
+      <c r="BR34" s="95"/>
       <c r="BS34" s="96"/>
-      <c r="BT34" s="98"/>
-      <c r="BU34" s="98"/>
-      <c r="BV34" s="91" t="s">
+      <c r="BT34" s="102"/>
+      <c r="BU34" s="102"/>
+      <c r="BV34" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="BW34" s="91" t="s">
+      <c r="BW34" s="94" t="s">
         <v>726</v>
       </c>
-      <c r="BX34" s="98"/>
+      <c r="BX34" s="102"/>
       <c r="BY34" s="89" t="s">
         <v>268</v>
       </c>
@@ -52878,24 +52921,24 @@
       <c r="A35" s="10">
         <v>0.937499999999999</v>
       </c>
-      <c r="B35" s="98"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="104" t="s">
+      <c r="B35" s="102"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="104" t="s">
+      <c r="F35" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="G35" s="105"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="115"/>
-      <c r="K35" s="104" t="s">
+      <c r="G35" s="119"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="126"/>
+      <c r="K35" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="L35" s="111"/>
-      <c r="M35" s="111"/>
+      <c r="L35" s="125"/>
+      <c r="M35" s="125"/>
       <c r="N35" s="53" t="s">
         <v>269</v>
       </c>
@@ -52905,68 +52948,68 @@
       <c r="P35" s="55" t="s">
         <v>291</v>
       </c>
-      <c r="Q35" s="104" t="s">
+      <c r="Q35" s="108" t="s">
         <v>305</v>
       </c>
-      <c r="R35" s="105"/>
+      <c r="R35" s="119"/>
       <c r="S35" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="T35" s="91"/>
+      <c r="T35" s="94"/>
       <c r="U35" s="90" t="s">
         <v>383</v>
       </c>
-      <c r="V35" s="106"/>
-      <c r="W35" s="91"/>
-      <c r="X35" s="104" t="s">
+      <c r="V35" s="124"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="108" t="s">
         <v>410</v>
       </c>
-      <c r="Y35" s="108" t="s">
+      <c r="Y35" s="129" t="s">
         <v>432</v>
       </c>
-      <c r="Z35" s="98"/>
-      <c r="AA35" s="104"/>
-      <c r="AB35" s="104"/>
+      <c r="Z35" s="102"/>
+      <c r="AA35" s="108"/>
+      <c r="AB35" s="108"/>
       <c r="AC35" s="54" t="s">
         <v>492</v>
       </c>
       <c r="AD35" s="60" t="s">
         <v>504</v>
       </c>
-      <c r="AE35" s="104"/>
+      <c r="AE35" s="108"/>
       <c r="AF35" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="AG35" s="91"/>
-      <c r="AH35" s="91" t="s">
+      <c r="AG35" s="94"/>
+      <c r="AH35" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AI35" s="91"/>
-      <c r="AJ35" s="111"/>
-      <c r="AK35" s="91" t="s">
+      <c r="AI35" s="94"/>
+      <c r="AJ35" s="125"/>
+      <c r="AK35" s="94" t="s">
         <v>45</v>
       </c>
       <c r="AL35" s="96"/>
-      <c r="AM35" s="91" t="s">
+      <c r="AM35" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AN35" s="98"/>
+      <c r="AN35" s="102"/>
       <c r="AO35" s="90"/>
       <c r="AP35" s="96"/>
       <c r="AQ35" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="AR35" s="91"/>
+      <c r="AR35" s="94"/>
       <c r="AS35" s="90"/>
-      <c r="AT35" s="91" t="s">
+      <c r="AT35" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AU35" s="110" t="s">
+      <c r="AU35" s="128" t="s">
         <v>632</v>
       </c>
-      <c r="AV35" s="91"/>
-      <c r="AW35" s="91"/>
-      <c r="AX35" s="105"/>
+      <c r="AV35" s="94"/>
+      <c r="AW35" s="94"/>
+      <c r="AX35" s="119"/>
       <c r="AY35" s="57" t="s">
         <v>662</v>
       </c>
@@ -52976,44 +53019,44 @@
       <c r="BA35" s="58" t="s">
         <v>670</v>
       </c>
-      <c r="BB35" s="105"/>
-      <c r="BC35" s="98" t="s">
+      <c r="BB35" s="119"/>
+      <c r="BC35" s="102" t="s">
         <v>670</v>
       </c>
-      <c r="BD35" s="111"/>
+      <c r="BD35" s="125"/>
       <c r="BE35" s="90"/>
-      <c r="BF35" s="98"/>
+      <c r="BF35" s="102"/>
       <c r="BG35" s="90"/>
       <c r="BH35" s="90"/>
-      <c r="BI35" s="97"/>
-      <c r="BJ35" s="97"/>
-      <c r="BK35" s="97"/>
-      <c r="BL35" s="97"/>
-      <c r="BM35" s="97"/>
+      <c r="BI35" s="95"/>
+      <c r="BJ35" s="95"/>
+      <c r="BK35" s="95"/>
+      <c r="BL35" s="95"/>
+      <c r="BM35" s="95"/>
       <c r="BN35" s="96"/>
       <c r="BO35" s="90"/>
-      <c r="BP35" s="106" t="s">
+      <c r="BP35" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="BQ35" s="91"/>
-      <c r="BR35" s="93" t="s">
+      <c r="BQ35" s="94"/>
+      <c r="BR35" s="120" t="s">
         <v>691</v>
       </c>
       <c r="BS35" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="BT35" s="101" t="s">
+      <c r="BT35" s="117" t="s">
         <v>731</v>
       </c>
-      <c r="BU35" s="99" t="s">
+      <c r="BU35" s="144" t="s">
         <v>619</v>
       </c>
-      <c r="BV35" s="91"/>
-      <c r="BW35" s="91"/>
+      <c r="BV35" s="94"/>
+      <c r="BW35" s="94"/>
       <c r="BX35" s="89" t="s">
         <v>268</v>
       </c>
-      <c r="BY35" s="148" t="s">
+      <c r="BY35" s="91" t="s">
         <v>781</v>
       </c>
       <c r="BZ35" s="2"/>
@@ -53029,47 +53072,47 @@
       <c r="A36" s="10">
         <v>0.95833333333333304</v>
       </c>
-      <c r="B36" s="106" t="s">
+      <c r="B36" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="106"/>
+      <c r="C36" s="124"/>
       <c r="D36" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="105"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="119"/>
       <c r="H36" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="I36" s="106" t="s">
+      <c r="I36" s="124" t="s">
         <v>184</v>
       </c>
       <c r="J36" s="90" t="s">
         <v>197</v>
       </c>
-      <c r="K36" s="104"/>
+      <c r="K36" s="108"/>
       <c r="L36" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="M36" s="106" t="s">
+      <c r="M36" s="124" t="s">
         <v>253</v>
       </c>
-      <c r="N36" s="104" t="s">
+      <c r="N36" s="108" t="s">
         <v>270</v>
       </c>
       <c r="O36" s="90"/>
       <c r="P36" s="90" t="s">
         <v>292</v>
       </c>
-      <c r="Q36" s="104"/>
+      <c r="Q36" s="108"/>
       <c r="R36" s="90" t="s">
         <v>323</v>
       </c>
       <c r="S36" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="T36" s="105" t="s">
+      <c r="T36" s="119" t="s">
         <v>370</v>
       </c>
       <c r="U36" s="90"/>
@@ -53079,8 +53122,8 @@
       <c r="W36" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="X36" s="104"/>
-      <c r="Y36" s="108"/>
+      <c r="X36" s="108"/>
+      <c r="Y36" s="129"/>
       <c r="Z36" s="90" t="s">
         <v>13</v>
       </c>
@@ -53090,7 +53133,7 @@
       <c r="AB36" s="56" t="s">
         <v>479</v>
       </c>
-      <c r="AC36" s="104" t="s">
+      <c r="AC36" s="108" t="s">
         <v>45</v>
       </c>
       <c r="AD36" s="55" t="s">
@@ -53105,19 +53148,19 @@
       <c r="AG36" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AH36" s="91"/>
+      <c r="AH36" s="94"/>
       <c r="AI36" s="56" t="s">
         <v>15</v>
       </c>
       <c r="AJ36" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AK36" s="91"/>
+      <c r="AK36" s="94"/>
       <c r="AL36" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AM36" s="91"/>
-      <c r="AN36" s="98"/>
+      <c r="AM36" s="94"/>
+      <c r="AN36" s="102"/>
       <c r="AO36" s="90"/>
       <c r="AP36" s="96"/>
       <c r="AQ36" s="90" t="s">
@@ -53126,19 +53169,19 @@
       <c r="AR36" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AS36" s="91" t="s">
+      <c r="AS36" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AT36" s="91"/>
-      <c r="AU36" s="110"/>
+      <c r="AT36" s="94"/>
+      <c r="AU36" s="128"/>
       <c r="AV36" s="90" t="s">
         <v>13</v>
       </c>
       <c r="AW36" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AX36" s="105"/>
-      <c r="AY36" s="106" t="s">
+      <c r="AX36" s="119"/>
+      <c r="AY36" s="124" t="s">
         <v>177</v>
       </c>
       <c r="AZ36" s="90" t="s">
@@ -53147,10 +53190,10 @@
       <c r="BA36" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BB36" s="98" t="s">
+      <c r="BB36" s="102" t="s">
         <v>673</v>
       </c>
-      <c r="BC36" s="98"/>
+      <c r="BC36" s="102"/>
       <c r="BD36" s="90" t="s">
         <v>13</v>
       </c>
@@ -53166,45 +53209,45 @@
       <c r="BH36" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BI36" s="97" t="s">
+      <c r="BI36" s="95" t="s">
         <v>619</v>
       </c>
-      <c r="BJ36" s="97" t="s">
+      <c r="BJ36" s="95" t="s">
         <v>619</v>
       </c>
-      <c r="BK36" s="97" t="s">
+      <c r="BK36" s="95" t="s">
         <v>619</v>
       </c>
-      <c r="BL36" s="97" t="s">
+      <c r="BL36" s="95" t="s">
         <v>619</v>
       </c>
-      <c r="BM36" s="97" t="s">
+      <c r="BM36" s="95" t="s">
         <v>619</v>
       </c>
       <c r="BN36" s="96" t="s">
         <v>697</v>
       </c>
       <c r="BO36" s="90"/>
-      <c r="BP36" s="106"/>
+      <c r="BP36" s="124"/>
       <c r="BQ36" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BR36" s="94"/>
+      <c r="BR36" s="122"/>
       <c r="BS36" s="90" t="s">
         <v>13</v>
       </c>
       <c r="BT36" s="96"/>
-      <c r="BU36" s="100"/>
-      <c r="BV36" s="91" t="s">
+      <c r="BU36" s="145"/>
+      <c r="BV36" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="BW36" s="91" t="s">
+      <c r="BW36" s="94" t="s">
         <v>726</v>
       </c>
       <c r="BX36" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BY36" s="149"/>
+      <c r="BY36" s="92"/>
       <c r="BZ36" s="2"/>
       <c r="CA36" s="2"/>
       <c r="CB36" s="2"/>
@@ -53218,14 +53261,14 @@
       <c r="A37" s="10">
         <v>0.97916666666666596</v>
       </c>
-      <c r="B37" s="106"/>
-      <c r="C37" s="106"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="124"/>
       <c r="D37" s="90"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="105"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="119"/>
       <c r="H37" s="90"/>
-      <c r="I37" s="106"/>
+      <c r="I37" s="124"/>
       <c r="J37" s="90"/>
       <c r="K37" s="57" t="s">
         <v>228</v>
@@ -53233,8 +53276,8 @@
       <c r="L37" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="M37" s="106"/>
-      <c r="N37" s="104"/>
+      <c r="M37" s="124"/>
+      <c r="N37" s="108"/>
       <c r="O37" s="55" t="s">
         <v>278</v>
       </c>
@@ -53244,7 +53287,7 @@
       </c>
       <c r="R37" s="90"/>
       <c r="S37" s="90"/>
-      <c r="T37" s="105"/>
+      <c r="T37" s="119"/>
       <c r="U37" s="90"/>
       <c r="V37" s="90"/>
       <c r="W37" s="90"/>
@@ -53261,7 +53304,7 @@
       <c r="AB37" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AC37" s="104"/>
+      <c r="AC37" s="108"/>
       <c r="AD37" s="57" t="s">
         <v>505</v>
       </c>
@@ -53289,7 +53332,7 @@
       <c r="AP37" s="96"/>
       <c r="AQ37" s="90"/>
       <c r="AR37" s="90"/>
-      <c r="AS37" s="91"/>
+      <c r="AS37" s="94"/>
       <c r="AT37" s="51" t="s">
         <v>13</v>
       </c>
@@ -53298,11 +53341,11 @@
       </c>
       <c r="AV37" s="90"/>
       <c r="AW37" s="90"/>
-      <c r="AX37" s="105"/>
-      <c r="AY37" s="106"/>
+      <c r="AX37" s="119"/>
+      <c r="AY37" s="124"/>
       <c r="AZ37" s="90"/>
       <c r="BA37" s="90"/>
-      <c r="BB37" s="98"/>
+      <c r="BB37" s="102"/>
       <c r="BC37" s="55" t="s">
         <v>676</v>
       </c>
@@ -53311,23 +53354,23 @@
       <c r="BF37" s="90"/>
       <c r="BG37" s="90"/>
       <c r="BH37" s="90"/>
-      <c r="BI37" s="97"/>
-      <c r="BJ37" s="97"/>
-      <c r="BK37" s="97"/>
-      <c r="BL37" s="97"/>
-      <c r="BM37" s="97"/>
+      <c r="BI37" s="95"/>
+      <c r="BJ37" s="95"/>
+      <c r="BK37" s="95"/>
+      <c r="BL37" s="95"/>
+      <c r="BM37" s="95"/>
       <c r="BN37" s="96"/>
       <c r="BO37" s="90"/>
-      <c r="BP37" s="106"/>
+      <c r="BP37" s="124"/>
       <c r="BQ37" s="90"/>
-      <c r="BR37" s="95"/>
+      <c r="BR37" s="121"/>
       <c r="BS37" s="90"/>
       <c r="BT37" s="72" t="s">
         <v>733</v>
       </c>
-      <c r="BU37" s="100"/>
-      <c r="BV37" s="91"/>
-      <c r="BW37" s="91"/>
+      <c r="BU37" s="145"/>
+      <c r="BV37" s="94"/>
+      <c r="BW37" s="94"/>
       <c r="BX37" s="90"/>
       <c r="BY37" s="13" t="s">
         <v>783</v>
@@ -60443,16 +60486,899 @@
     </row>
   </sheetData>
   <mergeCells count="927">
-    <mergeCell ref="BX36:BX37"/>
-    <mergeCell ref="BY16:BY17"/>
-    <mergeCell ref="BY18:BY19"/>
-    <mergeCell ref="BY20:BY21"/>
-    <mergeCell ref="BY22:BY23"/>
-    <mergeCell ref="BY24:BY25"/>
-    <mergeCell ref="BY28:BY29"/>
-    <mergeCell ref="BY30:BY31"/>
-    <mergeCell ref="BY32:BY33"/>
-    <mergeCell ref="BY35:BY36"/>
+    <mergeCell ref="BV25:BV26"/>
+    <mergeCell ref="BV27:BV28"/>
+    <mergeCell ref="BV29:BV30"/>
+    <mergeCell ref="BV36:BV37"/>
+    <mergeCell ref="BV9:BV10"/>
+    <mergeCell ref="BV11:BV12"/>
+    <mergeCell ref="BV13:BV14"/>
+    <mergeCell ref="BV15:BV16"/>
+    <mergeCell ref="BV17:BV18"/>
+    <mergeCell ref="BV21:BV22"/>
+    <mergeCell ref="BV23:BV24"/>
+    <mergeCell ref="BV34:BV35"/>
+    <mergeCell ref="BR35:BR37"/>
+    <mergeCell ref="BS33:BS34"/>
+    <mergeCell ref="BS36:BS37"/>
+    <mergeCell ref="BT6:BT7"/>
+    <mergeCell ref="BT8:BT9"/>
+    <mergeCell ref="BT10:BT11"/>
+    <mergeCell ref="BS8:BS9"/>
+    <mergeCell ref="BU33:BU34"/>
+    <mergeCell ref="BU35:BU37"/>
+    <mergeCell ref="BU25:BU26"/>
+    <mergeCell ref="BU27:BU28"/>
+    <mergeCell ref="BU29:BU30"/>
+    <mergeCell ref="BU31:BU32"/>
+    <mergeCell ref="BT33:BT34"/>
+    <mergeCell ref="BT35:BT36"/>
+    <mergeCell ref="BU2:BU3"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="BU6:BU7"/>
+    <mergeCell ref="BU8:BU9"/>
+    <mergeCell ref="BU10:BU11"/>
+    <mergeCell ref="BU12:BU13"/>
+    <mergeCell ref="BU14:BU15"/>
+    <mergeCell ref="BR31:BR32"/>
+    <mergeCell ref="BR19:BR20"/>
+    <mergeCell ref="BR21:BR22"/>
+    <mergeCell ref="BR23:BR24"/>
+    <mergeCell ref="BR10:BR11"/>
+    <mergeCell ref="BR12:BR13"/>
+    <mergeCell ref="BR25:BR30"/>
+    <mergeCell ref="BR2:BR3"/>
+    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BU16:BU17"/>
+    <mergeCell ref="BU19:BU20"/>
+    <mergeCell ref="BU21:BU22"/>
+    <mergeCell ref="BU23:BU24"/>
+    <mergeCell ref="BS30:BS31"/>
+    <mergeCell ref="BL16:BL17"/>
+    <mergeCell ref="BL18:BL24"/>
+    <mergeCell ref="BK25:BK26"/>
+    <mergeCell ref="BK27:BK29"/>
+    <mergeCell ref="BK18:BK19"/>
+    <mergeCell ref="BK20:BK21"/>
+    <mergeCell ref="BM20:BM21"/>
+    <mergeCell ref="BP35:BP37"/>
+    <mergeCell ref="BQ22:BQ23"/>
+    <mergeCell ref="BQ24:BQ25"/>
+    <mergeCell ref="BP26:BP28"/>
+    <mergeCell ref="BP29:BP30"/>
+    <mergeCell ref="BP31:BP32"/>
+    <mergeCell ref="BP33:BP34"/>
+    <mergeCell ref="BP16:BP18"/>
+    <mergeCell ref="BP19:BP20"/>
+    <mergeCell ref="BP21:BP22"/>
+    <mergeCell ref="BP24:BP25"/>
+    <mergeCell ref="BQ20:BQ21"/>
+    <mergeCell ref="BQ28:BQ29"/>
+    <mergeCell ref="BQ30:BQ31"/>
+    <mergeCell ref="BQ32:BQ35"/>
+    <mergeCell ref="BQ36:BQ37"/>
+    <mergeCell ref="BM22:BM24"/>
+    <mergeCell ref="BI23:BI24"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="BI4:BI6"/>
+    <mergeCell ref="BI7:BI8"/>
+    <mergeCell ref="BI9:BI10"/>
+    <mergeCell ref="BI11:BI12"/>
+    <mergeCell ref="BI13:BI14"/>
+    <mergeCell ref="BO29:BO37"/>
+    <mergeCell ref="BP2:BP4"/>
+    <mergeCell ref="BP6:BP7"/>
+    <mergeCell ref="BK6:BK7"/>
+    <mergeCell ref="BK8:BK9"/>
+    <mergeCell ref="BK10:BK11"/>
+    <mergeCell ref="BJ23:BJ25"/>
+    <mergeCell ref="BJ26:BJ27"/>
+    <mergeCell ref="BJ28:BJ29"/>
+    <mergeCell ref="BJ36:BJ37"/>
+    <mergeCell ref="BJ34:BJ35"/>
+    <mergeCell ref="BK34:BK35"/>
+    <mergeCell ref="BK22:BK24"/>
+    <mergeCell ref="BK14:BK15"/>
+    <mergeCell ref="BL14:BL15"/>
+    <mergeCell ref="BM14:BM15"/>
+    <mergeCell ref="BK16:BK17"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BJ6:BJ8"/>
+    <mergeCell ref="BJ9:BJ10"/>
+    <mergeCell ref="BJ11:BJ12"/>
+    <mergeCell ref="BJ13:BJ14"/>
+    <mergeCell ref="BJ15:BJ16"/>
+    <mergeCell ref="BJ17:BJ18"/>
+    <mergeCell ref="BJ21:BJ22"/>
+    <mergeCell ref="BJ19:BJ20"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BB6:BB7"/>
+    <mergeCell ref="BB8:BB9"/>
+    <mergeCell ref="BB10:BB13"/>
+    <mergeCell ref="BB25:BB29"/>
+    <mergeCell ref="BC24:BC25"/>
+    <mergeCell ref="BC26:BC32"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BG6:BG7"/>
+    <mergeCell ref="BG8:BG9"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="BF6:BF9"/>
+    <mergeCell ref="BF10:BF11"/>
+    <mergeCell ref="BC7:BC8"/>
+    <mergeCell ref="BC10:BC13"/>
+    <mergeCell ref="BG11:BG12"/>
+    <mergeCell ref="BG13:BG19"/>
+    <mergeCell ref="BG20:BG21"/>
+    <mergeCell ref="BB23:BB24"/>
+    <mergeCell ref="BB14:BB21"/>
+    <mergeCell ref="BC14:BC15"/>
+    <mergeCell ref="AX8:AX9"/>
+    <mergeCell ref="AZ3:AZ4"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="AZ7:AZ8"/>
+    <mergeCell ref="AZ12:AZ13"/>
+    <mergeCell ref="AZ10:AZ11"/>
+    <mergeCell ref="AZ16:AZ17"/>
+    <mergeCell ref="AZ14:AZ15"/>
+    <mergeCell ref="AZ18:AZ19"/>
+    <mergeCell ref="AU20:AU23"/>
+    <mergeCell ref="AW16:AW17"/>
+    <mergeCell ref="AW19:AW20"/>
+    <mergeCell ref="AU35:AU36"/>
+    <mergeCell ref="AU26:AU30"/>
+    <mergeCell ref="AV6:AV7"/>
+    <mergeCell ref="AV8:AV9"/>
+    <mergeCell ref="AV10:AV11"/>
+    <mergeCell ref="AV12:AV13"/>
+    <mergeCell ref="AV14:AV17"/>
+    <mergeCell ref="AV18:AV19"/>
+    <mergeCell ref="AV20:AV23"/>
+    <mergeCell ref="AV24:AV25"/>
+    <mergeCell ref="AV26:AV27"/>
+    <mergeCell ref="AV29:AV30"/>
+    <mergeCell ref="AV32:AV33"/>
+    <mergeCell ref="AV34:AV35"/>
+    <mergeCell ref="AV36:AV37"/>
+    <mergeCell ref="AU24:AU25"/>
+    <mergeCell ref="AW21:AW22"/>
+    <mergeCell ref="AW23:AW24"/>
+    <mergeCell ref="AW25:AW28"/>
+    <mergeCell ref="AW6:AW7"/>
+    <mergeCell ref="AW29:AW30"/>
+    <mergeCell ref="AT25:AT26"/>
+    <mergeCell ref="AT27:AT28"/>
+    <mergeCell ref="AT29:AT30"/>
+    <mergeCell ref="AT31:AT32"/>
+    <mergeCell ref="AT33:AT34"/>
+    <mergeCell ref="AU31:AU32"/>
+    <mergeCell ref="AU33:AU34"/>
+    <mergeCell ref="AT35:AT36"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="AT6:AT7"/>
+    <mergeCell ref="AT8:AT12"/>
+    <mergeCell ref="AT13:AT14"/>
+    <mergeCell ref="AT15:AT18"/>
+    <mergeCell ref="AT19:AT20"/>
+    <mergeCell ref="AT21:AT22"/>
+    <mergeCell ref="AT23:AT24"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AU6:AU7"/>
+    <mergeCell ref="AU8:AU9"/>
+    <mergeCell ref="AU10:AU13"/>
+    <mergeCell ref="AU14:AU15"/>
+    <mergeCell ref="AU16:AU19"/>
+    <mergeCell ref="AS20:AS21"/>
+    <mergeCell ref="AS22:AS23"/>
+    <mergeCell ref="AS24:AS25"/>
+    <mergeCell ref="AS26:AS27"/>
+    <mergeCell ref="AS28:AS29"/>
+    <mergeCell ref="AS30:AS33"/>
+    <mergeCell ref="AS34:AS35"/>
+    <mergeCell ref="AS36:AS37"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AS6:AS7"/>
+    <mergeCell ref="AS8:AS9"/>
+    <mergeCell ref="AS10:AS11"/>
+    <mergeCell ref="AS12:AS13"/>
+    <mergeCell ref="AS14:AS15"/>
+    <mergeCell ref="AS16:AS17"/>
+    <mergeCell ref="AS18:AS19"/>
+    <mergeCell ref="AQ33:AQ34"/>
+    <mergeCell ref="AQ36:AQ37"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AR6:AR7"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AR10:AR11"/>
+    <mergeCell ref="AR13:AR14"/>
+    <mergeCell ref="AR15:AR16"/>
+    <mergeCell ref="AR17:AR18"/>
+    <mergeCell ref="AR19:AR20"/>
+    <mergeCell ref="AR21:AR27"/>
+    <mergeCell ref="AQ27:AQ28"/>
+    <mergeCell ref="AQ29:AQ30"/>
+    <mergeCell ref="AQ31:AQ32"/>
+    <mergeCell ref="AR29:AR33"/>
+    <mergeCell ref="AR36:AR37"/>
+    <mergeCell ref="AR34:AR35"/>
+    <mergeCell ref="AQ2:AQ5"/>
+    <mergeCell ref="AQ6:AQ11"/>
+    <mergeCell ref="AQ13:AQ19"/>
+    <mergeCell ref="AQ20:AQ26"/>
+    <mergeCell ref="AM20:AM21"/>
+    <mergeCell ref="AM22:AM23"/>
+    <mergeCell ref="AM24:AM28"/>
+    <mergeCell ref="AM29:AM30"/>
+    <mergeCell ref="AM31:AM32"/>
+    <mergeCell ref="AN22:AN23"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AK18:AK19"/>
+    <mergeCell ref="AK20:AK21"/>
+    <mergeCell ref="AK22:AK23"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AE18:AE21"/>
+    <mergeCell ref="AE23:AE24"/>
+    <mergeCell ref="AF8:AF10"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH13:AH15"/>
+    <mergeCell ref="AH11:AH12"/>
+    <mergeCell ref="AD18:AD21"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AF13:AF21"/>
+    <mergeCell ref="AG10:AG13"/>
+    <mergeCell ref="AG16:AG17"/>
+    <mergeCell ref="AG20:AG22"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AI4:AI7"/>
+    <mergeCell ref="AJ2:AJ5"/>
+    <mergeCell ref="AJ15:AJ18"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AJ24:AJ25"/>
+    <mergeCell ref="AK16:AK17"/>
+    <mergeCell ref="AJ10:AJ11"/>
+    <mergeCell ref="AI16:AI18"/>
+    <mergeCell ref="AI9:AI15"/>
+    <mergeCell ref="AJ12:AJ13"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AK10:AK11"/>
+    <mergeCell ref="AK12:AK15"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="Z6:Z8"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA17:AA19"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="Y12:Y14"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="AA6:AA10"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="AD2:AD4"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AB8:AB10"/>
+    <mergeCell ref="AD6:AD8"/>
+    <mergeCell ref="Z11:Z16"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="V7:V11"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="V15:V20"/>
+    <mergeCell ref="W16:W20"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="U20:U22"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="O29:O34"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="P19:P24"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="O23:O26"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="O2:O6"/>
+    <mergeCell ref="Q2:Q8"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="R13:R17"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="T7:T10"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="S3:S6"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G25:G30"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I30"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="L33:L35"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K5:K8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L25:L30"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N25:N30"/>
+    <mergeCell ref="M28:M30"/>
+    <mergeCell ref="M17:M24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="R36:R37"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="R10:R12"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q14:Q16"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="Z36:Z37"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Y23:Y26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="V28:V31"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="V36:V37"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="U27:U29"/>
+    <mergeCell ref="U23:U26"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="S25:S30"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="T21:T28"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="U35:U37"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="AB18:AB20"/>
+    <mergeCell ref="AB21:AB23"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="AA21:AA22"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="Q25:Q28"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="U11:U13"/>
+    <mergeCell ref="Y17:Y19"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="W36:W37"/>
+    <mergeCell ref="AH32:AH34"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="AC10:AC14"/>
+    <mergeCell ref="AC15:AC17"/>
+    <mergeCell ref="AC18:AC19"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="AC22:AC23"/>
+    <mergeCell ref="AD25:AD30"/>
+    <mergeCell ref="AD14:AD15"/>
+    <mergeCell ref="AD12:AD13"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AG25:AG30"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AH24:AH26"/>
+    <mergeCell ref="AH29:AH30"/>
+    <mergeCell ref="AH27:AH28"/>
+    <mergeCell ref="W33:W35"/>
+    <mergeCell ref="AH16:AH18"/>
+    <mergeCell ref="AH19:AH23"/>
+    <mergeCell ref="U32:U34"/>
+    <mergeCell ref="AH35:AH36"/>
+    <mergeCell ref="AI34:AI35"/>
+    <mergeCell ref="AC36:AC37"/>
+    <mergeCell ref="AB31:AB32"/>
+    <mergeCell ref="AI31:AI33"/>
+    <mergeCell ref="AL25:AL30"/>
+    <mergeCell ref="AL36:AL37"/>
+    <mergeCell ref="AL34:AL35"/>
+    <mergeCell ref="AB34:AB35"/>
+    <mergeCell ref="AC28:AC30"/>
+    <mergeCell ref="AB25:AB30"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z34:Z35"/>
+    <mergeCell ref="W25:W30"/>
+    <mergeCell ref="X35:X36"/>
+    <mergeCell ref="X24:X26"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AA29:AA32"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="Z25:Z30"/>
+    <mergeCell ref="Z31:Z32"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="AJ32:AJ33"/>
+    <mergeCell ref="AK31:AK32"/>
+    <mergeCell ref="AN33:AN36"/>
+    <mergeCell ref="AM33:AM34"/>
+    <mergeCell ref="AM35:AM36"/>
+    <mergeCell ref="AK25:AK30"/>
+    <mergeCell ref="AD31:AD32"/>
+    <mergeCell ref="AJ36:AJ37"/>
+    <mergeCell ref="AJ34:AJ35"/>
+    <mergeCell ref="AJ26:AJ27"/>
+    <mergeCell ref="AJ28:AJ29"/>
+    <mergeCell ref="AE30:AE32"/>
+    <mergeCell ref="AK33:AK34"/>
+    <mergeCell ref="AK35:AK36"/>
+    <mergeCell ref="AL31:AL32"/>
+    <mergeCell ref="AI25:AI30"/>
+    <mergeCell ref="AJ30:AJ31"/>
+    <mergeCell ref="AG36:AG37"/>
+    <mergeCell ref="AG31:AG32"/>
+    <mergeCell ref="AG34:AG35"/>
+    <mergeCell ref="AE36:AE37"/>
+    <mergeCell ref="AE34:AE35"/>
+    <mergeCell ref="AF26:AF29"/>
+    <mergeCell ref="AF30:AF31"/>
+    <mergeCell ref="AF36:AF37"/>
+    <mergeCell ref="AE25:AE27"/>
+    <mergeCell ref="AF24:AF25"/>
+    <mergeCell ref="AN16:AN17"/>
+    <mergeCell ref="AO27:AO28"/>
+    <mergeCell ref="AO31:AO37"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AN6:AN11"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AO2:AO5"/>
+    <mergeCell ref="AO6:AO7"/>
+    <mergeCell ref="AN25:AN30"/>
+    <mergeCell ref="AN31:AN32"/>
+    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AP7:AP8"/>
+    <mergeCell ref="AP9:AP12"/>
+    <mergeCell ref="AP13:AP29"/>
+    <mergeCell ref="AP30:AP31"/>
+    <mergeCell ref="AP32:AP33"/>
+    <mergeCell ref="AP34:AP37"/>
+    <mergeCell ref="AO12:AO26"/>
+    <mergeCell ref="AO29:AO30"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AM4:AM9"/>
+    <mergeCell ref="AM10:AM11"/>
+    <mergeCell ref="AM13:AM15"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AL7:AL9"/>
+    <mergeCell ref="AL11:AL13"/>
+    <mergeCell ref="AL15:AL16"/>
+    <mergeCell ref="AM16:AM17"/>
+    <mergeCell ref="AL17:AL19"/>
+    <mergeCell ref="AM18:AM19"/>
+    <mergeCell ref="AW32:AW33"/>
+    <mergeCell ref="BA22:BA23"/>
+    <mergeCell ref="BA24:BA25"/>
+    <mergeCell ref="BA26:BA27"/>
+    <mergeCell ref="AZ36:AZ37"/>
+    <mergeCell ref="AZ20:AZ26"/>
+    <mergeCell ref="AZ28:AZ29"/>
+    <mergeCell ref="AX21:AX23"/>
+    <mergeCell ref="AX24:AX26"/>
+    <mergeCell ref="AX28:AX29"/>
+    <mergeCell ref="AX30:AX32"/>
+    <mergeCell ref="AW36:AW37"/>
+    <mergeCell ref="AW34:AW35"/>
+    <mergeCell ref="BA28:BA29"/>
+    <mergeCell ref="AY25:AY29"/>
+    <mergeCell ref="AY18:AY20"/>
+    <mergeCell ref="AY21:AY22"/>
+    <mergeCell ref="AX19:AX20"/>
+    <mergeCell ref="BA18:BA19"/>
+    <mergeCell ref="BD28:BD29"/>
+    <mergeCell ref="BD4:BD7"/>
+    <mergeCell ref="BA36:BA37"/>
+    <mergeCell ref="AY10:AY13"/>
+    <mergeCell ref="BA30:BA33"/>
+    <mergeCell ref="AY30:AY33"/>
+    <mergeCell ref="AZ30:AZ33"/>
+    <mergeCell ref="AX34:AX37"/>
+    <mergeCell ref="AY36:AY37"/>
+    <mergeCell ref="AX14:AX15"/>
+    <mergeCell ref="AX17:AX18"/>
+    <mergeCell ref="BB34:BB35"/>
+    <mergeCell ref="BB36:BB37"/>
+    <mergeCell ref="AY14:AY15"/>
+    <mergeCell ref="AY16:AY17"/>
+    <mergeCell ref="AY3:AY4"/>
+    <mergeCell ref="AY5:AY6"/>
+    <mergeCell ref="BA6:BA7"/>
+    <mergeCell ref="BA8:BA9"/>
+    <mergeCell ref="BA16:BA17"/>
+    <mergeCell ref="BA10:BA15"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AX6:AX7"/>
+    <mergeCell ref="BC20:BC21"/>
+    <mergeCell ref="BC22:BC23"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BD8:BD9"/>
+    <mergeCell ref="BD14:BD15"/>
+    <mergeCell ref="BD10:BD13"/>
+    <mergeCell ref="BD16:BD17"/>
+    <mergeCell ref="BD18:BD19"/>
+    <mergeCell ref="BD20:BD21"/>
+    <mergeCell ref="BD22:BD27"/>
+    <mergeCell ref="BE20:BE21"/>
+    <mergeCell ref="BE22:BE23"/>
+    <mergeCell ref="BB30:BB33"/>
+    <mergeCell ref="BA20:BA21"/>
+    <mergeCell ref="AW8:AW11"/>
+    <mergeCell ref="BD34:BD35"/>
+    <mergeCell ref="BD36:BD37"/>
+    <mergeCell ref="BF12:BF23"/>
+    <mergeCell ref="BF26:BF27"/>
+    <mergeCell ref="BF28:BF31"/>
+    <mergeCell ref="BF32:BF35"/>
+    <mergeCell ref="BF36:BF37"/>
+    <mergeCell ref="BE24:BE27"/>
+    <mergeCell ref="BE28:BE29"/>
+    <mergeCell ref="BE30:BE31"/>
+    <mergeCell ref="BE32:BE33"/>
+    <mergeCell ref="BE34:BE35"/>
+    <mergeCell ref="BE36:BE37"/>
+    <mergeCell ref="BC33:BC34"/>
+    <mergeCell ref="BC35:BC36"/>
+    <mergeCell ref="BD30:BD31"/>
+    <mergeCell ref="BD32:BD33"/>
+    <mergeCell ref="BC16:BC17"/>
+    <mergeCell ref="BC18:BC19"/>
+    <mergeCell ref="BG36:BG37"/>
+    <mergeCell ref="BH36:BH37"/>
+    <mergeCell ref="BG34:BG35"/>
+    <mergeCell ref="BH34:BH35"/>
+    <mergeCell ref="BG32:BG33"/>
+    <mergeCell ref="BL34:BL35"/>
+    <mergeCell ref="BM34:BM35"/>
+    <mergeCell ref="BK36:BK37"/>
+    <mergeCell ref="BL36:BL37"/>
+    <mergeCell ref="BM36:BM37"/>
+    <mergeCell ref="BK30:BK33"/>
+    <mergeCell ref="BJ30:BJ33"/>
+    <mergeCell ref="BI29:BI32"/>
+    <mergeCell ref="BI36:BI37"/>
+    <mergeCell ref="BI34:BI35"/>
+    <mergeCell ref="BG28:BG31"/>
+    <mergeCell ref="BH26:BH28"/>
+    <mergeCell ref="BH29:BH30"/>
+    <mergeCell ref="BH31:BH32"/>
+    <mergeCell ref="BI25:BI26"/>
+    <mergeCell ref="BI27:BI28"/>
+    <mergeCell ref="BL28:BL29"/>
+    <mergeCell ref="BM28:BM29"/>
+    <mergeCell ref="BN29:BN31"/>
+    <mergeCell ref="BN32:BN33"/>
+    <mergeCell ref="BN34:BN35"/>
+    <mergeCell ref="BN36:BN37"/>
+    <mergeCell ref="BN27:BN28"/>
+    <mergeCell ref="BL30:BL33"/>
+    <mergeCell ref="BM30:BM33"/>
+    <mergeCell ref="BN21:BN26"/>
+    <mergeCell ref="BO2:BO3"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BN6:BN18"/>
+    <mergeCell ref="BN2:BN3"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BN19:BN20"/>
+    <mergeCell ref="BO10:BO11"/>
+    <mergeCell ref="BO12:BO13"/>
+    <mergeCell ref="BO14:BO15"/>
+    <mergeCell ref="BO16:BO17"/>
+    <mergeCell ref="BO18:BO19"/>
+    <mergeCell ref="BO20:BO21"/>
+    <mergeCell ref="BO6:BO7"/>
+    <mergeCell ref="BO8:BO9"/>
+    <mergeCell ref="BO22:BO24"/>
+    <mergeCell ref="BO25:BO26"/>
+    <mergeCell ref="BF24:BF25"/>
+    <mergeCell ref="BL6:BL7"/>
+    <mergeCell ref="BM6:BM7"/>
+    <mergeCell ref="BK12:BK13"/>
+    <mergeCell ref="BL8:BL9"/>
+    <mergeCell ref="BM8:BM9"/>
+    <mergeCell ref="BI15:BI16"/>
+    <mergeCell ref="BI17:BI18"/>
+    <mergeCell ref="BI19:BI20"/>
+    <mergeCell ref="BH21:BH23"/>
+    <mergeCell ref="BL25:BL27"/>
+    <mergeCell ref="BM25:BM27"/>
+    <mergeCell ref="BG22:BG23"/>
+    <mergeCell ref="BG24:BG25"/>
+    <mergeCell ref="BG26:BG27"/>
+    <mergeCell ref="BH6:BH7"/>
+    <mergeCell ref="BH8:BH10"/>
+    <mergeCell ref="BH11:BH12"/>
+    <mergeCell ref="BH13:BH14"/>
+    <mergeCell ref="BH15:BH16"/>
+    <mergeCell ref="BH17:BH18"/>
+    <mergeCell ref="BH19:BH20"/>
+    <mergeCell ref="BH24:BH25"/>
+    <mergeCell ref="BI21:BI22"/>
+    <mergeCell ref="AV2:AV5"/>
+    <mergeCell ref="BA2:BA5"/>
+    <mergeCell ref="BC2:BC5"/>
+    <mergeCell ref="BK2:BK5"/>
+    <mergeCell ref="BL2:BL5"/>
+    <mergeCell ref="BM2:BM5"/>
+    <mergeCell ref="BL10:BL13"/>
+    <mergeCell ref="BM10:BM13"/>
+    <mergeCell ref="BM16:BM19"/>
+    <mergeCell ref="BH2:BH3"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="BE2:BE3"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="BE6:BE7"/>
+    <mergeCell ref="BE8:BE11"/>
+    <mergeCell ref="BE12:BE15"/>
+    <mergeCell ref="BE16:BE17"/>
+    <mergeCell ref="BE18:BE19"/>
+    <mergeCell ref="AW12:AW13"/>
+    <mergeCell ref="AW14:AW15"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AY8:AY9"/>
+    <mergeCell ref="AX10:AX13"/>
+    <mergeCell ref="BR33:BR34"/>
+    <mergeCell ref="BO27:BO28"/>
+    <mergeCell ref="BP8:BP11"/>
+    <mergeCell ref="BP12:BP13"/>
+    <mergeCell ref="BP14:BP15"/>
+    <mergeCell ref="BQ8:BQ9"/>
+    <mergeCell ref="BT20:BT21"/>
+    <mergeCell ref="BT22:BT23"/>
+    <mergeCell ref="BT24:BT25"/>
+    <mergeCell ref="BT26:BT27"/>
+    <mergeCell ref="BT28:BT29"/>
+    <mergeCell ref="BS10:BS11"/>
+    <mergeCell ref="BS12:BS13"/>
+    <mergeCell ref="BS14:BS15"/>
+    <mergeCell ref="BS16:BS17"/>
+    <mergeCell ref="BS18:BS19"/>
+    <mergeCell ref="BS20:BS21"/>
+    <mergeCell ref="BS22:BS23"/>
+    <mergeCell ref="BS24:BS25"/>
+    <mergeCell ref="BT18:BT19"/>
+    <mergeCell ref="BS26:BS27"/>
+    <mergeCell ref="BS28:BS29"/>
+    <mergeCell ref="BW28:BW29"/>
+    <mergeCell ref="BW36:BW37"/>
+    <mergeCell ref="BW26:BW27"/>
+    <mergeCell ref="BW30:BW31"/>
+    <mergeCell ref="BW22:BW23"/>
+    <mergeCell ref="BT30:BT31"/>
+    <mergeCell ref="BQ2:BQ3"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="BS2:BS3"/>
+    <mergeCell ref="BS5:BS6"/>
+    <mergeCell ref="BT2:BT3"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BT12:BT13"/>
+    <mergeCell ref="BT16:BT17"/>
+    <mergeCell ref="BT14:BT15"/>
+    <mergeCell ref="BQ6:BQ7"/>
+    <mergeCell ref="BQ10:BQ12"/>
+    <mergeCell ref="BQ15:BQ16"/>
+    <mergeCell ref="BQ13:BQ14"/>
+    <mergeCell ref="BQ17:BQ18"/>
+    <mergeCell ref="BQ26:BQ27"/>
+    <mergeCell ref="BR15:BR16"/>
+    <mergeCell ref="BR17:BR18"/>
+    <mergeCell ref="BR8:BR9"/>
+    <mergeCell ref="BX12:BX13"/>
+    <mergeCell ref="BX14:BX15"/>
+    <mergeCell ref="BX19:BX20"/>
+    <mergeCell ref="BW24:BW25"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="BX6:BX7"/>
+    <mergeCell ref="BX8:BX9"/>
+    <mergeCell ref="BW20:BW21"/>
+    <mergeCell ref="BW13:BW14"/>
     <mergeCell ref="BW34:BW35"/>
     <mergeCell ref="BV2:BV3"/>
     <mergeCell ref="BV4:BV5"/>
@@ -60477,899 +61403,16 @@
     <mergeCell ref="BW17:BW18"/>
     <mergeCell ref="BV31:BV32"/>
     <mergeCell ref="BX10:BX11"/>
-    <mergeCell ref="BX12:BX13"/>
-    <mergeCell ref="BX14:BX15"/>
-    <mergeCell ref="BX19:BX20"/>
-    <mergeCell ref="BW24:BW25"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="BX6:BX7"/>
-    <mergeCell ref="BX8:BX9"/>
-    <mergeCell ref="BW20:BW21"/>
-    <mergeCell ref="BW13:BW14"/>
-    <mergeCell ref="BW28:BW29"/>
-    <mergeCell ref="BW36:BW37"/>
-    <mergeCell ref="BW26:BW27"/>
-    <mergeCell ref="BW30:BW31"/>
-    <mergeCell ref="BW22:BW23"/>
-    <mergeCell ref="BT30:BT31"/>
-    <mergeCell ref="BQ2:BQ3"/>
-    <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BS2:BS3"/>
-    <mergeCell ref="BS5:BS6"/>
-    <mergeCell ref="BT2:BT3"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BT12:BT13"/>
-    <mergeCell ref="BT16:BT17"/>
-    <mergeCell ref="BT14:BT15"/>
-    <mergeCell ref="BQ6:BQ7"/>
-    <mergeCell ref="BQ10:BQ12"/>
-    <mergeCell ref="BQ15:BQ16"/>
-    <mergeCell ref="BQ13:BQ14"/>
-    <mergeCell ref="BQ17:BQ18"/>
-    <mergeCell ref="BQ26:BQ27"/>
-    <mergeCell ref="BR15:BR16"/>
-    <mergeCell ref="BR17:BR18"/>
-    <mergeCell ref="BR8:BR9"/>
-    <mergeCell ref="BR33:BR34"/>
-    <mergeCell ref="BO27:BO28"/>
-    <mergeCell ref="BP8:BP11"/>
-    <mergeCell ref="BP12:BP13"/>
-    <mergeCell ref="BP14:BP15"/>
-    <mergeCell ref="BQ8:BQ9"/>
-    <mergeCell ref="BT20:BT21"/>
-    <mergeCell ref="BT22:BT23"/>
-    <mergeCell ref="BT24:BT25"/>
-    <mergeCell ref="BT26:BT27"/>
-    <mergeCell ref="BT28:BT29"/>
-    <mergeCell ref="BS10:BS11"/>
-    <mergeCell ref="BS12:BS13"/>
-    <mergeCell ref="BS14:BS15"/>
-    <mergeCell ref="BS16:BS17"/>
-    <mergeCell ref="BS18:BS19"/>
-    <mergeCell ref="BS20:BS21"/>
-    <mergeCell ref="BS22:BS23"/>
-    <mergeCell ref="BS24:BS25"/>
-    <mergeCell ref="BT18:BT19"/>
-    <mergeCell ref="BS26:BS27"/>
-    <mergeCell ref="BS28:BS29"/>
-    <mergeCell ref="AV2:AV5"/>
-    <mergeCell ref="BA2:BA5"/>
-    <mergeCell ref="BC2:BC5"/>
-    <mergeCell ref="BK2:BK5"/>
-    <mergeCell ref="BL2:BL5"/>
-    <mergeCell ref="BM2:BM5"/>
-    <mergeCell ref="BL10:BL13"/>
-    <mergeCell ref="BM10:BM13"/>
-    <mergeCell ref="BM16:BM19"/>
-    <mergeCell ref="BH2:BH3"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="BE2:BE3"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="BE6:BE7"/>
-    <mergeCell ref="BE8:BE11"/>
-    <mergeCell ref="BE12:BE15"/>
-    <mergeCell ref="BE16:BE17"/>
-    <mergeCell ref="BE18:BE19"/>
-    <mergeCell ref="AW12:AW13"/>
-    <mergeCell ref="AW14:AW15"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AY8:AY9"/>
-    <mergeCell ref="AX10:AX13"/>
-    <mergeCell ref="BF24:BF25"/>
-    <mergeCell ref="BL6:BL7"/>
-    <mergeCell ref="BM6:BM7"/>
-    <mergeCell ref="BK12:BK13"/>
-    <mergeCell ref="BL8:BL9"/>
-    <mergeCell ref="BM8:BM9"/>
-    <mergeCell ref="BI15:BI16"/>
-    <mergeCell ref="BI17:BI18"/>
-    <mergeCell ref="BI19:BI20"/>
-    <mergeCell ref="BH21:BH23"/>
-    <mergeCell ref="BL25:BL27"/>
-    <mergeCell ref="BM25:BM27"/>
-    <mergeCell ref="BG22:BG23"/>
-    <mergeCell ref="BG24:BG25"/>
-    <mergeCell ref="BG26:BG27"/>
-    <mergeCell ref="BH6:BH7"/>
-    <mergeCell ref="BH8:BH10"/>
-    <mergeCell ref="BH11:BH12"/>
-    <mergeCell ref="BH13:BH14"/>
-    <mergeCell ref="BH15:BH16"/>
-    <mergeCell ref="BH17:BH18"/>
-    <mergeCell ref="BH19:BH20"/>
-    <mergeCell ref="BH24:BH25"/>
-    <mergeCell ref="BI21:BI22"/>
-    <mergeCell ref="BN29:BN31"/>
-    <mergeCell ref="BN32:BN33"/>
-    <mergeCell ref="BN34:BN35"/>
-    <mergeCell ref="BN36:BN37"/>
-    <mergeCell ref="BN27:BN28"/>
-    <mergeCell ref="BL30:BL33"/>
-    <mergeCell ref="BM30:BM33"/>
-    <mergeCell ref="BN21:BN26"/>
-    <mergeCell ref="BO2:BO3"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BN6:BN18"/>
-    <mergeCell ref="BN2:BN3"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BN19:BN20"/>
-    <mergeCell ref="BO10:BO11"/>
-    <mergeCell ref="BO12:BO13"/>
-    <mergeCell ref="BO14:BO15"/>
-    <mergeCell ref="BO16:BO17"/>
-    <mergeCell ref="BO18:BO19"/>
-    <mergeCell ref="BO20:BO21"/>
-    <mergeCell ref="BO6:BO7"/>
-    <mergeCell ref="BO8:BO9"/>
-    <mergeCell ref="BO22:BO24"/>
-    <mergeCell ref="BO25:BO26"/>
-    <mergeCell ref="BG36:BG37"/>
-    <mergeCell ref="BH36:BH37"/>
-    <mergeCell ref="BG34:BG35"/>
-    <mergeCell ref="BH34:BH35"/>
-    <mergeCell ref="BG32:BG33"/>
-    <mergeCell ref="BL34:BL35"/>
-    <mergeCell ref="BM34:BM35"/>
-    <mergeCell ref="BK36:BK37"/>
-    <mergeCell ref="BL36:BL37"/>
-    <mergeCell ref="BM36:BM37"/>
-    <mergeCell ref="BK30:BK33"/>
-    <mergeCell ref="BJ30:BJ33"/>
-    <mergeCell ref="BI29:BI32"/>
-    <mergeCell ref="BI36:BI37"/>
-    <mergeCell ref="BI34:BI35"/>
-    <mergeCell ref="BG28:BG31"/>
-    <mergeCell ref="BH26:BH28"/>
-    <mergeCell ref="BH29:BH30"/>
-    <mergeCell ref="BH31:BH32"/>
-    <mergeCell ref="BI25:BI26"/>
-    <mergeCell ref="BI27:BI28"/>
-    <mergeCell ref="BL28:BL29"/>
-    <mergeCell ref="BM28:BM29"/>
-    <mergeCell ref="BE20:BE21"/>
-    <mergeCell ref="BE22:BE23"/>
-    <mergeCell ref="BB30:BB33"/>
-    <mergeCell ref="BA20:BA21"/>
-    <mergeCell ref="AW8:AW11"/>
-    <mergeCell ref="BD34:BD35"/>
-    <mergeCell ref="BD36:BD37"/>
-    <mergeCell ref="BF12:BF23"/>
-    <mergeCell ref="BF26:BF27"/>
-    <mergeCell ref="BF28:BF31"/>
-    <mergeCell ref="BF32:BF35"/>
-    <mergeCell ref="BF36:BF37"/>
-    <mergeCell ref="BE24:BE27"/>
-    <mergeCell ref="BE28:BE29"/>
-    <mergeCell ref="BE30:BE31"/>
-    <mergeCell ref="BE32:BE33"/>
-    <mergeCell ref="BE34:BE35"/>
-    <mergeCell ref="BE36:BE37"/>
-    <mergeCell ref="BC33:BC34"/>
-    <mergeCell ref="BC35:BC36"/>
-    <mergeCell ref="BD30:BD31"/>
-    <mergeCell ref="BD32:BD33"/>
-    <mergeCell ref="BC16:BC17"/>
-    <mergeCell ref="BC18:BC19"/>
-    <mergeCell ref="BC20:BC21"/>
-    <mergeCell ref="BC22:BC23"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="BD8:BD9"/>
-    <mergeCell ref="BD14:BD15"/>
-    <mergeCell ref="BD10:BD13"/>
-    <mergeCell ref="BD16:BD17"/>
-    <mergeCell ref="BD18:BD19"/>
-    <mergeCell ref="BD20:BD21"/>
-    <mergeCell ref="BD22:BD27"/>
-    <mergeCell ref="BD28:BD29"/>
-    <mergeCell ref="BD4:BD7"/>
-    <mergeCell ref="BA36:BA37"/>
-    <mergeCell ref="AY10:AY13"/>
-    <mergeCell ref="BA30:BA33"/>
-    <mergeCell ref="AY30:AY33"/>
-    <mergeCell ref="AZ30:AZ33"/>
-    <mergeCell ref="AX34:AX37"/>
-    <mergeCell ref="AY36:AY37"/>
-    <mergeCell ref="AX14:AX15"/>
-    <mergeCell ref="AX17:AX18"/>
-    <mergeCell ref="BB34:BB35"/>
-    <mergeCell ref="BB36:BB37"/>
-    <mergeCell ref="AY14:AY15"/>
-    <mergeCell ref="AY16:AY17"/>
-    <mergeCell ref="AY3:AY4"/>
-    <mergeCell ref="AY5:AY6"/>
-    <mergeCell ref="BA6:BA7"/>
-    <mergeCell ref="BA8:BA9"/>
-    <mergeCell ref="BA16:BA17"/>
-    <mergeCell ref="BA10:BA15"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AX6:AX7"/>
-    <mergeCell ref="AW32:AW33"/>
-    <mergeCell ref="BA22:BA23"/>
-    <mergeCell ref="BA24:BA25"/>
-    <mergeCell ref="BA26:BA27"/>
-    <mergeCell ref="AZ36:AZ37"/>
-    <mergeCell ref="AZ20:AZ26"/>
-    <mergeCell ref="AZ28:AZ29"/>
-    <mergeCell ref="AX21:AX23"/>
-    <mergeCell ref="AX24:AX26"/>
-    <mergeCell ref="AX28:AX29"/>
-    <mergeCell ref="AX30:AX32"/>
-    <mergeCell ref="AW36:AW37"/>
-    <mergeCell ref="AW34:AW35"/>
-    <mergeCell ref="BA28:BA29"/>
-    <mergeCell ref="AY25:AY29"/>
-    <mergeCell ref="AY18:AY20"/>
-    <mergeCell ref="AY21:AY22"/>
-    <mergeCell ref="AX19:AX20"/>
-    <mergeCell ref="BA18:BA19"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AM4:AM9"/>
-    <mergeCell ref="AM10:AM11"/>
-    <mergeCell ref="AM13:AM15"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AL7:AL9"/>
-    <mergeCell ref="AL11:AL13"/>
-    <mergeCell ref="AL15:AL16"/>
-    <mergeCell ref="AM16:AM17"/>
-    <mergeCell ref="AL17:AL19"/>
-    <mergeCell ref="AM18:AM19"/>
-    <mergeCell ref="AF36:AF37"/>
-    <mergeCell ref="AE25:AE27"/>
-    <mergeCell ref="AF24:AF25"/>
-    <mergeCell ref="AN16:AN17"/>
-    <mergeCell ref="AO27:AO28"/>
-    <mergeCell ref="AO31:AO37"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AN6:AN11"/>
-    <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AO2:AO5"/>
-    <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="AN25:AN30"/>
-    <mergeCell ref="AN31:AN32"/>
-    <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AP7:AP8"/>
-    <mergeCell ref="AP9:AP12"/>
-    <mergeCell ref="AP13:AP29"/>
-    <mergeCell ref="AP30:AP31"/>
-    <mergeCell ref="AP32:AP33"/>
-    <mergeCell ref="AP34:AP37"/>
-    <mergeCell ref="AO12:AO26"/>
-    <mergeCell ref="AO29:AO30"/>
-    <mergeCell ref="AJ32:AJ33"/>
-    <mergeCell ref="AK31:AK32"/>
-    <mergeCell ref="AN33:AN36"/>
-    <mergeCell ref="AM33:AM34"/>
-    <mergeCell ref="AM35:AM36"/>
-    <mergeCell ref="AK25:AK30"/>
-    <mergeCell ref="AD31:AD32"/>
-    <mergeCell ref="AJ36:AJ37"/>
-    <mergeCell ref="AJ34:AJ35"/>
-    <mergeCell ref="AJ26:AJ27"/>
-    <mergeCell ref="AJ28:AJ29"/>
-    <mergeCell ref="AE30:AE32"/>
-    <mergeCell ref="AK33:AK34"/>
-    <mergeCell ref="AK35:AK36"/>
-    <mergeCell ref="AL31:AL32"/>
-    <mergeCell ref="AI25:AI30"/>
-    <mergeCell ref="AJ30:AJ31"/>
-    <mergeCell ref="AG36:AG37"/>
-    <mergeCell ref="AG31:AG32"/>
-    <mergeCell ref="AG34:AG35"/>
-    <mergeCell ref="AE36:AE37"/>
-    <mergeCell ref="AE34:AE35"/>
-    <mergeCell ref="AF26:AF29"/>
-    <mergeCell ref="AF30:AF31"/>
-    <mergeCell ref="U32:U34"/>
-    <mergeCell ref="AH35:AH36"/>
-    <mergeCell ref="AI34:AI35"/>
-    <mergeCell ref="AC36:AC37"/>
-    <mergeCell ref="AB31:AB32"/>
-    <mergeCell ref="AI31:AI33"/>
-    <mergeCell ref="AL25:AL30"/>
-    <mergeCell ref="AL36:AL37"/>
-    <mergeCell ref="AL34:AL35"/>
-    <mergeCell ref="AB34:AB35"/>
-    <mergeCell ref="AC28:AC30"/>
-    <mergeCell ref="AB25:AB30"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z34:Z35"/>
-    <mergeCell ref="W25:W30"/>
-    <mergeCell ref="X35:X36"/>
-    <mergeCell ref="X24:X26"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AA29:AA32"/>
-    <mergeCell ref="AA34:AA35"/>
-    <mergeCell ref="Z25:Z30"/>
-    <mergeCell ref="Z31:Z32"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="W36:W37"/>
-    <mergeCell ref="AH32:AH34"/>
-    <mergeCell ref="Y35:Y36"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="AC10:AC14"/>
-    <mergeCell ref="AC15:AC17"/>
-    <mergeCell ref="AC18:AC19"/>
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="AC22:AC23"/>
-    <mergeCell ref="AD25:AD30"/>
-    <mergeCell ref="AD14:AD15"/>
-    <mergeCell ref="AD12:AD13"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AG25:AG30"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AH24:AH26"/>
-    <mergeCell ref="AH29:AH30"/>
-    <mergeCell ref="AH27:AH28"/>
-    <mergeCell ref="W33:W35"/>
-    <mergeCell ref="AH16:AH18"/>
-    <mergeCell ref="AH19:AH23"/>
-    <mergeCell ref="AB18:AB20"/>
-    <mergeCell ref="AB21:AB23"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="AA21:AA22"/>
-    <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="Q25:Q28"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="U11:U13"/>
-    <mergeCell ref="Y17:Y19"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="Z36:Z37"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="Y23:Y26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="V28:V31"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="V34:V35"/>
-    <mergeCell ref="V36:V37"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="U27:U29"/>
-    <mergeCell ref="U23:U26"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="S25:S30"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="T21:T28"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="T31:T32"/>
-    <mergeCell ref="U35:U37"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="R36:R37"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="R10:R12"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q14:Q16"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="L33:L35"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K5:K8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L25:L30"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N25:N30"/>
-    <mergeCell ref="M28:M30"/>
-    <mergeCell ref="M17:M24"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C37"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G25:G30"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I30"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E25:E30"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="H13:H16"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="R13:R17"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="T7:T10"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="S3:S6"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="O2:O6"/>
-    <mergeCell ref="O29:O34"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="P27:P29"/>
-    <mergeCell ref="P30:P32"/>
-    <mergeCell ref="P19:P24"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="O23:O26"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="Q2:Q8"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AB8:AB10"/>
-    <mergeCell ref="AD6:AD8"/>
-    <mergeCell ref="Z11:Z16"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="W3:W5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="V7:V11"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="V15:V20"/>
-    <mergeCell ref="W16:W20"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="U20:U22"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="Z6:Z8"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA17:AA19"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="AJ20:AJ21"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AE10:AE11"/>
-    <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="Y12:Y14"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="AA6:AA10"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="AD2:AD4"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AI4:AI7"/>
-    <mergeCell ref="AJ2:AJ5"/>
-    <mergeCell ref="AJ15:AJ18"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AJ24:AJ25"/>
-    <mergeCell ref="AK16:AK17"/>
-    <mergeCell ref="AJ10:AJ11"/>
-    <mergeCell ref="AI16:AI18"/>
-    <mergeCell ref="AI9:AI15"/>
-    <mergeCell ref="AJ12:AJ13"/>
-    <mergeCell ref="AI19:AI23"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AK10:AK11"/>
-    <mergeCell ref="AK12:AK15"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AE18:AE21"/>
-    <mergeCell ref="AE23:AE24"/>
-    <mergeCell ref="AF8:AF10"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH13:AH15"/>
-    <mergeCell ref="AH11:AH12"/>
-    <mergeCell ref="AD18:AD21"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="AF13:AF21"/>
-    <mergeCell ref="AG10:AG13"/>
-    <mergeCell ref="AG16:AG17"/>
-    <mergeCell ref="AG20:AG22"/>
-    <mergeCell ref="AM20:AM21"/>
-    <mergeCell ref="AM22:AM23"/>
-    <mergeCell ref="AM24:AM28"/>
-    <mergeCell ref="AM29:AM30"/>
-    <mergeCell ref="AM31:AM32"/>
-    <mergeCell ref="AN22:AN23"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AK18:AK19"/>
-    <mergeCell ref="AK20:AK21"/>
-    <mergeCell ref="AK22:AK23"/>
-    <mergeCell ref="AQ33:AQ34"/>
-    <mergeCell ref="AQ36:AQ37"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AR6:AR7"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AR10:AR11"/>
-    <mergeCell ref="AR13:AR14"/>
-    <mergeCell ref="AR15:AR16"/>
-    <mergeCell ref="AR17:AR18"/>
-    <mergeCell ref="AR19:AR20"/>
-    <mergeCell ref="AR21:AR27"/>
-    <mergeCell ref="AQ27:AQ28"/>
-    <mergeCell ref="AQ29:AQ30"/>
-    <mergeCell ref="AQ31:AQ32"/>
-    <mergeCell ref="AR29:AR33"/>
-    <mergeCell ref="AR36:AR37"/>
-    <mergeCell ref="AR34:AR35"/>
-    <mergeCell ref="AQ2:AQ5"/>
-    <mergeCell ref="AQ6:AQ11"/>
-    <mergeCell ref="AQ13:AQ19"/>
-    <mergeCell ref="AQ20:AQ26"/>
-    <mergeCell ref="AS20:AS21"/>
-    <mergeCell ref="AS22:AS23"/>
-    <mergeCell ref="AS24:AS25"/>
-    <mergeCell ref="AS26:AS27"/>
-    <mergeCell ref="AS28:AS29"/>
-    <mergeCell ref="AS30:AS33"/>
-    <mergeCell ref="AS34:AS35"/>
-    <mergeCell ref="AS36:AS37"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AS6:AS7"/>
-    <mergeCell ref="AS8:AS9"/>
-    <mergeCell ref="AS10:AS11"/>
-    <mergeCell ref="AS12:AS13"/>
-    <mergeCell ref="AS14:AS15"/>
-    <mergeCell ref="AS16:AS17"/>
-    <mergeCell ref="AS18:AS19"/>
-    <mergeCell ref="AT25:AT26"/>
-    <mergeCell ref="AT27:AT28"/>
-    <mergeCell ref="AT29:AT30"/>
-    <mergeCell ref="AT31:AT32"/>
-    <mergeCell ref="AT33:AT34"/>
-    <mergeCell ref="AU31:AU32"/>
-    <mergeCell ref="AU33:AU34"/>
-    <mergeCell ref="AT35:AT36"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="AT6:AT7"/>
-    <mergeCell ref="AT8:AT12"/>
-    <mergeCell ref="AT13:AT14"/>
-    <mergeCell ref="AT15:AT18"/>
-    <mergeCell ref="AT19:AT20"/>
-    <mergeCell ref="AT21:AT22"/>
-    <mergeCell ref="AT23:AT24"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AU6:AU7"/>
-    <mergeCell ref="AU8:AU9"/>
-    <mergeCell ref="AU10:AU13"/>
-    <mergeCell ref="AU14:AU15"/>
-    <mergeCell ref="AU16:AU19"/>
-    <mergeCell ref="AU20:AU23"/>
-    <mergeCell ref="AW16:AW17"/>
-    <mergeCell ref="AW19:AW20"/>
-    <mergeCell ref="AU35:AU36"/>
-    <mergeCell ref="AU26:AU30"/>
-    <mergeCell ref="AV6:AV7"/>
-    <mergeCell ref="AV8:AV9"/>
-    <mergeCell ref="AV10:AV11"/>
-    <mergeCell ref="AV12:AV13"/>
-    <mergeCell ref="AV14:AV17"/>
-    <mergeCell ref="AV18:AV19"/>
-    <mergeCell ref="AV20:AV23"/>
-    <mergeCell ref="AV24:AV25"/>
-    <mergeCell ref="AV26:AV27"/>
-    <mergeCell ref="AV29:AV30"/>
-    <mergeCell ref="AV32:AV33"/>
-    <mergeCell ref="AV34:AV35"/>
-    <mergeCell ref="AV36:AV37"/>
-    <mergeCell ref="AU24:AU25"/>
-    <mergeCell ref="AW21:AW22"/>
-    <mergeCell ref="AW23:AW24"/>
-    <mergeCell ref="AW25:AW28"/>
-    <mergeCell ref="AW6:AW7"/>
-    <mergeCell ref="AW29:AW30"/>
-    <mergeCell ref="AX8:AX9"/>
-    <mergeCell ref="AZ3:AZ4"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="AZ7:AZ8"/>
-    <mergeCell ref="AZ12:AZ13"/>
-    <mergeCell ref="AZ10:AZ11"/>
-    <mergeCell ref="AZ16:AZ17"/>
-    <mergeCell ref="AZ14:AZ15"/>
-    <mergeCell ref="AZ18:AZ19"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BB6:BB7"/>
-    <mergeCell ref="BB8:BB9"/>
-    <mergeCell ref="BB10:BB13"/>
-    <mergeCell ref="BB25:BB29"/>
-    <mergeCell ref="BC24:BC25"/>
-    <mergeCell ref="BC26:BC32"/>
-    <mergeCell ref="BG2:BG3"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BG6:BG7"/>
-    <mergeCell ref="BG8:BG9"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="BF6:BF9"/>
-    <mergeCell ref="BF10:BF11"/>
-    <mergeCell ref="BC7:BC8"/>
-    <mergeCell ref="BC10:BC13"/>
-    <mergeCell ref="BG11:BG12"/>
-    <mergeCell ref="BG13:BG19"/>
-    <mergeCell ref="BG20:BG21"/>
-    <mergeCell ref="BB23:BB24"/>
-    <mergeCell ref="BB14:BB21"/>
-    <mergeCell ref="BC14:BC15"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BJ6:BJ8"/>
-    <mergeCell ref="BJ9:BJ10"/>
-    <mergeCell ref="BJ11:BJ12"/>
-    <mergeCell ref="BJ13:BJ14"/>
-    <mergeCell ref="BJ15:BJ16"/>
-    <mergeCell ref="BJ17:BJ18"/>
-    <mergeCell ref="BJ21:BJ22"/>
-    <mergeCell ref="BJ19:BJ20"/>
-    <mergeCell ref="BI23:BI24"/>
-    <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="BI4:BI6"/>
-    <mergeCell ref="BI7:BI8"/>
-    <mergeCell ref="BI9:BI10"/>
-    <mergeCell ref="BI11:BI12"/>
-    <mergeCell ref="BI13:BI14"/>
-    <mergeCell ref="BO29:BO37"/>
-    <mergeCell ref="BP2:BP4"/>
-    <mergeCell ref="BP6:BP7"/>
-    <mergeCell ref="BK6:BK7"/>
-    <mergeCell ref="BK8:BK9"/>
-    <mergeCell ref="BK10:BK11"/>
-    <mergeCell ref="BJ23:BJ25"/>
-    <mergeCell ref="BJ26:BJ27"/>
-    <mergeCell ref="BJ28:BJ29"/>
-    <mergeCell ref="BJ36:BJ37"/>
-    <mergeCell ref="BJ34:BJ35"/>
-    <mergeCell ref="BK34:BK35"/>
-    <mergeCell ref="BK22:BK24"/>
-    <mergeCell ref="BK14:BK15"/>
-    <mergeCell ref="BL14:BL15"/>
-    <mergeCell ref="BM14:BM15"/>
-    <mergeCell ref="BK16:BK17"/>
-    <mergeCell ref="BL16:BL17"/>
-    <mergeCell ref="BL18:BL24"/>
-    <mergeCell ref="BK25:BK26"/>
-    <mergeCell ref="BK27:BK29"/>
-    <mergeCell ref="BK18:BK19"/>
-    <mergeCell ref="BK20:BK21"/>
-    <mergeCell ref="BM20:BM21"/>
-    <mergeCell ref="BP35:BP37"/>
-    <mergeCell ref="BQ22:BQ23"/>
-    <mergeCell ref="BQ24:BQ25"/>
-    <mergeCell ref="BP26:BP28"/>
-    <mergeCell ref="BP29:BP30"/>
-    <mergeCell ref="BP31:BP32"/>
-    <mergeCell ref="BP33:BP34"/>
-    <mergeCell ref="BP16:BP18"/>
-    <mergeCell ref="BP19:BP20"/>
-    <mergeCell ref="BP21:BP22"/>
-    <mergeCell ref="BP24:BP25"/>
-    <mergeCell ref="BQ20:BQ21"/>
-    <mergeCell ref="BQ28:BQ29"/>
-    <mergeCell ref="BQ30:BQ31"/>
-    <mergeCell ref="BQ32:BQ35"/>
-    <mergeCell ref="BQ36:BQ37"/>
-    <mergeCell ref="BM22:BM24"/>
-    <mergeCell ref="BU2:BU3"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="BU6:BU7"/>
-    <mergeCell ref="BU8:BU9"/>
-    <mergeCell ref="BU10:BU11"/>
-    <mergeCell ref="BU12:BU13"/>
-    <mergeCell ref="BU14:BU15"/>
-    <mergeCell ref="BR31:BR32"/>
-    <mergeCell ref="BR19:BR20"/>
-    <mergeCell ref="BR21:BR22"/>
-    <mergeCell ref="BR23:BR24"/>
-    <mergeCell ref="BR10:BR11"/>
-    <mergeCell ref="BR12:BR13"/>
-    <mergeCell ref="BR25:BR30"/>
-    <mergeCell ref="BR2:BR3"/>
-    <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BU16:BU17"/>
-    <mergeCell ref="BU19:BU20"/>
-    <mergeCell ref="BU21:BU22"/>
-    <mergeCell ref="BU23:BU24"/>
-    <mergeCell ref="BS30:BS31"/>
-    <mergeCell ref="BR35:BR37"/>
-    <mergeCell ref="BS33:BS34"/>
-    <mergeCell ref="BS36:BS37"/>
-    <mergeCell ref="BT6:BT7"/>
-    <mergeCell ref="BT8:BT9"/>
-    <mergeCell ref="BT10:BT11"/>
-    <mergeCell ref="BS8:BS9"/>
-    <mergeCell ref="BU33:BU34"/>
-    <mergeCell ref="BU35:BU37"/>
-    <mergeCell ref="BU25:BU26"/>
-    <mergeCell ref="BU27:BU28"/>
-    <mergeCell ref="BU29:BU30"/>
-    <mergeCell ref="BU31:BU32"/>
-    <mergeCell ref="BT33:BT34"/>
-    <mergeCell ref="BT35:BT36"/>
-    <mergeCell ref="BV25:BV26"/>
-    <mergeCell ref="BV27:BV28"/>
-    <mergeCell ref="BV29:BV30"/>
-    <mergeCell ref="BV36:BV37"/>
-    <mergeCell ref="BV9:BV10"/>
-    <mergeCell ref="BV11:BV12"/>
-    <mergeCell ref="BV13:BV14"/>
-    <mergeCell ref="BV15:BV16"/>
-    <mergeCell ref="BV17:BV18"/>
-    <mergeCell ref="BV21:BV22"/>
-    <mergeCell ref="BV23:BV24"/>
-    <mergeCell ref="BV34:BV35"/>
+    <mergeCell ref="BX36:BX37"/>
+    <mergeCell ref="BY16:BY17"/>
+    <mergeCell ref="BY18:BY19"/>
+    <mergeCell ref="BY20:BY21"/>
+    <mergeCell ref="BY22:BY23"/>
+    <mergeCell ref="BY24:BY25"/>
+    <mergeCell ref="BY28:BY29"/>
+    <mergeCell ref="BY30:BY31"/>
+    <mergeCell ref="BY32:BY33"/>
+    <mergeCell ref="BY35:BY36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -64630,7 +64673,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -65262,13 +65305,13 @@
       <c r="B13" s="79">
         <v>43647</v>
       </c>
-      <c r="C13" s="139" t="s">
+      <c r="C13" s="146" t="s">
         <v>740</v>
       </c>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
       <c r="I13" s="79">
         <f t="array" ref="I13:J13">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(WeekStart="星期一")+1)+36</f>
         <v>43681</v>
@@ -65276,13 +65319,13 @@
       <c r="J13" s="79">
         <v>43682</v>
       </c>
-      <c r="K13" s="139" t="s">
+      <c r="K13" s="146" t="s">
         <v>740</v>
       </c>
-      <c r="L13" s="140"/>
-      <c r="M13" s="140"/>
-      <c r="N13" s="140"/>
-      <c r="O13" s="140"/>
+      <c r="L13" s="147"/>
+      <c r="M13" s="147"/>
+      <c r="N13" s="147"/>
+      <c r="O13" s="147"/>
       <c r="Q13" s="79">
         <f t="array" ref="Q13:R13">DaysAndWeeks+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(WeekStart="星期一")+1)+36</f>
         <v>43709</v>
@@ -65290,36 +65333,36 @@
       <c r="R13" s="79">
         <v>43710</v>
       </c>
-      <c r="S13" s="139" t="s">
+      <c r="S13" s="146" t="s">
         <v>740</v>
       </c>
-      <c r="T13" s="140"/>
-      <c r="U13" s="140"/>
-      <c r="V13" s="140"/>
-      <c r="W13" s="140"/>
+      <c r="T13" s="147"/>
+      <c r="U13" s="147"/>
+      <c r="V13" s="147"/>
+      <c r="W13" s="147"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="80"/>
       <c r="B14" s="80"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
       <c r="I14" s="80"/>
       <c r="J14" s="80"/>
-      <c r="K14" s="139"/>
-      <c r="L14" s="140"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="140"/>
-      <c r="O14" s="140"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="147"/>
+      <c r="M14" s="147"/>
+      <c r="N14" s="147"/>
+      <c r="O14" s="147"/>
       <c r="Q14" s="80"/>
       <c r="R14" s="80"/>
-      <c r="S14" s="139"/>
-      <c r="T14" s="140"/>
-      <c r="U14" s="140"/>
-      <c r="V14" s="140"/>
-      <c r="W14" s="140"/>
+      <c r="S14" s="146"/>
+      <c r="T14" s="147"/>
+      <c r="U14" s="147"/>
+      <c r="V14" s="147"/>
+      <c r="W14" s="147"/>
     </row>
     <row r="16" spans="1:23" ht="43.8" x14ac:dyDescent="0.25">
       <c r="A16" s="74" t="str">
@@ -65966,13 +66009,13 @@
       <c r="B28" s="79">
         <v>43745</v>
       </c>
-      <c r="C28" s="139" t="s">
+      <c r="C28" s="146" t="s">
         <v>740</v>
       </c>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="147"/>
       <c r="J28">
         <v>9</v>
       </c>
@@ -65983,29 +66026,29 @@
       <c r="R28" s="79">
         <v>43801</v>
       </c>
-      <c r="S28" s="139" t="s">
+      <c r="S28" s="146" t="s">
         <v>740</v>
       </c>
-      <c r="T28" s="140"/>
-      <c r="U28" s="140"/>
-      <c r="V28" s="140"/>
-      <c r="W28" s="140"/>
+      <c r="T28" s="147"/>
+      <c r="U28" s="147"/>
+      <c r="V28" s="147"/>
+      <c r="W28" s="147"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="80"/>
       <c r="B29" s="80"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
       <c r="Q29" s="80"/>
       <c r="R29" s="80"/>
-      <c r="S29" s="139"/>
-      <c r="T29" s="140"/>
-      <c r="U29" s="140"/>
-      <c r="V29" s="140"/>
-      <c r="W29" s="140"/>
+      <c r="S29" s="146"/>
+      <c r="T29" s="147"/>
+      <c r="U29" s="147"/>
+      <c r="V29" s="147"/>
+      <c r="W29" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -69585,9 +69628,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82E9EE8-101F-4244-A1C5-FD14A9980EC6}">
   <dimension ref="A1:M146"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -70805,87 +70848,117 @@
         <v>739</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43617</v>
       </c>
       <c r="B49">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43618</v>
       </c>
       <c r="B50">
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43619</v>
       </c>
       <c r="B51">
         <v>21</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43620</v>
       </c>
       <c r="B52">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43621</v>
       </c>
       <c r="B53">
         <v>19</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="17" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43622</v>
       </c>
       <c r="B54">
         <v>18</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43623</v>
       </c>
       <c r="B55">
         <v>17</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43624</v>
       </c>
       <c r="B56">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43625</v>
       </c>
       <c r="B57">
         <v>15</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43626</v>
       </c>
       <c r="B58">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43627</v>
       </c>
@@ -70893,7 +70966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43628</v>
       </c>
@@ -70901,7 +70974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43629</v>
       </c>
@@ -70909,7 +70982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43630</v>
       </c>
@@ -70917,7 +70990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43631</v>
       </c>
@@ -70925,7 +70998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43632</v>
       </c>
@@ -71404,15 +71477,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.75">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="148" t="s">
         <v>461</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -71490,19 +71563,19 @@
       <c r="C5" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="D5" s="142" t="s">
+      <c r="D5" s="149" t="s">
         <v>498</v>
       </c>
-      <c r="E5" s="142" t="s">
+      <c r="E5" s="149" t="s">
         <v>531</v>
       </c>
-      <c r="F5" s="142" t="s">
+      <c r="F5" s="149" t="s">
         <v>516</v>
       </c>
-      <c r="G5" s="142" t="s">
+      <c r="G5" s="149" t="s">
         <v>517</v>
       </c>
-      <c r="H5" s="142" t="s">
+      <c r="H5" s="149" t="s">
         <v>518</v>
       </c>
     </row>
@@ -71516,11 +71589,11 @@
       <c r="C6" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="44">

--- a/DTP_deeplearning/_其他/zyh每日总结.xlsx
+++ b/DTP_deeplearning/_其他/zyh每日总结.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2000BE-F196-44EB-88B7-698CDCD5F203}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12CA3D6-1869-499E-937C-4BDB172BE0D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="644" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="单词本记录" sheetId="1" r:id="rId1"/>
-    <sheet name="时间规划表" sheetId="4" r:id="rId2"/>
+    <sheet name="时间统计表" sheetId="4" r:id="rId2"/>
     <sheet name="单词效率统计" sheetId="2" r:id="rId3"/>
     <sheet name="月份计划安排" sheetId="9" r:id="rId4"/>
     <sheet name="学费" sheetId="10" r:id="rId5"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="819">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3467,6 +3467,63 @@
   </si>
   <si>
     <t>整理问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何总讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停电下棋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扯犊子
+浪费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要太敏感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送芳芳姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提取数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行前准备整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃饭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4203,10 +4260,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4218,15 +4275,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4237,15 +4285,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4260,8 +4299,17 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4269,14 +4317,11 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4308,8 +4353,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4340,6 +4391,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4963,6 +5020,12 @@
                 <c:pt idx="125">
                   <c:v>97</c:v>
                 </c:pt>
+                <c:pt idx="126">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>98</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5379,6 +5442,12 @@
                 <c:pt idx="125">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="126">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5793,6 +5862,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -10794,6 +10869,12 @@
                 <c:pt idx="125">
                   <c:v>11121.050000000001</c:v>
                 </c:pt>
+                <c:pt idx="126">
+                  <c:v>11155</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>11302.34</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11210,6 +11291,12 @@
                 <c:pt idx="125">
                   <c:v>343.95</c:v>
                 </c:pt>
+                <c:pt idx="126">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>230.66</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11624,6 +11711,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -12058,6 +12151,12 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>11117</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>11169</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>11320</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12712,6 +12811,12 @@
                 <c:pt idx="125">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="126">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>33</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13132,6 +13237,12 @@
                 <c:pt idx="125">
                   <c:v>348</c:v>
                 </c:pt>
+                <c:pt idx="126">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>213</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13552,6 +13663,12 @@
                 <c:pt idx="125">
                   <c:v>347.82539682539681</c:v>
                 </c:pt>
+                <c:pt idx="126">
+                  <c:v>347.69291338582678</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>346.640625</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13971,6 +14088,12 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>137.875</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>171.5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>198.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14637,6 +14760,12 @@
                 <c:pt idx="125">
                   <c:v>343.95</c:v>
                 </c:pt>
+                <c:pt idx="126">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>230.66</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15055,6 +15184,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -15328,7 +15463,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>时间规划表!$A$40</c:f>
+              <c:f>时间统计表!$A$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15407,7 +15542,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>时间规划表!$B$47:$CQ$47</c:f>
+              <c:f>时间统计表!$B$47:$CQ$47</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="94"/>
@@ -15698,7 +15833,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>时间规划表!$B$40:$CQ$40</c:f>
+              <c:f>时间统计表!$B$40:$CQ$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="94"/>
@@ -15968,7 +16103,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>时间规划表!$A$41</c:f>
+              <c:f>时间统计表!$A$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16047,7 +16182,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>时间规划表!$B$47:$CQ$47</c:f>
+              <c:f>时间统计表!$B$47:$CQ$47</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="94"/>
@@ -16338,7 +16473,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>时间规划表!$B$41:$CQ$41</c:f>
+              <c:f>时间统计表!$B$41:$CQ$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="94"/>
@@ -16608,7 +16743,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>时间规划表!$A$42</c:f>
+              <c:f>时间统计表!$A$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16687,7 +16822,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>时间规划表!$B$47:$CQ$47</c:f>
+              <c:f>时间统计表!$B$47:$CQ$47</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="94"/>
@@ -16978,7 +17113,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>时间规划表!$B$42:$CQ$42</c:f>
+              <c:f>时间统计表!$B$42:$CQ$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="94"/>
@@ -17248,7 +17383,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>时间规划表!$A$43</c:f>
+              <c:f>时间统计表!$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -17327,7 +17462,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>时间规划表!$B$47:$CQ$47</c:f>
+              <c:f>时间统计表!$B$47:$CQ$47</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="94"/>
@@ -17618,7 +17753,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>时间规划表!$B$43:$CQ$43</c:f>
+              <c:f>时间统计表!$B$43:$CQ$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="94"/>
@@ -17888,7 +18023,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>时间规划表!$A$44</c:f>
+              <c:f>时间统计表!$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -17967,7 +18102,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>时间规划表!$B$47:$CQ$47</c:f>
+              <c:f>时间统计表!$B$47:$CQ$47</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="94"/>
@@ -18258,7 +18393,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>时间规划表!$B$44:$CQ$44</c:f>
+              <c:f>时间统计表!$B$44:$CQ$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="94"/>
@@ -18544,7 +18679,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>时间规划表!$A$48</c:f>
+              <c:f>时间统计表!$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18588,7 +18723,7 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>时间规划表!$B$48:$CQ$48</c:f>
+              <c:f>时间统计表!$B$48:$CQ$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="94"/>
@@ -18889,7 +19024,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>时间规划表!$A$49</c:f>
+              <c:f>时间统计表!$A$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18912,7 +19047,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>时间规划表!$B$49:$CQ$49</c:f>
+              <c:f>时间统计表!$B$49:$CQ$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="94"/>
@@ -19213,7 +19348,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>时间规划表!$A$50</c:f>
+              <c:f>时间统计表!$A$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -19236,7 +19371,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>时间规划表!$B$50:$CQ$50</c:f>
+              <c:f>时间统计表!$B$50:$CQ$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="94"/>
@@ -19537,7 +19672,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>时间规划表!$A$51</c:f>
+              <c:f>时间统计表!$A$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -19560,7 +19695,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>时间规划表!$B$51:$CQ$51</c:f>
+              <c:f>时间统计表!$B$51:$CQ$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="94"/>
@@ -19861,7 +19996,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>时间规划表!$A$52</c:f>
+              <c:f>时间统计表!$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -19884,7 +20019,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>时间规划表!$B$52:$CQ$52</c:f>
+              <c:f>时间统计表!$B$52:$CQ$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="94"/>
@@ -20507,7 +20642,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>时间规划表!$A$40</c15:sqref>
+                          <c15:sqref>时间统计表!$A$40</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -20592,7 +20727,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>时间规划表!$B$47:$AW$47</c15:sqref>
+                          <c15:sqref>时间统计表!$B$47:$AW$47</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -20751,7 +20886,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>时间规划表!$B$40:$AW$40</c15:sqref>
+                          <c15:sqref>时间统计表!$B$40:$AW$40</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -20921,7 +21056,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>时间规划表!$A$41</c15:sqref>
+                          <c15:sqref>时间统计表!$A$41</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -21006,7 +21141,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>时间规划表!$B$47:$AW$47</c15:sqref>
+                          <c15:sqref>时间统计表!$B$47:$AW$47</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -21165,7 +21300,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>时间规划表!$B$41:$AW$41</c15:sqref>
+                          <c15:sqref>时间统计表!$B$41:$AW$41</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -21335,7 +21470,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>时间规划表!$A$42</c15:sqref>
+                          <c15:sqref>时间统计表!$A$42</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -21420,7 +21555,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>时间规划表!$B$47:$AW$47</c15:sqref>
+                          <c15:sqref>时间统计表!$B$47:$AW$47</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -21579,7 +21714,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>时间规划表!$B$42:$AW$42</c15:sqref>
+                          <c15:sqref>时间统计表!$B$42:$AW$42</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -21749,7 +21884,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>时间规划表!$A$43</c15:sqref>
+                          <c15:sqref>时间统计表!$A$43</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -21834,7 +21969,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>时间规划表!$B$47:$AW$47</c15:sqref>
+                          <c15:sqref>时间统计表!$B$47:$AW$47</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -21993,7 +22128,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>时间规划表!$B$43:$AW$43</c15:sqref>
+                          <c15:sqref>时间统计表!$B$43:$AW$43</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -22163,7 +22298,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>时间规划表!$A$44</c15:sqref>
+                          <c15:sqref>时间统计表!$A$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -22248,7 +22383,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>时间规划表!$B$47:$AW$47</c15:sqref>
+                          <c15:sqref>时间统计表!$B$47:$AW$47</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -22407,7 +22542,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>时间规划表!$B$44:$AW$44</c15:sqref>
+                          <c15:sqref>时间统计表!$B$44:$AW$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -22579,7 +22714,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>时间规划表!$A$48</c:f>
+              <c:f>时间统计表!$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -22623,7 +22758,7 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>时间规划表!$B$48:$BW$48</c:f>
+              <c:f>时间统计表!$B$48:$BW$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="74"/>
@@ -22864,7 +22999,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>时间规划表!$A$49</c:f>
+              <c:f>时间统计表!$A$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -22887,7 +23022,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>时间规划表!$B$49:$CQ$49</c:f>
+              <c:f>时间统计表!$B$49:$CQ$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="94"/>
@@ -23188,7 +23323,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>时间规划表!$A$50</c:f>
+              <c:f>时间统计表!$A$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -23211,7 +23346,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>时间规划表!$B$50:$BW$50</c:f>
+              <c:f>时间统计表!$B$50:$BW$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="74"/>
@@ -23452,7 +23587,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>时间规划表!$A$51</c:f>
+              <c:f>时间统计表!$A$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -23475,7 +23610,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>时间规划表!$B$51:$BW$51</c:f>
+              <c:f>时间统计表!$B$51:$BW$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="74"/>
@@ -23716,7 +23851,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>时间规划表!$A$52</c:f>
+              <c:f>时间统计表!$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -23739,7 +23874,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>时间规划表!$B$52:$BW$52</c:f>
+              <c:f>时间统计表!$B$52:$BW$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="74"/>
@@ -24283,7 +24418,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>时间规划表!$A$153</c:f>
+              <c:f>时间统计表!$A$153</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -24306,7 +24441,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>时间规划表!$B$152:$DL$152</c:f>
+              <c:f>时间统计表!$B$152:$DL$152</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="115"/>
@@ -24567,7 +24702,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>时间规划表!$B$153:$DL$153</c:f>
+              <c:f>时间统计表!$B$153:$DL$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="115"/>
@@ -24811,7 +24946,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>时间规划表!$A$154</c:f>
+              <c:f>时间统计表!$A$154</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -24834,7 +24969,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>时间规划表!$B$152:$DL$152</c:f>
+              <c:f>时间统计表!$B$152:$DL$152</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="115"/>
@@ -25095,7 +25230,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>时间规划表!$B$154:$DL$154</c:f>
+              <c:f>时间统计表!$B$154:$DL$154</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="115"/>
@@ -25339,7 +25474,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>时间规划表!$A$155</c:f>
+              <c:f>时间统计表!$A$155</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -25362,7 +25497,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>时间规划表!$B$152:$DL$152</c:f>
+              <c:f>时间统计表!$B$152:$DL$152</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="115"/>
@@ -25623,7 +25758,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>时间规划表!$B$155:$DL$155</c:f>
+              <c:f>时间统计表!$B$155:$DL$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="115"/>
@@ -25867,7 +26002,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>时间规划表!$A$156</c:f>
+              <c:f>时间统计表!$A$156</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -25890,7 +26025,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>时间规划表!$B$152:$DL$152</c:f>
+              <c:f>时间统计表!$B$152:$DL$152</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="115"/>
@@ -26151,7 +26286,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>时间规划表!$B$156:$DL$156</c:f>
+              <c:f>时间统计表!$B$156:$DL$156</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="115"/>
@@ -26395,7 +26530,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>时间规划表!$A$157</c:f>
+              <c:f>时间统计表!$A$157</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -26418,7 +26553,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>时间规划表!$B$152:$DL$152</c:f>
+              <c:f>时间统计表!$B$152:$DL$152</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="115"/>
@@ -26679,7 +26814,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>时间规划表!$B$157:$DL$157</c:f>
+              <c:f>时间统计表!$B$157:$DL$157</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="115"/>
@@ -40638,9 +40773,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R128" sqref="R128"/>
+    <sheetView topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V127" sqref="V127:AA129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -47172,15 +47307,15 @@
         <v>0</v>
       </c>
       <c r="F110" s="6">
-        <f t="shared" ref="F110:F127" si="74">B110*C110*0.01</f>
+        <f t="shared" ref="F110:F129" si="74">B110*C110*0.01</f>
         <v>8816.5</v>
       </c>
       <c r="G110" s="6">
-        <f t="shared" ref="G110:G127" si="75">B110*D110*0.01</f>
+        <f t="shared" ref="G110:G129" si="75">B110*D110*0.01</f>
         <v>2633.5</v>
       </c>
       <c r="H110" s="6">
-        <f t="shared" ref="H110:H127" si="76">B110-B109</f>
+        <f t="shared" ref="H110:H129" si="76">B110-B109</f>
         <v>12</v>
       </c>
       <c r="I110" s="6">
@@ -47484,7 +47619,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="6">
-        <f t="shared" ref="I115:I127" si="97">B115*E115*0.01</f>
+        <f t="shared" ref="I115:I129" si="97">B115*E115*0.01</f>
         <v>0</v>
       </c>
       <c r="J115" s="3">
@@ -47499,7 +47634,7 @@
         <v>458.60000000000036</v>
       </c>
       <c r="M115">
-        <f t="shared" ref="M115:M117" si="99">B115-J115</f>
+        <f t="shared" ref="M115" si="99">B115-J115</f>
         <v>10679</v>
       </c>
       <c r="V115">
@@ -48239,52 +48374,158 @@
       <c r="A128" s="1">
         <v>43630</v>
       </c>
-      <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
-      <c r="I128" s="6"/>
+      <c r="B128" s="4">
+        <v>11500</v>
+      </c>
+      <c r="C128" s="2">
+        <v>97</v>
+      </c>
+      <c r="D128" s="2">
+        <v>3</v>
+      </c>
+      <c r="E128" s="2">
+        <v>0</v>
+      </c>
+      <c r="F128" s="6">
+        <f t="shared" si="74"/>
+        <v>11155</v>
+      </c>
+      <c r="G128" s="6">
+        <f t="shared" si="75"/>
+        <v>345</v>
+      </c>
+      <c r="H128" s="6">
+        <f t="shared" si="76"/>
+        <v>35</v>
+      </c>
+      <c r="I128" s="6">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="J128" s="3">
+        <v>331</v>
+      </c>
+      <c r="K128">
+        <f>AVERAGE(J$2:J128)</f>
+        <v>347.69291338582678</v>
+      </c>
+      <c r="L128" s="5">
+        <f t="shared" ref="L128:L129" si="105">F128-F127</f>
+        <v>33.949999999998909</v>
+      </c>
+      <c r="M128">
+        <f t="shared" ref="M128:M129" si="106">B128-J128</f>
+        <v>11169</v>
+      </c>
+      <c r="V128">
+        <f t="shared" ref="V128:V129" si="107">AVERAGE(J121:J128)</f>
+        <v>171.5</v>
+      </c>
+      <c r="W128" s="5">
+        <f t="shared" ref="W128:W129" si="108">AVERAGE(H125:H128)</f>
+        <v>8.75</v>
+      </c>
+      <c r="X128">
+        <f t="shared" ref="X128:X129" si="109">W128*4</f>
+        <v>35</v>
+      </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>43631</v>
       </c>
+      <c r="B129" s="4">
+        <v>11533</v>
+      </c>
+      <c r="C129" s="2">
+        <v>98</v>
+      </c>
+      <c r="D129" s="2">
+        <v>2</v>
+      </c>
+      <c r="E129" s="2">
+        <v>0</v>
+      </c>
+      <c r="F129" s="5">
+        <f t="shared" si="74"/>
+        <v>11302.34</v>
+      </c>
+      <c r="G129" s="5">
+        <f t="shared" si="75"/>
+        <v>230.66</v>
+      </c>
+      <c r="H129" s="6">
+        <f t="shared" si="76"/>
+        <v>33</v>
+      </c>
+      <c r="I129" s="5">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="J129" s="3">
+        <v>213</v>
+      </c>
+      <c r="K129">
+        <f>AVERAGE(J$2:J129)</f>
+        <v>346.640625</v>
+      </c>
+      <c r="L129" s="5">
+        <f t="shared" si="105"/>
+        <v>147.34000000000015</v>
+      </c>
+      <c r="M129">
+        <f t="shared" si="106"/>
+        <v>11320</v>
+      </c>
+      <c r="V129">
+        <f t="shared" si="107"/>
+        <v>198.125</v>
+      </c>
+      <c r="W129" s="5">
+        <f t="shared" si="108"/>
+        <v>17</v>
+      </c>
+      <c r="X129">
+        <f t="shared" si="109"/>
+        <v>68</v>
+      </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>43632</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>43633</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>43634</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>43635</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>43636</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>43637</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>43638</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>43639</v>
       </c>
@@ -48301,9 +48542,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23060E10-F570-42D6-BBBF-C7B084849695}">
   <dimension ref="A1:DL158"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CF54" sqref="CF54"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CN12" sqref="CN12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -48604,13 +48845,13 @@
       <c r="A2" s="10">
         <v>0.25</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="90" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="100" t="s">
         <v>66</v>
       </c>
       <c r="E2" s="51" t="s">
@@ -48625,7 +48866,7 @@
       <c r="H2" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="91" t="s">
+      <c r="I2" s="90" t="s">
         <v>157</v>
       </c>
       <c r="J2" s="57" t="s">
@@ -48634,31 +48875,31 @@
       <c r="K2" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="L2" s="91" t="s">
+      <c r="L2" s="90" t="s">
         <v>230</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="91" t="s">
+      <c r="N2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="91" t="s">
+      <c r="O2" s="90" t="s">
         <v>271</v>
       </c>
-      <c r="P2" s="106" t="s">
+      <c r="P2" s="100" t="s">
         <v>279</v>
       </c>
-      <c r="Q2" s="107" t="s">
+      <c r="Q2" s="101" t="s">
         <v>293</v>
       </c>
-      <c r="R2" s="106" t="s">
+      <c r="R2" s="100" t="s">
         <v>313</v>
       </c>
       <c r="S2" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="T2" s="91" t="s">
+      <c r="T2" s="90" t="s">
         <v>13</v>
       </c>
       <c r="U2" s="61" t="s">
@@ -48670,55 +48911,55 @@
       <c r="W2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="91" t="s">
+      <c r="X2" s="90" t="s">
         <v>13</v>
       </c>
       <c r="Y2" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="Z2" s="91" t="s">
+      <c r="Z2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="91" t="s">
+      <c r="AA2" s="90" t="s">
         <v>13</v>
       </c>
       <c r="AB2" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="AC2" s="91" t="s">
+      <c r="AC2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="106" t="s">
+      <c r="AD2" s="100" t="s">
         <v>279</v>
       </c>
       <c r="AE2" s="53" t="s">
         <v>506</v>
       </c>
-      <c r="AF2" s="91" t="s">
+      <c r="AF2" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AG2" s="91" t="s">
+      <c r="AG2" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AH2" s="91" t="s">
+      <c r="AH2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AI2" s="91" t="s">
+      <c r="AI2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="111" t="s">
+      <c r="AJ2" s="108" t="s">
         <v>279</v>
       </c>
-      <c r="AK2" s="91" t="s">
+      <c r="AK2" s="90" t="s">
         <v>13</v>
       </c>
       <c r="AL2" s="51" t="s">
         <v>573</v>
       </c>
-      <c r="AM2" s="106" t="s">
+      <c r="AM2" s="100" t="s">
         <v>177</v>
       </c>
-      <c r="AN2" s="106" t="s">
+      <c r="AN2" s="100" t="s">
         <v>177</v>
       </c>
       <c r="AO2" s="94" t="s">
@@ -48727,28 +48968,28 @@
       <c r="AP2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AQ2" s="106" t="s">
+      <c r="AQ2" s="100" t="s">
         <v>560</v>
       </c>
-      <c r="AR2" s="106" t="s">
+      <c r="AR2" s="100" t="s">
         <v>177</v>
       </c>
-      <c r="AS2" s="91" t="s">
+      <c r="AS2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AT2" s="91" t="s">
+      <c r="AT2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AU2" s="91" t="s">
+      <c r="AU2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" s="91" t="s">
+      <c r="AV2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AW2" s="91" t="s">
+      <c r="AW2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AX2" s="91" t="s">
+      <c r="AX2" s="90" t="s">
         <v>58</v>
       </c>
       <c r="AY2" s="53" t="s">
@@ -48757,13 +48998,13 @@
       <c r="AZ2" s="51" t="s">
         <v>663</v>
       </c>
-      <c r="BA2" s="91" t="s">
+      <c r="BA2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BB2" s="91" t="s">
+      <c r="BB2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BC2" s="91" t="s">
+      <c r="BC2" s="90" t="s">
         <v>13</v>
       </c>
       <c r="BD2" s="93" t="s">
@@ -48772,49 +49013,49 @@
       <c r="BE2" s="93" t="s">
         <v>619</v>
       </c>
-      <c r="BF2" s="91" t="s">
+      <c r="BF2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BG2" s="91" t="s">
+      <c r="BG2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BH2" s="91" t="s">
+      <c r="BH2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BI2" s="91" t="s">
+      <c r="BI2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BJ2" s="91" t="s">
+      <c r="BJ2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BK2" s="91" t="s">
+      <c r="BK2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BL2" s="91" t="s">
+      <c r="BL2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BM2" s="91" t="s">
+      <c r="BM2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BN2" s="91" t="s">
+      <c r="BN2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BO2" s="91" t="s">
+      <c r="BO2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BP2" s="90" t="s">
+      <c r="BP2" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="BQ2" s="91" t="s">
+      <c r="BQ2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BR2" s="91" t="s">
+      <c r="BR2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BS2" s="91" t="s">
+      <c r="BS2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BT2" s="91" t="s">
+      <c r="BT2" s="90" t="s">
         <v>13</v>
       </c>
       <c r="BU2" s="93" t="s">
@@ -48823,28 +49064,28 @@
       <c r="BV2" s="93" t="s">
         <v>619</v>
       </c>
-      <c r="BW2" s="91" t="s">
+      <c r="BW2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BX2" s="90" t="s">
+      <c r="BX2" s="91" t="s">
         <v>772</v>
       </c>
-      <c r="BY2" s="90" t="s">
+      <c r="BY2" s="91" t="s">
         <v>772</v>
       </c>
       <c r="BZ2" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="CA2" s="91" t="s">
+      <c r="CA2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="CB2" s="91" t="s">
+      <c r="CB2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="CC2" s="91" t="s">
+      <c r="CC2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="CD2" s="91" t="s">
+      <c r="CD2" s="90" t="s">
         <v>13</v>
       </c>
       <c r="CE2" s="93" t="s">
@@ -48856,7 +49097,12 @@
       <c r="CG2" s="93" t="s">
         <v>783</v>
       </c>
-      <c r="CI2" s="2"/>
+      <c r="CH2" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="CI2" s="90" t="s">
+        <v>13</v>
+      </c>
       <c r="CJ2" s="2"/>
       <c r="CK2" t="s">
         <v>703</v>
@@ -48871,126 +49117,126 @@
       <c r="A3" s="10">
         <v>0.27083333333333331</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="106" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="91" t="s">
+      <c r="D3" s="100"/>
+      <c r="E3" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="91" t="s">
+      <c r="F3" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="91" t="s">
+      <c r="G3" s="90" t="s">
         <v>112</v>
       </c>
       <c r="H3" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="I3" s="91"/>
+      <c r="I3" s="90"/>
       <c r="J3" s="55" t="s">
         <v>186</v>
       </c>
       <c r="K3" s="94" t="s">
         <v>211</v>
       </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="106"/>
-      <c r="S3" s="91" t="s">
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="90" t="s">
         <v>325</v>
       </c>
-      <c r="T3" s="91"/>
+      <c r="T3" s="90"/>
       <c r="U3" s="51" t="s">
         <v>371</v>
       </c>
       <c r="V3" s="51"/>
-      <c r="W3" s="91" t="s">
+      <c r="W3" s="90" t="s">
         <v>388</v>
       </c>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91" t="s">
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90" t="s">
         <v>429</v>
       </c>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91" t="s">
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90" t="s">
         <v>385</v>
       </c>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="106"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="100"/>
       <c r="AE3" s="52" t="s">
         <v>507</v>
       </c>
-      <c r="AF3" s="91"/>
-      <c r="AG3" s="91"/>
-      <c r="AH3" s="91"/>
-      <c r="AI3" s="91"/>
-      <c r="AJ3" s="111"/>
-      <c r="AK3" s="91"/>
-      <c r="AL3" s="90" t="s">
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
+      <c r="AI3" s="90"/>
+      <c r="AJ3" s="108"/>
+      <c r="AK3" s="90"/>
+      <c r="AL3" s="91" t="s">
         <v>568</v>
       </c>
-      <c r="AM3" s="106"/>
-      <c r="AN3" s="106"/>
+      <c r="AM3" s="100"/>
+      <c r="AN3" s="100"/>
       <c r="AO3" s="94"/>
       <c r="AP3" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="AQ3" s="106"/>
-      <c r="AR3" s="106"/>
-      <c r="AS3" s="91"/>
-      <c r="AT3" s="91"/>
-      <c r="AU3" s="91"/>
-      <c r="AV3" s="91"/>
-      <c r="AW3" s="91"/>
-      <c r="AX3" s="91"/>
-      <c r="AY3" s="91" t="s">
+      <c r="AQ3" s="100"/>
+      <c r="AR3" s="100"/>
+      <c r="AS3" s="90"/>
+      <c r="AT3" s="90"/>
+      <c r="AU3" s="90"/>
+      <c r="AV3" s="90"/>
+      <c r="AW3" s="90"/>
+      <c r="AX3" s="90"/>
+      <c r="AY3" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AZ3" s="91" t="s">
+      <c r="AZ3" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="BA3" s="91"/>
-      <c r="BB3" s="91"/>
-      <c r="BC3" s="91"/>
+      <c r="BA3" s="90"/>
+      <c r="BB3" s="90"/>
+      <c r="BC3" s="90"/>
       <c r="BD3" s="93"/>
       <c r="BE3" s="93"/>
-      <c r="BF3" s="91"/>
-      <c r="BG3" s="91"/>
-      <c r="BH3" s="91"/>
-      <c r="BI3" s="91"/>
-      <c r="BJ3" s="91"/>
-      <c r="BK3" s="91"/>
-      <c r="BL3" s="91"/>
-      <c r="BM3" s="91"/>
-      <c r="BN3" s="91"/>
-      <c r="BO3" s="91"/>
-      <c r="BP3" s="90"/>
-      <c r="BQ3" s="91"/>
-      <c r="BR3" s="91"/>
-      <c r="BS3" s="91"/>
-      <c r="BT3" s="91"/>
+      <c r="BF3" s="90"/>
+      <c r="BG3" s="90"/>
+      <c r="BH3" s="90"/>
+      <c r="BI3" s="90"/>
+      <c r="BJ3" s="90"/>
+      <c r="BK3" s="90"/>
+      <c r="BL3" s="90"/>
+      <c r="BM3" s="90"/>
+      <c r="BN3" s="90"/>
+      <c r="BO3" s="90"/>
+      <c r="BP3" s="91"/>
+      <c r="BQ3" s="90"/>
+      <c r="BR3" s="90"/>
+      <c r="BS3" s="90"/>
+      <c r="BT3" s="90"/>
       <c r="BU3" s="93"/>
       <c r="BV3" s="93"/>
-      <c r="BW3" s="91"/>
-      <c r="BX3" s="90"/>
-      <c r="BY3" s="90"/>
+      <c r="BW3" s="90"/>
+      <c r="BX3" s="91"/>
+      <c r="BY3" s="91"/>
       <c r="BZ3" s="137"/>
-      <c r="CA3" s="91"/>
-      <c r="CB3" s="91"/>
-      <c r="CC3" s="91"/>
-      <c r="CD3" s="91"/>
+      <c r="CA3" s="90"/>
+      <c r="CB3" s="90"/>
+      <c r="CC3" s="90"/>
+      <c r="CD3" s="90"/>
       <c r="CE3" s="93"/>
       <c r="CF3" s="92"/>
       <c r="CG3" s="93"/>
-      <c r="CH3" s="42"/>
-      <c r="CI3" s="65"/>
+      <c r="CH3" s="90"/>
+      <c r="CI3" s="90"/>
       <c r="CJ3" s="65"/>
       <c r="CK3" s="42"/>
       <c r="CL3" s="42"/>
@@ -49007,17 +49253,17 @@
       <c r="B4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="91" t="s">
+      <c r="C4" s="100"/>
+      <c r="D4" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="118" t="s">
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="I4" s="91" t="s">
+      <c r="I4" s="90" t="s">
         <v>158</v>
       </c>
       <c r="J4" s="51" t="s">
@@ -49033,173 +49279,177 @@
       <c r="N4" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="O4" s="91"/>
-      <c r="P4" s="91" t="s">
+      <c r="O4" s="90"/>
+      <c r="P4" s="90" t="s">
         <v>280</v>
       </c>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="106"/>
-      <c r="S4" s="91"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="90"/>
       <c r="T4" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="U4" s="91" t="s">
+      <c r="U4" s="90" t="s">
         <v>372</v>
       </c>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="90" t="s">
         <v>385</v>
       </c>
-      <c r="W4" s="91"/>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91" t="s">
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90" t="s">
         <v>385</v>
       </c>
-      <c r="AB4" s="91"/>
+      <c r="AB4" s="90"/>
       <c r="AC4" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="AD4" s="106"/>
-      <c r="AE4" s="91" t="s">
+      <c r="AD4" s="100"/>
+      <c r="AE4" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AF4" s="90" t="s">
+      <c r="AF4" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AG4" s="109" t="s">
+      <c r="AG4" s="104" t="s">
         <v>537</v>
       </c>
-      <c r="AH4" s="90" t="s">
+      <c r="AH4" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AI4" s="111" t="s">
+      <c r="AI4" s="108" t="s">
         <v>279</v>
       </c>
-      <c r="AJ4" s="111"/>
-      <c r="AK4" s="91" t="s">
+      <c r="AJ4" s="108"/>
+      <c r="AK4" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="91" t="s">
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AN4" s="109" t="s">
+      <c r="AN4" s="104" t="s">
         <v>599</v>
       </c>
       <c r="AO4" s="94"/>
       <c r="AP4" s="54" t="s">
         <v>611</v>
       </c>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="91" t="s">
+      <c r="AQ4" s="100"/>
+      <c r="AR4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AS4" s="91" t="s">
+      <c r="AS4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AT4" s="91" t="s">
+      <c r="AT4" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AU4" s="91" t="s">
+      <c r="AU4" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="90" t="s">
+      <c r="AV4" s="90"/>
+      <c r="AW4" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AX4" s="90" t="s">
+      <c r="AX4" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AY4" s="91"/>
-      <c r="AZ4" s="91"/>
-      <c r="BA4" s="91"/>
-      <c r="BB4" s="91" t="s">
+      <c r="AY4" s="90"/>
+      <c r="AZ4" s="90"/>
+      <c r="BA4" s="90"/>
+      <c r="BB4" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="BC4" s="91"/>
-      <c r="BD4" s="91" t="s">
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BE4" s="91" t="s">
+      <c r="BE4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BF4" s="91" t="s">
+      <c r="BF4" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="BG4" s="91" t="s">
+      <c r="BG4" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="BH4" s="91" t="s">
+      <c r="BH4" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="BI4" s="90" t="s">
+      <c r="BI4" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="BJ4" s="91" t="s">
+      <c r="BJ4" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BK4" s="91"/>
-      <c r="BL4" s="91"/>
-      <c r="BM4" s="91"/>
-      <c r="BN4" s="91" t="s">
+      <c r="BK4" s="90"/>
+      <c r="BL4" s="90"/>
+      <c r="BM4" s="90"/>
+      <c r="BN4" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BO4" s="91" t="s">
+      <c r="BO4" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BP4" s="90"/>
-      <c r="BQ4" s="91" t="s">
+      <c r="BP4" s="91"/>
+      <c r="BQ4" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BR4" s="90" t="s">
+      <c r="BR4" s="91" t="s">
         <v>45</v>
       </c>
       <c r="BS4" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="BT4" s="135" t="s">
+      <c r="BT4" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="BU4" s="91" t="s">
+      <c r="BU4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BV4" s="91" t="s">
+      <c r="BV4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BW4" s="91" t="s">
+      <c r="BW4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BX4" s="91" t="s">
+      <c r="BX4" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BY4" s="91" t="s">
+      <c r="BY4" s="90" t="s">
         <v>13</v>
       </c>
       <c r="BZ4" s="137"/>
-      <c r="CA4" s="91" t="s">
+      <c r="CA4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="CB4" s="91" t="s">
+      <c r="CB4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="CC4" s="91" t="s">
+      <c r="CC4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="CD4" s="91" t="s">
+      <c r="CD4" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="CE4" s="91" t="s">
+      <c r="CE4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="CF4" s="91" t="s">
+      <c r="CF4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="CG4" s="91" t="s">
+      <c r="CG4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="CH4" s="42"/>
-      <c r="CI4" s="65"/>
+      <c r="CH4" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="CI4" s="90" t="s">
+        <v>13</v>
+      </c>
       <c r="CJ4" s="65"/>
       <c r="CK4" s="42"/>
       <c r="CL4" s="42"/>
@@ -49216,8 +49466,8 @@
       <c r="B5" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="91"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="57" t="s">
         <v>82</v>
       </c>
@@ -49227,12 +49477,12 @@
       <c r="G5" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91" t="s">
+      <c r="H5" s="114"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90" t="s">
         <v>188</v>
       </c>
-      <c r="K5" s="91" t="s">
+      <c r="K5" s="90" t="s">
         <v>210</v>
       </c>
       <c r="L5" s="61" t="s">
@@ -49241,109 +49491,110 @@
       <c r="M5" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="N5" s="101" t="s">
+      <c r="N5" s="98" t="s">
         <v>256</v>
       </c>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="91" t="s">
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="90" t="s">
         <v>314</v>
       </c>
-      <c r="S5" s="91"/>
-      <c r="T5" s="101" t="s">
+      <c r="S5" s="90"/>
+      <c r="T5" s="98" t="s">
         <v>335</v>
       </c>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
-      <c r="X5" s="91" t="s">
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="Y5" s="101" t="s">
+      <c r="Y5" s="98" t="s">
         <v>45</v>
       </c>
       <c r="Z5" s="51" t="s">
         <v>435</v>
       </c>
-      <c r="AA5" s="91"/>
-      <c r="AB5" s="90" t="s">
+      <c r="AA5" s="90"/>
+      <c r="AB5" s="91" t="s">
         <v>471</v>
       </c>
-      <c r="AC5" s="90" t="s">
+      <c r="AC5" s="91" t="s">
         <v>45</v>
       </c>
       <c r="AD5" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="AE5" s="91"/>
-      <c r="AF5" s="90"/>
-      <c r="AG5" s="109"/>
-      <c r="AH5" s="90"/>
-      <c r="AI5" s="111"/>
-      <c r="AJ5" s="111"/>
-      <c r="AK5" s="91"/>
-      <c r="AL5" s="91" t="s">
+      <c r="AE5" s="90"/>
+      <c r="AF5" s="91"/>
+      <c r="AG5" s="104"/>
+      <c r="AH5" s="91"/>
+      <c r="AI5" s="108"/>
+      <c r="AJ5" s="108"/>
+      <c r="AK5" s="90"/>
+      <c r="AL5" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AM5" s="91"/>
-      <c r="AN5" s="109"/>
+      <c r="AM5" s="90"/>
+      <c r="AN5" s="104"/>
       <c r="AO5" s="94"/>
-      <c r="AP5" s="90" t="s">
+      <c r="AP5" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AQ5" s="106"/>
-      <c r="AR5" s="91"/>
-      <c r="AS5" s="91"/>
-      <c r="AT5" s="91"/>
-      <c r="AU5" s="91"/>
-      <c r="AV5" s="91"/>
-      <c r="AW5" s="90"/>
-      <c r="AX5" s="90"/>
-      <c r="AY5" s="90" t="s">
+      <c r="AQ5" s="100"/>
+      <c r="AR5" s="90"/>
+      <c r="AS5" s="90"/>
+      <c r="AT5" s="90"/>
+      <c r="AU5" s="90"/>
+      <c r="AV5" s="90"/>
+      <c r="AW5" s="91"/>
+      <c r="AX5" s="91"/>
+      <c r="AY5" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AZ5" s="90" t="s">
+      <c r="AZ5" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="BA5" s="91"/>
-      <c r="BB5" s="91"/>
-      <c r="BC5" s="91"/>
-      <c r="BD5" s="91"/>
-      <c r="BE5" s="91"/>
-      <c r="BF5" s="91"/>
-      <c r="BG5" s="91"/>
-      <c r="BH5" s="91"/>
-      <c r="BI5" s="90"/>
-      <c r="BJ5" s="91"/>
-      <c r="BK5" s="91"/>
-      <c r="BL5" s="91"/>
-      <c r="BM5" s="91"/>
-      <c r="BN5" s="91"/>
-      <c r="BO5" s="91"/>
+      <c r="BA5" s="90"/>
+      <c r="BB5" s="90"/>
+      <c r="BC5" s="90"/>
+      <c r="BD5" s="90"/>
+      <c r="BE5" s="90"/>
+      <c r="BF5" s="90"/>
+      <c r="BG5" s="90"/>
+      <c r="BH5" s="90"/>
+      <c r="BI5" s="91"/>
+      <c r="BJ5" s="90"/>
+      <c r="BK5" s="90"/>
+      <c r="BL5" s="90"/>
+      <c r="BM5" s="90"/>
+      <c r="BN5" s="90"/>
+      <c r="BO5" s="90"/>
       <c r="BP5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="BQ5" s="91"/>
-      <c r="BR5" s="90"/>
-      <c r="BS5" s="90" t="s">
+      <c r="BQ5" s="90"/>
+      <c r="BR5" s="91"/>
+      <c r="BS5" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="BT5" s="100"/>
-      <c r="BU5" s="91"/>
-      <c r="BV5" s="91"/>
-      <c r="BW5" s="91"/>
-      <c r="BX5" s="91"/>
-      <c r="BY5" s="91"/>
+      <c r="BT5" s="97"/>
+      <c r="BU5" s="90"/>
+      <c r="BV5" s="90"/>
+      <c r="BW5" s="90"/>
+      <c r="BX5" s="90"/>
+      <c r="BY5" s="90"/>
       <c r="BZ5" s="137"/>
-      <c r="CA5" s="91"/>
-      <c r="CB5" s="91"/>
-      <c r="CC5" s="91"/>
-      <c r="CD5" s="91"/>
-      <c r="CE5" s="91"/>
-      <c r="CF5" s="91"/>
-      <c r="CG5" s="91"/>
-      <c r="CI5" s="2"/>
+      <c r="CA5" s="90"/>
+      <c r="CB5" s="90"/>
+      <c r="CC5" s="90"/>
+      <c r="CD5" s="90"/>
+      <c r="CE5" s="90"/>
+      <c r="CF5" s="90"/>
+      <c r="CG5" s="90"/>
+      <c r="CH5" s="91"/>
+      <c r="CI5" s="90"/>
       <c r="CJ5" s="2"/>
       <c r="CP5" s="2"/>
       <c r="CQ5" s="2"/>
@@ -49355,57 +49606,57 @@
       <c r="B6" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="91"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="90"/>
       <c r="E6" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="90" t="s">
+      <c r="F6" s="91" t="s">
         <v>98</v>
       </c>
       <c r="G6" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="H6" s="118"/>
+      <c r="H6" s="114"/>
       <c r="I6" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="90" t="s">
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="M6" s="90" t="s">
+      <c r="M6" s="91" t="s">
         <v>246</v>
       </c>
-      <c r="N6" s="101"/>
-      <c r="O6" s="91"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="90"/>
       <c r="P6" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="91"/>
-      <c r="S6" s="91"/>
-      <c r="T6" s="101"/>
-      <c r="U6" s="90" t="s">
+      <c r="Q6" s="101"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="91" t="s">
         <v>373</v>
       </c>
       <c r="V6" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="W6" s="101" t="s">
+      <c r="W6" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="X6" s="91"/>
-      <c r="Y6" s="101"/>
-      <c r="Z6" s="101" t="s">
+      <c r="X6" s="90"/>
+      <c r="Y6" s="98"/>
+      <c r="Z6" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="AA6" s="90" t="s">
+      <c r="AA6" s="91" t="s">
         <v>354</v>
       </c>
-      <c r="AB6" s="90"/>
-      <c r="AC6" s="90"/>
+      <c r="AB6" s="91"/>
+      <c r="AC6" s="91"/>
       <c r="AD6" s="93" t="s">
         <v>493</v>
       </c>
@@ -49415,90 +49666,90 @@
       <c r="AF6" s="53" t="s">
         <v>506</v>
       </c>
-      <c r="AG6" s="90" t="s">
+      <c r="AG6" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AH6" s="91" t="s">
+      <c r="AH6" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AI6" s="111"/>
-      <c r="AJ6" s="91" t="s">
+      <c r="AI6" s="108"/>
+      <c r="AJ6" s="90" t="s">
         <v>13</v>
       </c>
       <c r="AK6" s="93" t="s">
         <v>477</v>
       </c>
-      <c r="AL6" s="91"/>
-      <c r="AM6" s="91"/>
-      <c r="AN6" s="91" t="s">
+      <c r="AL6" s="90"/>
+      <c r="AM6" s="90"/>
+      <c r="AN6" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AO6" s="91" t="s">
+      <c r="AO6" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AP6" s="90"/>
-      <c r="AQ6" s="91" t="s">
+      <c r="AP6" s="91"/>
+      <c r="AQ6" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AR6" s="90" t="s">
+      <c r="AR6" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AS6" s="90" t="s">
+      <c r="AS6" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AT6" s="90" t="s">
+      <c r="AT6" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AU6" s="90" t="s">
+      <c r="AU6" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AV6" s="91" t="s">
+      <c r="AV6" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AW6" s="91" t="s">
+      <c r="AW6" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AX6" s="114" t="s">
+      <c r="AX6" s="109" t="s">
         <v>651</v>
       </c>
-      <c r="AY6" s="90"/>
-      <c r="AZ6" s="90"/>
-      <c r="BA6" s="91" t="s">
+      <c r="AY6" s="91"/>
+      <c r="AZ6" s="91"/>
+      <c r="BA6" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="BB6" s="90" t="s">
+      <c r="BB6" s="91" t="s">
         <v>45</v>
       </c>
       <c r="BC6" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="BD6" s="91"/>
-      <c r="BE6" s="91" t="s">
+      <c r="BD6" s="90"/>
+      <c r="BE6" s="90" t="s">
         <v>58</v>
       </c>
       <c r="BF6" s="93" t="s">
         <v>477</v>
       </c>
-      <c r="BG6" s="91" t="s">
+      <c r="BG6" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BH6" s="91" t="s">
+      <c r="BH6" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BI6" s="90"/>
-      <c r="BJ6" s="90" t="s">
+      <c r="BI6" s="91"/>
+      <c r="BJ6" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="BK6" s="91" t="s">
+      <c r="BK6" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BL6" s="91" t="s">
+      <c r="BL6" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BM6" s="91" t="s">
+      <c r="BM6" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BN6" s="129" t="s">
+      <c r="BN6" s="127" t="s">
         <v>399</v>
       </c>
       <c r="BO6" s="94" t="s">
@@ -49507,59 +49758,65 @@
       <c r="BP6" s="94" t="s">
         <v>698</v>
       </c>
-      <c r="BQ6" s="91" t="s">
+      <c r="BQ6" s="90" t="s">
         <v>58</v>
       </c>
       <c r="BR6" s="67" t="s">
         <v>712</v>
       </c>
-      <c r="BS6" s="90"/>
+      <c r="BS6" s="91"/>
       <c r="BT6" s="93" t="s">
         <v>477</v>
       </c>
-      <c r="BU6" s="90" t="s">
+      <c r="BU6" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="BV6" s="90" t="s">
+      <c r="BV6" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="BW6" s="91" t="s">
+      <c r="BW6" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="BX6" s="91" t="s">
+      <c r="BX6" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="BY6" s="91" t="s">
+      <c r="BY6" s="90" t="s">
         <v>13</v>
       </c>
       <c r="BZ6" s="138"/>
-      <c r="CA6" s="90" t="s">
+      <c r="CA6" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="CB6" s="90" t="s">
+      <c r="CB6" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="CC6" s="91" t="s">
+      <c r="CC6" s="90" t="s">
         <v>13</v>
       </c>
       <c r="CD6" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="CE6" s="91" t="s">
+      <c r="CE6" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="CF6" s="91" t="s">
+      <c r="CF6" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="CG6" s="91" t="s">
+      <c r="CG6" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="CH6" s="42"/>
-      <c r="CI6" s="65"/>
+      <c r="CH6" s="91" t="s">
+        <v>806</v>
+      </c>
+      <c r="CI6" s="91" t="s">
+        <v>45</v>
+      </c>
       <c r="CJ6" s="65"/>
       <c r="CK6" s="42"/>
       <c r="CL6" s="42"/>
-      <c r="CM6" s="42"/>
+      <c r="CM6" s="42" t="s">
+        <v>811</v>
+      </c>
       <c r="CN6" s="42"/>
       <c r="CO6" s="42"/>
       <c r="CP6" s="65"/>
@@ -49569,126 +49826,126 @@
       <c r="A7" s="10">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90" t="s">
+      <c r="D7" s="90"/>
+      <c r="E7" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90" t="s">
+      <c r="F7" s="91"/>
+      <c r="G7" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="119" t="s">
+      <c r="H7" s="115" t="s">
         <v>130</v>
       </c>
       <c r="I7" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="J7" s="98" t="s">
+      <c r="J7" s="95" t="s">
         <v>189</v>
       </c>
-      <c r="K7" s="91"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
       <c r="N7" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="O7" s="114" t="s">
+      <c r="O7" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="P7" s="114" t="s">
+      <c r="P7" s="109" t="s">
         <v>282</v>
       </c>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="90" t="s">
+      <c r="Q7" s="101"/>
+      <c r="R7" s="91" t="s">
         <v>315</v>
       </c>
-      <c r="S7" s="105" t="s">
+      <c r="S7" s="99" t="s">
         <v>326</v>
       </c>
-      <c r="T7" s="90" t="s">
+      <c r="T7" s="91" t="s">
         <v>354</v>
       </c>
-      <c r="U7" s="90"/>
-      <c r="V7" s="105" t="s">
+      <c r="U7" s="91"/>
+      <c r="V7" s="99" t="s">
         <v>387</v>
       </c>
-      <c r="W7" s="101"/>
+      <c r="W7" s="98"/>
       <c r="X7" s="55" t="s">
         <v>409</v>
       </c>
-      <c r="Y7" s="91" t="s">
+      <c r="Y7" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="Z7" s="101"/>
-      <c r="AA7" s="90"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="91"/>
       <c r="AB7" s="62" t="s">
         <v>472</v>
       </c>
-      <c r="AC7" s="90" t="s">
+      <c r="AC7" s="91" t="s">
         <v>480</v>
       </c>
       <c r="AD7" s="93"/>
-      <c r="AE7" s="101" t="s">
+      <c r="AE7" s="98" t="s">
         <v>512</v>
       </c>
       <c r="AF7" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="AG7" s="90"/>
-      <c r="AH7" s="91"/>
-      <c r="AI7" s="111"/>
-      <c r="AJ7" s="91"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="90"/>
+      <c r="AI7" s="108"/>
+      <c r="AJ7" s="90"/>
       <c r="AK7" s="93"/>
-      <c r="AL7" s="90" t="s">
+      <c r="AL7" s="91" t="s">
         <v>569</v>
       </c>
-      <c r="AM7" s="91"/>
-      <c r="AN7" s="91"/>
-      <c r="AO7" s="91"/>
-      <c r="AP7" s="90" t="s">
+      <c r="AM7" s="90"/>
+      <c r="AN7" s="90"/>
+      <c r="AO7" s="90"/>
+      <c r="AP7" s="91" t="s">
         <v>159</v>
       </c>
-      <c r="AQ7" s="91"/>
-      <c r="AR7" s="90"/>
-      <c r="AS7" s="90"/>
-      <c r="AT7" s="90"/>
-      <c r="AU7" s="90"/>
-      <c r="AV7" s="91"/>
-      <c r="AW7" s="91"/>
-      <c r="AX7" s="114"/>
+      <c r="AQ7" s="90"/>
+      <c r="AR7" s="91"/>
+      <c r="AS7" s="91"/>
+      <c r="AT7" s="91"/>
+      <c r="AU7" s="91"/>
+      <c r="AV7" s="90"/>
+      <c r="AW7" s="90"/>
+      <c r="AX7" s="109"/>
       <c r="AY7" s="62" t="s">
         <v>659</v>
       </c>
-      <c r="AZ7" s="105" t="s">
+      <c r="AZ7" s="99" t="s">
         <v>664</v>
       </c>
-      <c r="BA7" s="91"/>
-      <c r="BB7" s="90"/>
-      <c r="BC7" s="90" t="s">
+      <c r="BA7" s="90"/>
+      <c r="BB7" s="91"/>
+      <c r="BC7" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="BD7" s="91"/>
-      <c r="BE7" s="91"/>
+      <c r="BD7" s="90"/>
+      <c r="BE7" s="90"/>
       <c r="BF7" s="93"/>
-      <c r="BG7" s="91"/>
-      <c r="BH7" s="91"/>
-      <c r="BI7" s="91" t="s">
+      <c r="BG7" s="90"/>
+      <c r="BH7" s="90"/>
+      <c r="BI7" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BJ7" s="90"/>
-      <c r="BK7" s="91"/>
-      <c r="BL7" s="91"/>
-      <c r="BM7" s="91"/>
-      <c r="BN7" s="129"/>
+      <c r="BJ7" s="91"/>
+      <c r="BK7" s="90"/>
+      <c r="BL7" s="90"/>
+      <c r="BM7" s="90"/>
+      <c r="BN7" s="127"/>
       <c r="BO7" s="94"/>
       <c r="BP7" s="94"/>
-      <c r="BQ7" s="91"/>
+      <c r="BQ7" s="90"/>
       <c r="BR7" s="68" t="s">
         <v>713</v>
       </c>
@@ -49696,25 +49953,25 @@
         <v>17</v>
       </c>
       <c r="BT7" s="93"/>
-      <c r="BU7" s="90"/>
-      <c r="BV7" s="90"/>
-      <c r="BW7" s="91"/>
-      <c r="BX7" s="91"/>
-      <c r="BY7" s="91"/>
+      <c r="BU7" s="91"/>
+      <c r="BV7" s="91"/>
+      <c r="BW7" s="90"/>
+      <c r="BX7" s="90"/>
+      <c r="BY7" s="90"/>
       <c r="BZ7" s="93" t="s">
         <v>794</v>
       </c>
-      <c r="CA7" s="90"/>
-      <c r="CB7" s="90"/>
-      <c r="CC7" s="91"/>
-      <c r="CD7" s="91" t="s">
+      <c r="CA7" s="91"/>
+      <c r="CB7" s="91"/>
+      <c r="CC7" s="90"/>
+      <c r="CD7" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="CE7" s="91"/>
-      <c r="CF7" s="91"/>
-      <c r="CG7" s="91"/>
-      <c r="CH7" s="42"/>
-      <c r="CI7" s="65"/>
+      <c r="CE7" s="90"/>
+      <c r="CF7" s="90"/>
+      <c r="CG7" s="90"/>
+      <c r="CH7" s="91"/>
+      <c r="CI7" s="91"/>
       <c r="CJ7" s="65"/>
       <c r="CK7" s="42"/>
       <c r="CL7" s="42"/>
@@ -49728,58 +49985,58 @@
       <c r="A8" s="10">
         <v>0.375</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="106" t="s">
+      <c r="B8" s="105"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="90"/>
-      <c r="F8" s="111" t="s">
+      <c r="E8" s="91"/>
+      <c r="F8" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="90"/>
-      <c r="H8" s="119"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="115"/>
       <c r="I8" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="98"/>
-      <c r="K8" s="91"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="90"/>
       <c r="L8" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90" t="s">
+      <c r="M8" s="91"/>
+      <c r="N8" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="90"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="91"/>
       <c r="U8" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="V8" s="105"/>
-      <c r="W8" s="111" t="s">
+      <c r="V8" s="99"/>
+      <c r="W8" s="108" t="s">
         <v>396</v>
       </c>
-      <c r="X8" s="101" t="s">
+      <c r="X8" s="98" t="s">
         <v>410</v>
       </c>
-      <c r="Y8" s="91"/>
-      <c r="Z8" s="101"/>
-      <c r="AA8" s="90"/>
-      <c r="AB8" s="90" t="s">
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="91" t="s">
         <v>474</v>
       </c>
-      <c r="AC8" s="90"/>
+      <c r="AC8" s="91"/>
       <c r="AD8" s="93"/>
-      <c r="AE8" s="101"/>
-      <c r="AF8" s="90" t="s">
+      <c r="AE8" s="98"/>
+      <c r="AF8" s="91" t="s">
         <v>524</v>
       </c>
-      <c r="AG8" s="101" t="s">
+      <c r="AG8" s="98" t="s">
         <v>538</v>
       </c>
       <c r="AH8" s="51" t="s">
@@ -49788,68 +50045,68 @@
       <c r="AI8" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="AJ8" s="91" t="s">
+      <c r="AJ8" s="90" t="s">
         <v>13</v>
       </c>
       <c r="AK8" s="59" t="s">
         <v>565</v>
       </c>
-      <c r="AL8" s="90"/>
-      <c r="AM8" s="91"/>
-      <c r="AN8" s="91"/>
+      <c r="AL8" s="91"/>
+      <c r="AM8" s="90"/>
+      <c r="AN8" s="90"/>
       <c r="AO8" s="54" t="s">
         <v>609</v>
       </c>
-      <c r="AP8" s="90"/>
-      <c r="AQ8" s="91"/>
-      <c r="AR8" s="91" t="s">
+      <c r="AP8" s="91"/>
+      <c r="AQ8" s="90"/>
+      <c r="AR8" s="90" t="s">
         <v>58</v>
       </c>
       <c r="AS8" s="93" t="s">
         <v>619</v>
       </c>
-      <c r="AT8" s="90" t="s">
+      <c r="AT8" s="91" t="s">
         <v>623</v>
       </c>
-      <c r="AU8" s="90" t="s">
+      <c r="AU8" s="91" t="s">
         <v>261</v>
       </c>
-      <c r="AV8" s="90" t="s">
+      <c r="AV8" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AW8" s="97" t="s">
+      <c r="AW8" s="105" t="s">
         <v>644</v>
       </c>
-      <c r="AX8" s="90" t="s">
+      <c r="AX8" s="91" t="s">
         <v>652</v>
       </c>
       <c r="AY8" s="94" t="s">
         <v>657</v>
       </c>
-      <c r="AZ8" s="105"/>
-      <c r="BA8" s="90" t="s">
+      <c r="AZ8" s="99"/>
+      <c r="BA8" s="91" t="s">
         <v>45</v>
       </c>
       <c r="BB8" s="93" t="s">
         <v>619</v>
       </c>
-      <c r="BC8" s="90"/>
-      <c r="BD8" s="90" t="s">
+      <c r="BC8" s="91"/>
+      <c r="BD8" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="BE8" s="97" t="s">
+      <c r="BE8" s="105" t="s">
         <v>680</v>
       </c>
       <c r="BF8" s="93"/>
-      <c r="BG8" s="91" t="s">
+      <c r="BG8" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="BH8" s="90" t="s">
+      <c r="BH8" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="BI8" s="91"/>
-      <c r="BJ8" s="90"/>
-      <c r="BK8" s="101" t="s">
+      <c r="BI8" s="90"/>
+      <c r="BJ8" s="91"/>
+      <c r="BK8" s="98" t="s">
         <v>19</v>
       </c>
       <c r="BL8" s="93" t="s">
@@ -49858,26 +50115,26 @@
       <c r="BM8" s="93" t="s">
         <v>619</v>
       </c>
-      <c r="BN8" s="129"/>
+      <c r="BN8" s="127"/>
       <c r="BO8" s="94" t="s">
         <v>698</v>
       </c>
-      <c r="BP8" s="90" t="s">
+      <c r="BP8" s="91" t="s">
         <v>702</v>
       </c>
       <c r="BQ8" s="92" t="s">
         <v>670</v>
       </c>
-      <c r="BR8" s="90" t="s">
+      <c r="BR8" s="91" t="s">
         <v>714</v>
       </c>
-      <c r="BS8" s="90" t="s">
+      <c r="BS8" s="91" t="s">
         <v>720</v>
       </c>
-      <c r="BT8" s="90" t="s">
+      <c r="BT8" s="91" t="s">
         <v>720</v>
       </c>
-      <c r="BU8" s="99" t="s">
+      <c r="BU8" s="96" t="s">
         <v>734</v>
       </c>
       <c r="BV8" s="87" t="s">
@@ -49886,24 +50143,24 @@
       <c r="BW8" s="146" t="s">
         <v>770</v>
       </c>
-      <c r="BX8" s="98" t="s">
+      <c r="BX8" s="95" t="s">
         <v>766</v>
       </c>
-      <c r="BY8" s="91" t="s">
+      <c r="BY8" s="90" t="s">
         <v>13</v>
       </c>
       <c r="BZ8" s="93"/>
-      <c r="CA8" s="91" t="s">
+      <c r="CA8" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="CB8" s="90" t="s">
+      <c r="CB8" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="CC8" s="91" t="s">
+      <c r="CC8" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="CD8" s="91"/>
-      <c r="CE8" s="90" t="s">
+      <c r="CD8" s="90"/>
+      <c r="CE8" s="91" t="s">
         <v>45</v>
       </c>
       <c r="CF8" s="94" t="s">
@@ -49912,12 +50169,18 @@
       <c r="CG8" s="94" t="s">
         <v>796</v>
       </c>
-      <c r="CH8" s="42"/>
-      <c r="CI8" s="65"/>
+      <c r="CH8" s="91" t="s">
+        <v>806</v>
+      </c>
+      <c r="CI8" s="90" t="s">
+        <v>17</v>
+      </c>
       <c r="CJ8" s="65"/>
       <c r="CK8" s="42"/>
       <c r="CL8" s="42"/>
-      <c r="CM8" s="42"/>
+      <c r="CM8" s="42" t="s">
+        <v>812</v>
+      </c>
       <c r="CN8" s="42"/>
       <c r="CO8" s="42"/>
       <c r="CP8" s="65"/>
@@ -49927,63 +50190,63 @@
       <c r="A9" s="10">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="106" t="s">
+      <c r="B9" s="105"/>
+      <c r="C9" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="90" t="s">
+      <c r="D9" s="100"/>
+      <c r="E9" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="111"/>
+      <c r="F9" s="108"/>
       <c r="G9" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="119" t="s">
+      <c r="H9" s="115" t="s">
         <v>131</v>
       </c>
       <c r="I9" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98" t="s">
+      <c r="J9" s="95"/>
+      <c r="K9" s="95" t="s">
         <v>209</v>
       </c>
       <c r="L9" s="62" t="s">
         <v>229</v>
       </c>
-      <c r="M9" s="90" t="s">
+      <c r="M9" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="N9" s="90"/>
-      <c r="O9" s="111" t="s">
+      <c r="N9" s="91"/>
+      <c r="O9" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="90" t="s">
+      <c r="P9" s="91" t="s">
         <v>283</v>
       </c>
-      <c r="Q9" s="111" t="s">
+      <c r="Q9" s="108" t="s">
         <v>297</v>
       </c>
       <c r="R9" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="S9" s="105"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90" t="s">
+      <c r="S9" s="99"/>
+      <c r="T9" s="91"/>
+      <c r="U9" s="91" t="s">
         <v>374</v>
       </c>
-      <c r="V9" s="105"/>
-      <c r="W9" s="111"/>
-      <c r="X9" s="101"/>
-      <c r="Y9" s="101" t="s">
+      <c r="V9" s="99"/>
+      <c r="W9" s="108"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98" t="s">
         <v>425</v>
       </c>
-      <c r="Z9" s="114" t="s">
+      <c r="Z9" s="109" t="s">
         <v>436</v>
       </c>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="90"/>
+      <c r="AA9" s="91"/>
+      <c r="AB9" s="91"/>
       <c r="AC9" s="56" t="s">
         <v>485</v>
       </c>
@@ -49993,88 +50256,90 @@
       <c r="AE9" s="55" t="s">
         <v>513</v>
       </c>
-      <c r="AF9" s="90"/>
-      <c r="AG9" s="101"/>
+      <c r="AF9" s="91"/>
+      <c r="AG9" s="98"/>
       <c r="AH9" s="52" t="s">
         <v>547</v>
       </c>
-      <c r="AI9" s="110" t="s">
+      <c r="AI9" s="107" t="s">
         <v>448</v>
       </c>
-      <c r="AJ9" s="91"/>
+      <c r="AJ9" s="90"/>
       <c r="AK9" s="59"/>
-      <c r="AL9" s="90"/>
-      <c r="AM9" s="91"/>
-      <c r="AN9" s="91"/>
-      <c r="AO9" s="90" t="s">
+      <c r="AL9" s="91"/>
+      <c r="AM9" s="90"/>
+      <c r="AN9" s="90"/>
+      <c r="AO9" s="91" t="s">
         <v>45</v>
       </c>
       <c r="AP9" s="94" t="s">
         <v>560</v>
       </c>
-      <c r="AQ9" s="91"/>
-      <c r="AR9" s="91"/>
+      <c r="AQ9" s="90"/>
+      <c r="AR9" s="90"/>
       <c r="AS9" s="93"/>
-      <c r="AT9" s="90"/>
-      <c r="AU9" s="90"/>
-      <c r="AV9" s="90"/>
-      <c r="AW9" s="97"/>
-      <c r="AX9" s="90"/>
+      <c r="AT9" s="91"/>
+      <c r="AU9" s="91"/>
+      <c r="AV9" s="91"/>
+      <c r="AW9" s="105"/>
+      <c r="AX9" s="91"/>
       <c r="AY9" s="94"/>
       <c r="AZ9" s="52" t="s">
         <v>665</v>
       </c>
-      <c r="BA9" s="90"/>
+      <c r="BA9" s="91"/>
       <c r="BB9" s="93"/>
       <c r="BC9" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="BD9" s="90"/>
-      <c r="BE9" s="97"/>
+      <c r="BD9" s="91"/>
+      <c r="BE9" s="105"/>
       <c r="BF9" s="93"/>
-      <c r="BG9" s="91"/>
-      <c r="BH9" s="90"/>
+      <c r="BG9" s="90"/>
+      <c r="BH9" s="91"/>
       <c r="BI9" s="92" t="s">
         <v>670</v>
       </c>
       <c r="BJ9" s="94" t="s">
         <v>690</v>
       </c>
-      <c r="BK9" s="101"/>
+      <c r="BK9" s="98"/>
       <c r="BL9" s="93"/>
       <c r="BM9" s="93"/>
-      <c r="BN9" s="129"/>
+      <c r="BN9" s="127"/>
       <c r="BO9" s="94"/>
-      <c r="BP9" s="90"/>
+      <c r="BP9" s="91"/>
       <c r="BQ9" s="92"/>
-      <c r="BR9" s="90"/>
-      <c r="BS9" s="90"/>
-      <c r="BT9" s="90"/>
-      <c r="BU9" s="100"/>
-      <c r="BV9" s="98" t="s">
+      <c r="BR9" s="91"/>
+      <c r="BS9" s="91"/>
+      <c r="BT9" s="91"/>
+      <c r="BU9" s="97"/>
+      <c r="BV9" s="95" t="s">
         <v>766</v>
       </c>
       <c r="BW9" s="147"/>
-      <c r="BX9" s="90"/>
-      <c r="BY9" s="91"/>
-      <c r="BZ9" s="98" t="s">
+      <c r="BX9" s="91"/>
+      <c r="BY9" s="90"/>
+      <c r="BZ9" s="95" t="s">
         <v>795</v>
       </c>
-      <c r="CA9" s="91"/>
-      <c r="CB9" s="90"/>
-      <c r="CC9" s="91"/>
-      <c r="CD9" s="91" t="s">
+      <c r="CA9" s="90"/>
+      <c r="CB9" s="91"/>
+      <c r="CC9" s="90"/>
+      <c r="CD9" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="CE9" s="90"/>
+      <c r="CE9" s="91"/>
       <c r="CF9" s="94"/>
       <c r="CG9" s="94"/>
-      <c r="CH9" s="42"/>
-      <c r="CI9" s="65"/>
+      <c r="CH9" s="91"/>
+      <c r="CI9" s="90"/>
       <c r="CJ9" s="65"/>
       <c r="CK9" s="42"/>
       <c r="CL9" s="42"/>
-      <c r="CM9" s="42"/>
+      <c r="CM9" s="42" t="s">
+        <v>813</v>
+      </c>
       <c r="CN9" s="42"/>
       <c r="CO9" s="42"/>
       <c r="CP9" s="65"/>
@@ -50084,190 +50349,196 @@
       <c r="A10" s="10">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="111"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="108"/>
       <c r="G10" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="H10" s="119"/>
+      <c r="H10" s="115"/>
       <c r="I10" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="J10" s="113" t="s">
+      <c r="J10" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="K10" s="98"/>
+      <c r="K10" s="95"/>
       <c r="L10" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="M10" s="90"/>
+      <c r="M10" s="91"/>
       <c r="N10" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="O10" s="111"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="90" t="s">
+      <c r="O10" s="108"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="91" t="s">
         <v>318</v>
       </c>
       <c r="S10" s="52" t="s">
         <v>327</v>
       </c>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="105"/>
-      <c r="W10" s="111"/>
-      <c r="X10" s="101" t="s">
+      <c r="T10" s="91"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="99"/>
+      <c r="W10" s="108"/>
+      <c r="X10" s="98" t="s">
         <v>411</v>
       </c>
-      <c r="Y10" s="101"/>
-      <c r="Z10" s="114"/>
-      <c r="AA10" s="90"/>
-      <c r="AB10" s="90"/>
-      <c r="AC10" s="90" t="s">
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="109"/>
+      <c r="AA10" s="91"/>
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="91" t="s">
         <v>481</v>
       </c>
-      <c r="AD10" s="90" t="s">
+      <c r="AD10" s="91" t="s">
         <v>495</v>
       </c>
-      <c r="AE10" s="101" t="s">
+      <c r="AE10" s="98" t="s">
         <v>261</v>
       </c>
-      <c r="AF10" s="90"/>
-      <c r="AG10" s="101" t="s">
+      <c r="AF10" s="91"/>
+      <c r="AG10" s="98" t="s">
         <v>535</v>
       </c>
       <c r="AH10" s="61" t="s">
         <v>551</v>
       </c>
-      <c r="AI10" s="110"/>
-      <c r="AJ10" s="113" t="s">
+      <c r="AI10" s="107"/>
+      <c r="AJ10" s="106" t="s">
         <v>225</v>
       </c>
-      <c r="AK10" s="91" t="s">
+      <c r="AK10" s="90" t="s">
         <v>58</v>
       </c>
       <c r="AL10" s="51" t="s">
         <v>574</v>
       </c>
-      <c r="AM10" s="90" t="s">
+      <c r="AM10" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AN10" s="91"/>
-      <c r="AO10" s="90"/>
+      <c r="AN10" s="90"/>
+      <c r="AO10" s="91"/>
       <c r="AP10" s="94"/>
-      <c r="AQ10" s="91"/>
+      <c r="AQ10" s="90"/>
       <c r="AR10" s="93" t="s">
         <v>619</v>
       </c>
-      <c r="AS10" s="90" t="s">
+      <c r="AS10" s="91" t="s">
         <v>622</v>
       </c>
-      <c r="AT10" s="90"/>
+      <c r="AT10" s="91"/>
       <c r="AU10" s="94" t="s">
         <v>633</v>
       </c>
-      <c r="AV10" s="106" t="s">
+      <c r="AV10" s="100" t="s">
         <v>177</v>
       </c>
-      <c r="AW10" s="97"/>
-      <c r="AX10" s="90" t="s">
+      <c r="AW10" s="105"/>
+      <c r="AX10" s="91" t="s">
         <v>640</v>
       </c>
-      <c r="AY10" s="90" t="s">
+      <c r="AY10" s="91" t="s">
         <v>640</v>
       </c>
-      <c r="AZ10" s="101" t="s">
+      <c r="AZ10" s="98" t="s">
         <v>642</v>
       </c>
-      <c r="BA10" s="90" t="s">
+      <c r="BA10" s="91" t="s">
         <v>641</v>
       </c>
-      <c r="BB10" s="101" t="s">
+      <c r="BB10" s="98" t="s">
         <v>643</v>
       </c>
-      <c r="BC10" s="101" t="s">
+      <c r="BC10" s="98" t="s">
         <v>642</v>
       </c>
-      <c r="BD10" s="90" t="s">
+      <c r="BD10" s="91" t="s">
         <v>641</v>
       </c>
-      <c r="BE10" s="97"/>
-      <c r="BF10" s="91" t="s">
+      <c r="BE10" s="105"/>
+      <c r="BF10" s="90" t="s">
         <v>17</v>
       </c>
       <c r="BG10" s="54" t="s">
         <v>682</v>
       </c>
-      <c r="BH10" s="90"/>
+      <c r="BH10" s="91"/>
       <c r="BI10" s="92"/>
       <c r="BJ10" s="94"/>
-      <c r="BK10" s="101" t="s">
+      <c r="BK10" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="BL10" s="126" t="s">
+      <c r="BL10" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="BM10" s="126" t="s">
+      <c r="BM10" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="BN10" s="129"/>
-      <c r="BO10" s="101" t="s">
+      <c r="BN10" s="127"/>
+      <c r="BO10" s="98" t="s">
         <v>699</v>
       </c>
-      <c r="BP10" s="90"/>
+      <c r="BP10" s="91"/>
       <c r="BQ10" s="94" t="s">
         <v>707</v>
       </c>
-      <c r="BR10" s="90" t="s">
+      <c r="BR10" s="91" t="s">
         <v>716</v>
       </c>
-      <c r="BS10" s="91" t="s">
+      <c r="BS10" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="BT10" s="90" t="s">
+      <c r="BT10" s="91" t="s">
         <v>720</v>
       </c>
-      <c r="BU10" s="98" t="s">
+      <c r="BU10" s="95" t="s">
         <v>733</v>
       </c>
-      <c r="BV10" s="90"/>
+      <c r="BV10" s="91"/>
       <c r="BW10" s="147"/>
-      <c r="BX10" s="98" t="s">
+      <c r="BX10" s="95" t="s">
         <v>766</v>
       </c>
-      <c r="BY10" s="91" t="s">
+      <c r="BY10" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="BZ10" s="90"/>
-      <c r="CA10" s="90" t="s">
+      <c r="BZ10" s="91"/>
+      <c r="CA10" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="CB10" s="90" t="s">
+      <c r="CB10" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="CC10" s="90" t="s">
+      <c r="CC10" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="CD10" s="91"/>
-      <c r="CE10" s="91" t="s">
+      <c r="CD10" s="90"/>
+      <c r="CE10" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="CF10" s="90" t="s">
+      <c r="CF10" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="CG10" s="90" t="s">
+      <c r="CG10" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="CH10" s="42"/>
-      <c r="CI10" s="65"/>
+      <c r="CH10" s="91" t="s">
+        <v>805</v>
+      </c>
+      <c r="CI10" s="87" t="s">
+        <v>159</v>
+      </c>
       <c r="CJ10" s="65"/>
       <c r="CK10" s="42"/>
       <c r="CL10" s="42"/>
-      <c r="CM10" s="42"/>
+      <c r="CM10" s="42" t="s">
+        <v>814</v>
+      </c>
       <c r="CN10" s="42"/>
       <c r="CO10" s="42"/>
       <c r="CP10" s="65"/>
@@ -50277,147 +50548,147 @@
       <c r="A11" s="10">
         <v>0.4375</v>
       </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
       <c r="E11" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="90" t="s">
+      <c r="G11" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="119"/>
-      <c r="I11" s="90" t="s">
+      <c r="H11" s="115"/>
+      <c r="I11" s="91" t="s">
         <v>161</v>
       </c>
-      <c r="J11" s="113"/>
+      <c r="J11" s="106"/>
       <c r="K11" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="L11" s="90" t="s">
+      <c r="L11" s="91" t="s">
         <v>237</v>
       </c>
       <c r="M11" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="N11" s="90" t="s">
+      <c r="N11" s="91" t="s">
         <v>261</v>
       </c>
-      <c r="O11" s="111"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90" t="s">
+      <c r="O11" s="108"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91" t="s">
         <v>295</v>
       </c>
-      <c r="R11" s="90"/>
-      <c r="S11" s="111" t="s">
+      <c r="R11" s="91"/>
+      <c r="S11" s="108" t="s">
         <v>328</v>
       </c>
       <c r="T11" s="54" t="s">
         <v>353</v>
       </c>
-      <c r="U11" s="90" t="s">
+      <c r="U11" s="91" t="s">
         <v>373</v>
       </c>
-      <c r="V11" s="105"/>
+      <c r="V11" s="99"/>
       <c r="W11" s="52" t="s">
         <v>400</v>
       </c>
-      <c r="X11" s="101"/>
+      <c r="X11" s="98"/>
       <c r="Y11" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="Z11" s="90" t="s">
+      <c r="Z11" s="91" t="s">
         <v>437</v>
       </c>
       <c r="AA11" s="62" t="s">
         <v>446</v>
       </c>
-      <c r="AB11" s="90" t="s">
+      <c r="AB11" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="AC11" s="90"/>
-      <c r="AD11" s="90"/>
-      <c r="AE11" s="101"/>
-      <c r="AF11" s="91" t="s">
+      <c r="AC11" s="91"/>
+      <c r="AD11" s="91"/>
+      <c r="AE11" s="98"/>
+      <c r="AF11" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AG11" s="101"/>
-      <c r="AH11" s="90" t="s">
+      <c r="AG11" s="98"/>
+      <c r="AH11" s="91" t="s">
         <v>549</v>
       </c>
-      <c r="AI11" s="110"/>
-      <c r="AJ11" s="113"/>
-      <c r="AK11" s="91"/>
-      <c r="AL11" s="90" t="s">
+      <c r="AI11" s="107"/>
+      <c r="AJ11" s="106"/>
+      <c r="AK11" s="90"/>
+      <c r="AL11" s="91" t="s">
         <v>570</v>
       </c>
-      <c r="AM11" s="90"/>
-      <c r="AN11" s="91"/>
+      <c r="AM11" s="91"/>
+      <c r="AN11" s="90"/>
       <c r="AO11" s="51" t="s">
         <v>58</v>
       </c>
       <c r="AP11" s="94"/>
-      <c r="AQ11" s="91"/>
+      <c r="AQ11" s="90"/>
       <c r="AR11" s="93"/>
-      <c r="AS11" s="90"/>
-      <c r="AT11" s="90"/>
+      <c r="AS11" s="91"/>
+      <c r="AT11" s="91"/>
       <c r="AU11" s="94"/>
-      <c r="AV11" s="106"/>
-      <c r="AW11" s="97"/>
-      <c r="AX11" s="90"/>
-      <c r="AY11" s="90"/>
-      <c r="AZ11" s="101"/>
-      <c r="BA11" s="90"/>
-      <c r="BB11" s="101"/>
-      <c r="BC11" s="101"/>
-      <c r="BD11" s="90"/>
-      <c r="BE11" s="97"/>
-      <c r="BF11" s="91"/>
-      <c r="BG11" s="90" t="s">
+      <c r="AV11" s="100"/>
+      <c r="AW11" s="105"/>
+      <c r="AX11" s="91"/>
+      <c r="AY11" s="91"/>
+      <c r="AZ11" s="98"/>
+      <c r="BA11" s="91"/>
+      <c r="BB11" s="98"/>
+      <c r="BC11" s="98"/>
+      <c r="BD11" s="91"/>
+      <c r="BE11" s="105"/>
+      <c r="BF11" s="90"/>
+      <c r="BG11" s="91" t="s">
         <v>45</v>
       </c>
       <c r="BH11" s="92" t="s">
         <v>670</v>
       </c>
-      <c r="BI11" s="101" t="s">
+      <c r="BI11" s="98" t="s">
         <v>685</v>
       </c>
       <c r="BJ11" s="94" t="s">
         <v>690</v>
       </c>
-      <c r="BK11" s="101"/>
-      <c r="BL11" s="127"/>
-      <c r="BM11" s="127"/>
-      <c r="BN11" s="129"/>
-      <c r="BO11" s="101"/>
-      <c r="BP11" s="90"/>
+      <c r="BK11" s="98"/>
+      <c r="BL11" s="125"/>
+      <c r="BM11" s="125"/>
+      <c r="BN11" s="127"/>
+      <c r="BO11" s="98"/>
+      <c r="BP11" s="91"/>
       <c r="BQ11" s="94"/>
-      <c r="BR11" s="90"/>
-      <c r="BS11" s="91"/>
-      <c r="BT11" s="90"/>
-      <c r="BU11" s="90"/>
-      <c r="BV11" s="98" t="s">
+      <c r="BR11" s="91"/>
+      <c r="BS11" s="90"/>
+      <c r="BT11" s="91"/>
+      <c r="BU11" s="91"/>
+      <c r="BV11" s="95" t="s">
         <v>769</v>
       </c>
       <c r="BW11" s="147"/>
-      <c r="BX11" s="90"/>
-      <c r="BY11" s="91"/>
-      <c r="BZ11" s="98" t="s">
+      <c r="BX11" s="91"/>
+      <c r="BY11" s="90"/>
+      <c r="BZ11" s="95" t="s">
         <v>795</v>
       </c>
-      <c r="CA11" s="90"/>
-      <c r="CB11" s="90"/>
-      <c r="CC11" s="90"/>
-      <c r="CD11" s="91" t="s">
+      <c r="CA11" s="91"/>
+      <c r="CB11" s="91"/>
+      <c r="CC11" s="91"/>
+      <c r="CD11" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="CE11" s="91"/>
-      <c r="CF11" s="90"/>
-      <c r="CG11" s="90"/>
-      <c r="CH11" s="42"/>
+      <c r="CE11" s="90"/>
+      <c r="CF11" s="91"/>
+      <c r="CG11" s="91"/>
+      <c r="CH11" s="91"/>
       <c r="CI11" s="65"/>
       <c r="CJ11" s="65"/>
       <c r="CK11" s="42"/>
@@ -50435,44 +50706,44 @@
       <c r="B12" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="101" t="s">
+      <c r="D12" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E12" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="113"/>
-      <c r="G12" s="90"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="91"/>
       <c r="H12" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="I12" s="90"/>
+      <c r="I12" s="91"/>
       <c r="J12" s="61" t="s">
         <v>193</v>
       </c>
       <c r="K12" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90" t="s">
+      <c r="L12" s="91"/>
+      <c r="M12" s="91" t="s">
         <v>252</v>
       </c>
-      <c r="N12" s="90"/>
-      <c r="O12" s="111"/>
-      <c r="P12" s="111" t="s">
+      <c r="N12" s="91"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108" t="s">
         <v>286</v>
       </c>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="111"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="108"/>
       <c r="T12" s="52" t="s">
         <v>363</v>
       </c>
-      <c r="U12" s="90"/>
-      <c r="V12" s="114" t="s">
+      <c r="U12" s="91"/>
+      <c r="V12" s="109" t="s">
         <v>388</v>
       </c>
       <c r="W12" s="93" t="s">
@@ -50481,39 +50752,39 @@
       <c r="X12" s="55" t="s">
         <v>409</v>
       </c>
-      <c r="Y12" s="101" t="s">
+      <c r="Y12" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="Z12" s="90"/>
-      <c r="AA12" s="91" t="s">
+      <c r="Z12" s="91"/>
+      <c r="AA12" s="90" t="s">
         <v>447</v>
       </c>
-      <c r="AB12" s="90"/>
-      <c r="AC12" s="90"/>
-      <c r="AD12" s="114" t="s">
+      <c r="AB12" s="91"/>
+      <c r="AC12" s="91"/>
+      <c r="AD12" s="109" t="s">
         <v>496</v>
       </c>
       <c r="AE12" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AF12" s="91"/>
-      <c r="AG12" s="101"/>
-      <c r="AH12" s="90"/>
-      <c r="AI12" s="110"/>
-      <c r="AJ12" s="90" t="s">
+      <c r="AF12" s="90"/>
+      <c r="AG12" s="98"/>
+      <c r="AH12" s="91"/>
+      <c r="AI12" s="107"/>
+      <c r="AJ12" s="91" t="s">
         <v>556</v>
       </c>
       <c r="AK12" s="92" t="s">
         <v>566</v>
       </c>
-      <c r="AL12" s="90"/>
+      <c r="AL12" s="91"/>
       <c r="AM12" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AN12" s="90" t="s">
+      <c r="AN12" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AO12" s="125" t="s">
+      <c r="AO12" s="103" t="s">
         <v>610</v>
       </c>
       <c r="AP12" s="94"/>
@@ -50523,95 +50794,99 @@
       <c r="AR12" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AS12" s="90" t="s">
+      <c r="AS12" s="91" t="s">
         <v>622</v>
       </c>
-      <c r="AT12" s="90"/>
+      <c r="AT12" s="91"/>
       <c r="AU12" s="94"/>
-      <c r="AV12" s="113" t="s">
+      <c r="AV12" s="106" t="s">
         <v>634</v>
       </c>
-      <c r="AW12" s="105" t="s">
+      <c r="AW12" s="99" t="s">
         <v>645</v>
       </c>
-      <c r="AX12" s="90"/>
-      <c r="AY12" s="90"/>
+      <c r="AX12" s="91"/>
+      <c r="AY12" s="91"/>
       <c r="AZ12" s="94" t="s">
         <v>657</v>
       </c>
-      <c r="BA12" s="90"/>
-      <c r="BB12" s="101"/>
-      <c r="BC12" s="101"/>
-      <c r="BD12" s="90"/>
-      <c r="BE12" s="108" t="s">
+      <c r="BA12" s="91"/>
+      <c r="BB12" s="98"/>
+      <c r="BC12" s="98"/>
+      <c r="BD12" s="91"/>
+      <c r="BE12" s="102" t="s">
         <v>670</v>
       </c>
       <c r="BF12" s="94" t="s">
         <v>677</v>
       </c>
-      <c r="BG12" s="90"/>
+      <c r="BG12" s="91"/>
       <c r="BH12" s="92"/>
-      <c r="BI12" s="101"/>
+      <c r="BI12" s="98"/>
       <c r="BJ12" s="94"/>
       <c r="BK12" s="93" t="s">
         <v>619</v>
       </c>
-      <c r="BL12" s="127"/>
-      <c r="BM12" s="127"/>
-      <c r="BN12" s="129"/>
-      <c r="BO12" s="91" t="s">
+      <c r="BL12" s="125"/>
+      <c r="BM12" s="125"/>
+      <c r="BN12" s="127"/>
+      <c r="BO12" s="90" t="s">
         <v>58</v>
       </c>
       <c r="BP12" s="92" t="s">
         <v>691</v>
       </c>
       <c r="BQ12" s="94"/>
-      <c r="BR12" s="90" t="s">
+      <c r="BR12" s="91" t="s">
         <v>717</v>
       </c>
       <c r="BS12" s="94" t="s">
         <v>721</v>
       </c>
-      <c r="BT12" s="91" t="s">
+      <c r="BT12" s="90" t="s">
         <v>17</v>
       </c>
       <c r="BU12" s="94" t="s">
         <v>761</v>
       </c>
-      <c r="BV12" s="90"/>
+      <c r="BV12" s="91"/>
       <c r="BW12" s="148"/>
-      <c r="BX12" s="98" t="s">
+      <c r="BX12" s="95" t="s">
         <v>766</v>
       </c>
       <c r="BY12" s="94" t="s">
         <v>777</v>
       </c>
-      <c r="BZ12" s="90"/>
-      <c r="CA12" s="90" t="s">
+      <c r="BZ12" s="91"/>
+      <c r="CA12" s="91" t="s">
         <v>725</v>
       </c>
       <c r="CB12" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="CC12" s="90" t="s">
+      <c r="CC12" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="CD12" s="91"/>
-      <c r="CE12" s="91" t="s">
+      <c r="CD12" s="90"/>
+      <c r="CE12" s="90" t="s">
         <v>17</v>
       </c>
       <c r="CF12" s="94" t="s">
         <v>802</v>
       </c>
-      <c r="CG12" s="91" t="s">
+      <c r="CG12" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="CH12" s="42"/>
+      <c r="CH12" s="90" t="s">
+        <v>17</v>
+      </c>
       <c r="CI12" s="65"/>
       <c r="CJ12" s="65"/>
       <c r="CK12" s="42"/>
       <c r="CL12" s="42"/>
-      <c r="CM12" s="42"/>
+      <c r="CM12" s="42" t="s">
+        <v>815</v>
+      </c>
       <c r="CN12" s="42"/>
       <c r="CO12" s="42"/>
       <c r="CP12" s="65"/>
@@ -50621,155 +50896,155 @@
       <c r="A13" s="10">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="90" t="s">
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="114" t="s">
+      <c r="F13" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="114" t="s">
+      <c r="G13" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="H13" s="105" t="s">
+      <c r="H13" s="99" t="s">
         <v>143</v>
       </c>
       <c r="I13" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="J13" s="90" t="s">
+      <c r="J13" s="91" t="s">
         <v>194</v>
       </c>
       <c r="K13" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="105" t="s">
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="99" t="s">
         <v>264</v>
       </c>
-      <c r="P13" s="111"/>
+      <c r="P13" s="108"/>
       <c r="Q13" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="R13" s="114" t="s">
+      <c r="R13" s="109" t="s">
         <v>316</v>
       </c>
-      <c r="S13" s="114" t="s">
+      <c r="S13" s="109" t="s">
         <v>329</v>
       </c>
       <c r="T13" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="U13" s="90"/>
-      <c r="V13" s="114"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="109"/>
       <c r="W13" s="93"/>
-      <c r="X13" s="101" t="s">
+      <c r="X13" s="98" t="s">
         <v>412</v>
       </c>
-      <c r="Y13" s="101"/>
-      <c r="Z13" s="90"/>
-      <c r="AA13" s="91"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="91"/>
+      <c r="AA13" s="90"/>
       <c r="AB13" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="AC13" s="90"/>
-      <c r="AD13" s="114"/>
-      <c r="AE13" s="90" t="s">
+      <c r="AC13" s="91"/>
+      <c r="AD13" s="109"/>
+      <c r="AE13" s="91" t="s">
         <v>508</v>
       </c>
-      <c r="AF13" s="98" t="s">
+      <c r="AF13" s="95" t="s">
         <v>532</v>
       </c>
-      <c r="AG13" s="101"/>
-      <c r="AH13" s="90" t="s">
+      <c r="AG13" s="98"/>
+      <c r="AH13" s="91" t="s">
         <v>550</v>
       </c>
-      <c r="AI13" s="110"/>
-      <c r="AJ13" s="90"/>
+      <c r="AI13" s="107"/>
+      <c r="AJ13" s="91"/>
       <c r="AK13" s="92"/>
-      <c r="AL13" s="90"/>
-      <c r="AM13" s="113" t="s">
+      <c r="AL13" s="91"/>
+      <c r="AM13" s="106" t="s">
         <v>594</v>
       </c>
-      <c r="AN13" s="90"/>
-      <c r="AO13" s="125"/>
-      <c r="AP13" s="125" t="s">
+      <c r="AN13" s="91"/>
+      <c r="AO13" s="103"/>
+      <c r="AP13" s="103" t="s">
         <v>614</v>
       </c>
-      <c r="AQ13" s="110" t="s">
+      <c r="AQ13" s="107" t="s">
         <v>448</v>
       </c>
-      <c r="AR13" s="90" t="s">
+      <c r="AR13" s="91" t="s">
         <v>620</v>
       </c>
-      <c r="AS13" s="90"/>
-      <c r="AT13" s="91" t="s">
+      <c r="AS13" s="91"/>
+      <c r="AT13" s="90" t="s">
         <v>17</v>
       </c>
       <c r="AU13" s="94"/>
-      <c r="AV13" s="113"/>
-      <c r="AW13" s="105"/>
-      <c r="AX13" s="90"/>
-      <c r="AY13" s="90"/>
+      <c r="AV13" s="106"/>
+      <c r="AW13" s="99"/>
+      <c r="AX13" s="91"/>
+      <c r="AY13" s="91"/>
       <c r="AZ13" s="94"/>
-      <c r="BA13" s="90"/>
-      <c r="BB13" s="101"/>
-      <c r="BC13" s="101"/>
-      <c r="BD13" s="90"/>
-      <c r="BE13" s="108"/>
+      <c r="BA13" s="91"/>
+      <c r="BB13" s="98"/>
+      <c r="BC13" s="98"/>
+      <c r="BD13" s="91"/>
+      <c r="BE13" s="102"/>
       <c r="BF13" s="94"/>
-      <c r="BG13" s="108" t="s">
+      <c r="BG13" s="102" t="s">
         <v>683</v>
       </c>
-      <c r="BH13" s="91" t="s">
+      <c r="BH13" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BI13" s="91" t="s">
+      <c r="BI13" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BJ13" s="91" t="s">
+      <c r="BJ13" s="90" t="s">
         <v>17</v>
       </c>
       <c r="BK13" s="93"/>
-      <c r="BL13" s="128"/>
-      <c r="BM13" s="128"/>
-      <c r="BN13" s="129"/>
-      <c r="BO13" s="91"/>
+      <c r="BL13" s="126"/>
+      <c r="BM13" s="126"/>
+      <c r="BN13" s="127"/>
+      <c r="BO13" s="90"/>
       <c r="BP13" s="92"/>
       <c r="BQ13" s="94" t="s">
         <v>708</v>
       </c>
-      <c r="BR13" s="90"/>
+      <c r="BR13" s="91"/>
       <c r="BS13" s="94"/>
-      <c r="BT13" s="91"/>
+      <c r="BT13" s="90"/>
       <c r="BU13" s="94"/>
-      <c r="BV13" s="91" t="s">
+      <c r="BV13" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BW13" s="91" t="s">
+      <c r="BW13" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BX13" s="90"/>
+      <c r="BX13" s="91"/>
       <c r="BY13" s="94"/>
-      <c r="BZ13" s="91" t="s">
+      <c r="BZ13" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="CA13" s="90"/>
+      <c r="CA13" s="91"/>
       <c r="CB13" s="92"/>
-      <c r="CC13" s="90"/>
-      <c r="CD13" s="91" t="s">
+      <c r="CC13" s="91"/>
+      <c r="CD13" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="CE13" s="91"/>
+      <c r="CE13" s="90"/>
       <c r="CF13" s="94"/>
-      <c r="CG13" s="91"/>
-      <c r="CH13" s="42"/>
+      <c r="CG13" s="90"/>
+      <c r="CH13" s="90"/>
       <c r="CI13" s="65"/>
       <c r="CJ13" s="65"/>
       <c r="CK13" s="42"/>
@@ -50784,66 +51059,66 @@
       <c r="A14" s="10">
         <v>0.5</v>
       </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="91" t="s">
+      <c r="B14" s="100"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="J14" s="90"/>
+      <c r="J14" s="91"/>
       <c r="K14" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="90" t="s">
+      <c r="L14" s="91" t="s">
         <v>236</v>
       </c>
-      <c r="M14" s="90"/>
+      <c r="M14" s="91"/>
       <c r="N14" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="O14" s="105"/>
-      <c r="P14" s="111"/>
-      <c r="Q14" s="114" t="s">
+      <c r="O14" s="99"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="109" t="s">
         <v>296</v>
       </c>
-      <c r="R14" s="114"/>
-      <c r="S14" s="114"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="109"/>
       <c r="T14" s="62" t="s">
         <v>336</v>
       </c>
-      <c r="U14" s="114" t="s">
+      <c r="U14" s="109" t="s">
         <v>375</v>
       </c>
       <c r="V14" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="W14" s="115" t="s">
+      <c r="W14" s="111" t="s">
         <v>402</v>
       </c>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="90"/>
-      <c r="AA14" s="90" t="s">
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="91"/>
+      <c r="AA14" s="91" t="s">
         <v>445</v>
       </c>
-      <c r="AB14" s="112" t="s">
+      <c r="AB14" s="110" t="s">
         <v>476</v>
       </c>
-      <c r="AC14" s="90"/>
+      <c r="AC14" s="91"/>
       <c r="AD14" s="92" t="s">
         <v>500</v>
       </c>
-      <c r="AE14" s="90"/>
-      <c r="AF14" s="98"/>
-      <c r="AG14" s="114" t="s">
+      <c r="AE14" s="91"/>
+      <c r="AF14" s="95"/>
+      <c r="AG14" s="109" t="s">
         <v>336</v>
       </c>
-      <c r="AH14" s="90"/>
-      <c r="AI14" s="110"/>
+      <c r="AH14" s="91"/>
+      <c r="AI14" s="107"/>
       <c r="AJ14" s="61" t="s">
         <v>193</v>
       </c>
@@ -50851,63 +51126,63 @@
       <c r="AL14" s="60" t="s">
         <v>575</v>
       </c>
-      <c r="AM14" s="113"/>
+      <c r="AM14" s="106"/>
       <c r="AN14" s="53" t="s">
         <v>600</v>
       </c>
-      <c r="AO14" s="125"/>
-      <c r="AP14" s="125"/>
-      <c r="AQ14" s="110"/>
-      <c r="AR14" s="90"/>
-      <c r="AS14" s="91" t="s">
+      <c r="AO14" s="103"/>
+      <c r="AP14" s="103"/>
+      <c r="AQ14" s="107"/>
+      <c r="AR14" s="91"/>
+      <c r="AS14" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AT14" s="91"/>
-      <c r="AU14" s="91" t="s">
+      <c r="AT14" s="90"/>
+      <c r="AU14" s="90" t="s">
         <v>17</v>
       </c>
       <c r="AV14" s="94" t="s">
         <v>633</v>
       </c>
-      <c r="AW14" s="91" t="s">
+      <c r="AW14" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="AX14" s="91" t="s">
+      <c r="AX14" s="90" t="s">
         <v>17</v>
       </c>
       <c r="AY14" s="94" t="s">
         <v>657</v>
       </c>
-      <c r="AZ14" s="91" t="s">
+      <c r="AZ14" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BA14" s="90"/>
+      <c r="BA14" s="91"/>
       <c r="BB14" s="92" t="s">
         <v>668</v>
       </c>
-      <c r="BC14" s="91" t="s">
+      <c r="BC14" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BD14" s="91" t="s">
+      <c r="BD14" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BE14" s="108"/>
+      <c r="BE14" s="102"/>
       <c r="BF14" s="94"/>
-      <c r="BG14" s="108"/>
-      <c r="BH14" s="91"/>
-      <c r="BI14" s="91"/>
-      <c r="BJ14" s="91"/>
-      <c r="BK14" s="91" t="s">
+      <c r="BG14" s="102"/>
+      <c r="BH14" s="90"/>
+      <c r="BI14" s="90"/>
+      <c r="BJ14" s="90"/>
+      <c r="BK14" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BL14" s="91" t="s">
+      <c r="BL14" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BM14" s="91" t="s">
+      <c r="BM14" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BN14" s="129"/>
-      <c r="BO14" s="91" t="s">
+      <c r="BN14" s="127"/>
+      <c r="BO14" s="90" t="s">
         <v>58</v>
       </c>
       <c r="BP14" s="92" t="s">
@@ -50917,7 +51192,7 @@
       <c r="BR14" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="BS14" s="91" t="s">
+      <c r="BS14" s="90" t="s">
         <v>17</v>
       </c>
       <c r="BT14" s="94" t="s">
@@ -50926,26 +51201,26 @@
       <c r="BU14" s="94" t="s">
         <v>762</v>
       </c>
-      <c r="BV14" s="91"/>
-      <c r="BW14" s="91"/>
-      <c r="BX14" s="91" t="s">
+      <c r="BV14" s="90"/>
+      <c r="BW14" s="90"/>
+      <c r="BX14" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BY14" s="91" t="s">
+      <c r="BY14" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BZ14" s="91"/>
-      <c r="CA14" s="90" t="s">
+      <c r="BZ14" s="90"/>
+      <c r="CA14" s="91" t="s">
         <v>725</v>
       </c>
       <c r="CB14" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="CC14" s="90" t="s">
+      <c r="CC14" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="CD14" s="91"/>
-      <c r="CE14" s="90" t="s">
+      <c r="CD14" s="90"/>
+      <c r="CE14" s="91" t="s">
         <v>725</v>
       </c>
       <c r="CF14" s="94" t="s">
@@ -50954,12 +51229,16 @@
       <c r="CG14" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="CH14" s="42"/>
+      <c r="CH14" s="92" t="s">
+        <v>807</v>
+      </c>
       <c r="CI14" s="65"/>
       <c r="CJ14" s="65"/>
       <c r="CK14" s="42"/>
       <c r="CL14" s="42"/>
-      <c r="CM14" s="42"/>
+      <c r="CM14" s="42" t="s">
+        <v>816</v>
+      </c>
       <c r="CN14" s="42"/>
       <c r="CO14" s="42"/>
       <c r="CP14" s="65"/>
@@ -50969,11 +51248,11 @@
       <c r="A15" s="10">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106" t="s">
+      <c r="B15" s="100"/>
+      <c r="C15" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="91" t="s">
+      <c r="D15" s="90" t="s">
         <v>71</v>
       </c>
       <c r="E15" s="51" t="s">
@@ -50985,139 +51264,139 @@
       <c r="G15" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="H15" s="105"/>
-      <c r="I15" s="91"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="90"/>
       <c r="J15" s="57" t="s">
         <v>195</v>
       </c>
       <c r="K15" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="L15" s="90"/>
-      <c r="M15" s="91" t="s">
+      <c r="L15" s="91"/>
+      <c r="M15" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="91" t="s">
+      <c r="N15" s="90" t="s">
         <v>258</v>
       </c>
-      <c r="O15" s="105"/>
-      <c r="P15" s="91" t="s">
+      <c r="O15" s="99"/>
+      <c r="P15" s="90" t="s">
         <v>284</v>
       </c>
-      <c r="Q15" s="114"/>
-      <c r="R15" s="114"/>
+      <c r="Q15" s="109"/>
+      <c r="R15" s="109"/>
       <c r="S15" s="57" t="s">
         <v>330</v>
       </c>
-      <c r="T15" s="101" t="s">
+      <c r="T15" s="98" t="s">
         <v>337</v>
       </c>
-      <c r="U15" s="114"/>
-      <c r="V15" s="97" t="s">
+      <c r="U15" s="109"/>
+      <c r="V15" s="105" t="s">
         <v>300</v>
       </c>
-      <c r="W15" s="115"/>
+      <c r="W15" s="111"/>
       <c r="X15" s="94" t="s">
         <v>415</v>
       </c>
-      <c r="Y15" s="101" t="s">
+      <c r="Y15" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="Z15" s="90"/>
-      <c r="AA15" s="90"/>
-      <c r="AB15" s="112"/>
-      <c r="AC15" s="112" t="s">
+      <c r="Z15" s="91"/>
+      <c r="AA15" s="91"/>
+      <c r="AB15" s="110"/>
+      <c r="AC15" s="110" t="s">
         <v>486</v>
       </c>
       <c r="AD15" s="92"/>
       <c r="AE15" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AF15" s="98"/>
-      <c r="AG15" s="114"/>
-      <c r="AH15" s="90"/>
-      <c r="AI15" s="110"/>
-      <c r="AJ15" s="112" t="s">
+      <c r="AF15" s="95"/>
+      <c r="AG15" s="109"/>
+      <c r="AH15" s="91"/>
+      <c r="AI15" s="107"/>
+      <c r="AJ15" s="110" t="s">
         <v>559</v>
       </c>
       <c r="AK15" s="92"/>
-      <c r="AL15" s="91" t="s">
+      <c r="AL15" s="90" t="s">
         <v>571</v>
       </c>
-      <c r="AM15" s="113"/>
+      <c r="AM15" s="106"/>
       <c r="AN15" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="AO15" s="125"/>
-      <c r="AP15" s="125"/>
-      <c r="AQ15" s="110"/>
-      <c r="AR15" s="91" t="s">
+      <c r="AO15" s="103"/>
+      <c r="AP15" s="103"/>
+      <c r="AQ15" s="107"/>
+      <c r="AR15" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AS15" s="91"/>
+      <c r="AS15" s="90"/>
       <c r="AT15" s="94" t="s">
         <v>625</v>
       </c>
-      <c r="AU15" s="91"/>
+      <c r="AU15" s="90"/>
       <c r="AV15" s="94"/>
-      <c r="AW15" s="91"/>
-      <c r="AX15" s="91"/>
+      <c r="AW15" s="90"/>
+      <c r="AX15" s="90"/>
       <c r="AY15" s="94"/>
-      <c r="AZ15" s="91"/>
-      <c r="BA15" s="90"/>
+      <c r="AZ15" s="90"/>
+      <c r="BA15" s="91"/>
       <c r="BB15" s="92"/>
-      <c r="BC15" s="91"/>
-      <c r="BD15" s="91"/>
-      <c r="BE15" s="108"/>
+      <c r="BC15" s="90"/>
+      <c r="BD15" s="90"/>
+      <c r="BE15" s="102"/>
       <c r="BF15" s="94"/>
-      <c r="BG15" s="108"/>
+      <c r="BG15" s="102"/>
       <c r="BH15" s="94" t="s">
         <v>684</v>
       </c>
-      <c r="BI15" s="91" t="s">
+      <c r="BI15" s="90" t="s">
         <v>13</v>
       </c>
       <c r="BJ15" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="BK15" s="91"/>
-      <c r="BL15" s="91"/>
-      <c r="BM15" s="91"/>
-      <c r="BN15" s="129"/>
-      <c r="BO15" s="91"/>
+      <c r="BK15" s="90"/>
+      <c r="BL15" s="90"/>
+      <c r="BM15" s="90"/>
+      <c r="BN15" s="127"/>
+      <c r="BO15" s="90"/>
       <c r="BP15" s="92"/>
-      <c r="BQ15" s="91" t="s">
+      <c r="BQ15" s="90" t="s">
         <v>58</v>
       </c>
       <c r="BR15" s="93" t="s">
         <v>718</v>
       </c>
-      <c r="BS15" s="91"/>
+      <c r="BS15" s="90"/>
       <c r="BT15" s="94"/>
       <c r="BU15" s="94"/>
-      <c r="BV15" s="90" t="s">
+      <c r="BV15" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="BW15" s="90" t="s">
+      <c r="BW15" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="BX15" s="91"/>
-      <c r="BY15" s="91"/>
-      <c r="BZ15" s="91" t="s">
+      <c r="BX15" s="90"/>
+      <c r="BY15" s="90"/>
+      <c r="BZ15" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="CA15" s="90"/>
+      <c r="CA15" s="91"/>
       <c r="CB15" s="92"/>
-      <c r="CC15" s="90"/>
+      <c r="CC15" s="91"/>
       <c r="CD15" s="94" t="s">
         <v>796</v>
       </c>
-      <c r="CE15" s="90"/>
+      <c r="CE15" s="91"/>
       <c r="CF15" s="94"/>
       <c r="CG15" s="94" t="s">
         <v>802</v>
       </c>
-      <c r="CH15" s="42"/>
+      <c r="CH15" s="92"/>
       <c r="CI15" s="65"/>
       <c r="CJ15" s="65"/>
       <c r="CK15" s="42"/>
@@ -51135,9 +51414,9 @@
       <c r="B16" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="106" t="s">
+      <c r="C16" s="100"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="100" t="s">
         <v>90</v>
       </c>
       <c r="F16" s="55" t="s">
@@ -51146,7 +51425,7 @@
       <c r="G16" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="H16" s="105"/>
+      <c r="H16" s="99"/>
       <c r="I16" s="92" t="s">
         <v>177</v>
       </c>
@@ -51156,66 +51435,66 @@
       <c r="K16" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="L16" s="90"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="105"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="114"/>
-      <c r="R16" s="114"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="109"/>
+      <c r="R16" s="109"/>
       <c r="S16" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="T16" s="101"/>
+      <c r="T16" s="98"/>
       <c r="U16" s="92" t="s">
         <v>378</v>
       </c>
-      <c r="V16" s="97"/>
-      <c r="W16" s="97" t="s">
+      <c r="V16" s="105"/>
+      <c r="W16" s="105" t="s">
         <v>403</v>
       </c>
       <c r="X16" s="94"/>
-      <c r="Y16" s="101"/>
-      <c r="Z16" s="90"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="91"/>
       <c r="AA16" s="51" t="s">
         <v>449</v>
       </c>
       <c r="AB16" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AC16" s="112"/>
+      <c r="AC16" s="110"/>
       <c r="AD16" s="55" t="s">
         <v>501</v>
       </c>
       <c r="AE16" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AF16" s="98"/>
-      <c r="AG16" s="91" t="s">
+      <c r="AF16" s="95"/>
+      <c r="AG16" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AH16" s="91" t="s">
+      <c r="AH16" s="90" t="s">
         <v>548</v>
       </c>
-      <c r="AI16" s="91" t="s">
+      <c r="AI16" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AJ16" s="112"/>
+      <c r="AJ16" s="110"/>
       <c r="AK16" s="93" t="s">
         <v>567</v>
       </c>
-      <c r="AL16" s="91"/>
+      <c r="AL16" s="90"/>
       <c r="AM16" s="94" t="s">
         <v>595</v>
       </c>
-      <c r="AN16" s="98" t="s">
+      <c r="AN16" s="95" t="s">
         <v>602</v>
       </c>
-      <c r="AO16" s="125"/>
-      <c r="AP16" s="125"/>
-      <c r="AQ16" s="110"/>
-      <c r="AR16" s="91"/>
-      <c r="AS16" s="91" t="s">
+      <c r="AO16" s="103"/>
+      <c r="AP16" s="103"/>
+      <c r="AQ16" s="107"/>
+      <c r="AR16" s="90"/>
+      <c r="AS16" s="90" t="s">
         <v>58</v>
       </c>
       <c r="AT16" s="94"/>
@@ -51223,95 +51502,99 @@
         <v>633</v>
       </c>
       <c r="AV16" s="94"/>
-      <c r="AW16" s="91" t="s">
+      <c r="AW16" s="90" t="s">
         <v>58</v>
       </c>
       <c r="AX16" s="57" t="s">
         <v>653</v>
       </c>
-      <c r="AY16" s="91" t="s">
+      <c r="AY16" s="90" t="s">
         <v>17</v>
       </c>
       <c r="AZ16" s="92" t="s">
         <v>470</v>
       </c>
-      <c r="BA16" s="91" t="s">
+      <c r="BA16" s="90" t="s">
         <v>17</v>
       </c>
       <c r="BB16" s="92"/>
       <c r="BC16" s="93" t="s">
         <v>619</v>
       </c>
-      <c r="BD16" s="113" t="s">
+      <c r="BD16" s="106" t="s">
         <v>670</v>
       </c>
-      <c r="BE16" s="91" t="s">
+      <c r="BE16" s="90" t="s">
         <v>13</v>
       </c>
       <c r="BF16" s="94"/>
-      <c r="BG16" s="108"/>
+      <c r="BG16" s="102"/>
       <c r="BH16" s="94"/>
-      <c r="BI16" s="91"/>
+      <c r="BI16" s="90"/>
       <c r="BJ16" s="94"/>
-      <c r="BK16" s="91" t="s">
+      <c r="BK16" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BL16" s="91" t="s">
+      <c r="BL16" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BM16" s="130" t="s">
+      <c r="BM16" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="BN16" s="129"/>
+      <c r="BN16" s="127"/>
       <c r="BO16" s="92" t="s">
         <v>700</v>
       </c>
-      <c r="BP16" s="107" t="s">
+      <c r="BP16" s="101" t="s">
         <v>416</v>
       </c>
-      <c r="BQ16" s="91"/>
+      <c r="BQ16" s="90"/>
       <c r="BR16" s="93"/>
       <c r="BS16" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="BT16" s="90" t="s">
+      <c r="BT16" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="BU16" s="90" t="s">
+      <c r="BU16" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="BV16" s="90"/>
-      <c r="BW16" s="90"/>
+      <c r="BV16" s="91"/>
+      <c r="BW16" s="91"/>
       <c r="BX16" s="141" t="s">
         <v>775</v>
       </c>
       <c r="BY16" s="139" t="s">
         <v>779</v>
       </c>
-      <c r="BZ16" s="91"/>
-      <c r="CA16" s="90" t="s">
+      <c r="BZ16" s="90"/>
+      <c r="CA16" s="91" t="s">
         <v>725</v>
       </c>
       <c r="CB16" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="CC16" s="91" t="s">
+      <c r="CC16" s="90" t="s">
         <v>13</v>
       </c>
       <c r="CD16" s="94"/>
-      <c r="CE16" s="90" t="s">
+      <c r="CE16" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="CF16" s="91" t="s">
+      <c r="CF16" s="90" t="s">
         <v>17</v>
       </c>
       <c r="CG16" s="94"/>
-      <c r="CH16" s="42"/>
+      <c r="CH16" s="93" t="s">
+        <v>783</v>
+      </c>
       <c r="CI16" s="65"/>
       <c r="CJ16" s="65"/>
       <c r="CK16" s="42"/>
       <c r="CL16" s="42"/>
-      <c r="CM16" s="42"/>
+      <c r="CM16" s="42" t="s">
+        <v>817</v>
+      </c>
       <c r="CN16" s="42"/>
       <c r="CO16" s="42"/>
       <c r="CP16" s="65"/>
@@ -51324,46 +51607,46 @@
       <c r="B17" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106" t="s">
+      <c r="C17" s="100"/>
+      <c r="D17" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="106"/>
+      <c r="E17" s="100"/>
       <c r="F17" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="116" t="s">
+      <c r="G17" s="112" t="s">
         <v>122</v>
       </c>
       <c r="H17" s="51" t="s">
         <v>139</v>
       </c>
       <c r="I17" s="92"/>
-      <c r="J17" s="90" t="s">
+      <c r="J17" s="91" t="s">
         <v>21</v>
       </c>
       <c r="K17" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="L17" s="91" t="s">
+      <c r="L17" s="90" t="s">
         <v>240</v>
       </c>
       <c r="M17" s="92" t="s">
         <v>250</v>
       </c>
-      <c r="N17" s="106" t="s">
+      <c r="N17" s="100" t="s">
         <v>257</v>
       </c>
       <c r="O17" s="92" t="s">
         <v>272</v>
       </c>
-      <c r="P17" s="106" t="s">
+      <c r="P17" s="100" t="s">
         <v>285</v>
       </c>
-      <c r="Q17" s="101" t="s">
+      <c r="Q17" s="98" t="s">
         <v>290</v>
       </c>
-      <c r="R17" s="114"/>
+      <c r="R17" s="109"/>
       <c r="S17" s="56" t="s">
         <v>332</v>
       </c>
@@ -51371,108 +51654,109 @@
         <v>338</v>
       </c>
       <c r="U17" s="92"/>
-      <c r="V17" s="97"/>
-      <c r="W17" s="97"/>
-      <c r="X17" s="107" t="s">
+      <c r="V17" s="105"/>
+      <c r="W17" s="105"/>
+      <c r="X17" s="101" t="s">
         <v>416</v>
       </c>
-      <c r="Y17" s="101" t="s">
+      <c r="Y17" s="98" t="s">
         <v>430</v>
       </c>
       <c r="Z17" s="55" t="s">
         <v>438</v>
       </c>
-      <c r="AA17" s="90" t="s">
+      <c r="AA17" s="91" t="s">
         <v>252</v>
       </c>
       <c r="AB17" s="57" t="s">
         <v>478</v>
       </c>
-      <c r="AC17" s="112"/>
+      <c r="AC17" s="110"/>
       <c r="AD17" s="55"/>
       <c r="AE17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AF17" s="98"/>
-      <c r="AG17" s="91"/>
-      <c r="AH17" s="91"/>
-      <c r="AI17" s="91"/>
-      <c r="AJ17" s="112"/>
+      <c r="AF17" s="95"/>
+      <c r="AG17" s="90"/>
+      <c r="AH17" s="90"/>
+      <c r="AI17" s="90"/>
+      <c r="AJ17" s="110"/>
       <c r="AK17" s="93"/>
-      <c r="AL17" s="91" t="s">
+      <c r="AL17" s="90" t="s">
         <v>572</v>
       </c>
       <c r="AM17" s="94"/>
-      <c r="AN17" s="98"/>
-      <c r="AO17" s="125"/>
-      <c r="AP17" s="125"/>
-      <c r="AQ17" s="110"/>
-      <c r="AR17" s="90" t="s">
+      <c r="AN17" s="95"/>
+      <c r="AO17" s="103"/>
+      <c r="AP17" s="103"/>
+      <c r="AQ17" s="107"/>
+      <c r="AR17" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AS17" s="91"/>
+      <c r="AS17" s="90"/>
       <c r="AT17" s="94"/>
       <c r="AU17" s="94"/>
       <c r="AV17" s="94"/>
-      <c r="AW17" s="91"/>
-      <c r="AX17" s="91" t="s">
+      <c r="AW17" s="90"/>
+      <c r="AX17" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AY17" s="91"/>
+      <c r="AY17" s="90"/>
       <c r="AZ17" s="92"/>
-      <c r="BA17" s="91"/>
+      <c r="BA17" s="90"/>
       <c r="BB17" s="92"/>
       <c r="BC17" s="93"/>
-      <c r="BD17" s="113"/>
-      <c r="BE17" s="91"/>
+      <c r="BD17" s="106"/>
+      <c r="BE17" s="90"/>
       <c r="BF17" s="94"/>
-      <c r="BG17" s="108"/>
-      <c r="BH17" s="91" t="s">
+      <c r="BG17" s="102"/>
+      <c r="BH17" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BI17" s="91" t="s">
+      <c r="BI17" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BJ17" s="91" t="s">
+      <c r="BJ17" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BK17" s="91"/>
-      <c r="BL17" s="91"/>
-      <c r="BM17" s="131"/>
-      <c r="BN17" s="129"/>
+      <c r="BK17" s="90"/>
+      <c r="BL17" s="90"/>
+      <c r="BM17" s="129"/>
+      <c r="BN17" s="127"/>
       <c r="BO17" s="92"/>
-      <c r="BP17" s="91"/>
-      <c r="BQ17" s="91" t="s">
+      <c r="BP17" s="90"/>
+      <c r="BQ17" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BR17" s="91" t="s">
+      <c r="BR17" s="90" t="s">
         <v>13</v>
       </c>
       <c r="BS17" s="92"/>
-      <c r="BT17" s="90"/>
-      <c r="BU17" s="90"/>
-      <c r="BV17" s="90" t="s">
+      <c r="BT17" s="91"/>
+      <c r="BU17" s="91"/>
+      <c r="BV17" s="91" t="s">
         <v>159</v>
       </c>
-      <c r="BW17" s="90" t="s">
+      <c r="BW17" s="91" t="s">
         <v>725</v>
       </c>
       <c r="BX17" s="142"/>
       <c r="BY17" s="140"/>
-      <c r="BZ17" s="91" t="s">
+      <c r="BZ17" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="CA17" s="90"/>
+      <c r="CA17" s="91"/>
       <c r="CB17" s="92"/>
-      <c r="CC17" s="91"/>
-      <c r="CD17" s="90" t="s">
+      <c r="CC17" s="90"/>
+      <c r="CD17" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="CE17" s="90"/>
-      <c r="CF17" s="91"/>
+      <c r="CE17" s="91"/>
+      <c r="CF17" s="90"/>
       <c r="CG17" s="94" t="s">
         <v>802</v>
       </c>
+      <c r="CH17" s="93"/>
       <c r="CI17" s="2"/>
       <c r="CJ17" s="2"/>
       <c r="CP17" s="2"/>
@@ -51482,138 +51766,138 @@
       <c r="A18" s="10">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="90" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="106"/>
-      <c r="E18" s="114" t="s">
+      <c r="D18" s="100"/>
+      <c r="E18" s="109" t="s">
         <v>91</v>
       </c>
       <c r="F18" s="94"/>
-      <c r="G18" s="116"/>
+      <c r="G18" s="112"/>
       <c r="H18" s="62" t="s">
         <v>140</v>
       </c>
       <c r="I18" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="J18" s="90"/>
+      <c r="J18" s="91"/>
       <c r="K18" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="L18" s="91"/>
+      <c r="L18" s="90"/>
       <c r="M18" s="92"/>
-      <c r="N18" s="106"/>
+      <c r="N18" s="100"/>
       <c r="O18" s="92"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="101"/>
-      <c r="R18" s="101" t="s">
+      <c r="P18" s="100"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="S18" s="101" t="s">
+      <c r="S18" s="98" t="s">
         <v>331</v>
       </c>
-      <c r="T18" s="91" t="s">
+      <c r="T18" s="90" t="s">
         <v>365</v>
       </c>
-      <c r="U18" s="101" t="s">
+      <c r="U18" s="98" t="s">
         <v>379</v>
       </c>
-      <c r="V18" s="97"/>
-      <c r="W18" s="97"/>
-      <c r="X18" s="107"/>
-      <c r="Y18" s="101"/>
+      <c r="V18" s="105"/>
+      <c r="W18" s="105"/>
+      <c r="X18" s="101"/>
+      <c r="Y18" s="98"/>
       <c r="Z18" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AA18" s="90"/>
+      <c r="AA18" s="91"/>
       <c r="AB18" s="93" t="s">
         <v>477</v>
       </c>
-      <c r="AC18" s="91" t="s">
+      <c r="AC18" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="AD18" s="91" t="s">
+      <c r="AD18" s="90" t="s">
         <v>502</v>
       </c>
-      <c r="AE18" s="91" t="s">
+      <c r="AE18" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AF18" s="98"/>
+      <c r="AF18" s="95"/>
       <c r="AG18" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="AH18" s="91"/>
-      <c r="AI18" s="91"/>
-      <c r="AJ18" s="112"/>
-      <c r="AK18" s="91" t="s">
+      <c r="AH18" s="90"/>
+      <c r="AI18" s="90"/>
+      <c r="AJ18" s="110"/>
+      <c r="AK18" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="AL18" s="91"/>
-      <c r="AM18" s="101" t="s">
+      <c r="AL18" s="90"/>
+      <c r="AM18" s="98" t="s">
         <v>261</v>
       </c>
       <c r="AN18" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="AO18" s="125"/>
-      <c r="AP18" s="125"/>
-      <c r="AQ18" s="110"/>
-      <c r="AR18" s="90"/>
-      <c r="AS18" s="106" t="s">
+      <c r="AO18" s="103"/>
+      <c r="AP18" s="103"/>
+      <c r="AQ18" s="107"/>
+      <c r="AR18" s="91"/>
+      <c r="AS18" s="100" t="s">
         <v>177</v>
       </c>
       <c r="AT18" s="94"/>
       <c r="AU18" s="94"/>
-      <c r="AV18" s="91" t="s">
+      <c r="AV18" s="90" t="s">
         <v>17</v>
       </c>
       <c r="AW18" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="AX18" s="91"/>
-      <c r="AY18" s="113" t="s">
+      <c r="AX18" s="90"/>
+      <c r="AY18" s="106" t="s">
         <v>660</v>
       </c>
-      <c r="AZ18" s="106" t="s">
+      <c r="AZ18" s="100" t="s">
         <v>193</v>
       </c>
-      <c r="BA18" s="106" t="s">
+      <c r="BA18" s="100" t="s">
         <v>177</v>
       </c>
       <c r="BB18" s="92"/>
-      <c r="BC18" s="106" t="s">
+      <c r="BC18" s="100" t="s">
         <v>177</v>
       </c>
-      <c r="BD18" s="91" t="s">
+      <c r="BD18" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BE18" s="91" t="s">
+      <c r="BE18" s="90" t="s">
         <v>13</v>
       </c>
       <c r="BF18" s="94"/>
-      <c r="BG18" s="108"/>
-      <c r="BH18" s="91"/>
-      <c r="BI18" s="91"/>
-      <c r="BJ18" s="91"/>
-      <c r="BK18" s="91" t="s">
+      <c r="BG18" s="102"/>
+      <c r="BH18" s="90"/>
+      <c r="BI18" s="90"/>
+      <c r="BJ18" s="90"/>
+      <c r="BK18" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BL18" s="105" t="s">
+      <c r="BL18" s="99" t="s">
         <v>693</v>
       </c>
-      <c r="BM18" s="131"/>
-      <c r="BN18" s="129"/>
+      <c r="BM18" s="129"/>
+      <c r="BN18" s="127"/>
       <c r="BO18" s="92" t="s">
         <v>700</v>
       </c>
-      <c r="BP18" s="91"/>
-      <c r="BQ18" s="91"/>
-      <c r="BR18" s="91"/>
-      <c r="BS18" s="90" t="s">
+      <c r="BP18" s="90"/>
+      <c r="BQ18" s="90"/>
+      <c r="BR18" s="90"/>
+      <c r="BS18" s="91" t="s">
         <v>45</v>
       </c>
       <c r="BT18" s="94" t="s">
@@ -51622,36 +51906,40 @@
       <c r="BU18" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="BV18" s="90"/>
-      <c r="BW18" s="90"/>
+      <c r="BV18" s="91"/>
+      <c r="BW18" s="91"/>
       <c r="BX18" s="143"/>
       <c r="BY18" s="139" t="s">
         <v>780</v>
       </c>
-      <c r="BZ18" s="91"/>
-      <c r="CA18" s="91" t="s">
+      <c r="BZ18" s="90"/>
+      <c r="CA18" s="90" t="s">
         <v>13</v>
       </c>
       <c r="CB18" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="CC18" s="91" t="s">
+      <c r="CC18" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="CD18" s="90"/>
-      <c r="CE18" s="90" t="s">
+      <c r="CD18" s="91"/>
+      <c r="CE18" s="91" t="s">
         <v>725</v>
       </c>
       <c r="CF18" s="94" t="s">
         <v>801</v>
       </c>
       <c r="CG18" s="94"/>
-      <c r="CH18" s="42"/>
+      <c r="CH18" s="90" t="s">
+        <v>13</v>
+      </c>
       <c r="CI18" s="65"/>
       <c r="CJ18" s="65"/>
       <c r="CK18" s="42"/>
       <c r="CL18" s="42"/>
-      <c r="CM18" s="42"/>
+      <c r="CM18" s="42" t="s">
+        <v>818</v>
+      </c>
       <c r="CN18" s="42"/>
       <c r="CO18" s="42"/>
       <c r="CP18" s="65"/>
@@ -51661,14 +51949,14 @@
       <c r="A19" s="10">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B19" s="91"/>
+      <c r="B19" s="90"/>
       <c r="C19" s="94"/>
       <c r="D19" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="114"/>
+      <c r="E19" s="109"/>
       <c r="F19" s="94"/>
-      <c r="G19" s="117" t="s">
+      <c r="G19" s="113" t="s">
         <v>123</v>
       </c>
       <c r="H19" s="20" t="s">
@@ -51680,96 +51968,96 @@
       <c r="J19" s="93" t="s">
         <v>196</v>
       </c>
-      <c r="K19" s="90" t="s">
+      <c r="K19" s="91" t="s">
         <v>219</v>
       </c>
-      <c r="L19" s="91"/>
+      <c r="L19" s="90"/>
       <c r="M19" s="92"/>
-      <c r="N19" s="106"/>
+      <c r="N19" s="100"/>
       <c r="O19" s="92"/>
-      <c r="P19" s="113" t="s">
+      <c r="P19" s="106" t="s">
         <v>287</v>
       </c>
       <c r="Q19" s="63" t="s">
         <v>292</v>
       </c>
-      <c r="R19" s="101"/>
-      <c r="S19" s="101"/>
-      <c r="T19" s="91"/>
-      <c r="U19" s="101"/>
-      <c r="V19" s="97"/>
-      <c r="W19" s="97"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="105"/>
+      <c r="W19" s="105"/>
       <c r="X19" s="55" t="s">
         <v>409</v>
       </c>
-      <c r="Y19" s="101"/>
+      <c r="Y19" s="98"/>
       <c r="Z19" s="52" t="s">
         <v>439</v>
       </c>
-      <c r="AA19" s="90"/>
+      <c r="AA19" s="91"/>
       <c r="AB19" s="93"/>
-      <c r="AC19" s="91"/>
-      <c r="AD19" s="91"/>
-      <c r="AE19" s="91"/>
-      <c r="AF19" s="98"/>
+      <c r="AC19" s="90"/>
+      <c r="AD19" s="90"/>
+      <c r="AE19" s="90"/>
+      <c r="AF19" s="95"/>
       <c r="AG19" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="AH19" s="108" t="s">
+      <c r="AH19" s="102" t="s">
         <v>553</v>
       </c>
-      <c r="AI19" s="108" t="s">
+      <c r="AI19" s="102" t="s">
         <v>408</v>
       </c>
       <c r="AJ19" s="61" t="s">
         <v>558</v>
       </c>
-      <c r="AK19" s="91"/>
-      <c r="AL19" s="91"/>
-      <c r="AM19" s="101"/>
+      <c r="AK19" s="90"/>
+      <c r="AL19" s="90"/>
+      <c r="AM19" s="98"/>
       <c r="AN19" s="55" t="s">
         <v>603</v>
       </c>
-      <c r="AO19" s="125"/>
-      <c r="AP19" s="125"/>
-      <c r="AQ19" s="110"/>
-      <c r="AR19" s="90" t="s">
+      <c r="AO19" s="103"/>
+      <c r="AP19" s="103"/>
+      <c r="AQ19" s="107"/>
+      <c r="AR19" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AS19" s="106"/>
-      <c r="AT19" s="105" t="s">
+      <c r="AS19" s="100"/>
+      <c r="AT19" s="99" t="s">
         <v>624</v>
       </c>
       <c r="AU19" s="94"/>
-      <c r="AV19" s="91"/>
-      <c r="AW19" s="91" t="s">
+      <c r="AV19" s="90"/>
+      <c r="AW19" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AX19" s="90" t="s">
+      <c r="AX19" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AY19" s="113"/>
-      <c r="AZ19" s="106"/>
-      <c r="BA19" s="106"/>
+      <c r="AY19" s="106"/>
+      <c r="AZ19" s="100"/>
+      <c r="BA19" s="100"/>
       <c r="BB19" s="92"/>
-      <c r="BC19" s="106"/>
-      <c r="BD19" s="91"/>
-      <c r="BE19" s="91"/>
+      <c r="BC19" s="100"/>
+      <c r="BD19" s="90"/>
+      <c r="BE19" s="90"/>
       <c r="BF19" s="94"/>
-      <c r="BG19" s="108"/>
-      <c r="BH19" s="91" t="s">
+      <c r="BG19" s="102"/>
+      <c r="BH19" s="90" t="s">
         <v>13</v>
       </c>
       <c r="BI19" s="94" t="s">
         <v>687</v>
       </c>
-      <c r="BJ19" s="91" t="s">
+      <c r="BJ19" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BK19" s="91"/>
-      <c r="BL19" s="105"/>
-      <c r="BM19" s="132"/>
-      <c r="BN19" s="91" t="s">
+      <c r="BK19" s="90"/>
+      <c r="BL19" s="99"/>
+      <c r="BM19" s="130"/>
+      <c r="BN19" s="90" t="s">
         <v>58</v>
       </c>
       <c r="BO19" s="92"/>
@@ -51782,9 +52070,9 @@
       <c r="BR19" s="93" t="s">
         <v>619</v>
       </c>
-      <c r="BS19" s="90"/>
+      <c r="BS19" s="91"/>
       <c r="BT19" s="94"/>
-      <c r="BU19" s="90" t="s">
+      <c r="BU19" s="91" t="s">
         <v>725</v>
       </c>
       <c r="BV19" s="87" t="s">
@@ -51793,25 +52081,25 @@
       <c r="BW19" s="15" t="s">
         <v>773</v>
       </c>
-      <c r="BX19" s="91" t="s">
+      <c r="BX19" s="90" t="s">
         <v>58</v>
       </c>
       <c r="BY19" s="140"/>
-      <c r="BZ19" s="91" t="s">
+      <c r="BZ19" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="CA19" s="91"/>
+      <c r="CA19" s="90"/>
       <c r="CB19" s="92"/>
-      <c r="CC19" s="91"/>
-      <c r="CD19" s="90" t="s">
+      <c r="CC19" s="90"/>
+      <c r="CD19" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="CE19" s="90"/>
+      <c r="CE19" s="91"/>
       <c r="CF19" s="94"/>
       <c r="CG19" s="94" t="s">
         <v>802</v>
       </c>
-      <c r="CH19" s="42"/>
+      <c r="CH19" s="90"/>
       <c r="CI19" s="65"/>
       <c r="CJ19" s="65"/>
       <c r="CK19" s="42"/>
@@ -51826,35 +52114,35 @@
       <c r="A20" s="10">
         <v>0.625</v>
       </c>
-      <c r="B20" s="106" t="s">
+      <c r="B20" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="91" t="s">
+      <c r="C20" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="101" t="s">
+      <c r="D20" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="114"/>
-      <c r="F20" s="111" t="s">
+      <c r="E20" s="109"/>
+      <c r="F20" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="117"/>
+      <c r="G20" s="113"/>
       <c r="H20" s="20"/>
       <c r="I20" s="93"/>
       <c r="J20" s="93"/>
-      <c r="K20" s="90"/>
+      <c r="K20" s="91"/>
       <c r="L20" s="61" t="s">
         <v>241</v>
       </c>
       <c r="M20" s="92"/>
-      <c r="N20" s="106"/>
+      <c r="N20" s="100"/>
       <c r="O20" s="92"/>
-      <c r="P20" s="113"/>
+      <c r="P20" s="106"/>
       <c r="Q20" s="61" t="s">
         <v>291</v>
       </c>
-      <c r="R20" s="91" t="s">
+      <c r="R20" s="90" t="s">
         <v>13</v>
       </c>
       <c r="S20" s="62" t="s">
@@ -51863,12 +52151,12 @@
       <c r="T20" s="51" t="s">
         <v>366</v>
       </c>
-      <c r="U20" s="91" t="s">
+      <c r="U20" s="90" t="s">
         <v>380</v>
       </c>
-      <c r="V20" s="97"/>
-      <c r="W20" s="97"/>
-      <c r="X20" s="101" t="s">
+      <c r="V20" s="105"/>
+      <c r="W20" s="105"/>
+      <c r="X20" s="98" t="s">
         <v>413</v>
       </c>
       <c r="Y20" s="51" t="s">
@@ -51881,82 +52169,82 @@
         <v>450</v>
       </c>
       <c r="AB20" s="93"/>
-      <c r="AC20" s="91" t="s">
+      <c r="AC20" s="90" t="s">
         <v>487</v>
       </c>
-      <c r="AD20" s="91"/>
-      <c r="AE20" s="91"/>
-      <c r="AF20" s="98"/>
-      <c r="AG20" s="101" t="s">
+      <c r="AD20" s="90"/>
+      <c r="AE20" s="90"/>
+      <c r="AF20" s="95"/>
+      <c r="AG20" s="98" t="s">
         <v>536</v>
       </c>
-      <c r="AH20" s="108"/>
-      <c r="AI20" s="108"/>
+      <c r="AH20" s="102"/>
+      <c r="AI20" s="102"/>
       <c r="AJ20" s="94" t="s">
         <v>560</v>
       </c>
-      <c r="AK20" s="90" t="s">
+      <c r="AK20" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AL20" s="90" t="s">
+      <c r="AL20" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AM20" s="105" t="s">
+      <c r="AM20" s="99" t="s">
         <v>596</v>
       </c>
       <c r="AN20" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AO20" s="125"/>
-      <c r="AP20" s="125"/>
-      <c r="AQ20" s="110" t="s">
+      <c r="AO20" s="103"/>
+      <c r="AP20" s="103"/>
+      <c r="AQ20" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="AR20" s="90"/>
-      <c r="AS20" s="91" t="s">
+      <c r="AR20" s="91"/>
+      <c r="AS20" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AT20" s="105"/>
+      <c r="AT20" s="99"/>
       <c r="AU20" s="94" t="s">
         <v>633</v>
       </c>
       <c r="AV20" s="94" t="s">
         <v>633</v>
       </c>
-      <c r="AW20" s="91"/>
-      <c r="AX20" s="90"/>
-      <c r="AY20" s="113"/>
-      <c r="AZ20" s="110" t="s">
+      <c r="AW20" s="90"/>
+      <c r="AX20" s="91"/>
+      <c r="AY20" s="106"/>
+      <c r="AZ20" s="107" t="s">
         <v>669</v>
       </c>
-      <c r="BA20" s="91" t="s">
+      <c r="BA20" s="90" t="s">
         <v>13</v>
       </c>
       <c r="BB20" s="92"/>
-      <c r="BC20" s="91" t="s">
+      <c r="BC20" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BD20" s="91" t="s">
+      <c r="BD20" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BE20" s="90" t="s">
+      <c r="BE20" s="91" t="s">
         <v>45</v>
       </c>
       <c r="BF20" s="94"/>
-      <c r="BG20" s="91" t="s">
+      <c r="BG20" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BH20" s="91"/>
+      <c r="BH20" s="90"/>
       <c r="BI20" s="94"/>
-      <c r="BJ20" s="91"/>
+      <c r="BJ20" s="90"/>
       <c r="BK20" s="92" t="s">
         <v>670</v>
       </c>
-      <c r="BL20" s="105"/>
+      <c r="BL20" s="99"/>
       <c r="BM20" s="92" t="s">
         <v>670</v>
       </c>
-      <c r="BN20" s="91"/>
+      <c r="BN20" s="90"/>
       <c r="BO20" s="93" t="s">
         <v>701</v>
       </c>
@@ -51965,42 +52253,44 @@
         <v>710</v>
       </c>
       <c r="BR20" s="93"/>
-      <c r="BS20" s="133" t="s">
+      <c r="BS20" s="131" t="s">
         <v>722</v>
       </c>
-      <c r="BT20" s="133" t="s">
+      <c r="BT20" s="131" t="s">
         <v>728</v>
       </c>
-      <c r="BU20" s="90"/>
+      <c r="BU20" s="91"/>
       <c r="BV20" s="88" t="s">
         <v>768</v>
       </c>
-      <c r="BW20" s="98" t="s">
+      <c r="BW20" s="95" t="s">
         <v>766</v>
       </c>
-      <c r="BX20" s="91"/>
+      <c r="BX20" s="90"/>
       <c r="BY20" s="139" t="s">
         <v>779</v>
       </c>
-      <c r="BZ20" s="91"/>
+      <c r="BZ20" s="90"/>
       <c r="CA20" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="CB20" s="91" t="s">
+      <c r="CB20" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="CC20" s="90" t="s">
+      <c r="CC20" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="CD20" s="90"/>
-      <c r="CE20" s="90" t="s">
+      <c r="CD20" s="91"/>
+      <c r="CE20" s="91" t="s">
         <v>725</v>
       </c>
       <c r="CF20" s="92" t="s">
         <v>647</v>
       </c>
       <c r="CG20" s="94"/>
-      <c r="CH20" s="42"/>
+      <c r="CH20" s="93" t="s">
+        <v>808</v>
+      </c>
       <c r="CI20" s="65"/>
       <c r="CJ20" s="65"/>
       <c r="CK20" s="42"/>
@@ -52015,109 +52305,109 @@
       <c r="A21" s="10">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="101"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="98"/>
       <c r="E21" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="111"/>
-      <c r="G21" s="117"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="113"/>
       <c r="H21" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="I21" s="90" t="s">
+      <c r="I21" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="114" t="s">
+      <c r="J21" s="109" t="s">
         <v>197</v>
       </c>
       <c r="K21" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="L21" s="90" t="s">
+      <c r="L21" s="91" t="s">
         <v>242</v>
       </c>
       <c r="M21" s="92"/>
       <c r="N21" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="O21" s="90" t="s">
+      <c r="O21" s="91" t="s">
         <v>273</v>
       </c>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="90" t="s">
+      <c r="P21" s="106"/>
+      <c r="Q21" s="91" t="s">
         <v>298</v>
       </c>
-      <c r="R21" s="91"/>
-      <c r="S21" s="90" t="s">
+      <c r="R21" s="90"/>
+      <c r="S21" s="91" t="s">
         <v>327</v>
       </c>
       <c r="T21" s="92" t="s">
         <v>367</v>
       </c>
-      <c r="U21" s="91"/>
-      <c r="V21" s="106" t="s">
+      <c r="U21" s="90"/>
+      <c r="V21" s="100" t="s">
         <v>390</v>
       </c>
       <c r="W21" s="61" t="s">
         <v>404</v>
       </c>
-      <c r="X21" s="101"/>
-      <c r="Y21" s="101" t="s">
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98" t="s">
         <v>41</v>
       </c>
       <c r="Z21" s="93"/>
-      <c r="AA21" s="109" t="s">
+      <c r="AA21" s="104" t="s">
         <v>463</v>
       </c>
-      <c r="AB21" s="113" t="s">
+      <c r="AB21" s="106" t="s">
         <v>473</v>
       </c>
-      <c r="AC21" s="91"/>
-      <c r="AD21" s="91"/>
-      <c r="AE21" s="91"/>
-      <c r="AF21" s="98"/>
-      <c r="AG21" s="101"/>
-      <c r="AH21" s="108"/>
-      <c r="AI21" s="108"/>
+      <c r="AC21" s="90"/>
+      <c r="AD21" s="90"/>
+      <c r="AE21" s="90"/>
+      <c r="AF21" s="95"/>
+      <c r="AG21" s="98"/>
+      <c r="AH21" s="102"/>
+      <c r="AI21" s="102"/>
       <c r="AJ21" s="94"/>
-      <c r="AK21" s="90"/>
-      <c r="AL21" s="90"/>
-      <c r="AM21" s="105"/>
+      <c r="AK21" s="91"/>
+      <c r="AL21" s="91"/>
+      <c r="AM21" s="99"/>
       <c r="AN21" s="53" t="s">
         <v>604</v>
       </c>
-      <c r="AO21" s="125"/>
-      <c r="AP21" s="125"/>
-      <c r="AQ21" s="110"/>
-      <c r="AR21" s="110" t="s">
+      <c r="AO21" s="103"/>
+      <c r="AP21" s="103"/>
+      <c r="AQ21" s="107"/>
+      <c r="AR21" s="107" t="s">
         <v>199</v>
       </c>
-      <c r="AS21" s="91"/>
-      <c r="AT21" s="90" t="s">
+      <c r="AS21" s="90"/>
+      <c r="AT21" s="91" t="s">
         <v>626</v>
       </c>
       <c r="AU21" s="94"/>
       <c r="AV21" s="94"/>
-      <c r="AW21" s="91" t="s">
+      <c r="AW21" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AX21" s="113" t="s">
+      <c r="AX21" s="106" t="s">
         <v>656</v>
       </c>
       <c r="AY21" s="94" t="s">
         <v>661</v>
       </c>
-      <c r="AZ21" s="110"/>
-      <c r="BA21" s="91"/>
+      <c r="AZ21" s="107"/>
+      <c r="BA21" s="90"/>
       <c r="BB21" s="92"/>
-      <c r="BC21" s="91"/>
-      <c r="BD21" s="91"/>
-      <c r="BE21" s="90"/>
+      <c r="BC21" s="90"/>
+      <c r="BD21" s="90"/>
+      <c r="BE21" s="91"/>
       <c r="BF21" s="94"/>
-      <c r="BG21" s="91"/>
-      <c r="BH21" s="90" t="s">
+      <c r="BG21" s="90"/>
+      <c r="BH21" s="91" t="s">
         <v>45</v>
       </c>
       <c r="BI21" s="94" t="s">
@@ -52127,47 +52417,47 @@
         <v>670</v>
       </c>
       <c r="BK21" s="92"/>
-      <c r="BL21" s="105"/>
+      <c r="BL21" s="99"/>
       <c r="BM21" s="92"/>
-      <c r="BN21" s="102" t="s">
+      <c r="BN21" s="121" t="s">
         <v>695</v>
       </c>
       <c r="BO21" s="93"/>
-      <c r="BP21" s="101" t="s">
+      <c r="BP21" s="98" t="s">
         <v>702</v>
       </c>
       <c r="BQ21" s="94"/>
-      <c r="BR21" s="90" t="s">
+      <c r="BR21" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="BS21" s="134"/>
-      <c r="BT21" s="134"/>
-      <c r="BU21" s="90" t="s">
+      <c r="BS21" s="132"/>
+      <c r="BT21" s="132"/>
+      <c r="BU21" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="BV21" s="98" t="s">
+      <c r="BV21" s="95" t="s">
         <v>766</v>
       </c>
-      <c r="BW21" s="90"/>
+      <c r="BW21" s="91"/>
       <c r="BX21" s="13" t="s">
         <v>776</v>
       </c>
       <c r="BY21" s="140"/>
-      <c r="BZ21" s="91" t="s">
+      <c r="BZ21" s="90" t="s">
         <v>58</v>
       </c>
       <c r="CA21" s="92"/>
-      <c r="CB21" s="91"/>
-      <c r="CC21" s="90"/>
-      <c r="CD21" s="90" t="s">
+      <c r="CB21" s="90"/>
+      <c r="CC21" s="91"/>
+      <c r="CD21" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="CE21" s="90"/>
+      <c r="CE21" s="91"/>
       <c r="CF21" s="92"/>
       <c r="CG21" s="94" t="s">
         <v>802</v>
       </c>
-      <c r="CH21" s="42"/>
+      <c r="CH21" s="93"/>
       <c r="CI21" s="65"/>
       <c r="CJ21" s="65"/>
       <c r="CK21" s="42"/>
@@ -52185,58 +52475,58 @@
       <c r="B22" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="106" t="s">
+      <c r="C22" s="100" t="s">
         <v>66</v>
       </c>
       <c r="D22" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="90" t="s">
+      <c r="E22" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="111"/>
-      <c r="G22" s="105" t="s">
+      <c r="F22" s="108"/>
+      <c r="G22" s="99" t="s">
         <v>124</v>
       </c>
       <c r="H22" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="I22" s="90"/>
-      <c r="J22" s="114"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="109"/>
       <c r="K22" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="L22" s="90"/>
+      <c r="L22" s="91"/>
       <c r="M22" s="92"/>
       <c r="N22" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="O22" s="90"/>
-      <c r="P22" s="113"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="105" t="s">
+      <c r="O22" s="91"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="99" t="s">
         <v>317</v>
       </c>
-      <c r="S22" s="90"/>
+      <c r="S22" s="91"/>
       <c r="T22" s="92"/>
-      <c r="U22" s="91"/>
-      <c r="V22" s="106"/>
-      <c r="W22" s="90" t="s">
+      <c r="U22" s="90"/>
+      <c r="V22" s="100"/>
+      <c r="W22" s="91" t="s">
         <v>405</v>
       </c>
-      <c r="X22" s="101" t="s">
+      <c r="X22" s="98" t="s">
         <v>414</v>
       </c>
-      <c r="Y22" s="101"/>
-      <c r="Z22" s="101" t="s">
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98" t="s">
         <v>442</v>
       </c>
-      <c r="AA22" s="109"/>
-      <c r="AB22" s="113"/>
-      <c r="AC22" s="101" t="s">
+      <c r="AA22" s="104"/>
+      <c r="AB22" s="106"/>
+      <c r="AC22" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="AD22" s="101" t="s">
+      <c r="AD22" s="98" t="s">
         <v>503</v>
       </c>
       <c r="AE22" s="52" t="s">
@@ -52245,110 +52535,112 @@
       <c r="AF22" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="AG22" s="101"/>
-      <c r="AH22" s="108"/>
-      <c r="AI22" s="108"/>
-      <c r="AJ22" s="91" t="s">
+      <c r="AG22" s="98"/>
+      <c r="AH22" s="102"/>
+      <c r="AI22" s="102"/>
+      <c r="AJ22" s="90" t="s">
         <v>561</v>
       </c>
-      <c r="AK22" s="91" t="s">
+      <c r="AK22" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AL22" s="111" t="s">
+      <c r="AL22" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="AM22" s="91" t="s">
+      <c r="AM22" s="90" t="s">
         <v>58</v>
       </c>
       <c r="AN22" s="94" t="s">
         <v>605</v>
       </c>
-      <c r="AO22" s="125"/>
-      <c r="AP22" s="125"/>
-      <c r="AQ22" s="110"/>
-      <c r="AR22" s="110"/>
-      <c r="AS22" s="91" t="s">
+      <c r="AO22" s="103"/>
+      <c r="AP22" s="103"/>
+      <c r="AQ22" s="107"/>
+      <c r="AR22" s="107"/>
+      <c r="AS22" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AT22" s="90"/>
+      <c r="AT22" s="91"/>
       <c r="AU22" s="94"/>
       <c r="AV22" s="94"/>
-      <c r="AW22" s="91"/>
-      <c r="AX22" s="113"/>
+      <c r="AW22" s="90"/>
+      <c r="AX22" s="106"/>
       <c r="AY22" s="94"/>
-      <c r="AZ22" s="110"/>
-      <c r="BA22" s="91" t="s">
+      <c r="AZ22" s="107"/>
+      <c r="BA22" s="90" t="s">
         <v>13</v>
       </c>
       <c r="BB22" s="53" t="s">
         <v>671</v>
       </c>
-      <c r="BC22" s="91" t="s">
+      <c r="BC22" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="BD22" s="108" t="s">
+      <c r="BD22" s="102" t="s">
         <v>647</v>
       </c>
-      <c r="BE22" s="91" t="s">
+      <c r="BE22" s="90" t="s">
         <v>17</v>
       </c>
       <c r="BF22" s="94"/>
-      <c r="BG22" s="91" t="s">
+      <c r="BG22" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BH22" s="90"/>
+      <c r="BH22" s="91"/>
       <c r="BI22" s="94"/>
       <c r="BJ22" s="92"/>
-      <c r="BK22" s="90" t="s">
+      <c r="BK22" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="BL22" s="105"/>
-      <c r="BM22" s="90" t="s">
+      <c r="BL22" s="99"/>
+      <c r="BM22" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="BN22" s="103"/>
+      <c r="BN22" s="123"/>
       <c r="BO22" s="94" t="s">
         <v>697</v>
       </c>
-      <c r="BP22" s="101"/>
+      <c r="BP22" s="98"/>
       <c r="BQ22" s="92" t="s">
         <v>670</v>
       </c>
-      <c r="BR22" s="90"/>
+      <c r="BR22" s="91"/>
       <c r="BS22" s="93" t="s">
         <v>722</v>
       </c>
       <c r="BT22" s="92" t="s">
         <v>647</v>
       </c>
-      <c r="BU22" s="90"/>
-      <c r="BV22" s="90"/>
-      <c r="BW22" s="98" t="s">
+      <c r="BU22" s="91"/>
+      <c r="BV22" s="91"/>
+      <c r="BW22" s="95" t="s">
         <v>766</v>
       </c>
       <c r="BX22" s="13"/>
-      <c r="BY22" s="98" t="s">
+      <c r="BY22" s="95" t="s">
         <v>781</v>
       </c>
-      <c r="BZ22" s="91"/>
+      <c r="BZ22" s="90"/>
       <c r="CA22" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="CB22" s="91" t="s">
+      <c r="CB22" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="CC22" s="90" t="s">
+      <c r="CC22" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="CD22" s="90"/>
-      <c r="CE22" s="91" t="s">
+      <c r="CD22" s="91"/>
+      <c r="CE22" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="CF22" s="91" t="s">
+      <c r="CF22" s="90" t="s">
         <v>58</v>
       </c>
       <c r="CG22" s="94"/>
-      <c r="CH22" s="42"/>
+      <c r="CH22" s="91" t="s">
+        <v>806</v>
+      </c>
       <c r="CI22" s="65"/>
       <c r="CJ22" s="65"/>
       <c r="CK22" s="42"/>
@@ -52363,44 +52655,44 @@
       <c r="A23" s="10">
         <v>0.6875</v>
       </c>
-      <c r="B23" s="106" t="s">
+      <c r="B23" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="106"/>
+      <c r="C23" s="100"/>
       <c r="D23" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="105" t="s">
+      <c r="E23" s="91"/>
+      <c r="F23" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="105"/>
-      <c r="H23" s="111" t="s">
+      <c r="G23" s="99"/>
+      <c r="H23" s="108" t="s">
         <v>146</v>
       </c>
-      <c r="I23" s="90"/>
-      <c r="J23" s="98" t="s">
+      <c r="I23" s="91"/>
+      <c r="J23" s="95" t="s">
         <v>198</v>
       </c>
       <c r="K23" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="L23" s="114" t="s">
+      <c r="L23" s="109" t="s">
         <v>243</v>
       </c>
       <c r="M23" s="92"/>
-      <c r="N23" s="114" t="s">
+      <c r="N23" s="109" t="s">
         <v>265</v>
       </c>
-      <c r="O23" s="105" t="s">
+      <c r="O23" s="99" t="s">
         <v>274</v>
       </c>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="101" t="s">
+      <c r="P23" s="106"/>
+      <c r="Q23" s="98" t="s">
         <v>290</v>
       </c>
-      <c r="R23" s="105"/>
-      <c r="S23" s="90"/>
+      <c r="R23" s="99"/>
+      <c r="S23" s="91"/>
       <c r="T23" s="92"/>
       <c r="U23" s="94" t="s">
         <v>381</v>
@@ -52408,19 +52700,19 @@
       <c r="V23" s="94" t="s">
         <v>391</v>
       </c>
-      <c r="W23" s="90"/>
-      <c r="X23" s="101"/>
+      <c r="W23" s="91"/>
+      <c r="X23" s="98"/>
       <c r="Y23" s="92" t="s">
         <v>427</v>
       </c>
-      <c r="Z23" s="101"/>
+      <c r="Z23" s="98"/>
       <c r="AA23" s="52" t="s">
         <v>465</v>
       </c>
-      <c r="AB23" s="113"/>
-      <c r="AC23" s="101"/>
-      <c r="AD23" s="101"/>
-      <c r="AE23" s="101" t="s">
+      <c r="AB23" s="106"/>
+      <c r="AC23" s="98"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="98" t="s">
         <v>45</v>
       </c>
       <c r="AF23" s="51" t="s">
@@ -52429,87 +52721,87 @@
       <c r="AG23" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="AH23" s="108"/>
-      <c r="AI23" s="108"/>
-      <c r="AJ23" s="91"/>
-      <c r="AK23" s="91"/>
-      <c r="AL23" s="111"/>
-      <c r="AM23" s="91"/>
+      <c r="AH23" s="102"/>
+      <c r="AI23" s="102"/>
+      <c r="AJ23" s="90"/>
+      <c r="AK23" s="90"/>
+      <c r="AL23" s="108"/>
+      <c r="AM23" s="90"/>
       <c r="AN23" s="94"/>
-      <c r="AO23" s="125"/>
-      <c r="AP23" s="125"/>
-      <c r="AQ23" s="110"/>
-      <c r="AR23" s="110"/>
-      <c r="AS23" s="91"/>
-      <c r="AT23" s="91" t="s">
+      <c r="AO23" s="103"/>
+      <c r="AP23" s="103"/>
+      <c r="AQ23" s="107"/>
+      <c r="AR23" s="107"/>
+      <c r="AS23" s="90"/>
+      <c r="AT23" s="90" t="s">
         <v>13</v>
       </c>
       <c r="AU23" s="94"/>
       <c r="AV23" s="94"/>
-      <c r="AW23" s="109" t="s">
+      <c r="AW23" s="104" t="s">
         <v>646</v>
       </c>
-      <c r="AX23" s="113"/>
+      <c r="AX23" s="106"/>
       <c r="AY23" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="AZ23" s="110"/>
-      <c r="BA23" s="91"/>
-      <c r="BB23" s="91" t="s">
+      <c r="AZ23" s="107"/>
+      <c r="BA23" s="90"/>
+      <c r="BB23" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BC23" s="91"/>
-      <c r="BD23" s="108"/>
-      <c r="BE23" s="91"/>
+      <c r="BC23" s="90"/>
+      <c r="BD23" s="102"/>
+      <c r="BE23" s="90"/>
       <c r="BF23" s="94"/>
-      <c r="BG23" s="91"/>
-      <c r="BH23" s="90"/>
+      <c r="BG23" s="90"/>
+      <c r="BH23" s="91"/>
       <c r="BI23" s="94" t="s">
         <v>689</v>
       </c>
-      <c r="BJ23" s="90" t="s">
+      <c r="BJ23" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="BK23" s="90"/>
-      <c r="BL23" s="105"/>
-      <c r="BM23" s="90"/>
-      <c r="BN23" s="103"/>
+      <c r="BK23" s="91"/>
+      <c r="BL23" s="99"/>
+      <c r="BM23" s="91"/>
+      <c r="BN23" s="123"/>
       <c r="BO23" s="94"/>
       <c r="BP23" s="67" t="s">
         <v>706</v>
       </c>
       <c r="BQ23" s="92"/>
-      <c r="BR23" s="91" t="s">
+      <c r="BR23" s="90" t="s">
         <v>17</v>
       </c>
       <c r="BS23" s="93"/>
       <c r="BT23" s="92"/>
-      <c r="BU23" s="91" t="s">
+      <c r="BU23" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BV23" s="98" t="s">
+      <c r="BV23" s="95" t="s">
         <v>766</v>
       </c>
-      <c r="BW23" s="90"/>
+      <c r="BW23" s="91"/>
       <c r="BX23" s="144" t="s">
         <v>778</v>
       </c>
-      <c r="BY23" s="90"/>
+      <c r="BY23" s="91"/>
       <c r="BZ23" s="92" t="s">
         <v>17</v>
       </c>
       <c r="CA23" s="92"/>
-      <c r="CB23" s="91"/>
-      <c r="CC23" s="90"/>
-      <c r="CD23" s="90" t="s">
+      <c r="CB23" s="90"/>
+      <c r="CC23" s="91"/>
+      <c r="CD23" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="CE23" s="91"/>
-      <c r="CF23" s="91"/>
-      <c r="CG23" s="90" t="s">
+      <c r="CE23" s="90"/>
+      <c r="CF23" s="90"/>
+      <c r="CG23" s="91" t="s">
         <v>803</v>
       </c>
-      <c r="CH23" s="42"/>
+      <c r="CH23" s="91"/>
       <c r="CI23" s="65"/>
       <c r="CJ23" s="65"/>
       <c r="CK23" s="42"/>
@@ -52524,31 +52816,31 @@
       <c r="A24" s="10">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
       <c r="D24" s="94"/>
       <c r="E24" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="105"/>
+      <c r="F24" s="99"/>
       <c r="G24" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="H24" s="111"/>
+      <c r="H24" s="108"/>
       <c r="I24" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="J24" s="98"/>
-      <c r="K24" s="114" t="s">
+      <c r="J24" s="95"/>
+      <c r="K24" s="109" t="s">
         <v>207</v>
       </c>
-      <c r="L24" s="114"/>
+      <c r="L24" s="109"/>
       <c r="M24" s="92"/>
-      <c r="N24" s="114"/>
-      <c r="O24" s="105"/>
-      <c r="P24" s="113"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="91" t="s">
+      <c r="N24" s="109"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="90" t="s">
         <v>17</v>
       </c>
       <c r="S24" s="62" t="s">
@@ -52560,14 +52852,14 @@
       <c r="W24" s="62" t="s">
         <v>402</v>
       </c>
-      <c r="X24" s="107" t="s">
+      <c r="X24" s="101" t="s">
         <v>417</v>
       </c>
       <c r="Y24" s="92"/>
       <c r="Z24" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="AA24" s="101" t="s">
+      <c r="AA24" s="98" t="s">
         <v>45</v>
       </c>
       <c r="AB24" s="51" t="s">
@@ -52579,20 +52871,20 @@
       <c r="AD24" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AE24" s="101"/>
-      <c r="AF24" s="101" t="s">
+      <c r="AE24" s="98"/>
+      <c r="AF24" s="98" t="s">
         <v>261</v>
       </c>
       <c r="AG24" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AH24" s="91" t="s">
+      <c r="AH24" s="90" t="s">
         <v>548</v>
       </c>
       <c r="AI24" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="AJ24" s="106" t="s">
+      <c r="AJ24" s="100" t="s">
         <v>177</v>
       </c>
       <c r="AK24" s="51" t="s">
@@ -52607,71 +52899,71 @@
       <c r="AN24" s="51" t="s">
         <v>606</v>
       </c>
-      <c r="AO24" s="125"/>
-      <c r="AP24" s="125"/>
-      <c r="AQ24" s="110"/>
-      <c r="AR24" s="110"/>
-      <c r="AS24" s="91" t="s">
+      <c r="AO24" s="103"/>
+      <c r="AP24" s="103"/>
+      <c r="AQ24" s="107"/>
+      <c r="AR24" s="107"/>
+      <c r="AS24" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AT24" s="91"/>
-      <c r="AU24" s="91" t="s">
+      <c r="AT24" s="90"/>
+      <c r="AU24" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="AV24" s="91" t="s">
+      <c r="AV24" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="AW24" s="109"/>
+      <c r="AW24" s="104"/>
       <c r="AX24" s="92" t="s">
         <v>654</v>
       </c>
       <c r="AY24" s="57" t="s">
         <v>662</v>
       </c>
-      <c r="AZ24" s="110"/>
-      <c r="BA24" s="90" t="s">
+      <c r="AZ24" s="107"/>
+      <c r="BA24" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="BB24" s="91"/>
-      <c r="BC24" s="125" t="s">
+      <c r="BB24" s="90"/>
+      <c r="BC24" s="103" t="s">
         <v>674</v>
       </c>
-      <c r="BD24" s="108"/>
-      <c r="BE24" s="108" t="s">
+      <c r="BD24" s="102"/>
+      <c r="BE24" s="102" t="s">
         <v>681</v>
       </c>
-      <c r="BF24" s="102" t="s">
+      <c r="BF24" s="121" t="s">
         <v>679</v>
       </c>
-      <c r="BG24" s="91" t="s">
+      <c r="BG24" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BH24" s="91" t="s">
+      <c r="BH24" s="90" t="s">
         <v>17</v>
       </c>
       <c r="BI24" s="94"/>
-      <c r="BJ24" s="90"/>
-      <c r="BK24" s="90"/>
-      <c r="BL24" s="105"/>
-      <c r="BM24" s="90"/>
-      <c r="BN24" s="103"/>
+      <c r="BJ24" s="91"/>
+      <c r="BK24" s="91"/>
+      <c r="BL24" s="99"/>
+      <c r="BM24" s="91"/>
+      <c r="BN24" s="123"/>
       <c r="BO24" s="94"/>
-      <c r="BP24" s="91" t="s">
+      <c r="BP24" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BQ24" s="90" t="s">
+      <c r="BQ24" s="91" t="s">
         <v>702</v>
       </c>
-      <c r="BR24" s="91"/>
-      <c r="BS24" s="91" t="s">
+      <c r="BR24" s="90"/>
+      <c r="BS24" s="90" t="s">
         <v>17</v>
       </c>
       <c r="BT24" s="92" t="s">
         <v>647</v>
       </c>
-      <c r="BU24" s="91"/>
-      <c r="BV24" s="90"/>
-      <c r="BW24" s="91" t="s">
+      <c r="BU24" s="90"/>
+      <c r="BV24" s="91"/>
+      <c r="BW24" s="90" t="s">
         <v>17</v>
       </c>
       <c r="BX24" s="145"/>
@@ -52682,20 +52974,23 @@
       <c r="CA24" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="CB24" s="90" t="s">
+      <c r="CB24" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="CC24" s="91" t="s">
+      <c r="CC24" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="CD24" s="90"/>
+      <c r="CD24" s="91"/>
       <c r="CE24" s="92" t="s">
         <v>15</v>
       </c>
       <c r="CF24" s="92" t="s">
         <v>799</v>
       </c>
-      <c r="CG24" s="90"/>
+      <c r="CG24" s="91"/>
+      <c r="CH24" s="92" t="s">
+        <v>650</v>
+      </c>
       <c r="CI24" s="2"/>
       <c r="CJ24" s="2"/>
       <c r="CP24" s="2"/>
@@ -52708,43 +53003,43 @@
       <c r="B25" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="106"/>
+      <c r="C25" s="100"/>
       <c r="D25" s="94"/>
-      <c r="E25" s="90" t="s">
+      <c r="E25" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="105"/>
-      <c r="G25" s="90" t="s">
+      <c r="F25" s="99"/>
+      <c r="G25" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="H25" s="90" t="s">
+      <c r="H25" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="I25" s="98" t="s">
+      <c r="I25" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="J25" s="113" t="s">
+      <c r="J25" s="106" t="s">
         <v>199</v>
       </c>
-      <c r="K25" s="114"/>
-      <c r="L25" s="98" t="s">
+      <c r="K25" s="109"/>
+      <c r="L25" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="M25" s="114" t="s">
+      <c r="M25" s="109" t="s">
         <v>251</v>
       </c>
-      <c r="N25" s="98" t="s">
+      <c r="N25" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="O25" s="105"/>
-      <c r="P25" s="114" t="s">
+      <c r="O25" s="99"/>
+      <c r="P25" s="109" t="s">
         <v>288</v>
       </c>
-      <c r="Q25" s="123" t="s">
+      <c r="Q25" s="119" t="s">
         <v>302</v>
       </c>
-      <c r="R25" s="91"/>
-      <c r="S25" s="98" t="s">
+      <c r="R25" s="90"/>
+      <c r="S25" s="95" t="s">
         <v>301</v>
       </c>
       <c r="T25" s="92"/>
@@ -52752,121 +53047,122 @@
       <c r="V25" s="94" t="s">
         <v>392</v>
       </c>
-      <c r="W25" s="98" t="s">
+      <c r="W25" s="95" t="s">
         <v>397</v>
       </c>
-      <c r="X25" s="107"/>
+      <c r="X25" s="101"/>
       <c r="Y25" s="92"/>
-      <c r="Z25" s="98" t="s">
+      <c r="Z25" s="95" t="s">
         <v>397</v>
       </c>
-      <c r="AA25" s="101"/>
-      <c r="AB25" s="98" t="s">
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="95" t="s">
         <v>301</v>
       </c>
-      <c r="AC25" s="106" t="s">
+      <c r="AC25" s="100" t="s">
         <v>193</v>
       </c>
-      <c r="AD25" s="98" t="s">
+      <c r="AD25" s="95" t="s">
         <v>398</v>
       </c>
-      <c r="AE25" s="101" t="s">
+      <c r="AE25" s="98" t="s">
         <v>514</v>
       </c>
-      <c r="AF25" s="101"/>
-      <c r="AG25" s="98" t="s">
+      <c r="AF25" s="98"/>
+      <c r="AG25" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="AH25" s="91"/>
-      <c r="AI25" s="98" t="s">
+      <c r="AH25" s="90"/>
+      <c r="AI25" s="95" t="s">
         <v>301</v>
       </c>
-      <c r="AJ25" s="106"/>
-      <c r="AK25" s="98" t="s">
+      <c r="AJ25" s="100"/>
+      <c r="AK25" s="95" t="s">
         <v>398</v>
       </c>
-      <c r="AL25" s="90" t="s">
+      <c r="AL25" s="91" t="s">
         <v>581</v>
       </c>
       <c r="AM25" s="92"/>
-      <c r="AN25" s="98" t="s">
+      <c r="AN25" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="AO25" s="125"/>
-      <c r="AP25" s="125"/>
-      <c r="AQ25" s="110"/>
-      <c r="AR25" s="110"/>
-      <c r="AS25" s="91"/>
-      <c r="AT25" s="105" t="s">
+      <c r="AO25" s="103"/>
+      <c r="AP25" s="103"/>
+      <c r="AQ25" s="107"/>
+      <c r="AR25" s="107"/>
+      <c r="AS25" s="90"/>
+      <c r="AT25" s="99" t="s">
         <v>560</v>
       </c>
-      <c r="AU25" s="91"/>
-      <c r="AV25" s="91"/>
-      <c r="AW25" s="108" t="s">
+      <c r="AU25" s="90"/>
+      <c r="AV25" s="90"/>
+      <c r="AW25" s="102" t="s">
         <v>647</v>
       </c>
       <c r="AX25" s="92"/>
-      <c r="AY25" s="98" t="s">
+      <c r="AY25" s="95" t="s">
         <v>397</v>
       </c>
-      <c r="AZ25" s="110"/>
-      <c r="BA25" s="90"/>
-      <c r="BB25" s="98" t="s">
+      <c r="AZ25" s="107"/>
+      <c r="BA25" s="91"/>
+      <c r="BB25" s="95" t="s">
         <v>301</v>
       </c>
-      <c r="BC25" s="125"/>
-      <c r="BD25" s="108"/>
-      <c r="BE25" s="108"/>
-      <c r="BF25" s="104"/>
-      <c r="BG25" s="91"/>
-      <c r="BH25" s="91"/>
-      <c r="BI25" s="101" t="s">
+      <c r="BC25" s="103"/>
+      <c r="BD25" s="102"/>
+      <c r="BE25" s="102"/>
+      <c r="BF25" s="122"/>
+      <c r="BG25" s="90"/>
+      <c r="BH25" s="90"/>
+      <c r="BI25" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="BJ25" s="90"/>
-      <c r="BK25" s="91" t="s">
+      <c r="BJ25" s="91"/>
+      <c r="BK25" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BL25" s="91" t="s">
+      <c r="BL25" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BM25" s="91" t="s">
+      <c r="BM25" s="90" t="s">
         <v>694</v>
       </c>
-      <c r="BN25" s="103"/>
-      <c r="BO25" s="91" t="s">
+      <c r="BN25" s="123"/>
+      <c r="BO25" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BP25" s="91"/>
-      <c r="BQ25" s="90"/>
-      <c r="BR25" s="101" t="s">
+      <c r="BP25" s="90"/>
+      <c r="BQ25" s="91"/>
+      <c r="BR25" s="98" t="s">
         <v>719</v>
       </c>
-      <c r="BS25" s="91"/>
+      <c r="BS25" s="90"/>
       <c r="BT25" s="92"/>
-      <c r="BU25" s="90" t="s">
+      <c r="BU25" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="BV25" s="91" t="s">
+      <c r="BV25" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BW25" s="91"/>
+      <c r="BW25" s="90"/>
       <c r="BX25" s="145"/>
       <c r="BY25" s="140"/>
       <c r="BZ25" s="92" t="s">
         <v>17</v>
       </c>
       <c r="CA25" s="92"/>
-      <c r="CB25" s="90"/>
-      <c r="CC25" s="91"/>
-      <c r="CD25" s="91" t="s">
+      <c r="CB25" s="91"/>
+      <c r="CC25" s="90"/>
+      <c r="CD25" s="90" t="s">
         <v>17</v>
       </c>
       <c r="CE25" s="92"/>
       <c r="CF25" s="92"/>
-      <c r="CG25" s="91" t="s">
+      <c r="CG25" s="90" t="s">
         <v>17</v>
       </c>
+      <c r="CH25" s="92"/>
       <c r="CI25" s="2"/>
       <c r="CJ25" s="2"/>
       <c r="CP25" s="2"/>
@@ -52876,120 +53172,120 @@
       <c r="A26" s="10">
         <v>0.75</v>
       </c>
-      <c r="B26" s="106" t="s">
+      <c r="B26" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="106"/>
+      <c r="C26" s="100"/>
       <c r="D26" s="94"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="91" t="s">
+      <c r="E26" s="91"/>
+      <c r="F26" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="113"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="106"/>
       <c r="K26" s="56" t="s">
         <v>222</v>
       </c>
-      <c r="L26" s="98"/>
-      <c r="M26" s="114"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="105"/>
-      <c r="P26" s="114"/>
-      <c r="Q26" s="123"/>
-      <c r="R26" s="90" t="s">
+      <c r="L26" s="95"/>
+      <c r="M26" s="109"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="109"/>
+      <c r="Q26" s="119"/>
+      <c r="R26" s="91" t="s">
         <v>319</v>
       </c>
-      <c r="S26" s="98"/>
+      <c r="S26" s="95"/>
       <c r="T26" s="92"/>
       <c r="U26" s="94"/>
       <c r="V26" s="94"/>
-      <c r="W26" s="98"/>
-      <c r="X26" s="107"/>
+      <c r="W26" s="95"/>
+      <c r="X26" s="101"/>
       <c r="Y26" s="92"/>
-      <c r="Z26" s="98"/>
+      <c r="Z26" s="95"/>
       <c r="AA26" s="51" t="s">
         <v>466</v>
       </c>
-      <c r="AB26" s="98"/>
-      <c r="AC26" s="106"/>
-      <c r="AD26" s="98"/>
-      <c r="AE26" s="101"/>
-      <c r="AF26" s="113" t="s">
+      <c r="AB26" s="95"/>
+      <c r="AC26" s="100"/>
+      <c r="AD26" s="95"/>
+      <c r="AE26" s="98"/>
+      <c r="AF26" s="106" t="s">
         <v>199</v>
       </c>
-      <c r="AG26" s="98"/>
-      <c r="AH26" s="91"/>
-      <c r="AI26" s="98"/>
-      <c r="AJ26" s="114" t="s">
+      <c r="AG26" s="95"/>
+      <c r="AH26" s="90"/>
+      <c r="AI26" s="95"/>
+      <c r="AJ26" s="109" t="s">
         <v>557</v>
       </c>
-      <c r="AK26" s="98"/>
-      <c r="AL26" s="90"/>
+      <c r="AK26" s="95"/>
+      <c r="AL26" s="91"/>
       <c r="AM26" s="92"/>
-      <c r="AN26" s="98"/>
-      <c r="AO26" s="125"/>
-      <c r="AP26" s="125"/>
-      <c r="AQ26" s="110"/>
-      <c r="AR26" s="110"/>
-      <c r="AS26" s="90" t="s">
+      <c r="AN26" s="95"/>
+      <c r="AO26" s="103"/>
+      <c r="AP26" s="103"/>
+      <c r="AQ26" s="107"/>
+      <c r="AR26" s="107"/>
+      <c r="AS26" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AT26" s="105"/>
-      <c r="AU26" s="98" t="s">
+      <c r="AT26" s="99"/>
+      <c r="AU26" s="95" t="s">
         <v>301</v>
       </c>
       <c r="AV26" s="93" t="s">
         <v>619</v>
       </c>
-      <c r="AW26" s="108"/>
+      <c r="AW26" s="102"/>
       <c r="AX26" s="92"/>
-      <c r="AY26" s="98"/>
-      <c r="AZ26" s="110"/>
+      <c r="AY26" s="95"/>
+      <c r="AZ26" s="107"/>
       <c r="BA26" s="92" t="s">
         <v>470</v>
       </c>
-      <c r="BB26" s="98"/>
-      <c r="BC26" s="90" t="s">
+      <c r="BB26" s="95"/>
+      <c r="BC26" s="91" t="s">
         <v>675</v>
       </c>
-      <c r="BD26" s="108"/>
-      <c r="BE26" s="108"/>
-      <c r="BF26" s="91" t="s">
+      <c r="BD26" s="102"/>
+      <c r="BE26" s="102"/>
+      <c r="BF26" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BG26" s="91" t="s">
+      <c r="BG26" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BH26" s="90" t="s">
+      <c r="BH26" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="BI26" s="101"/>
-      <c r="BJ26" s="91" t="s">
+      <c r="BI26" s="98"/>
+      <c r="BJ26" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BK26" s="91"/>
-      <c r="BL26" s="91"/>
-      <c r="BM26" s="91"/>
-      <c r="BN26" s="104"/>
-      <c r="BO26" s="91"/>
+      <c r="BK26" s="90"/>
+      <c r="BL26" s="90"/>
+      <c r="BM26" s="90"/>
+      <c r="BN26" s="122"/>
+      <c r="BO26" s="90"/>
       <c r="BP26" s="94" t="s">
         <v>705</v>
       </c>
-      <c r="BQ26" s="91" t="s">
+      <c r="BQ26" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BR26" s="101"/>
-      <c r="BS26" s="90" t="s">
+      <c r="BR26" s="98"/>
+      <c r="BS26" s="91" t="s">
         <v>720</v>
       </c>
-      <c r="BT26" s="91" t="s">
+      <c r="BT26" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BU26" s="90"/>
-      <c r="BV26" s="91"/>
-      <c r="BW26" s="90" t="s">
+      <c r="BU26" s="91"/>
+      <c r="BV26" s="90"/>
+      <c r="BW26" s="91" t="s">
         <v>725</v>
       </c>
       <c r="BX26" s="145"/>
@@ -52997,24 +53293,26 @@
         <v>17</v>
       </c>
       <c r="BZ26" s="92"/>
-      <c r="CA26" s="91" t="s">
+      <c r="CA26" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="CB26" s="91" t="s">
+      <c r="CB26" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="CC26" s="91" t="s">
+      <c r="CC26" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="CD26" s="91"/>
+      <c r="CD26" s="90"/>
       <c r="CE26" s="94" t="s">
         <v>798</v>
       </c>
       <c r="CF26" s="92" t="s">
         <v>799</v>
       </c>
-      <c r="CG26" s="91"/>
-      <c r="CH26" s="42"/>
+      <c r="CG26" s="90"/>
+      <c r="CH26" s="92" t="s">
+        <v>650</v>
+      </c>
       <c r="CI26" s="65"/>
       <c r="CJ26" s="65"/>
       <c r="CK26" s="42"/>
@@ -53029,138 +53327,138 @@
       <c r="A27" s="10">
         <v>0.77083333333333304</v>
       </c>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106" t="s">
+      <c r="B27" s="100"/>
+      <c r="C27" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="106" t="s">
+      <c r="D27" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="90"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="101" t="s">
+      <c r="E27" s="91"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="I27" s="98"/>
-      <c r="J27" s="113"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="106"/>
       <c r="K27" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="L27" s="98"/>
+      <c r="L27" s="95"/>
       <c r="M27" s="62" t="s">
         <v>249</v>
       </c>
-      <c r="N27" s="98"/>
-      <c r="O27" s="114" t="s">
+      <c r="N27" s="95"/>
+      <c r="O27" s="109" t="s">
         <v>276</v>
       </c>
-      <c r="P27" s="105" t="s">
+      <c r="P27" s="99" t="s">
         <v>289</v>
       </c>
-      <c r="Q27" s="123"/>
-      <c r="R27" s="90"/>
-      <c r="S27" s="98"/>
+      <c r="Q27" s="119"/>
+      <c r="R27" s="91"/>
+      <c r="S27" s="95"/>
       <c r="T27" s="92"/>
-      <c r="U27" s="113" t="s">
+      <c r="U27" s="106" t="s">
         <v>376</v>
       </c>
       <c r="V27" s="51" t="s">
         <v>393</v>
       </c>
-      <c r="W27" s="98"/>
+      <c r="W27" s="95"/>
       <c r="X27" s="52" t="s">
         <v>118</v>
       </c>
       <c r="Y27" s="51" t="s">
         <v>431</v>
       </c>
-      <c r="Z27" s="98"/>
+      <c r="Z27" s="95"/>
       <c r="AA27" s="60" t="s">
         <v>470</v>
       </c>
-      <c r="AB27" s="98"/>
+      <c r="AB27" s="95"/>
       <c r="AC27" s="57" t="s">
         <v>489</v>
       </c>
-      <c r="AD27" s="98"/>
-      <c r="AE27" s="101"/>
-      <c r="AF27" s="113"/>
-      <c r="AG27" s="98"/>
-      <c r="AH27" s="109" t="s">
+      <c r="AD27" s="95"/>
+      <c r="AE27" s="98"/>
+      <c r="AF27" s="106"/>
+      <c r="AG27" s="95"/>
+      <c r="AH27" s="104" t="s">
         <v>463</v>
       </c>
-      <c r="AI27" s="98"/>
-      <c r="AJ27" s="114"/>
-      <c r="AK27" s="98"/>
-      <c r="AL27" s="90"/>
+      <c r="AI27" s="95"/>
+      <c r="AJ27" s="109"/>
+      <c r="AK27" s="95"/>
+      <c r="AL27" s="91"/>
       <c r="AM27" s="92"/>
-      <c r="AN27" s="98"/>
+      <c r="AN27" s="95"/>
       <c r="AO27" s="94" t="s">
         <v>560</v>
       </c>
-      <c r="AP27" s="125"/>
-      <c r="AQ27" s="109" t="s">
+      <c r="AP27" s="103"/>
+      <c r="AQ27" s="104" t="s">
         <v>615</v>
       </c>
-      <c r="AR27" s="110"/>
-      <c r="AS27" s="90"/>
-      <c r="AT27" s="109" t="s">
+      <c r="AR27" s="107"/>
+      <c r="AS27" s="91"/>
+      <c r="AT27" s="104" t="s">
         <v>619</v>
       </c>
-      <c r="AU27" s="98"/>
+      <c r="AU27" s="95"/>
       <c r="AV27" s="93"/>
-      <c r="AW27" s="108"/>
+      <c r="AW27" s="102"/>
       <c r="AX27" s="55" t="s">
         <v>655</v>
       </c>
-      <c r="AY27" s="98"/>
+      <c r="AY27" s="95"/>
       <c r="AZ27" s="53" t="s">
         <v>666</v>
       </c>
       <c r="BA27" s="92"/>
-      <c r="BB27" s="98"/>
-      <c r="BC27" s="90"/>
-      <c r="BD27" s="108"/>
-      <c r="BE27" s="108"/>
-      <c r="BF27" s="91"/>
-      <c r="BG27" s="91"/>
-      <c r="BH27" s="90"/>
-      <c r="BI27" s="91" t="s">
+      <c r="BB27" s="95"/>
+      <c r="BC27" s="91"/>
+      <c r="BD27" s="102"/>
+      <c r="BE27" s="102"/>
+      <c r="BF27" s="90"/>
+      <c r="BG27" s="90"/>
+      <c r="BH27" s="91"/>
+      <c r="BI27" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BJ27" s="91"/>
-      <c r="BK27" s="90" t="s">
+      <c r="BJ27" s="90"/>
+      <c r="BK27" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="BL27" s="91"/>
-      <c r="BM27" s="91"/>
-      <c r="BN27" s="91" t="s">
+      <c r="BL27" s="90"/>
+      <c r="BM27" s="90"/>
+      <c r="BN27" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BO27" s="101" t="s">
+      <c r="BO27" s="98" t="s">
         <v>45</v>
       </c>
       <c r="BP27" s="94"/>
-      <c r="BQ27" s="91"/>
-      <c r="BR27" s="101"/>
-      <c r="BS27" s="90"/>
-      <c r="BT27" s="91"/>
-      <c r="BU27" s="90" t="s">
+      <c r="BQ27" s="90"/>
+      <c r="BR27" s="98"/>
+      <c r="BS27" s="91"/>
+      <c r="BT27" s="90"/>
+      <c r="BU27" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="BV27" s="90" t="s">
+      <c r="BV27" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="BW27" s="90"/>
+      <c r="BW27" s="91"/>
       <c r="BX27" s="145"/>
       <c r="BY27" s="89"/>
       <c r="BZ27" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="CA27" s="91"/>
-      <c r="CB27" s="91"/>
-      <c r="CC27" s="91"/>
+      <c r="CA27" s="90"/>
+      <c r="CB27" s="90"/>
+      <c r="CC27" s="90"/>
       <c r="CD27" s="92" t="s">
         <v>15</v>
       </c>
@@ -53169,7 +53467,7 @@
       <c r="CG27" s="92" t="s">
         <v>220</v>
       </c>
-      <c r="CH27" s="42"/>
+      <c r="CH27" s="92"/>
       <c r="CI27" s="65"/>
       <c r="CJ27" s="65"/>
       <c r="CK27" s="42"/>
@@ -53187,135 +53485,135 @@
       <c r="B28" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="105" t="s">
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="90"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="98"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="95"/>
       <c r="J28" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="K28" s="113" t="s">
+      <c r="K28" s="106" t="s">
         <v>224</v>
       </c>
-      <c r="L28" s="98"/>
-      <c r="M28" s="90" t="s">
+      <c r="L28" s="95"/>
+      <c r="M28" s="91" t="s">
         <v>248</v>
       </c>
-      <c r="N28" s="98"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="105"/>
-      <c r="Q28" s="123"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="109"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="119"/>
       <c r="R28" s="60" t="s">
         <v>321</v>
       </c>
-      <c r="S28" s="98"/>
+      <c r="S28" s="95"/>
       <c r="T28" s="92"/>
-      <c r="U28" s="113"/>
-      <c r="V28" s="101" t="s">
+      <c r="U28" s="106"/>
+      <c r="V28" s="98" t="s">
         <v>394</v>
       </c>
-      <c r="W28" s="98"/>
+      <c r="W28" s="95"/>
       <c r="X28" s="57" t="s">
         <v>299</v>
       </c>
-      <c r="Y28" s="101" t="s">
+      <c r="Y28" s="98" t="s">
         <v>428</v>
       </c>
-      <c r="Z28" s="98"/>
+      <c r="Z28" s="95"/>
       <c r="AA28" s="52" t="s">
         <v>467</v>
       </c>
-      <c r="AB28" s="98"/>
-      <c r="AC28" s="90" t="s">
+      <c r="AB28" s="95"/>
+      <c r="AC28" s="91" t="s">
         <v>488</v>
       </c>
-      <c r="AD28" s="98"/>
+      <c r="AD28" s="95"/>
       <c r="AE28" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="AF28" s="113"/>
-      <c r="AG28" s="98"/>
-      <c r="AH28" s="109"/>
-      <c r="AI28" s="98"/>
-      <c r="AJ28" s="106" t="s">
+      <c r="AF28" s="106"/>
+      <c r="AG28" s="95"/>
+      <c r="AH28" s="104"/>
+      <c r="AI28" s="95"/>
+      <c r="AJ28" s="100" t="s">
         <v>193</v>
       </c>
-      <c r="AK28" s="98"/>
-      <c r="AL28" s="90"/>
+      <c r="AK28" s="95"/>
+      <c r="AL28" s="91"/>
       <c r="AM28" s="92"/>
-      <c r="AN28" s="98"/>
+      <c r="AN28" s="95"/>
       <c r="AO28" s="94"/>
-      <c r="AP28" s="125"/>
-      <c r="AQ28" s="109"/>
+      <c r="AP28" s="103"/>
+      <c r="AQ28" s="104"/>
       <c r="AR28" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AS28" s="91" t="s">
+      <c r="AS28" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AT28" s="109"/>
-      <c r="AU28" s="98"/>
+      <c r="AT28" s="104"/>
+      <c r="AU28" s="95"/>
       <c r="AV28" s="53" t="s">
         <v>635</v>
       </c>
-      <c r="AW28" s="108"/>
-      <c r="AX28" s="91" t="s">
+      <c r="AW28" s="102"/>
+      <c r="AX28" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="AY28" s="98"/>
+      <c r="AY28" s="95"/>
       <c r="AZ28" s="92" t="s">
         <v>470</v>
       </c>
       <c r="BA28" s="92" t="s">
         <v>470</v>
       </c>
-      <c r="BB28" s="98"/>
-      <c r="BC28" s="90"/>
-      <c r="BD28" s="105" t="s">
+      <c r="BB28" s="95"/>
+      <c r="BC28" s="91"/>
+      <c r="BD28" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="BE28" s="91" t="s">
+      <c r="BE28" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="BF28" s="90" t="s">
+      <c r="BF28" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="BG28" s="90" t="s">
+      <c r="BG28" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="BH28" s="90"/>
-      <c r="BI28" s="91"/>
-      <c r="BJ28" s="101" t="s">
+      <c r="BH28" s="91"/>
+      <c r="BI28" s="90"/>
+      <c r="BJ28" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="BK28" s="90"/>
+      <c r="BK28" s="91"/>
       <c r="BL28" s="92" t="s">
         <v>691</v>
       </c>
       <c r="BM28" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="BN28" s="91"/>
-      <c r="BO28" s="101"/>
+      <c r="BN28" s="90"/>
+      <c r="BO28" s="98"/>
       <c r="BP28" s="94"/>
       <c r="BQ28" s="92" t="s">
         <v>670</v>
       </c>
-      <c r="BR28" s="101"/>
-      <c r="BS28" s="90" t="s">
+      <c r="BR28" s="98"/>
+      <c r="BS28" s="91" t="s">
         <v>720</v>
       </c>
-      <c r="BT28" s="90" t="s">
+      <c r="BT28" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="BU28" s="90"/>
-      <c r="BV28" s="90"/>
-      <c r="BW28" s="90" t="s">
+      <c r="BU28" s="91"/>
+      <c r="BV28" s="91"/>
+      <c r="BW28" s="91" t="s">
         <v>725</v>
       </c>
       <c r="BX28" s="145"/>
@@ -53323,24 +53621,26 @@
         <v>780</v>
       </c>
       <c r="BZ28" s="92"/>
-      <c r="CA28" s="90" t="s">
+      <c r="CA28" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="CB28" s="90" t="s">
+      <c r="CB28" s="91" t="s">
         <v>725</v>
       </c>
       <c r="CC28" s="92" t="s">
         <v>797</v>
       </c>
       <c r="CD28" s="92"/>
-      <c r="CE28" s="90" t="s">
+      <c r="CE28" s="91" t="s">
         <v>725</v>
       </c>
       <c r="CF28" s="92" t="s">
         <v>799</v>
       </c>
       <c r="CG28" s="92"/>
-      <c r="CH28" s="42"/>
+      <c r="CH28" s="90" t="s">
+        <v>17</v>
+      </c>
       <c r="CI28" s="65"/>
       <c r="CJ28" s="65"/>
       <c r="CK28" s="42"/>
@@ -53355,147 +53655,147 @@
       <c r="A29" s="10">
         <v>0.8125</v>
       </c>
-      <c r="B29" s="101" t="s">
+      <c r="B29" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="108" t="s">
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="I29" s="98"/>
-      <c r="J29" s="90" t="s">
+      <c r="I29" s="95"/>
+      <c r="J29" s="91" t="s">
         <v>202</v>
       </c>
-      <c r="K29" s="113"/>
-      <c r="L29" s="98"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="98"/>
-      <c r="O29" s="113" t="s">
+      <c r="K29" s="106"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="106" t="s">
         <v>275</v>
       </c>
-      <c r="P29" s="105"/>
-      <c r="Q29" s="122" t="s">
+      <c r="P29" s="99"/>
+      <c r="Q29" s="118" t="s">
         <v>303</v>
       </c>
       <c r="R29" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="S29" s="98"/>
+      <c r="S29" s="95"/>
       <c r="T29" s="93" t="s">
         <v>368</v>
       </c>
-      <c r="U29" s="113"/>
-      <c r="V29" s="101"/>
-      <c r="W29" s="98"/>
+      <c r="U29" s="106"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="95"/>
       <c r="X29" s="55" t="s">
         <v>409</v>
       </c>
-      <c r="Y29" s="101"/>
-      <c r="Z29" s="98"/>
-      <c r="AA29" s="101" t="s">
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="95"/>
+      <c r="AA29" s="98" t="s">
         <v>468</v>
       </c>
-      <c r="AB29" s="98"/>
-      <c r="AC29" s="90"/>
-      <c r="AD29" s="98"/>
+      <c r="AB29" s="95"/>
+      <c r="AC29" s="91"/>
+      <c r="AD29" s="95"/>
       <c r="AE29" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="AF29" s="113"/>
-      <c r="AG29" s="98"/>
-      <c r="AH29" s="101" t="s">
+      <c r="AF29" s="106"/>
+      <c r="AG29" s="95"/>
+      <c r="AH29" s="98" t="s">
         <v>261</v>
       </c>
-      <c r="AI29" s="98"/>
-      <c r="AJ29" s="106"/>
-      <c r="AK29" s="98"/>
-      <c r="AL29" s="90"/>
-      <c r="AM29" s="90" t="s">
+      <c r="AI29" s="95"/>
+      <c r="AJ29" s="100"/>
+      <c r="AK29" s="95"/>
+      <c r="AL29" s="91"/>
+      <c r="AM29" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AN29" s="98"/>
-      <c r="AO29" s="90" t="s">
+      <c r="AN29" s="95"/>
+      <c r="AO29" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AP29" s="125"/>
-      <c r="AQ29" s="90" t="s">
+      <c r="AP29" s="103"/>
+      <c r="AQ29" s="91" t="s">
         <v>45</v>
       </c>
       <c r="AR29" s="94" t="s">
         <v>621</v>
       </c>
-      <c r="AS29" s="91"/>
-      <c r="AT29" s="109" t="s">
+      <c r="AS29" s="90"/>
+      <c r="AT29" s="104" t="s">
         <v>627</v>
       </c>
-      <c r="AU29" s="98"/>
-      <c r="AV29" s="90" t="s">
+      <c r="AU29" s="95"/>
+      <c r="AV29" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AW29" s="105" t="s">
+      <c r="AW29" s="99" t="s">
         <v>648</v>
       </c>
-      <c r="AX29" s="91"/>
-      <c r="AY29" s="98"/>
+      <c r="AX29" s="90"/>
+      <c r="AY29" s="95"/>
       <c r="AZ29" s="92"/>
       <c r="BA29" s="92"/>
-      <c r="BB29" s="98"/>
-      <c r="BC29" s="90"/>
-      <c r="BD29" s="105"/>
-      <c r="BE29" s="91"/>
-      <c r="BF29" s="90"/>
-      <c r="BG29" s="90"/>
-      <c r="BH29" s="91" t="s">
+      <c r="BB29" s="95"/>
+      <c r="BC29" s="91"/>
+      <c r="BD29" s="99"/>
+      <c r="BE29" s="90"/>
+      <c r="BF29" s="91"/>
+      <c r="BG29" s="91"/>
+      <c r="BH29" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BI29" s="102" t="s">
+      <c r="BI29" s="121" t="s">
         <v>691</v>
       </c>
-      <c r="BJ29" s="101"/>
-      <c r="BK29" s="90"/>
+      <c r="BJ29" s="98"/>
+      <c r="BK29" s="91"/>
       <c r="BL29" s="92"/>
       <c r="BM29" s="92"/>
       <c r="BN29" s="93" t="s">
         <v>696</v>
       </c>
-      <c r="BO29" s="91" t="s">
+      <c r="BO29" s="90" t="s">
         <v>13</v>
       </c>
       <c r="BP29" s="92" t="s">
         <v>691</v>
       </c>
       <c r="BQ29" s="92"/>
-      <c r="BR29" s="101"/>
-      <c r="BS29" s="90"/>
-      <c r="BT29" s="90"/>
+      <c r="BR29" s="98"/>
+      <c r="BS29" s="91"/>
+      <c r="BT29" s="91"/>
       <c r="BU29" s="93" t="s">
         <v>619</v>
       </c>
-      <c r="BV29" s="90" t="s">
+      <c r="BV29" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="BW29" s="90"/>
+      <c r="BW29" s="91"/>
       <c r="BX29" s="145"/>
       <c r="BY29" s="140"/>
       <c r="BZ29" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="CA29" s="90"/>
-      <c r="CB29" s="90"/>
+      <c r="CA29" s="91"/>
+      <c r="CB29" s="91"/>
       <c r="CC29" s="92"/>
       <c r="CD29" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="CE29" s="90"/>
+      <c r="CE29" s="91"/>
       <c r="CF29" s="92"/>
       <c r="CG29" s="94" t="s">
         <v>802</v>
       </c>
-      <c r="CH29" s="42"/>
+      <c r="CH29" s="90"/>
       <c r="CI29" s="65"/>
       <c r="CJ29" s="65"/>
       <c r="CK29" s="42"/>
@@ -53510,133 +53810,133 @@
       <c r="A30" s="10">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B30" s="101"/>
-      <c r="C30" s="91" t="s">
+      <c r="B30" s="98"/>
+      <c r="C30" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="91" t="s">
+      <c r="D30" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="90"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90" t="s">
+      <c r="E30" s="91"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="98"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="113"/>
-      <c r="P30" s="105" t="s">
+      <c r="L30" s="95"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="106"/>
+      <c r="P30" s="99" t="s">
         <v>289</v>
       </c>
-      <c r="Q30" s="122"/>
-      <c r="R30" s="90" t="s">
+      <c r="Q30" s="118"/>
+      <c r="R30" s="91" t="s">
         <v>320</v>
       </c>
-      <c r="S30" s="98"/>
+      <c r="S30" s="95"/>
       <c r="T30" s="93"/>
-      <c r="U30" s="111" t="s">
+      <c r="U30" s="108" t="s">
         <v>377</v>
       </c>
-      <c r="V30" s="101"/>
-      <c r="W30" s="98"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="95"/>
       <c r="X30" s="56" t="s">
         <v>418</v>
       </c>
       <c r="Y30" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="Z30" s="98"/>
-      <c r="AA30" s="101"/>
-      <c r="AB30" s="98"/>
-      <c r="AC30" s="90"/>
-      <c r="AD30" s="98"/>
-      <c r="AE30" s="113" t="s">
+      <c r="Z30" s="95"/>
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="95"/>
+      <c r="AC30" s="91"/>
+      <c r="AD30" s="95"/>
+      <c r="AE30" s="106" t="s">
         <v>520</v>
       </c>
-      <c r="AF30" s="111" t="s">
+      <c r="AF30" s="108" t="s">
         <v>533</v>
       </c>
-      <c r="AG30" s="98"/>
-      <c r="AH30" s="101"/>
-      <c r="AI30" s="98"/>
-      <c r="AJ30" s="90" t="s">
+      <c r="AG30" s="95"/>
+      <c r="AH30" s="98"/>
+      <c r="AI30" s="95"/>
+      <c r="AJ30" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AK30" s="98"/>
-      <c r="AL30" s="90"/>
-      <c r="AM30" s="90"/>
-      <c r="AN30" s="98"/>
-      <c r="AO30" s="90"/>
-      <c r="AP30" s="91" t="s">
+      <c r="AK30" s="95"/>
+      <c r="AL30" s="91"/>
+      <c r="AM30" s="91"/>
+      <c r="AN30" s="95"/>
+      <c r="AO30" s="91"/>
+      <c r="AP30" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AQ30" s="90"/>
+      <c r="AQ30" s="91"/>
       <c r="AR30" s="94"/>
       <c r="AS30" s="94" t="s">
         <v>621</v>
       </c>
-      <c r="AT30" s="109"/>
-      <c r="AU30" s="98"/>
-      <c r="AV30" s="90"/>
-      <c r="AW30" s="105"/>
-      <c r="AX30" s="90" t="s">
+      <c r="AT30" s="104"/>
+      <c r="AU30" s="95"/>
+      <c r="AV30" s="91"/>
+      <c r="AW30" s="99"/>
+      <c r="AX30" s="91" t="s">
         <v>641</v>
       </c>
-      <c r="AY30" s="101" t="s">
+      <c r="AY30" s="98" t="s">
         <v>642</v>
       </c>
-      <c r="AZ30" s="101" t="s">
+      <c r="AZ30" s="98" t="s">
         <v>643</v>
       </c>
-      <c r="BA30" s="101" t="s">
+      <c r="BA30" s="98" t="s">
         <v>642</v>
       </c>
-      <c r="BB30" s="90" t="s">
+      <c r="BB30" s="91" t="s">
         <v>641</v>
       </c>
-      <c r="BC30" s="90"/>
-      <c r="BD30" s="105" t="s">
+      <c r="BC30" s="91"/>
+      <c r="BD30" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="BE30" s="90" t="s">
+      <c r="BE30" s="91" t="s">
         <v>261</v>
       </c>
-      <c r="BF30" s="90"/>
-      <c r="BG30" s="90"/>
-      <c r="BH30" s="91"/>
-      <c r="BI30" s="103"/>
-      <c r="BJ30" s="102" t="s">
+      <c r="BF30" s="91"/>
+      <c r="BG30" s="91"/>
+      <c r="BH30" s="90"/>
+      <c r="BI30" s="123"/>
+      <c r="BJ30" s="121" t="s">
         <v>691</v>
       </c>
-      <c r="BK30" s="102" t="s">
+      <c r="BK30" s="121" t="s">
         <v>691</v>
       </c>
-      <c r="BL30" s="126" t="s">
+      <c r="BL30" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="BM30" s="126" t="s">
+      <c r="BM30" s="124" t="s">
         <v>19</v>
       </c>
       <c r="BN30" s="93"/>
-      <c r="BO30" s="91"/>
+      <c r="BO30" s="90"/>
       <c r="BP30" s="92"/>
       <c r="BQ30" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="BR30" s="101"/>
-      <c r="BS30" s="90" t="s">
+      <c r="BR30" s="98"/>
+      <c r="BS30" s="91" t="s">
         <v>720</v>
       </c>
-      <c r="BT30" s="90" t="s">
+      <c r="BT30" s="91" t="s">
         <v>45</v>
       </c>
       <c r="BU30" s="93"/>
-      <c r="BV30" s="90"/>
+      <c r="BV30" s="91"/>
       <c r="BW30" s="94" t="s">
         <v>771</v>
       </c>
@@ -53645,24 +53945,26 @@
         <v>780</v>
       </c>
       <c r="BZ30" s="92"/>
-      <c r="CA30" s="90" t="s">
+      <c r="CA30" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="CB30" s="90" t="s">
+      <c r="CB30" s="91" t="s">
         <v>725</v>
       </c>
       <c r="CC30" s="92" t="s">
         <v>797</v>
       </c>
       <c r="CD30" s="92"/>
-      <c r="CE30" s="90" t="s">
+      <c r="CE30" s="91" t="s">
         <v>725</v>
       </c>
       <c r="CF30" s="92" t="s">
         <v>799</v>
       </c>
       <c r="CG30" s="94"/>
-      <c r="CH30" s="42"/>
+      <c r="CH30" s="92" t="s">
+        <v>764</v>
+      </c>
       <c r="CI30" s="65"/>
       <c r="CJ30" s="65"/>
       <c r="CK30" s="42"/>
@@ -53677,98 +53979,98 @@
       <c r="A31" s="10">
         <v>0.85416666666666596</v>
       </c>
-      <c r="B31" s="101"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
       <c r="E31" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105" t="s">
+      <c r="F31" s="99"/>
+      <c r="G31" s="99" t="s">
         <v>126</v>
       </c>
-      <c r="H31" s="108"/>
+      <c r="H31" s="102"/>
       <c r="I31" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="J31" s="98" t="s">
+      <c r="J31" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="K31" s="90"/>
+      <c r="K31" s="91"/>
       <c r="L31" s="62" t="s">
         <v>58</v>
       </c>
       <c r="M31" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="N31" s="90" t="s">
+      <c r="N31" s="91" t="s">
         <v>267</v>
       </c>
-      <c r="O31" s="113"/>
-      <c r="P31" s="105"/>
-      <c r="Q31" s="121" t="s">
+      <c r="O31" s="106"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="117" t="s">
         <v>304</v>
       </c>
-      <c r="R31" s="90"/>
-      <c r="S31" s="111" t="s">
+      <c r="R31" s="91"/>
+      <c r="S31" s="108" t="s">
         <v>333</v>
       </c>
-      <c r="T31" s="105" t="s">
+      <c r="T31" s="99" t="s">
         <v>369</v>
       </c>
-      <c r="U31" s="111"/>
-      <c r="V31" s="101"/>
-      <c r="W31" s="114" t="s">
+      <c r="U31" s="108"/>
+      <c r="V31" s="98"/>
+      <c r="W31" s="109" t="s">
         <v>406</v>
       </c>
-      <c r="X31" s="101" t="s">
+      <c r="X31" s="98" t="s">
         <v>410</v>
       </c>
-      <c r="Y31" s="101" t="s">
+      <c r="Y31" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="Z31" s="101" t="s">
+      <c r="Z31" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="AA31" s="101"/>
-      <c r="AB31" s="90" t="s">
+      <c r="AA31" s="98"/>
+      <c r="AB31" s="91" t="s">
         <v>471</v>
       </c>
       <c r="AC31" s="55" t="s">
         <v>491</v>
       </c>
-      <c r="AD31" s="101" t="s">
+      <c r="AD31" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="AE31" s="113"/>
-      <c r="AF31" s="111"/>
-      <c r="AG31" s="90" t="s">
+      <c r="AE31" s="106"/>
+      <c r="AF31" s="108"/>
+      <c r="AG31" s="91" t="s">
         <v>261</v>
       </c>
       <c r="AH31" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="AI31" s="91" t="s">
+      <c r="AI31" s="90" t="s">
         <v>554</v>
       </c>
-      <c r="AJ31" s="90"/>
+      <c r="AJ31" s="91"/>
       <c r="AK31" s="94" t="s">
         <v>560</v>
       </c>
-      <c r="AL31" s="105" t="s">
+      <c r="AL31" s="99" t="s">
         <v>598</v>
       </c>
-      <c r="AM31" s="91" t="s">
+      <c r="AM31" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AN31" s="114" t="s">
+      <c r="AN31" s="109" t="s">
         <v>554</v>
       </c>
-      <c r="AO31" s="91" t="s">
+      <c r="AO31" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AP31" s="91"/>
-      <c r="AQ31" s="90" t="s">
+      <c r="AP31" s="90"/>
+      <c r="AQ31" s="91" t="s">
         <v>45</v>
       </c>
       <c r="AR31" s="94"/>
@@ -53776,7 +54078,7 @@
       <c r="AT31" s="94" t="s">
         <v>560</v>
       </c>
-      <c r="AU31" s="91" t="s">
+      <c r="AU31" s="90" t="s">
         <v>58</v>
       </c>
       <c r="AV31" s="57" t="s">
@@ -53785,26 +54087,26 @@
       <c r="AW31" s="52" t="s">
         <v>649</v>
       </c>
-      <c r="AX31" s="90"/>
-      <c r="AY31" s="101"/>
-      <c r="AZ31" s="101"/>
-      <c r="BA31" s="101"/>
-      <c r="BB31" s="90"/>
-      <c r="BC31" s="90"/>
-      <c r="BD31" s="105"/>
-      <c r="BE31" s="90"/>
-      <c r="BF31" s="90"/>
-      <c r="BG31" s="90"/>
-      <c r="BH31" s="101" t="s">
+      <c r="AX31" s="91"/>
+      <c r="AY31" s="98"/>
+      <c r="AZ31" s="98"/>
+      <c r="BA31" s="98"/>
+      <c r="BB31" s="91"/>
+      <c r="BC31" s="91"/>
+      <c r="BD31" s="99"/>
+      <c r="BE31" s="91"/>
+      <c r="BF31" s="91"/>
+      <c r="BG31" s="91"/>
+      <c r="BH31" s="98" t="s">
         <v>685</v>
       </c>
-      <c r="BI31" s="103"/>
-      <c r="BJ31" s="103"/>
-      <c r="BK31" s="103"/>
-      <c r="BL31" s="127"/>
-      <c r="BM31" s="127"/>
+      <c r="BI31" s="123"/>
+      <c r="BJ31" s="123"/>
+      <c r="BK31" s="123"/>
+      <c r="BL31" s="125"/>
+      <c r="BM31" s="125"/>
       <c r="BN31" s="93"/>
-      <c r="BO31" s="91"/>
+      <c r="BO31" s="90"/>
       <c r="BP31" s="92" t="s">
         <v>691</v>
       </c>
@@ -53812,9 +54114,9 @@
       <c r="BR31" s="92" t="s">
         <v>650</v>
       </c>
-      <c r="BS31" s="90"/>
-      <c r="BT31" s="90"/>
-      <c r="BU31" s="90" t="s">
+      <c r="BS31" s="91"/>
+      <c r="BT31" s="91"/>
+      <c r="BU31" s="91" t="s">
         <v>725</v>
       </c>
       <c r="BV31" s="93" t="s">
@@ -53825,21 +54127,21 @@
         <v>783</v>
       </c>
       <c r="BY31" s="140"/>
-      <c r="BZ31" s="90" t="s">
+      <c r="BZ31" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="CA31" s="90"/>
-      <c r="CB31" s="90"/>
+      <c r="CA31" s="91"/>
+      <c r="CB31" s="91"/>
       <c r="CC31" s="92"/>
       <c r="CD31" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="CE31" s="90"/>
+      <c r="CE31" s="91"/>
       <c r="CF31" s="92"/>
       <c r="CG31" s="94" t="s">
         <v>802</v>
       </c>
-      <c r="CH31" s="42"/>
+      <c r="CH31" s="92"/>
       <c r="CI31" s="65"/>
       <c r="CJ31" s="65"/>
       <c r="CK31" s="42"/>
@@ -53857,22 +54159,22 @@
       <c r="B32" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="106" t="s">
+      <c r="C32" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="106" t="s">
+      <c r="D32" s="100" t="s">
         <v>57</v>
       </c>
       <c r="E32" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="120" t="s">
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="116" t="s">
         <v>182</v>
       </c>
-      <c r="J32" s="98"/>
+      <c r="J32" s="95"/>
       <c r="K32" s="55" t="s">
         <v>223</v>
       </c>
@@ -53882,92 +54184,92 @@
       <c r="M32" s="52" t="s">
         <v>248</v>
       </c>
-      <c r="N32" s="90"/>
-      <c r="O32" s="113"/>
-      <c r="P32" s="105"/>
-      <c r="Q32" s="121"/>
+      <c r="N32" s="91"/>
+      <c r="O32" s="106"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="117"/>
       <c r="R32" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="S32" s="111"/>
-      <c r="T32" s="105"/>
-      <c r="U32" s="113" t="s">
+      <c r="S32" s="108"/>
+      <c r="T32" s="99"/>
+      <c r="U32" s="106" t="s">
         <v>382</v>
       </c>
-      <c r="V32" s="114" t="s">
+      <c r="V32" s="109" t="s">
         <v>395</v>
       </c>
-      <c r="W32" s="114"/>
-      <c r="X32" s="101"/>
-      <c r="Y32" s="101"/>
-      <c r="Z32" s="101"/>
-      <c r="AA32" s="101"/>
-      <c r="AB32" s="90"/>
+      <c r="W32" s="109"/>
+      <c r="X32" s="98"/>
+      <c r="Y32" s="98"/>
+      <c r="Z32" s="98"/>
+      <c r="AA32" s="98"/>
+      <c r="AB32" s="91"/>
       <c r="AC32" s="54" t="s">
         <v>490</v>
       </c>
-      <c r="AD32" s="101"/>
-      <c r="AE32" s="113"/>
+      <c r="AD32" s="98"/>
+      <c r="AE32" s="106"/>
       <c r="AF32" s="57" t="s">
         <v>534</v>
       </c>
-      <c r="AG32" s="90"/>
-      <c r="AH32" s="124" t="s">
+      <c r="AG32" s="91"/>
+      <c r="AH32" s="120" t="s">
         <v>552</v>
       </c>
-      <c r="AI32" s="91"/>
-      <c r="AJ32" s="90" t="s">
+      <c r="AI32" s="90"/>
+      <c r="AJ32" s="91" t="s">
         <v>45</v>
       </c>
       <c r="AK32" s="94"/>
-      <c r="AL32" s="105"/>
-      <c r="AM32" s="91"/>
-      <c r="AN32" s="114"/>
-      <c r="AO32" s="91"/>
+      <c r="AL32" s="99"/>
+      <c r="AM32" s="90"/>
+      <c r="AN32" s="109"/>
+      <c r="AO32" s="90"/>
       <c r="AP32" s="94" t="s">
         <v>391</v>
       </c>
-      <c r="AQ32" s="90"/>
+      <c r="AQ32" s="91"/>
       <c r="AR32" s="94"/>
       <c r="AS32" s="94"/>
       <c r="AT32" s="94"/>
-      <c r="AU32" s="91"/>
-      <c r="AV32" s="91" t="s">
+      <c r="AU32" s="90"/>
+      <c r="AV32" s="90" t="s">
         <v>58</v>
       </c>
       <c r="AW32" s="92" t="s">
         <v>650</v>
       </c>
-      <c r="AX32" s="90"/>
-      <c r="AY32" s="101"/>
-      <c r="AZ32" s="101"/>
-      <c r="BA32" s="101"/>
-      <c r="BB32" s="90"/>
-      <c r="BC32" s="90"/>
-      <c r="BD32" s="90" t="s">
+      <c r="AX32" s="91"/>
+      <c r="AY32" s="98"/>
+      <c r="AZ32" s="98"/>
+      <c r="BA32" s="98"/>
+      <c r="BB32" s="91"/>
+      <c r="BC32" s="91"/>
+      <c r="BD32" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="BE32" s="90" t="s">
+      <c r="BE32" s="91" t="s">
         <v>261</v>
       </c>
       <c r="BF32" s="92" t="s">
         <v>678</v>
       </c>
-      <c r="BG32" s="106" t="s">
+      <c r="BG32" s="100" t="s">
         <v>686</v>
       </c>
-      <c r="BH32" s="101"/>
-      <c r="BI32" s="104"/>
-      <c r="BJ32" s="103"/>
-      <c r="BK32" s="103"/>
-      <c r="BL32" s="127"/>
-      <c r="BM32" s="127"/>
-      <c r="BN32" s="91" t="s">
+      <c r="BH32" s="98"/>
+      <c r="BI32" s="122"/>
+      <c r="BJ32" s="123"/>
+      <c r="BK32" s="123"/>
+      <c r="BL32" s="125"/>
+      <c r="BM32" s="125"/>
+      <c r="BN32" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="BO32" s="91"/>
+      <c r="BO32" s="90"/>
       <c r="BP32" s="92"/>
-      <c r="BQ32" s="90" t="s">
+      <c r="BQ32" s="91" t="s">
         <v>711</v>
       </c>
       <c r="BR32" s="92"/>
@@ -53977,7 +54279,7 @@
       <c r="BT32" s="71" t="s">
         <v>731</v>
       </c>
-      <c r="BU32" s="90"/>
+      <c r="BU32" s="91"/>
       <c r="BV32" s="93"/>
       <c r="BW32" s="11" t="s">
         <v>774</v>
@@ -53986,25 +54288,27 @@
       <c r="BY32" s="139" t="s">
         <v>780</v>
       </c>
-      <c r="BZ32" s="90"/>
-      <c r="CA32" s="90" t="s">
+      <c r="BZ32" s="91"/>
+      <c r="CA32" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="CB32" s="90" t="s">
+      <c r="CB32" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="CC32" s="90" t="s">
+      <c r="CC32" s="91" t="s">
         <v>725</v>
       </c>
       <c r="CD32" s="92"/>
-      <c r="CE32" s="90" t="s">
+      <c r="CE32" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="CF32" s="91" t="s">
+      <c r="CF32" s="90" t="s">
         <v>58</v>
       </c>
       <c r="CG32" s="94"/>
-      <c r="CH32" s="42"/>
+      <c r="CH32" s="92" t="s">
+        <v>800</v>
+      </c>
       <c r="CI32" s="65"/>
       <c r="CJ32" s="65"/>
       <c r="CK32" s="42"/>
@@ -54022,51 +54326,51 @@
       <c r="B33" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="106"/>
-      <c r="D33" s="106"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
       <c r="E33" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="105"/>
+      <c r="F33" s="99"/>
       <c r="G33" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="H33" s="108"/>
-      <c r="I33" s="120"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="116"/>
       <c r="J33" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="K33" s="114" t="s">
+      <c r="K33" s="109" t="s">
         <v>226</v>
       </c>
-      <c r="L33" s="113" t="s">
+      <c r="L33" s="106" t="s">
         <v>245</v>
       </c>
       <c r="M33" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="N33" s="114" t="s">
+      <c r="N33" s="109" t="s">
         <v>268</v>
       </c>
-      <c r="O33" s="113"/>
-      <c r="P33" s="90" t="s">
+      <c r="O33" s="106"/>
+      <c r="P33" s="91" t="s">
         <v>290</v>
       </c>
-      <c r="Q33" s="114" t="s">
+      <c r="Q33" s="109" t="s">
         <v>268</v>
       </c>
       <c r="R33" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="S33" s="90" t="s">
+      <c r="S33" s="91" t="s">
         <v>327</v>
       </c>
       <c r="T33" s="62" t="s">
         <v>365</v>
       </c>
-      <c r="U33" s="113"/>
-      <c r="V33" s="114"/>
-      <c r="W33" s="90" t="s">
+      <c r="U33" s="106"/>
+      <c r="V33" s="109"/>
+      <c r="W33" s="91" t="s">
         <v>407</v>
       </c>
       <c r="X33" s="55" t="s">
@@ -54099,66 +54403,66 @@
       <c r="AG33" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="AH33" s="124"/>
-      <c r="AI33" s="91"/>
-      <c r="AJ33" s="90"/>
-      <c r="AK33" s="90" t="s">
+      <c r="AH33" s="120"/>
+      <c r="AI33" s="90"/>
+      <c r="AJ33" s="91"/>
+      <c r="AK33" s="91" t="s">
         <v>45</v>
       </c>
       <c r="AL33" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="AM33" s="114" t="s">
+      <c r="AM33" s="109" t="s">
         <v>233</v>
       </c>
       <c r="AN33" s="92" t="s">
         <v>607</v>
       </c>
-      <c r="AO33" s="91"/>
+      <c r="AO33" s="90"/>
       <c r="AP33" s="94"/>
-      <c r="AQ33" s="109" t="s">
+      <c r="AQ33" s="104" t="s">
         <v>618</v>
       </c>
       <c r="AR33" s="94"/>
       <c r="AS33" s="94"/>
-      <c r="AT33" s="91" t="s">
+      <c r="AT33" s="90" t="s">
         <v>58</v>
       </c>
       <c r="AU33" s="94" t="s">
         <v>560</v>
       </c>
-      <c r="AV33" s="91"/>
+      <c r="AV33" s="90"/>
       <c r="AW33" s="92"/>
       <c r="AX33" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="AY33" s="101"/>
-      <c r="AZ33" s="101"/>
-      <c r="BA33" s="101"/>
-      <c r="BB33" s="90"/>
-      <c r="BC33" s="91" t="s">
+      <c r="AY33" s="98"/>
+      <c r="AZ33" s="98"/>
+      <c r="BA33" s="98"/>
+      <c r="BB33" s="91"/>
+      <c r="BC33" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="BD33" s="90"/>
-      <c r="BE33" s="90"/>
+      <c r="BD33" s="91"/>
+      <c r="BE33" s="91"/>
       <c r="BF33" s="92"/>
-      <c r="BG33" s="106"/>
+      <c r="BG33" s="100"/>
       <c r="BH33" s="55" t="s">
         <v>686</v>
       </c>
       <c r="BI33" s="51" t="s">
         <v>692</v>
       </c>
-      <c r="BJ33" s="104"/>
-      <c r="BK33" s="104"/>
-      <c r="BL33" s="128"/>
-      <c r="BM33" s="128"/>
-      <c r="BN33" s="91"/>
-      <c r="BO33" s="91"/>
-      <c r="BP33" s="101" t="s">
+      <c r="BJ33" s="122"/>
+      <c r="BK33" s="122"/>
+      <c r="BL33" s="126"/>
+      <c r="BM33" s="126"/>
+      <c r="BN33" s="90"/>
+      <c r="BO33" s="90"/>
+      <c r="BP33" s="98" t="s">
         <v>702</v>
       </c>
-      <c r="BQ33" s="90"/>
+      <c r="BQ33" s="91"/>
       <c r="BR33" s="93" t="s">
         <v>723</v>
       </c>
@@ -54181,21 +54485,21 @@
         <v>764</v>
       </c>
       <c r="BY33" s="140"/>
-      <c r="BZ33" s="90" t="s">
+      <c r="BZ33" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="CA33" s="90"/>
-      <c r="CB33" s="90"/>
-      <c r="CC33" s="90"/>
-      <c r="CD33" s="90" t="s">
+      <c r="CA33" s="91"/>
+      <c r="CB33" s="91"/>
+      <c r="CC33" s="91"/>
+      <c r="CD33" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="CE33" s="90"/>
-      <c r="CF33" s="91"/>
+      <c r="CE33" s="91"/>
+      <c r="CF33" s="90"/>
       <c r="CG33" s="92" t="s">
         <v>764</v>
       </c>
-      <c r="CH33" s="42"/>
+      <c r="CH33" s="92"/>
       <c r="CI33" s="65"/>
       <c r="CJ33" s="65"/>
       <c r="CK33" s="42"/>
@@ -54213,47 +54517,47 @@
       <c r="B34" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
       <c r="E34" s="62" t="s">
         <v>94</v>
       </c>
       <c r="F34" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="G34" s="105" t="s">
+      <c r="G34" s="99" t="s">
         <v>126</v>
       </c>
-      <c r="H34" s="111" t="s">
+      <c r="H34" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="I34" s="90" t="s">
+      <c r="I34" s="91" t="s">
         <v>183</v>
       </c>
-      <c r="J34" s="114" t="s">
+      <c r="J34" s="109" t="s">
         <v>204</v>
       </c>
-      <c r="K34" s="114"/>
-      <c r="L34" s="113"/>
-      <c r="M34" s="113" t="s">
+      <c r="K34" s="109"/>
+      <c r="L34" s="106"/>
+      <c r="M34" s="106" t="s">
         <v>255</v>
       </c>
-      <c r="N34" s="114"/>
-      <c r="O34" s="113"/>
-      <c r="P34" s="90"/>
-      <c r="Q34" s="114"/>
-      <c r="R34" s="105" t="s">
+      <c r="N34" s="109"/>
+      <c r="O34" s="106"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="109"/>
+      <c r="R34" s="99" t="s">
         <v>324</v>
       </c>
-      <c r="S34" s="90"/>
-      <c r="T34" s="90" t="s">
+      <c r="S34" s="91"/>
+      <c r="T34" s="91" t="s">
         <v>363</v>
       </c>
-      <c r="U34" s="113"/>
-      <c r="V34" s="106" t="s">
+      <c r="U34" s="106"/>
+      <c r="V34" s="100" t="s">
         <v>390</v>
       </c>
-      <c r="W34" s="90"/>
+      <c r="W34" s="91"/>
       <c r="X34" s="51" t="s">
         <v>424</v>
       </c>
@@ -54263,10 +54567,10 @@
       <c r="Z34" s="92" t="s">
         <v>418</v>
       </c>
-      <c r="AA34" s="101" t="s">
+      <c r="AA34" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="AB34" s="101" t="s">
+      <c r="AB34" s="98" t="s">
         <v>45</v>
       </c>
       <c r="AC34" s="55" t="s">
@@ -54275,48 +54579,48 @@
       <c r="AD34" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="AE34" s="101" t="s">
+      <c r="AE34" s="98" t="s">
         <v>522</v>
       </c>
       <c r="AF34" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="AG34" s="90" t="s">
+      <c r="AG34" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AH34" s="124"/>
-      <c r="AI34" s="90" t="s">
+      <c r="AH34" s="120"/>
+      <c r="AI34" s="91" t="s">
         <v>555</v>
       </c>
-      <c r="AJ34" s="113" t="s">
+      <c r="AJ34" s="106" t="s">
         <v>178</v>
       </c>
-      <c r="AK34" s="90"/>
+      <c r="AK34" s="91"/>
       <c r="AL34" s="94" t="s">
         <v>560</v>
       </c>
-      <c r="AM34" s="114"/>
+      <c r="AM34" s="109"/>
       <c r="AN34" s="92"/>
-      <c r="AO34" s="91"/>
+      <c r="AO34" s="90"/>
       <c r="AP34" s="94" t="s">
         <v>560</v>
       </c>
-      <c r="AQ34" s="109"/>
-      <c r="AR34" s="90" t="s">
+      <c r="AQ34" s="104"/>
+      <c r="AR34" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="AS34" s="91" t="s">
+      <c r="AS34" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AT34" s="91"/>
+      <c r="AT34" s="90"/>
       <c r="AU34" s="94"/>
-      <c r="AV34" s="90" t="s">
+      <c r="AV34" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AW34" s="90" t="s">
+      <c r="AW34" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AX34" s="105" t="s">
+      <c r="AX34" s="99" t="s">
         <v>657</v>
       </c>
       <c r="AY34" s="62" t="s">
@@ -54328,21 +54632,21 @@
       <c r="BA34" s="58" t="s">
         <v>667</v>
       </c>
-      <c r="BB34" s="105" t="s">
+      <c r="BB34" s="99" t="s">
         <v>672</v>
       </c>
-      <c r="BC34" s="91"/>
-      <c r="BD34" s="113" t="s">
+      <c r="BC34" s="90"/>
+      <c r="BD34" s="106" t="s">
         <v>670</v>
       </c>
-      <c r="BE34" s="91" t="s">
+      <c r="BE34" s="90" t="s">
         <v>58</v>
       </c>
       <c r="BF34" s="92"/>
-      <c r="BG34" s="91" t="s">
+      <c r="BG34" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BH34" s="91" t="s">
+      <c r="BH34" s="90" t="s">
         <v>13</v>
       </c>
       <c r="BI34" s="93" t="s">
@@ -54363,41 +54667,44 @@
       <c r="BN34" s="94" t="s">
         <v>697</v>
       </c>
-      <c r="BO34" s="91"/>
-      <c r="BP34" s="101"/>
-      <c r="BQ34" s="90"/>
+      <c r="BO34" s="90"/>
+      <c r="BP34" s="98"/>
+      <c r="BQ34" s="91"/>
       <c r="BR34" s="93"/>
       <c r="BS34" s="94"/>
       <c r="BT34" s="92"/>
       <c r="BU34" s="92"/>
-      <c r="BV34" s="90" t="s">
+      <c r="BV34" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="BW34" s="90" t="s">
+      <c r="BW34" s="91" t="s">
         <v>725</v>
       </c>
       <c r="BX34" s="92"/>
       <c r="BY34" s="89" t="s">
         <v>268</v>
       </c>
-      <c r="BZ34" s="90"/>
-      <c r="CA34" s="90" t="s">
+      <c r="BZ34" s="91"/>
+      <c r="CA34" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="CB34" s="90" t="s">
+      <c r="CB34" s="91" t="s">
         <v>725</v>
       </c>
       <c r="CC34" s="93" t="s">
         <v>783</v>
       </c>
-      <c r="CD34" s="90"/>
-      <c r="CE34" s="91" t="s">
+      <c r="CD34" s="91"/>
+      <c r="CE34" s="90" t="s">
         <v>13</v>
       </c>
       <c r="CF34" s="92" t="s">
         <v>764</v>
       </c>
       <c r="CG34" s="92"/>
+      <c r="CH34" s="92" t="s">
+        <v>800</v>
+      </c>
       <c r="CI34" s="2"/>
       <c r="CJ34" s="2"/>
       <c r="CP34" s="2"/>
@@ -54408,94 +54715,94 @@
         <v>0.937499999999999</v>
       </c>
       <c r="B35" s="92"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="101" t="s">
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="101" t="s">
+      <c r="F35" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="G35" s="105"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="114"/>
-      <c r="K35" s="101" t="s">
+      <c r="G35" s="99"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="L35" s="113"/>
-      <c r="M35" s="113"/>
+      <c r="L35" s="106"/>
+      <c r="M35" s="106"/>
       <c r="N35" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="O35" s="91" t="s">
+      <c r="O35" s="90" t="s">
         <v>277</v>
       </c>
       <c r="P35" s="55" t="s">
         <v>291</v>
       </c>
-      <c r="Q35" s="101" t="s">
+      <c r="Q35" s="98" t="s">
         <v>305</v>
       </c>
-      <c r="R35" s="105"/>
+      <c r="R35" s="99"/>
       <c r="S35" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="T35" s="90"/>
-      <c r="U35" s="91" t="s">
+      <c r="T35" s="91"/>
+      <c r="U35" s="90" t="s">
         <v>383</v>
       </c>
-      <c r="V35" s="106"/>
-      <c r="W35" s="90"/>
-      <c r="X35" s="101" t="s">
+      <c r="V35" s="100"/>
+      <c r="W35" s="91"/>
+      <c r="X35" s="98" t="s">
         <v>410</v>
       </c>
-      <c r="Y35" s="125" t="s">
+      <c r="Y35" s="103" t="s">
         <v>432</v>
       </c>
       <c r="Z35" s="92"/>
-      <c r="AA35" s="101"/>
-      <c r="AB35" s="101"/>
+      <c r="AA35" s="98"/>
+      <c r="AB35" s="98"/>
       <c r="AC35" s="54" t="s">
         <v>492</v>
       </c>
       <c r="AD35" s="60" t="s">
         <v>504</v>
       </c>
-      <c r="AE35" s="101"/>
+      <c r="AE35" s="98"/>
       <c r="AF35" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="AG35" s="90"/>
-      <c r="AH35" s="90" t="s">
+      <c r="AG35" s="91"/>
+      <c r="AH35" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AI35" s="90"/>
-      <c r="AJ35" s="113"/>
-      <c r="AK35" s="90" t="s">
+      <c r="AI35" s="91"/>
+      <c r="AJ35" s="106"/>
+      <c r="AK35" s="91" t="s">
         <v>45</v>
       </c>
       <c r="AL35" s="94"/>
-      <c r="AM35" s="90" t="s">
+      <c r="AM35" s="91" t="s">
         <v>45</v>
       </c>
       <c r="AN35" s="92"/>
-      <c r="AO35" s="91"/>
+      <c r="AO35" s="90"/>
       <c r="AP35" s="94"/>
       <c r="AQ35" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="AR35" s="90"/>
-      <c r="AS35" s="91"/>
-      <c r="AT35" s="90" t="s">
+      <c r="AR35" s="91"/>
+      <c r="AS35" s="90"/>
+      <c r="AT35" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AU35" s="109" t="s">
+      <c r="AU35" s="104" t="s">
         <v>632</v>
       </c>
-      <c r="AV35" s="90"/>
-      <c r="AW35" s="90"/>
-      <c r="AX35" s="105"/>
+      <c r="AV35" s="91"/>
+      <c r="AW35" s="91"/>
+      <c r="AX35" s="99"/>
       <c r="AY35" s="57" t="s">
         <v>662</v>
       </c>
@@ -54505,60 +54812,61 @@
       <c r="BA35" s="58" t="s">
         <v>670</v>
       </c>
-      <c r="BB35" s="105"/>
+      <c r="BB35" s="99"/>
       <c r="BC35" s="92" t="s">
         <v>670</v>
       </c>
-      <c r="BD35" s="113"/>
-      <c r="BE35" s="91"/>
+      <c r="BD35" s="106"/>
+      <c r="BE35" s="90"/>
       <c r="BF35" s="92"/>
-      <c r="BG35" s="91"/>
-      <c r="BH35" s="91"/>
+      <c r="BG35" s="90"/>
+      <c r="BH35" s="90"/>
       <c r="BI35" s="93"/>
       <c r="BJ35" s="93"/>
       <c r="BK35" s="93"/>
       <c r="BL35" s="93"/>
       <c r="BM35" s="93"/>
       <c r="BN35" s="94"/>
-      <c r="BO35" s="91"/>
-      <c r="BP35" s="106" t="s">
+      <c r="BO35" s="90"/>
+      <c r="BP35" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="BQ35" s="90"/>
-      <c r="BR35" s="102" t="s">
+      <c r="BQ35" s="91"/>
+      <c r="BR35" s="121" t="s">
         <v>691</v>
       </c>
       <c r="BS35" s="11" t="s">
         <v>724</v>
       </c>
-      <c r="BT35" s="97" t="s">
+      <c r="BT35" s="105" t="s">
         <v>730</v>
       </c>
-      <c r="BU35" s="95" t="s">
+      <c r="BU35" s="134" t="s">
         <v>619</v>
       </c>
-      <c r="BV35" s="90"/>
-      <c r="BW35" s="90"/>
+      <c r="BV35" s="91"/>
+      <c r="BW35" s="91"/>
       <c r="BX35" s="89" t="s">
         <v>268</v>
       </c>
       <c r="BY35" s="139" t="s">
         <v>780</v>
       </c>
-      <c r="BZ35" s="90" t="s">
+      <c r="BZ35" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="CA35" s="90"/>
-      <c r="CB35" s="90"/>
+      <c r="CA35" s="91"/>
+      <c r="CB35" s="91"/>
       <c r="CC35" s="93"/>
-      <c r="CD35" s="90" t="s">
+      <c r="CD35" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="CE35" s="91"/>
+      <c r="CE35" s="90"/>
       <c r="CF35" s="92"/>
       <c r="CG35" s="92" t="s">
         <v>800</v>
       </c>
+      <c r="CH35" s="92"/>
       <c r="CI35" s="2"/>
       <c r="CJ35" s="2"/>
       <c r="CP35" s="2"/>
@@ -54568,59 +54876,59 @@
       <c r="A36" s="10">
         <v>0.95833333333333304</v>
       </c>
-      <c r="B36" s="106" t="s">
+      <c r="B36" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="106"/>
-      <c r="D36" s="91" t="s">
+      <c r="C36" s="100"/>
+      <c r="D36" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="91" t="s">
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="I36" s="106" t="s">
+      <c r="I36" s="100" t="s">
         <v>184</v>
       </c>
-      <c r="J36" s="91" t="s">
+      <c r="J36" s="90" t="s">
         <v>197</v>
       </c>
-      <c r="K36" s="101"/>
+      <c r="K36" s="98"/>
       <c r="L36" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="M36" s="106" t="s">
+      <c r="M36" s="100" t="s">
         <v>253</v>
       </c>
-      <c r="N36" s="101" t="s">
+      <c r="N36" s="98" t="s">
         <v>270</v>
       </c>
-      <c r="O36" s="91"/>
-      <c r="P36" s="91" t="s">
+      <c r="O36" s="90"/>
+      <c r="P36" s="90" t="s">
         <v>292</v>
       </c>
-      <c r="Q36" s="101"/>
-      <c r="R36" s="91" t="s">
+      <c r="Q36" s="98"/>
+      <c r="R36" s="90" t="s">
         <v>323</v>
       </c>
-      <c r="S36" s="91" t="s">
+      <c r="S36" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="T36" s="105" t="s">
+      <c r="T36" s="99" t="s">
         <v>370</v>
       </c>
-      <c r="U36" s="91"/>
-      <c r="V36" s="91" t="s">
+      <c r="U36" s="90"/>
+      <c r="V36" s="90" t="s">
         <v>384</v>
       </c>
-      <c r="W36" s="91" t="s">
+      <c r="W36" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="X36" s="101"/>
-      <c r="Y36" s="125"/>
-      <c r="Z36" s="91" t="s">
+      <c r="X36" s="98"/>
+      <c r="Y36" s="103"/>
+      <c r="Z36" s="90" t="s">
         <v>13</v>
       </c>
       <c r="AA36" s="57" t="s">
@@ -54629,80 +54937,80 @@
       <c r="AB36" s="56" t="s">
         <v>479</v>
       </c>
-      <c r="AC36" s="101" t="s">
+      <c r="AC36" s="98" t="s">
         <v>45</v>
       </c>
       <c r="AD36" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="AE36" s="91" t="s">
+      <c r="AE36" s="90" t="s">
         <v>523</v>
       </c>
-      <c r="AF36" s="91" t="s">
+      <c r="AF36" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AG36" s="91" t="s">
+      <c r="AG36" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AH36" s="90"/>
+      <c r="AH36" s="91"/>
       <c r="AI36" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="AJ36" s="91" t="s">
+      <c r="AJ36" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AK36" s="90"/>
-      <c r="AL36" s="91" t="s">
+      <c r="AK36" s="91"/>
+      <c r="AL36" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AM36" s="90"/>
+      <c r="AM36" s="91"/>
       <c r="AN36" s="92"/>
-      <c r="AO36" s="91"/>
+      <c r="AO36" s="90"/>
       <c r="AP36" s="94"/>
-      <c r="AQ36" s="91" t="s">
+      <c r="AQ36" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AR36" s="91" t="s">
+      <c r="AR36" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AS36" s="90" t="s">
+      <c r="AS36" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AT36" s="90"/>
-      <c r="AU36" s="109"/>
-      <c r="AV36" s="91" t="s">
+      <c r="AT36" s="91"/>
+      <c r="AU36" s="104"/>
+      <c r="AV36" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AW36" s="91" t="s">
+      <c r="AW36" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AX36" s="105"/>
-      <c r="AY36" s="106" t="s">
+      <c r="AX36" s="99"/>
+      <c r="AY36" s="100" t="s">
         <v>177</v>
       </c>
-      <c r="AZ36" s="91" t="s">
+      <c r="AZ36" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BA36" s="91" t="s">
+      <c r="BA36" s="90" t="s">
         <v>13</v>
       </c>
       <c r="BB36" s="92" t="s">
         <v>673</v>
       </c>
       <c r="BC36" s="92"/>
-      <c r="BD36" s="91" t="s">
+      <c r="BD36" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BE36" s="91" t="s">
+      <c r="BE36" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="BF36" s="91" t="s">
+      <c r="BF36" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BG36" s="91" t="s">
+      <c r="BG36" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BH36" s="91" t="s">
+      <c r="BH36" s="90" t="s">
         <v>13</v>
       </c>
       <c r="BI36" s="93" t="s">
@@ -54723,38 +55031,38 @@
       <c r="BN36" s="94" t="s">
         <v>697</v>
       </c>
-      <c r="BO36" s="91"/>
-      <c r="BP36" s="106"/>
-      <c r="BQ36" s="91" t="s">
+      <c r="BO36" s="90"/>
+      <c r="BP36" s="100"/>
+      <c r="BQ36" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="BR36" s="103"/>
-      <c r="BS36" s="91" t="s">
+      <c r="BR36" s="123"/>
+      <c r="BS36" s="90" t="s">
         <v>13</v>
       </c>
       <c r="BT36" s="94"/>
-      <c r="BU36" s="96"/>
-      <c r="BV36" s="90" t="s">
+      <c r="BU36" s="135"/>
+      <c r="BV36" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="BW36" s="90" t="s">
+      <c r="BW36" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="BX36" s="91" t="s">
+      <c r="BX36" s="90" t="s">
         <v>13</v>
       </c>
       <c r="BY36" s="140"/>
-      <c r="BZ36" s="90"/>
-      <c r="CA36" s="90" t="s">
+      <c r="BZ36" s="91"/>
+      <c r="CA36" s="91" t="s">
         <v>725</v>
       </c>
       <c r="CB36" s="93" t="s">
         <v>783</v>
       </c>
-      <c r="CC36" s="91" t="s">
+      <c r="CC36" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="CD36" s="90"/>
+      <c r="CD36" s="91"/>
       <c r="CE36" s="92" t="s">
         <v>15</v>
       </c>
@@ -54762,6 +55070,9 @@
         <v>800</v>
       </c>
       <c r="CG36" s="92"/>
+      <c r="CH36" s="90" t="s">
+        <v>13</v>
+      </c>
       <c r="CI36" s="2"/>
       <c r="CJ36" s="2"/>
       <c r="CP36" s="2"/>
@@ -54771,126 +55082,126 @@
       <c r="A37" s="10">
         <v>0.97916666666666596</v>
       </c>
-      <c r="B37" s="106"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="91"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="91"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="90"/>
       <c r="K37" s="57" t="s">
         <v>228</v>
       </c>
       <c r="L37" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="M37" s="106"/>
-      <c r="N37" s="101"/>
+      <c r="M37" s="100"/>
+      <c r="N37" s="98"/>
       <c r="O37" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="P37" s="91"/>
+      <c r="P37" s="90"/>
       <c r="Q37" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="R37" s="91"/>
-      <c r="S37" s="91"/>
-      <c r="T37" s="105"/>
-      <c r="U37" s="91"/>
-      <c r="V37" s="91"/>
-      <c r="W37" s="91"/>
+      <c r="R37" s="90"/>
+      <c r="S37" s="90"/>
+      <c r="T37" s="99"/>
+      <c r="U37" s="90"/>
+      <c r="V37" s="90"/>
+      <c r="W37" s="90"/>
       <c r="X37" s="51" t="s">
         <v>13</v>
       </c>
       <c r="Y37" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="Z37" s="91"/>
+      <c r="Z37" s="90"/>
       <c r="AA37" s="51" t="s">
         <v>13</v>
       </c>
       <c r="AB37" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AC37" s="101"/>
+      <c r="AC37" s="98"/>
       <c r="AD37" s="57" t="s">
         <v>505</v>
       </c>
-      <c r="AE37" s="91"/>
-      <c r="AF37" s="91"/>
-      <c r="AG37" s="91"/>
+      <c r="AE37" s="90"/>
+      <c r="AF37" s="90"/>
+      <c r="AG37" s="90"/>
       <c r="AH37" s="55" t="s">
         <v>96</v>
       </c>
       <c r="AI37" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="AJ37" s="91"/>
+      <c r="AJ37" s="90"/>
       <c r="AK37" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AL37" s="91"/>
+      <c r="AL37" s="90"/>
       <c r="AM37" s="55" t="s">
         <v>96</v>
       </c>
       <c r="AN37" s="53" t="s">
         <v>608</v>
       </c>
-      <c r="AO37" s="91"/>
+      <c r="AO37" s="90"/>
       <c r="AP37" s="94"/>
-      <c r="AQ37" s="91"/>
-      <c r="AR37" s="91"/>
-      <c r="AS37" s="90"/>
+      <c r="AQ37" s="90"/>
+      <c r="AR37" s="90"/>
+      <c r="AS37" s="91"/>
       <c r="AT37" s="51" t="s">
         <v>13</v>
       </c>
       <c r="AU37" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="AV37" s="91"/>
-      <c r="AW37" s="91"/>
-      <c r="AX37" s="105"/>
-      <c r="AY37" s="106"/>
-      <c r="AZ37" s="91"/>
-      <c r="BA37" s="91"/>
+      <c r="AV37" s="90"/>
+      <c r="AW37" s="90"/>
+      <c r="AX37" s="99"/>
+      <c r="AY37" s="100"/>
+      <c r="AZ37" s="90"/>
+      <c r="BA37" s="90"/>
       <c r="BB37" s="92"/>
       <c r="BC37" s="55" t="s">
         <v>676</v>
       </c>
-      <c r="BD37" s="91"/>
-      <c r="BE37" s="91"/>
-      <c r="BF37" s="91"/>
-      <c r="BG37" s="91"/>
-      <c r="BH37" s="91"/>
+      <c r="BD37" s="90"/>
+      <c r="BE37" s="90"/>
+      <c r="BF37" s="90"/>
+      <c r="BG37" s="90"/>
+      <c r="BH37" s="90"/>
       <c r="BI37" s="93"/>
       <c r="BJ37" s="93"/>
       <c r="BK37" s="93"/>
       <c r="BL37" s="93"/>
       <c r="BM37" s="93"/>
       <c r="BN37" s="94"/>
-      <c r="BO37" s="91"/>
-      <c r="BP37" s="106"/>
-      <c r="BQ37" s="91"/>
-      <c r="BR37" s="104"/>
-      <c r="BS37" s="91"/>
+      <c r="BO37" s="90"/>
+      <c r="BP37" s="100"/>
+      <c r="BQ37" s="90"/>
+      <c r="BR37" s="122"/>
+      <c r="BS37" s="90"/>
       <c r="BT37" s="72" t="s">
         <v>732</v>
       </c>
-      <c r="BU37" s="96"/>
-      <c r="BV37" s="90"/>
-      <c r="BW37" s="90"/>
-      <c r="BX37" s="91"/>
+      <c r="BU37" s="135"/>
+      <c r="BV37" s="91"/>
+      <c r="BW37" s="91"/>
+      <c r="BX37" s="90"/>
       <c r="BY37" s="13" t="s">
         <v>782</v>
       </c>
       <c r="BZ37" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="CA37" s="90"/>
+      <c r="CA37" s="91"/>
       <c r="CB37" s="93"/>
-      <c r="CC37" s="91"/>
+      <c r="CC37" s="90"/>
       <c r="CD37" s="71" t="s">
         <v>99</v>
       </c>
@@ -54899,6 +55210,7 @@
       <c r="CG37" s="12" t="s">
         <v>804</v>
       </c>
+      <c r="CH37" s="90"/>
       <c r="CI37" s="2"/>
       <c r="CJ37" s="2"/>
       <c r="CP37" s="2"/>
@@ -62205,7 +62517,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1067">
+  <mergeCells count="1089">
     <mergeCell ref="CG2:CG3"/>
     <mergeCell ref="CF28:CF29"/>
     <mergeCell ref="CF30:CF31"/>
@@ -62238,33 +62550,6 @@
     <mergeCell ref="CG27:CG28"/>
     <mergeCell ref="CG33:CG34"/>
     <mergeCell ref="CG35:CG36"/>
-    <mergeCell ref="CC32:CC33"/>
-    <mergeCell ref="CC34:CC35"/>
-    <mergeCell ref="CC36:CC37"/>
-    <mergeCell ref="CB22:CB23"/>
-    <mergeCell ref="CB26:CB27"/>
-    <mergeCell ref="CB24:CB25"/>
-    <mergeCell ref="CB36:CB37"/>
-    <mergeCell ref="CA36:CA37"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="CA6:CA7"/>
-    <mergeCell ref="CB6:CB7"/>
-    <mergeCell ref="CA16:CA17"/>
-    <mergeCell ref="CA18:CA19"/>
-    <mergeCell ref="CA20:CA21"/>
-    <mergeCell ref="CA26:CA27"/>
-    <mergeCell ref="CC4:CC5"/>
-    <mergeCell ref="CC6:CC7"/>
-    <mergeCell ref="CC8:CC9"/>
-    <mergeCell ref="CC10:CC11"/>
-    <mergeCell ref="CC12:CC13"/>
-    <mergeCell ref="CC14:CC15"/>
-    <mergeCell ref="CC16:CC17"/>
-    <mergeCell ref="CC18:CC19"/>
-    <mergeCell ref="CB20:CB21"/>
-    <mergeCell ref="CB2:CB3"/>
-    <mergeCell ref="CC2:CC3"/>
     <mergeCell ref="CD2:CD3"/>
     <mergeCell ref="CD4:CD5"/>
     <mergeCell ref="BZ31:BZ32"/>
@@ -62295,9 +62580,8 @@
     <mergeCell ref="CD11:CD12"/>
     <mergeCell ref="CD13:CD14"/>
     <mergeCell ref="CD15:CD16"/>
-    <mergeCell ref="BZ21:BZ22"/>
-    <mergeCell ref="BZ9:BZ10"/>
-    <mergeCell ref="BZ11:BZ12"/>
+    <mergeCell ref="CC32:CC33"/>
+    <mergeCell ref="CC34:CC35"/>
     <mergeCell ref="BZ7:BZ8"/>
     <mergeCell ref="CB12:CB13"/>
     <mergeCell ref="CB14:CB15"/>
@@ -62313,6 +62597,23 @@
     <mergeCell ref="BZ17:BZ18"/>
     <mergeCell ref="BZ19:BZ20"/>
     <mergeCell ref="BZ23:BZ24"/>
+    <mergeCell ref="CB2:CB3"/>
+    <mergeCell ref="CC2:CC3"/>
+    <mergeCell ref="CB22:CB23"/>
+    <mergeCell ref="CB26:CB27"/>
+    <mergeCell ref="CB24:CB25"/>
+    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="CA6:CA7"/>
+    <mergeCell ref="CB6:CB7"/>
+    <mergeCell ref="CA16:CA17"/>
+    <mergeCell ref="CA18:CA19"/>
+    <mergeCell ref="CA20:CA21"/>
+    <mergeCell ref="CA26:CA27"/>
+    <mergeCell ref="CC4:CC5"/>
+    <mergeCell ref="CC6:CC7"/>
+    <mergeCell ref="CC8:CC9"/>
+    <mergeCell ref="CC10:CC11"/>
     <mergeCell ref="BZ2:BZ6"/>
     <mergeCell ref="CA2:CA3"/>
     <mergeCell ref="BX36:BX37"/>
@@ -62364,6 +62665,19 @@
     <mergeCell ref="BW26:BW27"/>
     <mergeCell ref="BW30:BW31"/>
     <mergeCell ref="BW22:BW23"/>
+    <mergeCell ref="BQ32:BQ35"/>
+    <mergeCell ref="BQ36:BQ37"/>
+    <mergeCell ref="BR35:BR37"/>
+    <mergeCell ref="BS33:BS34"/>
+    <mergeCell ref="BS36:BS37"/>
+    <mergeCell ref="BU33:BU34"/>
+    <mergeCell ref="BU35:BU37"/>
+    <mergeCell ref="BT33:BT34"/>
+    <mergeCell ref="BT35:BT36"/>
+    <mergeCell ref="BR33:BR34"/>
+    <mergeCell ref="BV25:BV26"/>
+    <mergeCell ref="BV27:BV28"/>
+    <mergeCell ref="BV29:BV30"/>
     <mergeCell ref="BQ2:BQ3"/>
     <mergeCell ref="BQ4:BQ5"/>
     <mergeCell ref="BS2:BS3"/>
@@ -62382,8 +62696,6 @@
     <mergeCell ref="BR15:BR16"/>
     <mergeCell ref="BR17:BR18"/>
     <mergeCell ref="BR8:BR9"/>
-    <mergeCell ref="AV18:AV19"/>
-    <mergeCell ref="BO27:BO28"/>
     <mergeCell ref="BP8:BP11"/>
     <mergeCell ref="BP12:BP13"/>
     <mergeCell ref="BP14:BP15"/>
@@ -62437,21 +62749,9 @@
     <mergeCell ref="BI15:BI16"/>
     <mergeCell ref="BI17:BI18"/>
     <mergeCell ref="BI19:BI20"/>
-    <mergeCell ref="BH21:BH23"/>
-    <mergeCell ref="BL25:BL27"/>
-    <mergeCell ref="BM25:BM27"/>
-    <mergeCell ref="BG22:BG23"/>
-    <mergeCell ref="BG24:BG25"/>
-    <mergeCell ref="BG26:BG27"/>
     <mergeCell ref="BH6:BH7"/>
     <mergeCell ref="BH8:BH10"/>
     <mergeCell ref="BH11:BH12"/>
-    <mergeCell ref="BH13:BH14"/>
-    <mergeCell ref="BH15:BH16"/>
-    <mergeCell ref="BH17:BH18"/>
-    <mergeCell ref="BH19:BH20"/>
-    <mergeCell ref="BH24:BH25"/>
-    <mergeCell ref="BI21:BI22"/>
     <mergeCell ref="BN29:BN31"/>
     <mergeCell ref="BN32:BN33"/>
     <mergeCell ref="BN34:BN35"/>
@@ -62478,6 +62778,9 @@
     <mergeCell ref="BO25:BO26"/>
     <mergeCell ref="BO29:BO37"/>
     <mergeCell ref="BL6:BL7"/>
+    <mergeCell ref="BO27:BO28"/>
+    <mergeCell ref="BL25:BL27"/>
+    <mergeCell ref="BM25:BM27"/>
     <mergeCell ref="BM6:BM7"/>
     <mergeCell ref="BG36:BG37"/>
     <mergeCell ref="BH36:BH37"/>
@@ -62502,6 +62805,14 @@
     <mergeCell ref="BI27:BI28"/>
     <mergeCell ref="BL28:BL29"/>
     <mergeCell ref="BM28:BM29"/>
+    <mergeCell ref="BM22:BM24"/>
+    <mergeCell ref="BH13:BH14"/>
+    <mergeCell ref="BH15:BH16"/>
+    <mergeCell ref="BH17:BH18"/>
+    <mergeCell ref="BH19:BH20"/>
+    <mergeCell ref="BH24:BH25"/>
+    <mergeCell ref="BI21:BI22"/>
+    <mergeCell ref="BH21:BH23"/>
     <mergeCell ref="BD34:BD35"/>
     <mergeCell ref="BD36:BD37"/>
     <mergeCell ref="BF12:BF23"/>
@@ -62580,14 +62891,19 @@
     <mergeCell ref="AM4:AM9"/>
     <mergeCell ref="AM10:AM11"/>
     <mergeCell ref="AM13:AM15"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AL7:AL9"/>
-    <mergeCell ref="AL11:AL13"/>
-    <mergeCell ref="AL15:AL16"/>
-    <mergeCell ref="AM16:AM17"/>
-    <mergeCell ref="AL17:AL19"/>
-    <mergeCell ref="AM18:AM19"/>
+    <mergeCell ref="AQ33:AQ34"/>
+    <mergeCell ref="AQ36:AQ37"/>
+    <mergeCell ref="AS20:AS21"/>
+    <mergeCell ref="AS22:AS23"/>
+    <mergeCell ref="AS24:AS25"/>
+    <mergeCell ref="AS26:AS27"/>
+    <mergeCell ref="AS28:AS29"/>
+    <mergeCell ref="AS30:AS33"/>
+    <mergeCell ref="AS34:AS35"/>
+    <mergeCell ref="AS36:AS37"/>
+    <mergeCell ref="AU16:AU19"/>
+    <mergeCell ref="AU20:AU23"/>
+    <mergeCell ref="AU35:AU36"/>
     <mergeCell ref="AF36:AF37"/>
     <mergeCell ref="AE25:AE27"/>
     <mergeCell ref="AF24:AF25"/>
@@ -62612,7 +62928,6 @@
     <mergeCell ref="AK35:AK36"/>
     <mergeCell ref="AL31:AL32"/>
     <mergeCell ref="AI25:AI30"/>
-    <mergeCell ref="AJ30:AJ31"/>
     <mergeCell ref="AG36:AG37"/>
     <mergeCell ref="AG31:AG32"/>
     <mergeCell ref="AG34:AG35"/>
@@ -62640,6 +62955,11 @@
     <mergeCell ref="AO29:AO30"/>
     <mergeCell ref="AN33:AN36"/>
     <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AH11:AH12"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AL7:AL9"/>
+    <mergeCell ref="AL11:AL13"/>
     <mergeCell ref="U32:U34"/>
     <mergeCell ref="AH35:AH36"/>
     <mergeCell ref="AI34:AI35"/>
@@ -62766,11 +63086,6 @@
     <mergeCell ref="P30:P32"/>
     <mergeCell ref="O27:O28"/>
     <mergeCell ref="P9:P11"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="N11:N13"/>
     <mergeCell ref="L33:L35"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="L6:L7"/>
@@ -62817,6 +63132,11 @@
     <mergeCell ref="J29:J30"/>
     <mergeCell ref="J25:J27"/>
     <mergeCell ref="J31:J32"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="N11:N13"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="B18:B19"/>
@@ -62996,7 +63316,6 @@
     <mergeCell ref="AE23:AE24"/>
     <mergeCell ref="AF8:AF10"/>
     <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="AH11:AH12"/>
     <mergeCell ref="AD18:AD21"/>
     <mergeCell ref="AF11:AF12"/>
     <mergeCell ref="AF13:AF21"/>
@@ -63017,8 +63336,11 @@
     <mergeCell ref="AJ26:AJ27"/>
     <mergeCell ref="AJ28:AJ29"/>
     <mergeCell ref="AE30:AE32"/>
-    <mergeCell ref="AQ33:AQ34"/>
-    <mergeCell ref="AQ36:AQ37"/>
+    <mergeCell ref="AJ30:AJ31"/>
+    <mergeCell ref="AL15:AL16"/>
+    <mergeCell ref="AM16:AM17"/>
+    <mergeCell ref="AL17:AL19"/>
+    <mergeCell ref="AM18:AM19"/>
     <mergeCell ref="AR2:AR3"/>
     <mergeCell ref="AR4:AR5"/>
     <mergeCell ref="AR6:AR7"/>
@@ -63039,14 +63361,6 @@
     <mergeCell ref="AQ6:AQ11"/>
     <mergeCell ref="AQ13:AQ19"/>
     <mergeCell ref="AQ20:AQ26"/>
-    <mergeCell ref="AS20:AS21"/>
-    <mergeCell ref="AS22:AS23"/>
-    <mergeCell ref="AS24:AS25"/>
-    <mergeCell ref="AS26:AS27"/>
-    <mergeCell ref="AS28:AS29"/>
-    <mergeCell ref="AS30:AS33"/>
-    <mergeCell ref="AS34:AS35"/>
-    <mergeCell ref="AS36:AS37"/>
     <mergeCell ref="AS2:AS3"/>
     <mergeCell ref="AS4:AS5"/>
     <mergeCell ref="AS6:AS7"/>
@@ -63079,9 +63393,6 @@
     <mergeCell ref="AU8:AU9"/>
     <mergeCell ref="AU10:AU13"/>
     <mergeCell ref="AU14:AU15"/>
-    <mergeCell ref="AU16:AU19"/>
-    <mergeCell ref="AU20:AU23"/>
-    <mergeCell ref="AU35:AU36"/>
     <mergeCell ref="AU26:AU30"/>
     <mergeCell ref="AV20:AV23"/>
     <mergeCell ref="AV24:AV25"/>
@@ -63140,6 +63451,10 @@
     <mergeCell ref="BE22:BE23"/>
     <mergeCell ref="BD8:BD9"/>
     <mergeCell ref="BC2:BC5"/>
+    <mergeCell ref="AV18:AV19"/>
+    <mergeCell ref="BG22:BG23"/>
+    <mergeCell ref="BG24:BG25"/>
+    <mergeCell ref="BG26:BG27"/>
     <mergeCell ref="BJ2:BJ3"/>
     <mergeCell ref="BJ4:BJ5"/>
     <mergeCell ref="BJ6:BJ8"/>
@@ -63189,9 +63504,6 @@
     <mergeCell ref="BP19:BP20"/>
     <mergeCell ref="BP21:BP22"/>
     <mergeCell ref="BP24:BP25"/>
-    <mergeCell ref="BQ32:BQ35"/>
-    <mergeCell ref="BQ36:BQ37"/>
-    <mergeCell ref="BM22:BM24"/>
     <mergeCell ref="BU2:BU3"/>
     <mergeCell ref="BU4:BU5"/>
     <mergeCell ref="BU6:BU7"/>
@@ -63213,25 +63525,14 @@
     <mergeCell ref="BU21:BU22"/>
     <mergeCell ref="BU23:BU24"/>
     <mergeCell ref="BS30:BS31"/>
-    <mergeCell ref="BR35:BR37"/>
-    <mergeCell ref="BS33:BS34"/>
-    <mergeCell ref="BS36:BS37"/>
     <mergeCell ref="BT6:BT7"/>
     <mergeCell ref="BT8:BT9"/>
     <mergeCell ref="BT10:BT11"/>
     <mergeCell ref="BS8:BS9"/>
-    <mergeCell ref="BU33:BU34"/>
-    <mergeCell ref="BU35:BU37"/>
     <mergeCell ref="BU25:BU26"/>
     <mergeCell ref="BU27:BU28"/>
     <mergeCell ref="BU29:BU30"/>
     <mergeCell ref="BU31:BU32"/>
-    <mergeCell ref="BT33:BT34"/>
-    <mergeCell ref="BT35:BT36"/>
-    <mergeCell ref="BR33:BR34"/>
-    <mergeCell ref="BV25:BV26"/>
-    <mergeCell ref="BV27:BV28"/>
-    <mergeCell ref="BV29:BV30"/>
     <mergeCell ref="BV36:BV37"/>
     <mergeCell ref="BV9:BV10"/>
     <mergeCell ref="BV11:BV12"/>
@@ -63252,6 +63553,17 @@
     <mergeCell ref="CD31:CD32"/>
     <mergeCell ref="CD33:CD34"/>
     <mergeCell ref="CD35:CD36"/>
+    <mergeCell ref="BZ21:BZ22"/>
+    <mergeCell ref="BZ9:BZ10"/>
+    <mergeCell ref="BZ11:BZ12"/>
+    <mergeCell ref="CC36:CC37"/>
+    <mergeCell ref="CB36:CB37"/>
+    <mergeCell ref="CA36:CA37"/>
+    <mergeCell ref="CC12:CC13"/>
+    <mergeCell ref="CC14:CC15"/>
+    <mergeCell ref="CC16:CC17"/>
+    <mergeCell ref="CC18:CC19"/>
+    <mergeCell ref="CB20:CB21"/>
     <mergeCell ref="CE36:CE37"/>
     <mergeCell ref="CF2:CF3"/>
     <mergeCell ref="CF24:CF25"/>
@@ -63273,6 +63585,28 @@
     <mergeCell ref="CE30:CE31"/>
     <mergeCell ref="CE32:CE33"/>
     <mergeCell ref="CE34:CE35"/>
+    <mergeCell ref="CH36:CH37"/>
+    <mergeCell ref="CI2:CI3"/>
+    <mergeCell ref="CI4:CI5"/>
+    <mergeCell ref="CI6:CI7"/>
+    <mergeCell ref="CI8:CI9"/>
+    <mergeCell ref="CH4:CH5"/>
+    <mergeCell ref="CH6:CH7"/>
+    <mergeCell ref="CH8:CH9"/>
+    <mergeCell ref="CH10:CH11"/>
+    <mergeCell ref="CH2:CH3"/>
+    <mergeCell ref="CH12:CH13"/>
+    <mergeCell ref="CH14:CH15"/>
+    <mergeCell ref="CH16:CH17"/>
+    <mergeCell ref="CH18:CH19"/>
+    <mergeCell ref="CH20:CH21"/>
+    <mergeCell ref="CH22:CH23"/>
+    <mergeCell ref="CH24:CH25"/>
+    <mergeCell ref="CH26:CH27"/>
+    <mergeCell ref="CH28:CH29"/>
+    <mergeCell ref="CH30:CH31"/>
+    <mergeCell ref="CH32:CH33"/>
+    <mergeCell ref="CH34:CH35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -66532,8 +66866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0555D42-9524-4DCC-9FF3-B666156D722A}">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13:W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -68248,7 +68582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2447C391-5FD6-4ADB-8FEF-C1492C9034AF}">
   <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
@@ -71490,7 +71824,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -72849,6 +73183,9 @@
       <c r="B62">
         <v>10</v>
       </c>
+      <c r="C62" t="s">
+        <v>809</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
@@ -72888,6 +73225,9 @@
       </c>
       <c r="B67">
         <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
